--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -124,10 +124,10 @@
     <t>Derry City</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
+    <t>Drogheda United</t>
   </si>
   <si>
-    <t>Drogheda United</t>
+    <t>Bohemians Dublin</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
@@ -797,7 +797,7 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6053170</v>
+        <v>6043218</v>
       </c>
       <c r="C10" t="s">
         <v>28</v>
@@ -1331,73 +1331,73 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>2.625</v>
+        <v>6.5</v>
       </c>
       <c r="L10">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M10">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="N10">
-        <v>2.3</v>
+        <v>7.5</v>
       </c>
       <c r="O10">
-        <v>3</v>
+        <v>4.2</v>
       </c>
       <c r="P10">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="Q10">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R10">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S10">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T10">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U10">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V10">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W10">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="X10">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Y10">
         <v>-1</v>
       </c>
       <c r="Z10">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC10">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:29">
@@ -1405,7 +1405,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6043218</v>
+        <v>6053170</v>
       </c>
       <c r="C11" t="s">
         <v>28</v>
@@ -1420,73 +1420,73 @@
         <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>6.5</v>
+        <v>2.625</v>
       </c>
       <c r="L11">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M11">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="N11">
-        <v>7.5</v>
+        <v>2.3</v>
       </c>
       <c r="O11">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="P11">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="Q11">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R11">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S11">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T11">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U11">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V11">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="X11">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Y11">
         <v>-1</v>
       </c>
       <c r="Z11">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA11">
         <v>-1</v>
       </c>
       <c r="AB11">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC11">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" spans="1:29">
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053175</v>
+        <v>6053177</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,10 +1506,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" t="s">
         <v>37</v>
-      </c>
-      <c r="G12" t="s">
-        <v>33</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1521,19 +1521,19 @@
         <v>43</v>
       </c>
       <c r="K12">
+        <v>2.25</v>
+      </c>
+      <c r="L12">
+        <v>3.1</v>
+      </c>
+      <c r="M12">
+        <v>3.1</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
         <v>2.9</v>
-      </c>
-      <c r="L12">
-        <v>3.25</v>
-      </c>
-      <c r="M12">
-        <v>2.25</v>
-      </c>
-      <c r="N12">
-        <v>2.75</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
       </c>
       <c r="P12">
         <v>2.375</v>
@@ -1542,22 +1542,22 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S12">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T12">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U12">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V12">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1566,7 +1566,7 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA12">
         <v>-1</v>
@@ -1575,7 +1575,7 @@
         <v>-1</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053177</v>
+        <v>6053176</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,13 +1595,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1610,43 +1610,43 @@
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P13">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S13">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1655,16 +1655,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053176</v>
+        <v>6053175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,13 +1684,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1699,22 +1699,22 @@
         <v>43</v>
       </c>
       <c r="K14">
-        <v>2.45</v>
+        <v>2.9</v>
       </c>
       <c r="L14">
         <v>3.25</v>
       </c>
       <c r="M14">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
         <v>2.75</v>
       </c>
       <c r="O14">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q14">
         <v>0</v>
@@ -1729,10 +1729,10 @@
         <v>2.25</v>
       </c>
       <c r="U14">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="W14">
         <v>1.75</v>
@@ -1750,10 +1750,10 @@
         <v>-1</v>
       </c>
       <c r="AB14">
+        <v>-1</v>
+      </c>
+      <c r="AC14">
         <v>1</v>
-      </c>
-      <c r="AC14">
-        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1951,10 +1951,10 @@
         <v>44991.69791666666</v>
       </c>
       <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
         <v>36</v>
-      </c>
-      <c r="G17" t="s">
-        <v>37</v>
       </c>
       <c r="H17">
         <v>3</v>
@@ -2399,7 +2399,7 @@
         <v>34</v>
       </c>
       <c r="G22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -2488,7 +2488,7 @@
         <v>30</v>
       </c>
       <c r="G23" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -2841,7 +2841,7 @@
         <v>45001.69791666666</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>29</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053188</v>
+        <v>6053186</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L30">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M30">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N30">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P30">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q30">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3150,19 +3150,19 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X30">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3174,10 +3174,10 @@
         <v>0.825</v>
       </c>
       <c r="AB30">
+        <v>0.4125</v>
+      </c>
+      <c r="AC30">
         <v>-0.5</v>
-      </c>
-      <c r="AC30">
-        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053186</v>
+        <v>6053188</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,40 +3197,40 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L31">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M31">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="N31">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O31">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q31">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3239,19 +3239,19 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3263,10 +3263,10 @@
         <v>0.825</v>
       </c>
       <c r="AB31">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC31">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3289,7 +3289,7 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         <v>33</v>
       </c>
       <c r="G36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053204</v>
+        <v>6053203</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="L38">
+        <v>3.5</v>
+      </c>
+      <c r="M38">
+        <v>4.75</v>
+      </c>
+      <c r="N38">
+        <v>1.615</v>
+      </c>
+      <c r="O38">
         <v>3.8</v>
       </c>
-      <c r="M38">
-        <v>1.55</v>
-      </c>
-      <c r="N38">
-        <v>7</v>
-      </c>
-      <c r="O38">
-        <v>4</v>
-      </c>
       <c r="P38">
-        <v>1.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q38">
-        <v>1</v>
+        <v>-0.75</v>
       </c>
       <c r="R38">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="S38">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U38">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.615</v>
       </c>
       <c r="X38">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA38">
         <v>-1</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053201</v>
+        <v>6053204</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39" t="s">
+        <v>41</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>3.8</v>
+      </c>
+      <c r="M39">
+        <v>1.55</v>
+      </c>
+      <c r="N39">
+        <v>7</v>
+      </c>
+      <c r="O39">
+        <v>4</v>
+      </c>
+      <c r="P39">
+        <v>1.5</v>
+      </c>
+      <c r="Q39">
         <v>1</v>
       </c>
-      <c r="J39" t="s">
-        <v>42</v>
-      </c>
-      <c r="K39">
-        <v>1.4</v>
-      </c>
-      <c r="L39">
-        <v>4.5</v>
-      </c>
-      <c r="M39">
-        <v>7</v>
-      </c>
-      <c r="N39">
-        <v>1.333</v>
-      </c>
-      <c r="O39">
-        <v>5</v>
-      </c>
-      <c r="P39">
-        <v>8.5</v>
-      </c>
-      <c r="Q39">
-        <v>-1.25</v>
-      </c>
       <c r="R39">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S39">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T39">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V39">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y39">
-        <v>7.5</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA39">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB39">
         <v>-1</v>
       </c>
       <c r="AC39">
-        <v>1.025</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6043224</v>
+        <v>6053201</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,56 +3998,56 @@
         <v>45023.65625</v>
       </c>
       <c r="F40" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" t="s">
         <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>38</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J40" t="s">
         <v>42</v>
       </c>
       <c r="K40">
-        <v>3.6</v>
+        <v>1.4</v>
       </c>
       <c r="L40">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M40">
-        <v>2.1</v>
+        <v>7</v>
       </c>
       <c r="N40">
-        <v>3.8</v>
+        <v>1.333</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="P40">
-        <v>2</v>
+        <v>8.5</v>
       </c>
       <c r="Q40">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
+        <v>2.05</v>
+      </c>
+      <c r="T40">
+        <v>2.5</v>
+      </c>
+      <c r="U40">
         <v>1.825</v>
       </c>
-      <c r="S40">
+      <c r="V40">
         <v>2.025</v>
       </c>
-      <c r="T40">
-        <v>2.25</v>
-      </c>
-      <c r="U40">
-        <v>1.9</v>
-      </c>
-      <c r="V40">
-        <v>1.95</v>
-      </c>
       <c r="W40">
         <v>-1</v>
       </c>
@@ -4055,19 +4055,19 @@
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1</v>
+        <v>7.5</v>
       </c>
       <c r="Z40">
         <v>-1</v>
       </c>
       <c r="AA40">
+        <v>1.05</v>
+      </c>
+      <c r="AB40">
+        <v>-1</v>
+      </c>
+      <c r="AC40">
         <v>1.025</v>
-      </c>
-      <c r="AB40">
-        <v>-0.5</v>
-      </c>
-      <c r="AC40">
-        <v>0.475</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6053203</v>
+        <v>6043224</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45023.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L41">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.1</v>
       </c>
       <c r="N41">
-        <v>1.615</v>
+        <v>3.8</v>
       </c>
       <c r="O41">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="P41">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T41">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U41">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V41">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W41">
-        <v>0.615</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="Z41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AB41">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4268,7 +4268,7 @@
         <v>35</v>
       </c>
       <c r="G43" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H43">
         <v>0</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053207</v>
+        <v>6053208</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,40 +4354,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H44">
+        <v>2</v>
+      </c>
+      <c r="I44">
         <v>1</v>
       </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>3.2</v>
+        <v>1.952</v>
       </c>
       <c r="L44">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M44">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N44">
+        <v>2.25</v>
+      </c>
+      <c r="O44">
+        <v>2.9</v>
+      </c>
+      <c r="P44">
         <v>3.1</v>
       </c>
-      <c r="O44">
-        <v>3.3</v>
-      </c>
-      <c r="P44">
-        <v>2.05</v>
-      </c>
       <c r="Q44">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4396,31 +4396,31 @@
         <v>1.85</v>
       </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB44">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053208</v>
+        <v>6053207</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,40 +4443,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.952</v>
+        <v>3.2</v>
       </c>
       <c r="L45">
+        <v>3.2</v>
+      </c>
+      <c r="M45">
+        <v>2.05</v>
+      </c>
+      <c r="N45">
         <v>3.1</v>
       </c>
-      <c r="M45">
-        <v>3.6</v>
-      </c>
-      <c r="N45">
-        <v>2.25</v>
-      </c>
       <c r="O45">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P45">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q45">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4485,31 +4485,31 @@
         <v>1.85</v>
       </c>
       <c r="T45">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V45">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W45">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4710,7 +4710,7 @@
         <v>45030.65625</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G48" t="s">
         <v>30</v>
@@ -4891,7 +4891,7 @@
         <v>33</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H50">
         <v>1</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6043227</v>
+        <v>6053213</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,55 +5066,55 @@
         <v>45037.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>1.909</v>
+        <v>1.7</v>
       </c>
       <c r="N52">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="O52">
         <v>3.25</v>
       </c>
       <c r="P52">
-        <v>1.909</v>
+        <v>1.85</v>
       </c>
       <c r="Q52">
         <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5123,19 +5123,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.909</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z52">
         <v>-1</v>
       </c>
       <c r="AA52">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC52">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6053214</v>
+        <v>6043227</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,10 +5155,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G53" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5170,40 +5170,40 @@
         <v>42</v>
       </c>
       <c r="K53">
+        <v>3.75</v>
+      </c>
+      <c r="L53">
+        <v>3.4</v>
+      </c>
+      <c r="M53">
+        <v>1.909</v>
+      </c>
+      <c r="N53">
         <v>3.6</v>
       </c>
-      <c r="L53">
-        <v>3.2</v>
-      </c>
-      <c r="M53">
-        <v>1.95</v>
-      </c>
-      <c r="N53">
-        <v>2.875</v>
-      </c>
       <c r="O53">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P53">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q53">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R53">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S53">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T53">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U53">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V53">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,19 +5212,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB53">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC53">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053213</v>
+        <v>6053214</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,46 +5244,46 @@
         <v>45037.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
       </c>
       <c r="K54">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.7</v>
+        <v>1.95</v>
       </c>
       <c r="N54">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>2.075</v>
       </c>
       <c r="T54">
         <v>2.25</v>
@@ -5301,19 +5301,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.8500000000000001</v>
+        <v>1.4</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="AB54">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5603,7 +5603,7 @@
         <v>29</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5692,7 +5692,7 @@
         <v>34</v>
       </c>
       <c r="G59" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H59">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
         <v>31</v>
@@ -6223,7 +6223,7 @@
         <v>45047.54166666666</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -6404,7 +6404,7 @@
         <v>38</v>
       </c>
       <c r="G67" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -6490,7 +6490,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G68" t="s">
         <v>35</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053225</v>
+        <v>6053227</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45051.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>3.2</v>
+        <v>1.363</v>
       </c>
       <c r="L69">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M69">
-        <v>2.2</v>
+        <v>9</v>
       </c>
       <c r="N69">
-        <v>3.1</v>
+        <v>1.3</v>
       </c>
       <c r="O69">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="P69">
+        <v>11</v>
+      </c>
+      <c r="Q69">
+        <v>-1.5</v>
+      </c>
+      <c r="R69">
+        <v>2.025</v>
+      </c>
+      <c r="S69">
+        <v>1.825</v>
+      </c>
+      <c r="T69">
         <v>2.25</v>
       </c>
-      <c r="Q69">
-        <v>0.25</v>
-      </c>
-      <c r="R69">
+      <c r="U69">
         <v>1.825</v>
       </c>
-      <c r="S69">
+      <c r="V69">
         <v>2.025</v>
       </c>
-      <c r="T69">
-        <v>2.5</v>
-      </c>
-      <c r="U69">
-        <v>2.05</v>
-      </c>
-      <c r="V69">
-        <v>1.8</v>
-      </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
         <v>-1</v>
       </c>
       <c r="AA69">
+        <v>0.825</v>
+      </c>
+      <c r="AB69">
+        <v>-1</v>
+      </c>
+      <c r="AC69">
         <v>1.025</v>
-      </c>
-      <c r="AB69">
-        <v>1.05</v>
-      </c>
-      <c r="AC69">
-        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6053227</v>
+        <v>6053225</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45051.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>1.363</v>
+        <v>3.2</v>
       </c>
       <c r="L70">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M70">
-        <v>9</v>
+        <v>2.2</v>
       </c>
       <c r="N70">
-        <v>1.3</v>
+        <v>3.1</v>
       </c>
       <c r="O70">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="Q70">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
         <v>2.025</v>
       </c>
-      <c r="S70">
-        <v>1.825</v>
-      </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W70">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z70">
         <v>-1</v>
       </c>
       <c r="AA70">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6053231</v>
+        <v>6053229</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45058.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72" t="s">
+        <v>42</v>
+      </c>
+      <c r="K72">
+        <v>2.9</v>
+      </c>
+      <c r="L72">
+        <v>3.2</v>
+      </c>
+      <c r="M72">
+        <v>2.25</v>
+      </c>
+      <c r="N72">
+        <v>2.8</v>
+      </c>
+      <c r="O72">
+        <v>3.2</v>
+      </c>
+      <c r="P72">
+        <v>2.375</v>
+      </c>
+      <c r="Q72">
         <v>0</v>
       </c>
-      <c r="J72" t="s">
-        <v>43</v>
-      </c>
-      <c r="K72">
-        <v>1.8</v>
-      </c>
-      <c r="L72">
-        <v>3.6</v>
-      </c>
-      <c r="M72">
-        <v>3.8</v>
-      </c>
-      <c r="N72">
-        <v>1.833</v>
-      </c>
-      <c r="O72">
-        <v>3.6</v>
-      </c>
-      <c r="P72">
-        <v>3.6</v>
-      </c>
-      <c r="Q72">
-        <v>-0.5</v>
-      </c>
       <c r="R72">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S72">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U72">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.833</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB72">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6053229</v>
+        <v>6053230</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45058.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G73" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.9</v>
+        <v>1.85</v>
       </c>
       <c r="L73">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M73">
+        <v>3.8</v>
+      </c>
+      <c r="N73">
+        <v>1.8</v>
+      </c>
+      <c r="O73">
+        <v>3.4</v>
+      </c>
+      <c r="P73">
+        <v>4.2</v>
+      </c>
+      <c r="Q73">
+        <v>-0.5</v>
+      </c>
+      <c r="R73">
+        <v>1.85</v>
+      </c>
+      <c r="S73">
+        <v>2</v>
+      </c>
+      <c r="T73">
         <v>2.25</v>
       </c>
-      <c r="N73">
-        <v>2.8</v>
-      </c>
-      <c r="O73">
-        <v>3.2</v>
-      </c>
-      <c r="P73">
-        <v>2.375</v>
-      </c>
-      <c r="Q73">
-        <v>0</v>
-      </c>
-      <c r="R73">
-        <v>2.1</v>
-      </c>
-      <c r="S73">
-        <v>1.775</v>
-      </c>
-      <c r="T73">
-        <v>2</v>
-      </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6053230</v>
+        <v>6053231</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45058.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="L74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M74">
         <v>3.8</v>
       </c>
       <c r="N74">
-        <v>1.8</v>
+        <v>1.833</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
-        <v>4.2</v>
+        <v>3.6</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S74">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T74">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="W74">
-        <v>0.8</v>
+        <v>0.833</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>0.475</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>2</v>
@@ -7828,7 +7828,7 @@
         <v>38</v>
       </c>
       <c r="G83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H83">
         <v>1</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6053238</v>
+        <v>6053239</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>36</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>1.909</v>
+        <v>1.5</v>
       </c>
       <c r="L84">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N84">
-        <v>2.25</v>
+        <v>1.363</v>
       </c>
       <c r="O84">
-        <v>3.1</v>
+        <v>4.75</v>
       </c>
       <c r="P84">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="Q84">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R84">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S84">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T84">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="X84">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y84">
         <v>-1</v>
       </c>
       <c r="Z84">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AA84">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6053239</v>
+        <v>6053240</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,13 +8003,13 @@
         <v>45072.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G85" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
         <v>1</v>
@@ -8018,43 +8018,43 @@
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M85">
-        <v>6</v>
+        <v>4.333</v>
       </c>
       <c r="N85">
-        <v>1.363</v>
+        <v>1.65</v>
       </c>
       <c r="O85">
+        <v>3.75</v>
+      </c>
+      <c r="P85">
         <v>4.75</v>
       </c>
-      <c r="P85">
-        <v>7.5</v>
-      </c>
       <c r="Q85">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R85">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S85">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V85">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W85">
-        <v>0.363</v>
+        <v>0.6499999999999999</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,13 +8063,13 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB85">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AC85">
         <v>-1</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6053240</v>
+        <v>6053238</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45072.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K86">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="L86">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M86">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N86">
-        <v>1.65</v>
+        <v>2.25</v>
       </c>
       <c r="O86">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="P86">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="Q86">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R86">
         <v>1.925</v>
@@ -8134,34 +8134,34 @@
         <v>1.925</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U86">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>0.6499999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X86">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y86">
         <v>-1</v>
       </c>
       <c r="Z86">
+        <v>-0.5</v>
+      </c>
+      <c r="AA86">
         <v>0.4625</v>
       </c>
-      <c r="AA86">
-        <v>-0.5</v>
-      </c>
       <c r="AB86">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8359,7 +8359,7 @@
         <v>45079.65625</v>
       </c>
       <c r="F89" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6043235</v>
+        <v>6053245</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,40 +8448,40 @@
         <v>45079.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="L90">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M90">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N90">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P90">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q90">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R90">
         <v>1.925</v>
@@ -8490,34 +8490,34 @@
         <v>1.925</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U90">
+        <v>2.025</v>
+      </c>
+      <c r="V90">
         <v>1.825</v>
       </c>
-      <c r="V90">
-        <v>2.025</v>
-      </c>
       <c r="W90">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB90">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC90">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6053245</v>
+        <v>6053244</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,40 +8537,40 @@
         <v>45079.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="I91">
         <v>1</v>
-      </c>
-      <c r="I91">
-        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="L91">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M91">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="N91">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="O91">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P91">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="Q91">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R91">
         <v>1.925</v>
@@ -8579,13 +8579,13 @@
         <v>1.925</v>
       </c>
       <c r="T91">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U91">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V91">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8594,19 +8594,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>0.222</v>
+        <v>2.2</v>
       </c>
       <c r="Z91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA91">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB91">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6053244</v>
+        <v>6053243</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,49 +8626,49 @@
         <v>45079.65625</v>
       </c>
       <c r="F92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G92" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H92">
         <v>0</v>
       </c>
       <c r="I92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K92">
+        <v>1.55</v>
+      </c>
+      <c r="L92">
+        <v>3.6</v>
+      </c>
+      <c r="M92">
+        <v>6</v>
+      </c>
+      <c r="N92">
+        <v>1.5</v>
+      </c>
+      <c r="O92">
+        <v>3.75</v>
+      </c>
+      <c r="P92">
+        <v>7</v>
+      </c>
+      <c r="Q92">
+        <v>-1</v>
+      </c>
+      <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
         <v>1.95</v>
       </c>
-      <c r="L92">
-        <v>3.4</v>
-      </c>
-      <c r="M92">
-        <v>3.6</v>
-      </c>
-      <c r="N92">
-        <v>2.1</v>
-      </c>
-      <c r="O92">
-        <v>3.25</v>
-      </c>
-      <c r="P92">
-        <v>3.2</v>
-      </c>
-      <c r="Q92">
-        <v>-0.25</v>
-      </c>
-      <c r="R92">
-        <v>1.925</v>
-      </c>
-      <c r="S92">
-        <v>1.925</v>
-      </c>
       <c r="T92">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U92">
         <v>1.8</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y92">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6053243</v>
+        <v>6043235</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45079.65625</v>
       </c>
       <c r="F93" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G93" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M93">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N93">
         <v>1.5</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P93">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q93">
         <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V93">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X93">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8896,7 +8896,7 @@
         <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -9163,7 +9163,7 @@
         <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>3</v>
@@ -9341,7 +9341,7 @@
         <v>35</v>
       </c>
       <c r="G100" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9427,7 +9427,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G101" t="s">
         <v>30</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6043238</v>
+        <v>6053257</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,73 +9694,73 @@
         <v>45100.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G104" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K104">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L104">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M104">
+        <v>1.5</v>
+      </c>
+      <c r="N104">
+        <v>6.5</v>
+      </c>
+      <c r="O104">
+        <v>4</v>
+      </c>
+      <c r="P104">
+        <v>1.444</v>
+      </c>
+      <c r="Q104">
+        <v>1</v>
+      </c>
+      <c r="R104">
         <v>2.1</v>
       </c>
-      <c r="N104">
-        <v>3.4</v>
-      </c>
-      <c r="O104">
-        <v>3.1</v>
-      </c>
-      <c r="P104">
-        <v>2.1</v>
-      </c>
-      <c r="Q104">
-        <v>0.25</v>
-      </c>
-      <c r="R104">
-        <v>1.925</v>
-      </c>
       <c r="S104">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T104">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U104">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V104">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W104">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X104">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y104">
         <v>-1</v>
       </c>
       <c r="Z104">
-        <v>0.4625</v>
+        <v>1.1</v>
       </c>
       <c r="AA104">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB104">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6053254</v>
+        <v>6053256</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,13 +9783,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -9798,43 +9798,43 @@
         <v>43</v>
       </c>
       <c r="K105">
-        <v>1.333</v>
+        <v>1.75</v>
       </c>
       <c r="L105">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>8</v>
+        <v>4.2</v>
       </c>
       <c r="N105">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="O105">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P105">
-        <v>5.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q105">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S105">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W105">
-        <v>0.45</v>
+        <v>0.8</v>
       </c>
       <c r="X105">
         <v>-1</v>
@@ -9843,16 +9843,16 @@
         <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA105">
         <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>0.5125</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6053256</v>
+        <v>6053254</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -9887,43 +9887,43 @@
         <v>43</v>
       </c>
       <c r="K106">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M106">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N106">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O106">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P106">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q106">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC106">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6053257</v>
+        <v>6053255</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L107">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M107">
+        <v>2.625</v>
+      </c>
+      <c r="N107">
+        <v>2.5</v>
+      </c>
+      <c r="O107">
+        <v>3.4</v>
+      </c>
+      <c r="P107">
+        <v>2.5</v>
+      </c>
+      <c r="Q107">
+        <v>0</v>
+      </c>
+      <c r="R107">
+        <v>1.925</v>
+      </c>
+      <c r="S107">
+        <v>1.925</v>
+      </c>
+      <c r="T107">
+        <v>2.75</v>
+      </c>
+      <c r="U107">
+        <v>1.975</v>
+      </c>
+      <c r="V107">
+        <v>1.875</v>
+      </c>
+      <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
         <v>1.5</v>
       </c>
-      <c r="N107">
-        <v>6.5</v>
-      </c>
-      <c r="O107">
-        <v>4</v>
-      </c>
-      <c r="P107">
-        <v>1.444</v>
-      </c>
-      <c r="Q107">
-        <v>1</v>
-      </c>
-      <c r="R107">
-        <v>2.1</v>
-      </c>
-      <c r="S107">
-        <v>1.775</v>
-      </c>
-      <c r="T107">
-        <v>2.5</v>
-      </c>
-      <c r="U107">
-        <v>1.95</v>
-      </c>
-      <c r="V107">
-        <v>1.9</v>
-      </c>
-      <c r="W107">
-        <v>5.5</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
       <c r="Z107">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB107">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC107">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6053255</v>
+        <v>6043238</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10053,37 +10053,37 @@
         <v>37</v>
       </c>
       <c r="G108" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I108">
         <v>2</v>
       </c>
       <c r="J108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L108">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M108">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N108">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P108">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
         <v>1.925</v>
@@ -10092,34 +10092,34 @@
         <v>1.925</v>
       </c>
       <c r="T108">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W108">
         <v>-1</v>
       </c>
       <c r="X108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y108">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB108">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10409,7 +10409,7 @@
         <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H112">
         <v>1</v>
@@ -10498,7 +10498,7 @@
         <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H113">
         <v>3</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,40 +10762,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F116" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H116">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L116">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N116">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O116">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P116">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q116">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10807,28 +10807,28 @@
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z116">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA116">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB116">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F117" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I117">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="s">
         <v>41</v>
       </c>
       <c r="K117">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L117">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M117">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N117">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O117">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q117">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R117">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S117">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T117">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U117">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V117">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA117">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6053265</v>
+        <v>6043241</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J119" t="s">
         <v>41</v>
       </c>
       <c r="K119">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="L119">
+        <v>3.75</v>
+      </c>
+      <c r="M119">
+        <v>1.571</v>
+      </c>
+      <c r="N119">
         <v>3.8</v>
       </c>
-      <c r="M119">
-        <v>5.5</v>
-      </c>
-      <c r="N119">
-        <v>1.4</v>
-      </c>
       <c r="O119">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6053266</v>
+        <v>6053263</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,40 +11118,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I120">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L120">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M120">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N120">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O120">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q120">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
         <v>1.9</v>
@@ -11163,28 +11163,28 @@
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA120">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,7 +11207,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11216,67 +11216,67 @@
         <v>1</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K121">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L121">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M121">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N121">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P121">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R121">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S121">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U121">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V121">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB121">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC121">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,7 +11296,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G122" t="s">
         <v>37</v>
@@ -11305,67 +11305,67 @@
         <v>1</v>
       </c>
       <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>41</v>
+      </c>
+      <c r="K122">
+        <v>2.4</v>
+      </c>
+      <c r="L122">
         <v>3</v>
       </c>
-      <c r="J122" t="s">
-        <v>42</v>
-      </c>
-      <c r="K122">
-        <v>6.5</v>
-      </c>
-      <c r="L122">
-        <v>4.5</v>
-      </c>
       <c r="M122">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N122">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O122">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P122">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q122">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R122">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S122">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T122">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y122">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA122">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB122">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC122">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11474,7 +11474,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F124" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
         <v>34</v>
@@ -11652,7 +11652,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F126" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G126" t="s">
         <v>33</v>
@@ -11741,10 +11741,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F127" t="s">
+        <v>37</v>
+      </c>
+      <c r="G127" t="s">
         <v>36</v>
-      </c>
-      <c r="G127" t="s">
-        <v>37</v>
       </c>
       <c r="H127">
         <v>4</v>
@@ -12367,7 +12367,7 @@
         <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -12456,7 +12456,7 @@
         <v>35</v>
       </c>
       <c r="G135" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>3</v>
@@ -12720,7 +12720,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F138" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G138" t="s">
         <v>35</v>
@@ -12809,7 +12809,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F139" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6053287</v>
+        <v>6053286</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,49 +12987,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F141" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G141" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141" t="s">
+        <v>43</v>
+      </c>
+      <c r="K141">
+        <v>1.25</v>
+      </c>
+      <c r="L141">
+        <v>5.5</v>
+      </c>
+      <c r="M141">
+        <v>11</v>
+      </c>
+      <c r="N141">
+        <v>1.3</v>
+      </c>
+      <c r="O141">
+        <v>5.25</v>
+      </c>
+      <c r="P141">
+        <v>9</v>
+      </c>
+      <c r="Q141">
+        <v>-1.5</v>
+      </c>
+      <c r="R141">
+        <v>1.925</v>
+      </c>
+      <c r="S141">
+        <v>1.925</v>
+      </c>
+      <c r="T141">
         <v>3</v>
-      </c>
-      <c r="J141" t="s">
-        <v>42</v>
-      </c>
-      <c r="K141">
-        <v>3</v>
-      </c>
-      <c r="L141">
-        <v>3.25</v>
-      </c>
-      <c r="M141">
-        <v>2.2</v>
-      </c>
-      <c r="N141">
-        <v>3.4</v>
-      </c>
-      <c r="O141">
-        <v>3</v>
-      </c>
-      <c r="P141">
-        <v>2.15</v>
-      </c>
-      <c r="Q141">
-        <v>0.25</v>
-      </c>
-      <c r="R141">
-        <v>1.95</v>
-      </c>
-      <c r="S141">
-        <v>1.9</v>
-      </c>
-      <c r="T141">
-        <v>2.25</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13038,25 +13038,25 @@
         <v>1.875</v>
       </c>
       <c r="W141">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z141">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA141">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB141">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC141">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,10 +13076,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G142" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13091,43 +13091,43 @@
         <v>43</v>
       </c>
       <c r="K142">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L142">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M142">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N142">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O142">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P142">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q142">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R142">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S142">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T142">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U142">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V142">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W142">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13136,13 +13136,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6043245</v>
+        <v>6053285</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,10 +13165,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G143" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13180,43 +13180,43 @@
         <v>43</v>
       </c>
       <c r="K143">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L143">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M143">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N143">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O143">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P143">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q143">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R143">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S143">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T143">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U143">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V143">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W143">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13225,13 +13225,13 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6053286</v>
+        <v>6053287</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,49 +13254,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G144" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H144">
+        <v>1</v>
+      </c>
+      <c r="I144">
         <v>3</v>
       </c>
-      <c r="I144">
-        <v>0</v>
-      </c>
       <c r="J144" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K144">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L144">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M144">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N144">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O144">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P144">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q144">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R144">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S144">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T144">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.975</v>
@@ -13305,25 +13305,25 @@
         <v>1.875</v>
       </c>
       <c r="W144">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z144">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA144">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB144">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC144">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13776,7 +13776,7 @@
         <v>148</v>
       </c>
       <c r="B150">
-        <v>6288773</v>
+        <v>7197534</v>
       </c>
       <c r="C150" t="s">
         <v>28</v>
@@ -13788,58 +13788,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J150" t="s">
         <v>43</v>
       </c>
       <c r="K150">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L150">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M150">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N150">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="O150">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P150">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q150">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R150">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S150">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T150">
         <v>2.25</v>
       </c>
       <c r="U150">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V150">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W150">
-        <v>0.6659999999999999</v>
+        <v>4</v>
       </c>
       <c r="X150">
         <v>-1</v>
@@ -13848,16 +13848,16 @@
         <v>-1</v>
       </c>
       <c r="Z150">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA150">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB150">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC150">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="151" spans="1:29">
@@ -13865,7 +13865,7 @@
         <v>149</v>
       </c>
       <c r="B151">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C151" t="s">
         <v>28</v>
@@ -13877,58 +13877,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G151" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H151">
+        <v>2</v>
+      </c>
+      <c r="I151">
         <v>1</v>
-      </c>
-      <c r="I151">
-        <v>0</v>
       </c>
       <c r="J151" t="s">
         <v>43</v>
       </c>
       <c r="K151">
+        <v>1.615</v>
+      </c>
+      <c r="L151">
         <v>3.6</v>
       </c>
-      <c r="L151">
-        <v>3.25</v>
-      </c>
       <c r="M151">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N151">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O151">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P151">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q151">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R151">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S151">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T151">
         <v>2.25</v>
       </c>
       <c r="U151">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V151">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W151">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X151">
         <v>-1</v>
@@ -13937,16 +13937,16 @@
         <v>-1</v>
       </c>
       <c r="Z151">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA151">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB151">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC151">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="152" spans="1:29">
@@ -14055,10 +14055,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F153" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="s">
         <v>37</v>
-      </c>
-      <c r="G153" t="s">
-        <v>36</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -14144,7 +14144,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G154" t="s">
         <v>32</v>
@@ -14221,7 +14221,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14233,76 +14233,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G155" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H155">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I155">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J155" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K155">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L155">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M155">
         <v>4.75</v>
       </c>
       <c r="N155">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O155">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P155">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q155">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R155">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S155">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T155">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U155">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V155">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W155">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z155">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA155">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB155">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC155">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>6053291</v>
+        <v>7106289</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14322,76 +14322,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F156" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I156">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J156" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K156">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L156">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M156">
         <v>4.75</v>
       </c>
       <c r="N156">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O156">
+        <v>3.8</v>
+      </c>
+      <c r="P156">
         <v>4.2</v>
       </c>
-      <c r="P156">
-        <v>6</v>
-      </c>
       <c r="Q156">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R156">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S156">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T156">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U156">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V156">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W156">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z156">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA156">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB156">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC156">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14503,7 +14503,7 @@
         <v>29</v>
       </c>
       <c r="G158" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H158">
         <v>3</v>
@@ -14767,7 +14767,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F161" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G161" t="s">
         <v>33</v>
@@ -14856,7 +14856,7 @@
         <v>45205.65625</v>
       </c>
       <c r="F162" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G162" t="s">
         <v>35</v>
@@ -15037,7 +15037,7 @@
         <v>34</v>
       </c>
       <c r="G164" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H164">
         <v>1</v>
@@ -15301,7 +15301,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G167" t="s">
         <v>30</v>
@@ -15482,7 +15482,7 @@
         <v>38</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>5</v>
@@ -15838,7 +15838,7 @@
         <v>29</v>
       </c>
       <c r="G173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H173">
         <v>2</v>
@@ -16016,7 +16016,7 @@
         <v>33</v>
       </c>
       <c r="G175" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -16179,7 +16179,7 @@
         <v>175</v>
       </c>
       <c r="B177">
-        <v>6412497</v>
+        <v>6407559</v>
       </c>
       <c r="C177" t="s">
         <v>28</v>
@@ -16191,73 +16191,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F177" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G177" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H177">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I177">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J177" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K177">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="L177">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="M177">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N177">
-        <v>1.166</v>
+        <v>11</v>
       </c>
       <c r="O177">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P177">
-        <v>15</v>
+        <v>1.181</v>
       </c>
       <c r="Q177">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T177">
         <v>3.25</v>
       </c>
       <c r="U177">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V177">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W177">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X177">
         <v>-1</v>
       </c>
       <c r="Y177">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z177">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA177">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB177">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC177">
         <v>-1</v>
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6407559</v>
+        <v>6412497</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,73 +16280,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F178" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H178">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I178">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J178" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K178">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="L178">
-        <v>5.6</v>
+        <v>4.5</v>
       </c>
       <c r="M178">
-        <v>1.222</v>
+        <v>6.5</v>
       </c>
       <c r="N178">
-        <v>11</v>
+        <v>1.166</v>
       </c>
       <c r="O178">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="P178">
-        <v>1.181</v>
+        <v>15</v>
       </c>
       <c r="Q178">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="R178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="S178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="T178">
         <v>3.25</v>
       </c>
       <c r="U178">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V178">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W178">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X178">
         <v>-1</v>
       </c>
       <c r="Y178">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z178">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA178">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC178">
         <v>-1</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6407558</v>
+        <v>6412498</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,76 +16369,76 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G179" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179" t="s">
+        <v>43</v>
+      </c>
+      <c r="K179">
+        <v>1.7</v>
+      </c>
+      <c r="L179">
+        <v>3.75</v>
+      </c>
+      <c r="M179">
+        <v>4.2</v>
+      </c>
+      <c r="N179">
+        <v>1.45</v>
+      </c>
+      <c r="O179">
         <v>4</v>
       </c>
-      <c r="J179" t="s">
-        <v>42</v>
-      </c>
-      <c r="K179">
-        <v>3.3</v>
-      </c>
-      <c r="L179">
-        <v>3.4</v>
-      </c>
-      <c r="M179">
-        <v>2</v>
-      </c>
-      <c r="N179">
-        <v>5</v>
-      </c>
-      <c r="O179">
-        <v>3.75</v>
-      </c>
       <c r="P179">
-        <v>1.6</v>
+        <v>6.5</v>
       </c>
       <c r="Q179">
-        <v>0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R179">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="S179">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="T179">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U179">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V179">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W179">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z179">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA179">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AC179">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6412498</v>
+        <v>6407558</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,76 +16458,76 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G180" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H180">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I180">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K180">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="L180">
+        <v>3.4</v>
+      </c>
+      <c r="M180">
+        <v>2</v>
+      </c>
+      <c r="N180">
+        <v>5</v>
+      </c>
+      <c r="O180">
         <v>3.75</v>
       </c>
-      <c r="M180">
-        <v>4.2</v>
-      </c>
-      <c r="N180">
-        <v>1.45</v>
-      </c>
-      <c r="O180">
-        <v>4</v>
-      </c>
       <c r="P180">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q180">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R180">
+        <v>2.05</v>
+      </c>
+      <c r="S180">
+        <v>1.8</v>
+      </c>
+      <c r="T180">
+        <v>2.5</v>
+      </c>
+      <c r="U180">
         <v>1.925</v>
       </c>
-      <c r="S180">
+      <c r="V180">
         <v>1.925</v>
       </c>
-      <c r="T180">
-        <v>2.75</v>
-      </c>
-      <c r="U180">
-        <v>2</v>
-      </c>
-      <c r="V180">
-        <v>1.85</v>
-      </c>
       <c r="W180">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z180">
+        <v>-1</v>
+      </c>
+      <c r="AA180">
+        <v>0.8</v>
+      </c>
+      <c r="AB180">
         <v>0.925</v>
       </c>
-      <c r="AA180">
-        <v>-1</v>
-      </c>
-      <c r="AB180">
-        <v>0.5</v>
-      </c>
       <c r="AC180">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="181" spans="1:29">
@@ -16903,7 +16903,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G185" t="s">
         <v>33</v>
@@ -16995,7 +16995,7 @@
         <v>35</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H186">
         <v>2</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -109,10 +109,10 @@
     <t>St Patricks</t>
   </si>
   <si>
-    <t>Cork City</t>
+    <t>Shelbourne</t>
   </si>
   <si>
-    <t>Shelbourne</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6052969</v>
+        <v>6052971</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K4">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="L4">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M4">
-        <v>2.375</v>
+        <v>6</v>
       </c>
       <c r="N4">
-        <v>2.9</v>
+        <v>1.55</v>
       </c>
       <c r="O4">
-        <v>3.1</v>
+        <v>3.8</v>
       </c>
       <c r="P4">
-        <v>2.3</v>
+        <v>5.25</v>
       </c>
       <c r="Q4">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R4">
+        <v>2.05</v>
+      </c>
+      <c r="S4">
         <v>1.8</v>
-      </c>
-      <c r="S4">
-        <v>2.05</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V4">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.8</v>
       </c>
       <c r="Y4">
-        <v>1.3</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AB4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6052971</v>
+        <v>6052969</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K5">
-        <v>1.45</v>
+        <v>2.7</v>
       </c>
       <c r="L5">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>2.375</v>
       </c>
       <c r="N5">
-        <v>1.55</v>
+        <v>2.9</v>
       </c>
       <c r="O5">
-        <v>3.8</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>5.25</v>
+        <v>2.3</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R5">
+        <v>1.8</v>
+      </c>
+      <c r="S5">
         <v>2.05</v>
-      </c>
-      <c r="S5">
-        <v>1.8</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V5">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.8</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>1.3</v>
       </c>
       <c r="Z5">
         <v>-1</v>
       </c>
       <c r="AA5">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC5">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053173</v>
+        <v>6053172</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1061,76 +1061,76 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>4</v>
+        <v>1.75</v>
       </c>
       <c r="L7">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="N7">
-        <v>5.25</v>
+        <v>2</v>
       </c>
       <c r="O7">
+        <v>3.1</v>
+      </c>
+      <c r="P7">
         <v>3.6</v>
       </c>
-      <c r="P7">
-        <v>1.55</v>
-      </c>
       <c r="Q7">
+        <v>-0.5</v>
+      </c>
+      <c r="R7">
+        <v>2.025</v>
+      </c>
+      <c r="S7">
+        <v>1.825</v>
+      </c>
+      <c r="T7">
+        <v>2</v>
+      </c>
+      <c r="U7">
+        <v>1.875</v>
+      </c>
+      <c r="V7">
+        <v>1.975</v>
+      </c>
+      <c r="W7">
         <v>1</v>
       </c>
-      <c r="R7">
-        <v>1.8</v>
-      </c>
-      <c r="S7">
-        <v>2.05</v>
-      </c>
-      <c r="T7">
-        <v>2.5</v>
-      </c>
-      <c r="U7">
-        <v>2.05</v>
-      </c>
-      <c r="V7">
-        <v>1.8</v>
-      </c>
-      <c r="W7">
-        <v>-1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
       <c r="Y7">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA7">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC7">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:29">
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053172</v>
+        <v>6053173</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1150,76 +1150,76 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>3.3</v>
+      </c>
+      <c r="M8">
+        <v>1.8</v>
+      </c>
+      <c r="N8">
+        <v>5.25</v>
+      </c>
+      <c r="O8">
+        <v>3.6</v>
+      </c>
+      <c r="P8">
+        <v>1.55</v>
+      </c>
+      <c r="Q8">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="R8">
+        <v>1.8</v>
+      </c>
+      <c r="S8">
+        <v>2.05</v>
+      </c>
+      <c r="T8">
+        <v>2.5</v>
+      </c>
+      <c r="U8">
+        <v>2.05</v>
+      </c>
+      <c r="V8">
+        <v>1.8</v>
+      </c>
+      <c r="W8">
+        <v>-1</v>
+      </c>
+      <c r="X8">
+        <v>-1</v>
+      </c>
+      <c r="Y8">
+        <v>0.55</v>
+      </c>
+      <c r="Z8">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>43</v>
-      </c>
-      <c r="K8">
-        <v>1.75</v>
-      </c>
-      <c r="L8">
-        <v>3.4</v>
-      </c>
-      <c r="M8">
-        <v>4.2</v>
-      </c>
-      <c r="N8">
-        <v>2</v>
-      </c>
-      <c r="O8">
-        <v>3.1</v>
-      </c>
-      <c r="P8">
-        <v>3.6</v>
-      </c>
-      <c r="Q8">
-        <v>-0.5</v>
-      </c>
-      <c r="R8">
-        <v>2.025</v>
-      </c>
-      <c r="S8">
-        <v>1.825</v>
-      </c>
-      <c r="T8">
-        <v>2</v>
-      </c>
-      <c r="U8">
-        <v>1.875</v>
-      </c>
-      <c r="V8">
-        <v>1.975</v>
-      </c>
-      <c r="W8">
-        <v>1</v>
-      </c>
-      <c r="X8">
-        <v>-1</v>
-      </c>
-      <c r="Y8">
-        <v>-1</v>
-      </c>
-      <c r="Z8">
-        <v>1.025</v>
-      </c>
       <c r="AA8">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB8">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC8">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" spans="1:29">
@@ -1242,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053177</v>
+        <v>6053176</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,13 +1506,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1521,43 +1521,43 @@
         <v>43</v>
       </c>
       <c r="K12">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="L12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M12">
-        <v>3.1</v>
+        <v>2.7</v>
       </c>
       <c r="N12">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="O12">
-        <v>2.9</v>
+        <v>3.2</v>
       </c>
       <c r="P12">
-        <v>2.375</v>
+        <v>2.4</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
       <c r="R12">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="S12">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U12">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V12">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W12">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="X12">
         <v>-1</v>
@@ -1566,16 +1566,16 @@
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="AA12">
         <v>-1</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC12">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053176</v>
+        <v>6053177</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,13 +1595,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1610,43 +1610,43 @@
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="L13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M13">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="N13">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="P13">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
       <c r="R13">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S13">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V13">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W13">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1655,16 +1655,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053175</v>
+        <v>6053174</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,13 +1684,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1699,43 +1699,43 @@
         <v>43</v>
       </c>
       <c r="K14">
-        <v>2.9</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M14">
-        <v>2.25</v>
+        <v>3.6</v>
       </c>
       <c r="N14">
-        <v>2.75</v>
+        <v>1.444</v>
       </c>
       <c r="O14">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="P14">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R14">
+        <v>1.8</v>
+      </c>
+      <c r="S14">
         <v>2.05</v>
       </c>
-      <c r="S14">
-        <v>1.8</v>
-      </c>
       <c r="T14">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U14">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V14">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W14">
-        <v>1.75</v>
+        <v>0.444</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,16 +1744,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC14">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053174</v>
+        <v>6053175</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,13 +1773,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1788,43 +1788,43 @@
         <v>43</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L15">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M15">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N15">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O15">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q15">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R15">
+        <v>2.05</v>
+      </c>
+      <c r="S15">
         <v>1.8</v>
       </c>
-      <c r="S15">
-        <v>2.05</v>
-      </c>
       <c r="T15">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U15">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V15">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W15">
-        <v>0.444</v>
+        <v>1.75</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,16 +1833,16 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA15">
         <v>-1</v>
       </c>
       <c r="AB15">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2221,7 +2221,7 @@
         <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -2310,7 +2310,7 @@
         <v>38</v>
       </c>
       <c r="G21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H21">
         <v>4</v>
@@ -2663,7 +2663,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G25" t="s">
         <v>38</v>
@@ -2755,7 +2755,7 @@
         <v>33</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H26">
         <v>2</v>
@@ -3019,10 +3019,10 @@
         <v>45002.58333333334</v>
       </c>
       <c r="F29" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" t="s">
         <v>31</v>
-      </c>
-      <c r="G29" t="s">
-        <v>32</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -3375,7 +3375,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>35</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053202</v>
+        <v>6053204</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,46 +3731,46 @@
         <v>45023.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37" t="s">
+        <v>41</v>
+      </c>
+      <c r="K37">
+        <v>6</v>
+      </c>
+      <c r="L37">
+        <v>3.8</v>
+      </c>
+      <c r="M37">
+        <v>1.55</v>
+      </c>
+      <c r="N37">
+        <v>7</v>
+      </c>
+      <c r="O37">
+        <v>4</v>
+      </c>
+      <c r="P37">
+        <v>1.5</v>
+      </c>
+      <c r="Q37">
         <v>1</v>
       </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37">
-        <v>2.15</v>
-      </c>
-      <c r="L37">
-        <v>3.2</v>
-      </c>
-      <c r="M37">
-        <v>3.5</v>
-      </c>
-      <c r="N37">
-        <v>2.375</v>
-      </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
-      <c r="P37">
-        <v>3.2</v>
-      </c>
-      <c r="Q37">
-        <v>-0.25</v>
-      </c>
       <c r="R37">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S37">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T37">
         <v>2.25</v>
@@ -3785,22 +3785,22 @@
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Y37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA37">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB37">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3823,7 +3823,7 @@
         <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H38">
         <v>4</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053204</v>
+        <v>6053202</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,46 +3909,46 @@
         <v>45023.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K39">
-        <v>6</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>1.55</v>
+        <v>3.5</v>
       </c>
       <c r="N39">
-        <v>7</v>
+        <v>2.375</v>
       </c>
       <c r="O39">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>1.5</v>
+        <v>3.2</v>
       </c>
       <c r="Q39">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="R39">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S39">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="T39">
         <v>2.25</v>
@@ -3963,22 +3963,22 @@
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z39">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC39">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45026.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G42" t="s">
         <v>29</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053208</v>
+        <v>6053207</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,40 +4354,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.952</v>
+        <v>3.2</v>
       </c>
       <c r="L44">
+        <v>3.2</v>
+      </c>
+      <c r="M44">
+        <v>2.05</v>
+      </c>
+      <c r="N44">
         <v>3.1</v>
       </c>
-      <c r="M44">
-        <v>3.6</v>
-      </c>
-      <c r="N44">
-        <v>2.25</v>
-      </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4396,31 +4396,31 @@
         <v>1.85</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053207</v>
+        <v>6053208</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,40 +4443,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>1.952</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
+        <v>2.25</v>
+      </c>
+      <c r="O45">
+        <v>2.9</v>
+      </c>
+      <c r="P45">
         <v>3.1</v>
       </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
-      <c r="P45">
-        <v>2.05</v>
-      </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4485,31 +4485,31 @@
         <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4624,7 +4624,7 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H47">
         <v>1</v>
@@ -4802,7 +4802,7 @@
         <v>38</v>
       </c>
       <c r="G49" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H49">
         <v>2</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053213</v>
+        <v>6043227</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,55 +5066,55 @@
         <v>45037.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>42</v>
       </c>
       <c r="K52">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="L52">
         <v>3.4</v>
       </c>
       <c r="M52">
-        <v>1.7</v>
+        <v>1.909</v>
       </c>
       <c r="N52">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="O52">
         <v>3.25</v>
       </c>
       <c r="P52">
-        <v>1.85</v>
+        <v>1.909</v>
       </c>
       <c r="Q52">
         <v>0.5</v>
       </c>
       <c r="R52">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
         <v>-1</v>
@@ -5123,19 +5123,19 @@
         <v>-1</v>
       </c>
       <c r="Y52">
+        <v>0.909</v>
+      </c>
+      <c r="Z52">
+        <v>-1</v>
+      </c>
+      <c r="AA52">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AB52">
+        <v>-1</v>
+      </c>
+      <c r="AC52">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="Z52">
-        <v>-1</v>
-      </c>
-      <c r="AA52">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB52">
-        <v>1.05</v>
-      </c>
-      <c r="AC52">
-        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5143,7 +5143,7 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>6043227</v>
+        <v>6053214</v>
       </c>
       <c r="C53" t="s">
         <v>28</v>
@@ -5155,10 +5155,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F53" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -5170,40 +5170,40 @@
         <v>42</v>
       </c>
       <c r="K53">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L53">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M53">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N53">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O53">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P53">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q53">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R53">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S53">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T53">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U53">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V53">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W53">
         <v>-1</v>
@@ -5212,19 +5212,19 @@
         <v>-1</v>
       </c>
       <c r="Y53">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z53">
         <v>-1</v>
       </c>
       <c r="AA53">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB53">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC53">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="54" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053214</v>
+        <v>6053213</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,46 +5244,46 @@
         <v>45037.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>42</v>
       </c>
       <c r="K54">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="L54">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
+        <v>1.7</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <v>3.25</v>
+      </c>
+      <c r="P54">
+        <v>1.85</v>
+      </c>
+      <c r="Q54">
+        <v>0.5</v>
+      </c>
+      <c r="R54">
         <v>1.95</v>
       </c>
-      <c r="N54">
-        <v>2.875</v>
-      </c>
-      <c r="O54">
-        <v>3</v>
-      </c>
-      <c r="P54">
-        <v>2.4</v>
-      </c>
-      <c r="Q54">
-        <v>0.25</v>
-      </c>
-      <c r="R54">
-        <v>1.725</v>
-      </c>
       <c r="S54">
-        <v>2.075</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.25</v>
@@ -5301,19 +5301,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.4</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>1.075</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC54">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5333,7 +5333,7 @@
         <v>45037.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
         <v>29</v>
@@ -5778,10 +5778,10 @@
         <v>45044.65625</v>
       </c>
       <c r="F60" t="s">
+        <v>31</v>
+      </c>
+      <c r="G60" t="s">
         <v>32</v>
-      </c>
-      <c r="G60" t="s">
-        <v>31</v>
       </c>
       <c r="H60">
         <v>2</v>
@@ -6048,7 +6048,7 @@
         <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H63">
         <v>5</v>
@@ -6226,7 +6226,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H65">
         <v>1</v>
@@ -6579,7 +6579,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
         <v>34</v>
@@ -6668,7 +6668,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
         <v>30</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6053229</v>
+        <v>6053231</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45058.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H72">
+        <v>3</v>
+      </c>
+      <c r="I72">
         <v>0</v>
       </c>
-      <c r="I72">
-        <v>1</v>
-      </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="L72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M72">
-        <v>2.25</v>
+        <v>3.8</v>
       </c>
       <c r="N72">
-        <v>2.8</v>
+        <v>1.833</v>
       </c>
       <c r="O72">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.375</v>
+        <v>3.6</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R72">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="S72">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="T72">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.833</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6053230</v>
+        <v>6053229</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45058.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.85</v>
+        <v>2.9</v>
       </c>
       <c r="L73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M73">
-        <v>3.8</v>
+        <v>2.25</v>
       </c>
       <c r="N73">
-        <v>1.8</v>
+        <v>2.8</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P73">
-        <v>4.2</v>
+        <v>2.375</v>
       </c>
       <c r="Q73">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R73">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S73">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z73">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6053231</v>
+        <v>6053230</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45058.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>43</v>
       </c>
       <c r="K74">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="L74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M74">
         <v>3.8</v>
       </c>
       <c r="N74">
-        <v>1.833</v>
+        <v>1.8</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>3.6</v>
+        <v>4.2</v>
       </c>
       <c r="Q74">
         <v>-0.5</v>
       </c>
       <c r="R74">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S74">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>0.833</v>
+        <v>0.8</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA74">
         <v>-1</v>
       </c>
       <c r="AB74">
-        <v>0.475</v>
+        <v>0.825</v>
       </c>
       <c r="AC74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7205,7 +7205,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7469,7 +7469,7 @@
         <v>45065.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
         <v>30</v>
@@ -7736,7 +7736,7 @@
         <v>45065.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
         <v>33</v>
@@ -8095,7 +8095,7 @@
         <v>37</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8181,7 +8181,7 @@
         <v>45072.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G87" t="s">
         <v>38</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6053245</v>
+        <v>6043235</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,40 +8448,40 @@
         <v>45079.65625</v>
       </c>
       <c r="F90" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I90">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M90">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N90">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O90">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="Q90">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R90">
         <v>1.925</v>
@@ -8490,34 +8490,34 @@
         <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
+        <v>1.825</v>
+      </c>
+      <c r="V90">
         <v>2.025</v>
       </c>
-      <c r="V90">
-        <v>1.825</v>
-      </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
+        <v>-1</v>
+      </c>
+      <c r="AC90">
         <v>1.025</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6053244</v>
+        <v>6053245</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,40 +8537,40 @@
         <v>45079.65625</v>
       </c>
       <c r="F91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="L91">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M91">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="N91">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="O91">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P91">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="Q91">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R91">
         <v>1.925</v>
@@ -8579,13 +8579,13 @@
         <v>1.925</v>
       </c>
       <c r="T91">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V91">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W91">
         <v>-1</v>
@@ -8594,19 +8594,19 @@
         <v>-1</v>
       </c>
       <c r="Y91">
-        <v>2.2</v>
+        <v>0.222</v>
       </c>
       <c r="Z91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA91">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB91">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC91">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6053243</v>
+        <v>6053244</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,7 +8626,7 @@
         <v>45079.65625</v>
       </c>
       <c r="F92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G92" t="s">
         <v>32</v>
@@ -8635,40 +8635,40 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L92">
+        <v>3.4</v>
+      </c>
+      <c r="M92">
         <v>3.6</v>
       </c>
-      <c r="M92">
-        <v>6</v>
-      </c>
       <c r="N92">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O92">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P92">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q92">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R92">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U92">
         <v>1.8</v>
@@ -8680,16 +8680,16 @@
         <v>-1</v>
       </c>
       <c r="X92">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6043235</v>
+        <v>6053243</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,76 +8715,76 @@
         <v>45079.65625</v>
       </c>
       <c r="F93" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G93" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L93">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M93">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N93">
         <v>1.5</v>
       </c>
       <c r="O93">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q93">
         <v>-1</v>
       </c>
       <c r="R93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U93">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V93">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W93">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X93">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y93">
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB93">
         <v>-1</v>
       </c>
       <c r="AC93">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8893,7 +8893,7 @@
         <v>45082.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
         <v>37</v>
@@ -9160,7 +9160,7 @@
         <v>45082.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
         <v>36</v>
@@ -9249,7 +9249,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
         <v>33</v>
@@ -9516,7 +9516,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
         <v>29</v>
@@ -9682,7 +9682,7 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>6053257</v>
+        <v>6043238</v>
       </c>
       <c r="C104" t="s">
         <v>28</v>
@@ -9694,73 +9694,73 @@
         <v>45100.65625</v>
       </c>
       <c r="F104" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H104">
         <v>2</v>
       </c>
       <c r="I104">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>41</v>
+      </c>
+      <c r="K104">
+        <v>3.25</v>
+      </c>
+      <c r="L104">
+        <v>3.2</v>
+      </c>
+      <c r="M104">
+        <v>2.1</v>
+      </c>
+      <c r="N104">
+        <v>3.4</v>
+      </c>
+      <c r="O104">
+        <v>3.1</v>
+      </c>
+      <c r="P104">
+        <v>2.1</v>
+      </c>
+      <c r="Q104">
+        <v>0.25</v>
+      </c>
+      <c r="R104">
+        <v>1.925</v>
+      </c>
+      <c r="S104">
+        <v>1.925</v>
+      </c>
+      <c r="T104">
+        <v>2.25</v>
+      </c>
+      <c r="U104">
+        <v>2</v>
+      </c>
+      <c r="V104">
+        <v>1.85</v>
+      </c>
+      <c r="W104">
+        <v>-1</v>
+      </c>
+      <c r="X104">
+        <v>2.1</v>
+      </c>
+      <c r="Y104">
+        <v>-1</v>
+      </c>
+      <c r="Z104">
+        <v>0.4625</v>
+      </c>
+      <c r="AA104">
+        <v>-0.5</v>
+      </c>
+      <c r="AB104">
         <v>1</v>
-      </c>
-      <c r="J104" t="s">
-        <v>43</v>
-      </c>
-      <c r="K104">
-        <v>6</v>
-      </c>
-      <c r="L104">
-        <v>4</v>
-      </c>
-      <c r="M104">
-        <v>1.5</v>
-      </c>
-      <c r="N104">
-        <v>6.5</v>
-      </c>
-      <c r="O104">
-        <v>4</v>
-      </c>
-      <c r="P104">
-        <v>1.444</v>
-      </c>
-      <c r="Q104">
-        <v>1</v>
-      </c>
-      <c r="R104">
-        <v>2.1</v>
-      </c>
-      <c r="S104">
-        <v>1.775</v>
-      </c>
-      <c r="T104">
-        <v>2.5</v>
-      </c>
-      <c r="U104">
-        <v>1.95</v>
-      </c>
-      <c r="V104">
-        <v>1.9</v>
-      </c>
-      <c r="W104">
-        <v>5.5</v>
-      </c>
-      <c r="X104">
-        <v>-1</v>
-      </c>
-      <c r="Y104">
-        <v>-1</v>
-      </c>
-      <c r="Z104">
-        <v>1.1</v>
-      </c>
-      <c r="AA104">
-        <v>-1</v>
-      </c>
-      <c r="AB104">
-        <v>0.95</v>
       </c>
       <c r="AC104">
         <v>-1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H105">
         <v>1</v>
       </c>
       <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>42</v>
+      </c>
+      <c r="K105">
+        <v>2.45</v>
+      </c>
+      <c r="L105">
+        <v>3.25</v>
+      </c>
+      <c r="M105">
+        <v>2.625</v>
+      </c>
+      <c r="N105">
+        <v>2.5</v>
+      </c>
+      <c r="O105">
+        <v>3.4</v>
+      </c>
+      <c r="P105">
+        <v>2.5</v>
+      </c>
+      <c r="Q105">
         <v>0</v>
       </c>
-      <c r="J105" t="s">
-        <v>43</v>
-      </c>
-      <c r="K105">
-        <v>1.75</v>
-      </c>
-      <c r="L105">
-        <v>3.5</v>
-      </c>
-      <c r="M105">
-        <v>4.2</v>
-      </c>
-      <c r="N105">
-        <v>1.8</v>
-      </c>
-      <c r="O105">
-        <v>3.25</v>
-      </c>
-      <c r="P105">
-        <v>4.333</v>
-      </c>
-      <c r="Q105">
+      <c r="R105">
+        <v>1.925</v>
+      </c>
+      <c r="S105">
+        <v>1.925</v>
+      </c>
+      <c r="T105">
+        <v>2.75</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
+        <v>1.875</v>
+      </c>
+      <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>1.5</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>0.925</v>
+      </c>
+      <c r="AB105">
+        <v>0.4875</v>
+      </c>
+      <c r="AC105">
         <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.85</v>
-      </c>
-      <c r="S105">
-        <v>2</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2.05</v>
-      </c>
-      <c r="V105">
-        <v>1.75</v>
-      </c>
-      <c r="W105">
-        <v>0.8</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>-1</v>
-      </c>
-      <c r="AC105">
-        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9875,7 +9875,7 @@
         <v>35</v>
       </c>
       <c r="G106" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6053255</v>
+        <v>6053256</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H107">
         <v>1</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L107">
+        <v>3.5</v>
+      </c>
+      <c r="M107">
+        <v>4.2</v>
+      </c>
+      <c r="N107">
+        <v>1.8</v>
+      </c>
+      <c r="O107">
         <v>3.25</v>
       </c>
-      <c r="M107">
-        <v>2.625</v>
-      </c>
-      <c r="N107">
-        <v>2.5</v>
-      </c>
-      <c r="O107">
-        <v>3.4</v>
-      </c>
       <c r="P107">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T107">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA107">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC107">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6043238</v>
+        <v>6053257</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,73 +10050,73 @@
         <v>45100.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H108">
         <v>2</v>
       </c>
       <c r="I108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L108">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M108">
+        <v>1.5</v>
+      </c>
+      <c r="N108">
+        <v>6.5</v>
+      </c>
+      <c r="O108">
+        <v>4</v>
+      </c>
+      <c r="P108">
+        <v>1.444</v>
+      </c>
+      <c r="Q108">
+        <v>1</v>
+      </c>
+      <c r="R108">
         <v>2.1</v>
       </c>
-      <c r="N108">
-        <v>3.4</v>
-      </c>
-      <c r="O108">
-        <v>3.1</v>
-      </c>
-      <c r="P108">
-        <v>2.1</v>
-      </c>
-      <c r="Q108">
-        <v>0.25</v>
-      </c>
-      <c r="R108">
-        <v>1.925</v>
-      </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V108">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X108">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.4625</v>
+        <v>1.1</v>
       </c>
       <c r="AA108">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10406,7 +10406,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F112" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10584,7 +10584,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F114" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
         <v>35</v>
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6053266</v>
+        <v>6053263</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,40 +10762,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F116" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M116">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P116">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q116">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R116">
         <v>1.9</v>
@@ -10807,28 +10807,28 @@
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6053265</v>
+        <v>6043241</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,76 +10851,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F117" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
         <v>41</v>
       </c>
       <c r="K117">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="L117">
+        <v>3.75</v>
+      </c>
+      <c r="M117">
+        <v>1.571</v>
+      </c>
+      <c r="N117">
         <v>3.8</v>
       </c>
-      <c r="M117">
-        <v>5.5</v>
-      </c>
-      <c r="N117">
-        <v>1.4</v>
-      </c>
       <c r="O117">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S117">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T117">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U117">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V117">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W117">
         <v>-1</v>
       </c>
       <c r="X117">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
         <v>-1</v>
       </c>
       <c r="AC117">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G119" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
         <v>41</v>
       </c>
       <c r="K119">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L119">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M119">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N119">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O119">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P119">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q119">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R119">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S119">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U119">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V119">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,40 +11118,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R120">
         <v>1.9</v>
@@ -11163,28 +11163,28 @@
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,76 +11207,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H121">
         <v>1</v>
       </c>
       <c r="I121">
+        <v>1</v>
+      </c>
+      <c r="J121" t="s">
+        <v>41</v>
+      </c>
+      <c r="K121">
+        <v>2.4</v>
+      </c>
+      <c r="L121">
         <v>3</v>
       </c>
-      <c r="J121" t="s">
-        <v>42</v>
-      </c>
-      <c r="K121">
-        <v>6.5</v>
-      </c>
-      <c r="L121">
-        <v>4.5</v>
-      </c>
       <c r="M121">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N121">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O121">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P121">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q121">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R121">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S121">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T121">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W121">
         <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y121">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA121">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC121">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11284,7 +11284,7 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C122" t="s">
         <v>28</v>
@@ -11296,76 +11296,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F122" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G122" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H122">
         <v>1</v>
       </c>
       <c r="I122">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K122">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L122">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M122">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N122">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O122">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P122">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q122">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T122">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U122">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V122">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W122">
         <v>-1</v>
       </c>
       <c r="X122">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA122">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB122">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC122">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="123" spans="1:29">
@@ -11388,7 +11388,7 @@
         <v>33</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H123">
         <v>3</v>
@@ -11563,10 +11563,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F125" t="s">
+        <v>32</v>
+      </c>
+      <c r="G125" t="s">
         <v>31</v>
-      </c>
-      <c r="G125" t="s">
-        <v>32</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -11729,7 +11729,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11741,76 +11741,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F127" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H127">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>2</v>
       </c>
       <c r="J127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K127">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L127">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M127">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N127">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O127">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R127">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S127">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T127">
         <v>2.5</v>
       </c>
       <c r="U127">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V127">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W127">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X127">
         <v>-1</v>
       </c>
       <c r="Y127">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z127">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA127">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB127">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC127">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="128" spans="1:29">
@@ -11818,7 +11818,7 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C128" t="s">
         <v>28</v>
@@ -11830,76 +11830,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F128" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I128">
         <v>2</v>
       </c>
       <c r="J128" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K128">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L128">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M128">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N128">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O128">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P128">
+        <v>5</v>
+      </c>
+      <c r="Q128">
+        <v>-0.75</v>
+      </c>
+      <c r="R128">
+        <v>1.8</v>
+      </c>
+      <c r="S128">
         <v>2.05</v>
-      </c>
-      <c r="Q128">
-        <v>0.25</v>
-      </c>
-      <c r="R128">
-        <v>1.975</v>
-      </c>
-      <c r="S128">
-        <v>1.875</v>
       </c>
       <c r="T128">
         <v>2.5</v>
       </c>
       <c r="U128">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V128">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W128">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X128">
         <v>-1</v>
       </c>
       <c r="Y128">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z128">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA128">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB128">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC128">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="129" spans="1:29">
@@ -11922,7 +11922,7 @@
         <v>29</v>
       </c>
       <c r="G129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12011,7 +12011,7 @@
         <v>38</v>
       </c>
       <c r="G130" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H130">
         <v>2</v>
@@ -12085,7 +12085,7 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>6043243</v>
+        <v>6053279</v>
       </c>
       <c r="C131" t="s">
         <v>28</v>
@@ -12097,49 +12097,49 @@
         <v>45149.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H131">
         <v>1</v>
       </c>
       <c r="I131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K131">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L131">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M131">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="N131">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O131">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P131">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q131">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R131">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S131">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T131">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U131">
         <v>1.9</v>
@@ -12148,25 +12148,25 @@
         <v>1.95</v>
       </c>
       <c r="W131">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X131">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y131">
         <v>-1</v>
       </c>
       <c r="Z131">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AA131">
         <v>-0.5</v>
       </c>
       <c r="AB131">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC131">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="132" spans="1:29">
@@ -12174,7 +12174,7 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>6053279</v>
+        <v>6043243</v>
       </c>
       <c r="C132" t="s">
         <v>28</v>
@@ -12186,49 +12186,49 @@
         <v>45149.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H132">
         <v>1</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K132">
+        <v>3.75</v>
+      </c>
+      <c r="L132">
+        <v>3.4</v>
+      </c>
+      <c r="M132">
+        <v>1.8</v>
+      </c>
+      <c r="N132">
+        <v>3.25</v>
+      </c>
+      <c r="O132">
+        <v>3.1</v>
+      </c>
+      <c r="P132">
+        <v>2.05</v>
+      </c>
+      <c r="Q132">
+        <v>0.25</v>
+      </c>
+      <c r="R132">
         <v>1.95</v>
       </c>
-      <c r="L132">
-        <v>3.3</v>
-      </c>
-      <c r="M132">
-        <v>3.3</v>
-      </c>
-      <c r="N132">
-        <v>1.727</v>
-      </c>
-      <c r="O132">
-        <v>3.6</v>
-      </c>
-      <c r="P132">
-        <v>4</v>
-      </c>
-      <c r="Q132">
-        <v>-0.75</v>
-      </c>
-      <c r="R132">
-        <v>1.975</v>
-      </c>
       <c r="S132">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T132">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U132">
         <v>1.9</v>
@@ -12237,25 +12237,25 @@
         <v>1.95</v>
       </c>
       <c r="W132">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X132">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y132">
         <v>-1</v>
       </c>
       <c r="Z132">
-        <v>0.4875</v>
+        <v>0.475</v>
       </c>
       <c r="AA132">
         <v>-0.5</v>
       </c>
       <c r="AB132">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC132">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="133" spans="1:29">
@@ -12275,7 +12275,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
         <v>34</v>
@@ -12812,7 +12812,7 @@
         <v>36</v>
       </c>
       <c r="G139" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H139">
         <v>3</v>
@@ -12901,7 +12901,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12975,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>6053286</v>
+        <v>6053287</v>
       </c>
       <c r="C141" t="s">
         <v>28</v>
@@ -12987,49 +12987,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F141" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G141" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H141">
+        <v>1</v>
+      </c>
+      <c r="I141">
         <v>3</v>
       </c>
-      <c r="I141">
-        <v>0</v>
-      </c>
       <c r="J141" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K141">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L141">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M141">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N141">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O141">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P141">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q141">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R141">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S141">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T141">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U141">
         <v>1.975</v>
@@ -13038,25 +13038,25 @@
         <v>1.875</v>
       </c>
       <c r="W141">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X141">
         <v>-1</v>
       </c>
       <c r="Y141">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z141">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA141">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB141">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC141">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="142" spans="1:29">
@@ -13064,7 +13064,7 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>6043245</v>
+        <v>6053285</v>
       </c>
       <c r="C142" t="s">
         <v>28</v>
@@ -13076,10 +13076,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G142" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H142">
         <v>3</v>
@@ -13091,43 +13091,43 @@
         <v>43</v>
       </c>
       <c r="K142">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L142">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M142">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N142">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O142">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P142">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q142">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R142">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S142">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T142">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U142">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V142">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W142">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X142">
         <v>-1</v>
@@ -13136,13 +13136,13 @@
         <v>-1</v>
       </c>
       <c r="Z142">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA142">
         <v>-1</v>
       </c>
       <c r="AB142">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC142">
         <v>-1</v>
@@ -13153,7 +13153,7 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C143" t="s">
         <v>28</v>
@@ -13165,10 +13165,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F143" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G143" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H143">
         <v>3</v>
@@ -13180,43 +13180,43 @@
         <v>43</v>
       </c>
       <c r="K143">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L143">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M143">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N143">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O143">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P143">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q143">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R143">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S143">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T143">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U143">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V143">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W143">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X143">
         <v>-1</v>
@@ -13225,13 +13225,13 @@
         <v>-1</v>
       </c>
       <c r="Z143">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA143">
         <v>-1</v>
       </c>
       <c r="AB143">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC143">
         <v>-1</v>
@@ -13242,7 +13242,7 @@
         <v>142</v>
       </c>
       <c r="B144">
-        <v>6053287</v>
+        <v>6053286</v>
       </c>
       <c r="C144" t="s">
         <v>28</v>
@@ -13254,49 +13254,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F144" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G144" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144" t="s">
+        <v>43</v>
+      </c>
+      <c r="K144">
+        <v>1.25</v>
+      </c>
+      <c r="L144">
+        <v>5.5</v>
+      </c>
+      <c r="M144">
+        <v>11</v>
+      </c>
+      <c r="N144">
+        <v>1.3</v>
+      </c>
+      <c r="O144">
+        <v>5.25</v>
+      </c>
+      <c r="P144">
+        <v>9</v>
+      </c>
+      <c r="Q144">
+        <v>-1.5</v>
+      </c>
+      <c r="R144">
+        <v>1.925</v>
+      </c>
+      <c r="S144">
+        <v>1.925</v>
+      </c>
+      <c r="T144">
         <v>3</v>
-      </c>
-      <c r="J144" t="s">
-        <v>42</v>
-      </c>
-      <c r="K144">
-        <v>3</v>
-      </c>
-      <c r="L144">
-        <v>3.25</v>
-      </c>
-      <c r="M144">
-        <v>2.2</v>
-      </c>
-      <c r="N144">
-        <v>3.4</v>
-      </c>
-      <c r="O144">
-        <v>3</v>
-      </c>
-      <c r="P144">
-        <v>2.15</v>
-      </c>
-      <c r="Q144">
-        <v>0.25</v>
-      </c>
-      <c r="R144">
-        <v>1.95</v>
-      </c>
-      <c r="S144">
-        <v>1.9</v>
-      </c>
-      <c r="T144">
-        <v>2.25</v>
       </c>
       <c r="U144">
         <v>1.975</v>
@@ -13305,25 +13305,25 @@
         <v>1.875</v>
       </c>
       <c r="W144">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X144">
         <v>-1</v>
       </c>
       <c r="Y144">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z144">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA144">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB144">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC144">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="145" spans="1:29">
@@ -13343,7 +13343,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F145" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G145" t="s">
         <v>30</v>
@@ -13877,10 +13877,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F151" t="s">
+        <v>31</v>
+      </c>
+      <c r="G151" t="s">
         <v>32</v>
-      </c>
-      <c r="G151" t="s">
-        <v>31</v>
       </c>
       <c r="H151">
         <v>2</v>
@@ -14132,7 +14132,7 @@
         <v>152</v>
       </c>
       <c r="B154">
-        <v>6053289</v>
+        <v>6053291</v>
       </c>
       <c r="C154" t="s">
         <v>28</v>
@@ -14144,76 +14144,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F154" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G154" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H154">
         <v>1</v>
       </c>
       <c r="I154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K154">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L154">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M154">
+        <v>4.75</v>
+      </c>
+      <c r="N154">
+        <v>1.5</v>
+      </c>
+      <c r="O154">
         <v>4.2</v>
       </c>
-      <c r="N154">
-        <v>2.1</v>
-      </c>
-      <c r="O154">
-        <v>3.3</v>
-      </c>
       <c r="P154">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q154">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R154">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S154">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T154">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U154">
+        <v>2.025</v>
+      </c>
+      <c r="V154">
         <v>1.825</v>
       </c>
-      <c r="V154">
-        <v>2.025</v>
-      </c>
       <c r="W154">
         <v>-1</v>
       </c>
       <c r="X154">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y154">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z154">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA154">
-        <v>0.5249999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB154">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC154">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="155" spans="1:29">
@@ -14221,7 +14221,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6053291</v>
+        <v>6053289</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14233,76 +14233,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G155" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H155">
         <v>1</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K155">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M155">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N155">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O155">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P155">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U155">
+        <v>1.825</v>
+      </c>
+      <c r="V155">
         <v>2.025</v>
       </c>
-      <c r="V155">
-        <v>1.825</v>
-      </c>
       <c r="W155">
         <v>-1</v>
       </c>
       <c r="X155">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y155">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14325,7 +14325,7 @@
         <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H156">
         <v>5</v>
@@ -14414,7 +14414,7 @@
         <v>38</v>
       </c>
       <c r="G157" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H157">
         <v>1</v>
@@ -14678,7 +14678,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F160" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G160" t="s">
         <v>30</v>
@@ -14844,7 +14844,7 @@
         <v>160</v>
       </c>
       <c r="B162">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C162" t="s">
         <v>28</v>
@@ -14856,67 +14856,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F162" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G162" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I162">
         <v>0</v>
       </c>
       <c r="J162" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K162">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L162">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M162">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N162">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O162">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P162">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q162">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R162">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S162">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T162">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U162">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V162">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W162">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X162">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y162">
         <v>-1</v>
       </c>
       <c r="Z162">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA162">
         <v>-1</v>
@@ -14925,7 +14925,7 @@
         <v>-1</v>
       </c>
       <c r="AC162">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="163" spans="1:29">
@@ -14933,7 +14933,7 @@
         <v>161</v>
       </c>
       <c r="B163">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C163" t="s">
         <v>28</v>
@@ -14945,67 +14945,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F163" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G163" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
       </c>
       <c r="J163" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K163">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L163">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M163">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N163">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O163">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P163">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q163">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R163">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S163">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T163">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U163">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V163">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W163">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X163">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y163">
         <v>-1</v>
       </c>
       <c r="Z163">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA163">
         <v>-1</v>
@@ -15014,7 +15014,7 @@
         <v>-1</v>
       </c>
       <c r="AC163">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="164" spans="1:29">
@@ -15126,7 +15126,7 @@
         <v>35</v>
       </c>
       <c r="G165" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15393,7 +15393,7 @@
         <v>34</v>
       </c>
       <c r="G168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -15657,7 +15657,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15746,7 +15746,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F172" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G172" t="s">
         <v>34</v>
@@ -16102,7 +16102,7 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F176" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G176" t="s">
         <v>38</v>
@@ -16283,7 +16283,7 @@
         <v>37</v>
       </c>
       <c r="G178" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H178">
         <v>4</v>
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6412498</v>
+        <v>6407558</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,76 +16369,76 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J179" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K179">
-        <v>1.7</v>
+        <v>3.3</v>
       </c>
       <c r="L179">
+        <v>3.4</v>
+      </c>
+      <c r="M179">
+        <v>2</v>
+      </c>
+      <c r="N179">
+        <v>5</v>
+      </c>
+      <c r="O179">
         <v>3.75</v>
       </c>
-      <c r="M179">
-        <v>4.2</v>
-      </c>
-      <c r="N179">
-        <v>1.45</v>
-      </c>
-      <c r="O179">
-        <v>4</v>
-      </c>
       <c r="P179">
-        <v>6.5</v>
+        <v>1.6</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>0.75</v>
       </c>
       <c r="R179">
+        <v>2.05</v>
+      </c>
+      <c r="S179">
+        <v>1.8</v>
+      </c>
+      <c r="T179">
+        <v>2.5</v>
+      </c>
+      <c r="U179">
         <v>1.925</v>
       </c>
-      <c r="S179">
+      <c r="V179">
         <v>1.925</v>
       </c>
-      <c r="T179">
-        <v>2.75</v>
-      </c>
-      <c r="U179">
-        <v>2</v>
-      </c>
-      <c r="V179">
-        <v>1.85</v>
-      </c>
       <c r="W179">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X179">
         <v>-1</v>
       </c>
       <c r="Y179">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z179">
+        <v>-1</v>
+      </c>
+      <c r="AA179">
+        <v>0.8</v>
+      </c>
+      <c r="AB179">
         <v>0.925</v>
       </c>
-      <c r="AA179">
-        <v>-1</v>
-      </c>
-      <c r="AB179">
-        <v>0.5</v>
-      </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16446,7 +16446,7 @@
         <v>178</v>
       </c>
       <c r="B180">
-        <v>6407558</v>
+        <v>6412856</v>
       </c>
       <c r="C180" t="s">
         <v>28</v>
@@ -16458,73 +16458,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F180" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G180" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I180">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J180" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K180">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L180">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M180">
-        <v>2</v>
+        <v>9.5</v>
       </c>
       <c r="N180">
-        <v>5</v>
+        <v>1.222</v>
       </c>
       <c r="O180">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="P180">
-        <v>1.6</v>
+        <v>9</v>
       </c>
       <c r="Q180">
-        <v>0.75</v>
+        <v>-1.75</v>
       </c>
       <c r="R180">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="S180">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="T180">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U180">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V180">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W180">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X180">
         <v>-1</v>
       </c>
       <c r="Y180">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z180">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA180">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB180">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC180">
         <v>-1</v>
@@ -16535,7 +16535,7 @@
         <v>179</v>
       </c>
       <c r="B181">
-        <v>6412856</v>
+        <v>6412498</v>
       </c>
       <c r="C181" t="s">
         <v>28</v>
@@ -16547,49 +16547,49 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F181" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H181">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I181">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J181" t="s">
         <v>43</v>
       </c>
       <c r="K181">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="L181">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M181">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N181">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O181">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P181">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q181">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R181">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S181">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T181">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U181">
         <v>2</v>
@@ -16598,7 +16598,7 @@
         <v>1.85</v>
       </c>
       <c r="W181">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X181">
         <v>-1</v>
@@ -16607,16 +16607,16 @@
         <v>-1</v>
       </c>
       <c r="Z181">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA181">
+        <v>-1</v>
+      </c>
+      <c r="AB181">
+        <v>0.5</v>
+      </c>
+      <c r="AC181">
         <v>-0.5</v>
-      </c>
-      <c r="AB181">
-        <v>1</v>
-      </c>
-      <c r="AC181">
-        <v>-1</v>
       </c>
     </row>
     <row r="182" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7630127</v>
+        <v>7630125</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,40 +16814,40 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F184" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G184" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I184">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J184" t="s">
         <v>41</v>
       </c>
       <c r="K184">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L184">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M184">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N184">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O184">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P184">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q184">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R184">
         <v>2.025</v>
@@ -16856,34 +16856,34 @@
         <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U184">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V184">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA184">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB184">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC184">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,76 +16903,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G185" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H185">
         <v>2</v>
       </c>
       <c r="I185">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J185" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K185">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L185">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M185">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N185">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O185">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P185">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q185">
+        <v>-1.5</v>
+      </c>
+      <c r="R185">
+        <v>1.975</v>
+      </c>
+      <c r="S185">
+        <v>1.875</v>
+      </c>
+      <c r="T185">
+        <v>2.75</v>
+      </c>
+      <c r="U185">
+        <v>1.875</v>
+      </c>
+      <c r="V185">
+        <v>1.975</v>
+      </c>
+      <c r="W185">
+        <v>0.333</v>
+      </c>
+      <c r="X185">
+        <v>-1</v>
+      </c>
+      <c r="Y185">
+        <v>-1</v>
+      </c>
+      <c r="Z185">
+        <v>-1</v>
+      </c>
+      <c r="AA185">
+        <v>0.875</v>
+      </c>
+      <c r="AB185">
+        <v>0.4375</v>
+      </c>
+      <c r="AC185">
         <v>-0.5</v>
-      </c>
-      <c r="R185">
-        <v>2.025</v>
-      </c>
-      <c r="S185">
-        <v>1.825</v>
-      </c>
-      <c r="T185">
-        <v>2.5</v>
-      </c>
-      <c r="U185">
-        <v>2.05</v>
-      </c>
-      <c r="V185">
-        <v>1.8</v>
-      </c>
-      <c r="W185">
-        <v>-1</v>
-      </c>
-      <c r="X185">
-        <v>2.6</v>
-      </c>
-      <c r="Y185">
-        <v>-1</v>
-      </c>
-      <c r="Z185">
-        <v>-1</v>
-      </c>
-      <c r="AA185">
-        <v>0.825</v>
-      </c>
-      <c r="AB185">
-        <v>1.05</v>
-      </c>
-      <c r="AC185">
-        <v>-1</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16980,7 +16980,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7630126</v>
+        <v>7630127</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,76 +16992,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F186" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G186" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186">
         <v>1</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K186">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L186">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M186">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N186">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O186">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P186">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q186">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W186">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y186">
         <v>-1</v>
       </c>
       <c r="Z186">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA186">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB186">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -103,13 +103,13 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
     <t>St Patricks</t>
   </si>
   <si>
     <t>Shelbourne</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Cork City</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6052970</v>
+        <v>6052972</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -631,61 +631,61 @@
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.3</v>
+        <v>2.7</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="M2">
-        <v>8</v>
+        <v>2.4</v>
       </c>
       <c r="N2">
-        <v>1.222</v>
+        <v>2.8</v>
       </c>
       <c r="O2">
-        <v>5.75</v>
+        <v>3.3</v>
       </c>
       <c r="P2">
-        <v>11</v>
+        <v>2.25</v>
       </c>
       <c r="Q2">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R2">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V2">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA2">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>0.925</v>
+        <v>0.4125</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6052972</v>
+        <v>6052971</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
         <v>41</v>
       </c>
       <c r="K3">
-        <v>2.7</v>
+        <v>1.45</v>
       </c>
       <c r="L3">
-        <v>3.3</v>
+        <v>4.2</v>
       </c>
       <c r="M3">
-        <v>2.4</v>
+        <v>6</v>
       </c>
       <c r="N3">
-        <v>2.8</v>
+        <v>1.55</v>
       </c>
       <c r="O3">
-        <v>3.3</v>
+        <v>3.8</v>
       </c>
       <c r="P3">
-        <v>2.25</v>
+        <v>5.25</v>
       </c>
       <c r="Q3">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T3">
         <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.3</v>
+        <v>2.8</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.4125</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6052971</v>
+        <v>6052970</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,58 +797,58 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>1.45</v>
+        <v>1.3</v>
       </c>
       <c r="L4">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>1.55</v>
+        <v>1.222</v>
       </c>
       <c r="O4">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="P4">
-        <v>5.25</v>
+        <v>11</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R4">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S4">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U4">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V4">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W4">
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.8</v>
+        <v>4.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
@@ -857,13 +857,13 @@
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -1239,10 +1239,10 @@
         <v>44981.69791666666</v>
       </c>
       <c r="F9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" t="s">
         <v>30</v>
-      </c>
-      <c r="G9" t="s">
-        <v>31</v>
       </c>
       <c r="H9">
         <v>1</v>
@@ -1331,7 +1331,7 @@
         <v>36</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>2</v>
@@ -1506,10 +1506,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" t="s">
         <v>29</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
       </c>
       <c r="H12">
         <v>5</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053177</v>
+        <v>6053174</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,13 +1595,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -1610,43 +1610,43 @@
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>3.1</v>
       </c>
       <c r="M13">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="N13">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="O13">
-        <v>2.9</v>
+        <v>3.8</v>
       </c>
       <c r="P13">
-        <v>2.375</v>
+        <v>7.5</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R13">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S13">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U13">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V13">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W13">
-        <v>2</v>
+        <v>0.444</v>
       </c>
       <c r="X13">
         <v>-1</v>
@@ -1655,16 +1655,16 @@
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AA13">
         <v>-1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC13">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053174</v>
+        <v>6053175</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,13 +1684,13 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1699,43 +1699,43 @@
         <v>43</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>2.9</v>
       </c>
       <c r="L14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M14">
-        <v>3.6</v>
+        <v>2.25</v>
       </c>
       <c r="N14">
-        <v>1.444</v>
+        <v>2.75</v>
       </c>
       <c r="O14">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>7.5</v>
+        <v>2.375</v>
       </c>
       <c r="Q14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R14">
+        <v>2.05</v>
+      </c>
+      <c r="S14">
         <v>1.8</v>
       </c>
-      <c r="S14">
-        <v>2.05</v>
-      </c>
       <c r="T14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U14">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V14">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W14">
-        <v>0.444</v>
+        <v>1.75</v>
       </c>
       <c r="X14">
         <v>-1</v>
@@ -1744,16 +1744,16 @@
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="AA14">
         <v>-1</v>
       </c>
       <c r="AB14">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053175</v>
+        <v>6053177</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,10 +1773,10 @@
         <v>44988.69791666666</v>
       </c>
       <c r="F15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -1788,19 +1788,19 @@
         <v>43</v>
       </c>
       <c r="K15">
+        <v>2.25</v>
+      </c>
+      <c r="L15">
+        <v>3.1</v>
+      </c>
+      <c r="M15">
+        <v>3.1</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
         <v>2.9</v>
-      </c>
-      <c r="L15">
-        <v>3.25</v>
-      </c>
-      <c r="M15">
-        <v>2.25</v>
-      </c>
-      <c r="N15">
-        <v>2.75</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
       </c>
       <c r="P15">
         <v>2.375</v>
@@ -1809,22 +1809,22 @@
         <v>0</v>
       </c>
       <c r="R15">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S15">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="T15">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V15">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W15">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="X15">
         <v>-1</v>
@@ -1833,7 +1833,7 @@
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="AA15">
         <v>-1</v>
@@ -1842,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1954,7 +1954,7 @@
         <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -2040,10 +2040,10 @@
         <v>44991.69791666666</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2396,7 +2396,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G22" t="s">
         <v>38</v>
@@ -2577,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>44995.69791666666</v>
       </c>
       <c r="F25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
@@ -2844,7 +2844,7 @@
         <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2933,7 +2933,7 @@
         <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H28">
         <v>2</v>
@@ -3022,7 +3022,7 @@
         <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053186</v>
+        <v>6053188</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.25</v>
+        <v>1.45</v>
       </c>
       <c r="L30">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="M30">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="N30">
-        <v>1.25</v>
+        <v>1.55</v>
       </c>
       <c r="O30">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="Q30">
-        <v>-1.75</v>
+        <v>-1</v>
       </c>
       <c r="R30">
         <v>2.025</v>
@@ -3150,19 +3150,19 @@
         <v>1.825</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y30">
         <v>-1</v>
@@ -3174,10 +3174,10 @@
         <v>0.825</v>
       </c>
       <c r="AB30">
-        <v>0.4125</v>
+        <v>-0.5</v>
       </c>
       <c r="AC30">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053188</v>
+        <v>6053186</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,40 +3197,40 @@
         <v>45002.69791666666</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.45</v>
+        <v>1.25</v>
       </c>
       <c r="L31">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="M31">
-        <v>7</v>
+        <v>9.5</v>
       </c>
       <c r="N31">
-        <v>1.55</v>
+        <v>1.25</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="Q31">
-        <v>-1</v>
+        <v>-1.75</v>
       </c>
       <c r="R31">
         <v>2.025</v>
@@ -3239,19 +3239,19 @@
         <v>1.825</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="X31">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
@@ -3263,10 +3263,10 @@
         <v>0.825</v>
       </c>
       <c r="AB31">
+        <v>0.4125</v>
+      </c>
+      <c r="AC31">
         <v>-0.5</v>
-      </c>
-      <c r="AC31">
-        <v>0.5</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
         <v>34</v>
@@ -3375,7 +3375,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G33" t="s">
         <v>38</v>
@@ -3553,7 +3553,7 @@
         <v>45016.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
         <v>35</v>
@@ -3731,7 +3731,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
         <v>33</v>
@@ -3820,7 +3820,7 @@
         <v>45023.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -4001,7 +4001,7 @@
         <v>35</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -4179,7 +4179,7 @@
         <v>32</v>
       </c>
       <c r="G42" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H42">
         <v>1</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053208</v>
+        <v>6053207</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,40 +4354,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
-        <v>1.952</v>
+        <v>3.2</v>
       </c>
       <c r="L44">
+        <v>3.2</v>
+      </c>
+      <c r="M44">
+        <v>2.05</v>
+      </c>
+      <c r="N44">
         <v>3.1</v>
       </c>
-      <c r="M44">
-        <v>3.6</v>
-      </c>
-      <c r="N44">
-        <v>2.25</v>
-      </c>
       <c r="O44">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="P44">
-        <v>3.1</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
         <v>2</v>
@@ -4396,31 +4396,31 @@
         <v>1.85</v>
       </c>
       <c r="T44">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="X44">
         <v>-1</v>
       </c>
       <c r="Y44">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z44">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC44">
         <v>-1</v>
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053207</v>
+        <v>6053208</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,40 +4443,40 @@
         <v>45026.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H45">
+        <v>2</v>
+      </c>
+      <c r="I45">
         <v>1</v>
       </c>
-      <c r="I45">
-        <v>3</v>
-      </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>3.2</v>
+        <v>1.952</v>
       </c>
       <c r="L45">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M45">
-        <v>2.05</v>
+        <v>3.6</v>
       </c>
       <c r="N45">
+        <v>2.25</v>
+      </c>
+      <c r="O45">
+        <v>2.9</v>
+      </c>
+      <c r="P45">
         <v>3.1</v>
       </c>
-      <c r="O45">
-        <v>3.3</v>
-      </c>
-      <c r="P45">
-        <v>2.05</v>
-      </c>
       <c r="Q45">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R45">
         <v>2</v>
@@ -4485,31 +4485,31 @@
         <v>1.85</v>
       </c>
       <c r="T45">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="X45">
         <v>-1</v>
       </c>
       <c r="Y45">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB45">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AC45">
         <v>-1</v>
@@ -4624,7 +4624,7 @@
         <v>38</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>2</v>
@@ -4713,7 +4713,7 @@
         <v>36</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>2</v>
@@ -4977,7 +4977,7 @@
         <v>45032.45833333334</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>34</v>
@@ -5155,10 +5155,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
         <v>31</v>
-      </c>
-      <c r="G53" t="s">
-        <v>29</v>
       </c>
       <c r="H53">
         <v>1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6043227</v>
+        <v>6053214</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,10 +5244,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -5259,40 +5259,40 @@
         <v>42</v>
       </c>
       <c r="K54">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M54">
-        <v>1.909</v>
+        <v>1.95</v>
       </c>
       <c r="N54">
-        <v>3.6</v>
+        <v>2.875</v>
       </c>
       <c r="O54">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>1.909</v>
+        <v>2.4</v>
       </c>
       <c r="Q54">
-        <v>0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.875</v>
+        <v>1.725</v>
       </c>
       <c r="S54">
-        <v>1.975</v>
+        <v>2.075</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W54">
         <v>-1</v>
@@ -5301,19 +5301,19 @@
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>0.909</v>
+        <v>1.4</v>
       </c>
       <c r="Z54">
         <v>-1</v>
       </c>
       <c r="AA54">
-        <v>0.9750000000000001</v>
+        <v>1.075</v>
       </c>
       <c r="AB54">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC54">
-        <v>0.8500000000000001</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053214</v>
+        <v>6043227</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,10 +5333,10 @@
         <v>45037.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -5348,40 +5348,40 @@
         <v>42</v>
       </c>
       <c r="K55">
+        <v>3.75</v>
+      </c>
+      <c r="L55">
+        <v>3.4</v>
+      </c>
+      <c r="M55">
+        <v>1.909</v>
+      </c>
+      <c r="N55">
         <v>3.6</v>
       </c>
-      <c r="L55">
-        <v>3.2</v>
-      </c>
-      <c r="M55">
-        <v>1.95</v>
-      </c>
-      <c r="N55">
-        <v>2.875</v>
-      </c>
       <c r="O55">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P55">
-        <v>2.4</v>
+        <v>1.909</v>
       </c>
       <c r="Q55">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R55">
-        <v>1.725</v>
+        <v>1.875</v>
       </c>
       <c r="S55">
-        <v>2.075</v>
+        <v>1.975</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
         <v>-1</v>
@@ -5390,19 +5390,19 @@
         <v>-1</v>
       </c>
       <c r="Y55">
-        <v>1.4</v>
+        <v>0.909</v>
       </c>
       <c r="Z55">
         <v>-1</v>
       </c>
       <c r="AA55">
-        <v>1.075</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB55">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC55">
-        <v>0.4</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053220</v>
+        <v>6053219</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,76 +5511,76 @@
         <v>45044.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
         <v>1</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>5.75</v>
+        <v>1.909</v>
       </c>
       <c r="L57">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M57">
-        <v>1.533</v>
+        <v>3.8</v>
       </c>
       <c r="N57">
-        <v>6.5</v>
+        <v>2.05</v>
       </c>
       <c r="O57">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>1.4</v>
+        <v>3.4</v>
       </c>
       <c r="Q57">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S57">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U57">
+        <v>1.95</v>
+      </c>
+      <c r="V57">
         <v>1.9</v>
       </c>
-      <c r="V57">
-        <v>1.95</v>
-      </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="X57">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y57">
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053219</v>
+        <v>6053220</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,76 +5600,76 @@
         <v>45044.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
         <v>1</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K58">
-        <v>1.909</v>
+        <v>5.75</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M58">
-        <v>3.8</v>
+        <v>1.533</v>
       </c>
       <c r="N58">
-        <v>2.05</v>
+        <v>6.5</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="P58">
-        <v>3.4</v>
+        <v>1.4</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R58">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S58">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T58">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
+        <v>1.9</v>
+      </c>
+      <c r="V58">
         <v>1.95</v>
       </c>
-      <c r="V58">
-        <v>1.9</v>
-      </c>
       <c r="W58">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="X58">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y58">
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
+        <v>-1</v>
+      </c>
+      <c r="AC58">
         <v>0.95</v>
-      </c>
-      <c r="AC58">
-        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5677,7 +5677,7 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>6053217</v>
+        <v>6053218</v>
       </c>
       <c r="C59" t="s">
         <v>28</v>
@@ -5689,40 +5689,40 @@
         <v>45044.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I59">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J59" t="s">
         <v>43</v>
       </c>
       <c r="K59">
-        <v>1.666</v>
+        <v>1.833</v>
       </c>
       <c r="L59">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M59">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>1.8</v>
+        <v>2.05</v>
       </c>
       <c r="O59">
+        <v>3.25</v>
+      </c>
+      <c r="P59">
         <v>3.4</v>
       </c>
-      <c r="P59">
-        <v>4.2</v>
-      </c>
       <c r="Q59">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R59">
         <v>1.825</v>
@@ -5731,16 +5731,16 @@
         <v>2.025</v>
       </c>
       <c r="T59">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V59">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W59">
-        <v>0.8</v>
+        <v>1.05</v>
       </c>
       <c r="X59">
         <v>-1</v>
@@ -5755,10 +5755,10 @@
         <v>-1</v>
       </c>
       <c r="AB59">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC59">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="60" spans="1:29">
@@ -5766,7 +5766,7 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>6053218</v>
+        <v>6053217</v>
       </c>
       <c r="C60" t="s">
         <v>28</v>
@@ -5778,40 +5778,40 @@
         <v>45044.65625</v>
       </c>
       <c r="F60" t="s">
+        <v>34</v>
+      </c>
+      <c r="G60" t="s">
         <v>29</v>
       </c>
-      <c r="G60" t="s">
-        <v>37</v>
-      </c>
       <c r="H60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
         <v>43</v>
       </c>
       <c r="K60">
-        <v>1.833</v>
+        <v>1.666</v>
       </c>
       <c r="L60">
+        <v>3.5</v>
+      </c>
+      <c r="M60">
+        <v>4.75</v>
+      </c>
+      <c r="N60">
+        <v>1.8</v>
+      </c>
+      <c r="O60">
         <v>3.4</v>
       </c>
-      <c r="M60">
-        <v>4</v>
-      </c>
-      <c r="N60">
-        <v>2.05</v>
-      </c>
-      <c r="O60">
-        <v>3.25</v>
-      </c>
       <c r="P60">
-        <v>3.4</v>
+        <v>4.2</v>
       </c>
       <c r="Q60">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R60">
         <v>1.825</v>
@@ -5820,16 +5820,16 @@
         <v>2.025</v>
       </c>
       <c r="T60">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U60">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V60">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W60">
-        <v>1.05</v>
+        <v>0.8</v>
       </c>
       <c r="X60">
         <v>-1</v>
@@ -5844,10 +5844,10 @@
         <v>-1</v>
       </c>
       <c r="AB60">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC60">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="61" spans="1:29">
@@ -5956,7 +5956,7 @@
         <v>45047.45833333334</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G62" t="s">
         <v>33</v>
@@ -6048,7 +6048,7 @@
         <v>35</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6401,7 +6401,7 @@
         <v>45051.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>35</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6043230</v>
+        <v>6053226</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,46 +6490,46 @@
         <v>45051.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="L68">
         <v>3.6</v>
       </c>
       <c r="M68">
-        <v>4.75</v>
+        <v>1.7</v>
       </c>
       <c r="N68">
-        <v>1.727</v>
+        <v>4</v>
       </c>
       <c r="O68">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P68">
-        <v>4.75</v>
+        <v>1.95</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R68">
+        <v>1.875</v>
+      </c>
+      <c r="S68">
         <v>1.975</v>
-      </c>
-      <c r="S68">
-        <v>1.875</v>
       </c>
       <c r="T68">
         <v>2.25</v>
@@ -6541,25 +6541,25 @@
         <v>1.95</v>
       </c>
       <c r="W68">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="Z68">
+        <v>-1</v>
+      </c>
+      <c r="AA68">
         <v>0.9750000000000001</v>
       </c>
-      <c r="AA68">
-        <v>-1</v>
-      </c>
       <c r="AB68">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC68">
-        <v>0.475</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6582,7 +6582,7 @@
         <v>32</v>
       </c>
       <c r="G69" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H69">
         <v>2</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6053226</v>
+        <v>6043230</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,46 +6668,46 @@
         <v>45051.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G70" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
         <v>0</v>
       </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>5</v>
+        <v>1.7</v>
       </c>
       <c r="L70">
         <v>3.6</v>
       </c>
       <c r="M70">
-        <v>1.7</v>
+        <v>4.75</v>
       </c>
       <c r="N70">
-        <v>4</v>
+        <v>1.727</v>
       </c>
       <c r="O70">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="Q70">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>1.975</v>
+      </c>
+      <c r="S70">
         <v>1.875</v>
-      </c>
-      <c r="S70">
-        <v>1.975</v>
       </c>
       <c r="T70">
         <v>2.25</v>
@@ -6719,25 +6719,25 @@
         <v>1.95</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC70">
-        <v>0.95</v>
+        <v>0.475</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6760,7 +6760,7 @@
         <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -6846,7 +6846,7 @@
         <v>45058.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G72" t="s">
         <v>32</v>
@@ -7113,7 +7113,7 @@
         <v>45058.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
         <v>37</v>
@@ -7205,7 +7205,7 @@
         <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7294,7 +7294,7 @@
         <v>34</v>
       </c>
       <c r="G77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>3</v>
@@ -7383,7 +7383,7 @@
         <v>38</v>
       </c>
       <c r="G78" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H78">
         <v>3</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6053236</v>
+        <v>6053234</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45065.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M79">
-        <v>2.55</v>
+        <v>2.1</v>
       </c>
       <c r="N79">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="O79">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>2.45</v>
+        <v>2.1</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R79">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S79">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V79">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W79">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X79">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
         <v>-1</v>
       </c>
       <c r="Z79">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA79">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB79">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC79">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7558,10 +7558,10 @@
         <v>45065.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7724,7 +7724,7 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>6053234</v>
+        <v>6053236</v>
       </c>
       <c r="C82" t="s">
         <v>28</v>
@@ -7736,76 +7736,76 @@
         <v>45065.65625</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I82">
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>41</v>
+      </c>
+      <c r="K82">
+        <v>2.6</v>
+      </c>
+      <c r="L82">
+        <v>3.2</v>
+      </c>
+      <c r="M82">
+        <v>2.55</v>
+      </c>
+      <c r="N82">
+        <v>2.7</v>
+      </c>
+      <c r="O82">
+        <v>3.2</v>
+      </c>
+      <c r="P82">
+        <v>2.45</v>
+      </c>
+      <c r="Q82">
         <v>0</v>
       </c>
-      <c r="J82" t="s">
-        <v>43</v>
-      </c>
-      <c r="K82">
-        <v>3.1</v>
-      </c>
-      <c r="L82">
-        <v>3.4</v>
-      </c>
-      <c r="M82">
-        <v>2.1</v>
-      </c>
-      <c r="N82">
-        <v>3.1</v>
-      </c>
-      <c r="O82">
-        <v>3.4</v>
-      </c>
-      <c r="P82">
-        <v>2.1</v>
-      </c>
-      <c r="Q82">
-        <v>0.25</v>
-      </c>
       <c r="R82">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S82">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T82">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U82">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V82">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W82">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X82">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y82">
         <v>-1</v>
       </c>
       <c r="Z82">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AA82">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB82">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC82">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="83" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>36</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -8181,10 +8181,10 @@
         <v>45072.65625</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>2</v>
@@ -8451,7 +8451,7 @@
         <v>35</v>
       </c>
       <c r="G90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H90">
         <v>1</v>
@@ -8629,7 +8629,7 @@
         <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H92">
         <v>2</v>
@@ -8718,7 +8718,7 @@
         <v>34</v>
       </c>
       <c r="G93" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -8893,7 +8893,7 @@
         <v>45082.54166666666</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
         <v>35</v>
@@ -9071,7 +9071,7 @@
         <v>45082.61458333334</v>
       </c>
       <c r="F97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
         <v>34</v>
@@ -9160,7 +9160,7 @@
         <v>45082.65625</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
         <v>37</v>
@@ -9341,7 +9341,7 @@
         <v>37</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H100">
         <v>2</v>
@@ -9427,7 +9427,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F101" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G101" t="s">
         <v>33</v>
@@ -9519,7 +9519,7 @@
         <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H102">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>6053255</v>
+        <v>6053254</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G105" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L105">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M105">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N105">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P105">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R105">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA105">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC105">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>6053257</v>
+        <v>6053256</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,58 +9872,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F106" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J106" t="s">
         <v>43</v>
       </c>
       <c r="K106">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L106">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M106">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="N106">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O106">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P106">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q106">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T106">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V106">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W106">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,16 +9932,16 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>6053254</v>
+        <v>6053257</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,59 +9961,59 @@
         <v>45100.65625</v>
       </c>
       <c r="F107" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H107">
         <v>2</v>
       </c>
       <c r="I107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J107" t="s">
         <v>43</v>
       </c>
       <c r="K107">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L107">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M107">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N107">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="O107">
         <v>4</v>
       </c>
       <c r="P107">
+        <v>1.444</v>
+      </c>
+      <c r="Q107">
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <v>2.1</v>
+      </c>
+      <c r="S107">
+        <v>1.775</v>
+      </c>
+      <c r="T107">
+        <v>2.5</v>
+      </c>
+      <c r="U107">
+        <v>1.95</v>
+      </c>
+      <c r="V107">
+        <v>1.9</v>
+      </c>
+      <c r="W107">
         <v>5.5</v>
       </c>
-      <c r="Q107">
-        <v>-1</v>
-      </c>
-      <c r="R107">
-        <v>1.875</v>
-      </c>
-      <c r="S107">
-        <v>1.975</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>1.825</v>
-      </c>
-      <c r="V107">
-        <v>2.025</v>
-      </c>
-      <c r="W107">
-        <v>0.45</v>
-      </c>
       <c r="X107">
         <v>-1</v>
       </c>
@@ -10021,16 +10021,16 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC107">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,7 +10050,7 @@
         <v>45100.65625</v>
       </c>
       <c r="F108" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G108" t="s">
         <v>31</v>
@@ -10059,67 +10059,67 @@
         <v>1</v>
       </c>
       <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108" t="s">
+        <v>42</v>
+      </c>
+      <c r="K108">
+        <v>2.45</v>
+      </c>
+      <c r="L108">
+        <v>3.25</v>
+      </c>
+      <c r="M108">
+        <v>2.625</v>
+      </c>
+      <c r="N108">
+        <v>2.5</v>
+      </c>
+      <c r="O108">
+        <v>3.4</v>
+      </c>
+      <c r="P108">
+        <v>2.5</v>
+      </c>
+      <c r="Q108">
         <v>0</v>
       </c>
-      <c r="J108" t="s">
-        <v>43</v>
-      </c>
-      <c r="K108">
-        <v>1.75</v>
-      </c>
-      <c r="L108">
-        <v>3.5</v>
-      </c>
-      <c r="M108">
-        <v>4.2</v>
-      </c>
-      <c r="N108">
-        <v>1.8</v>
-      </c>
-      <c r="O108">
-        <v>3.25</v>
-      </c>
-      <c r="P108">
-        <v>4.333</v>
-      </c>
-      <c r="Q108">
+      <c r="R108">
+        <v>1.925</v>
+      </c>
+      <c r="S108">
+        <v>1.925</v>
+      </c>
+      <c r="T108">
+        <v>2.75</v>
+      </c>
+      <c r="U108">
+        <v>1.975</v>
+      </c>
+      <c r="V108">
+        <v>1.875</v>
+      </c>
+      <c r="W108">
+        <v>-1</v>
+      </c>
+      <c r="X108">
+        <v>-1</v>
+      </c>
+      <c r="Y108">
+        <v>1.5</v>
+      </c>
+      <c r="Z108">
+        <v>-1</v>
+      </c>
+      <c r="AA108">
+        <v>0.925</v>
+      </c>
+      <c r="AB108">
+        <v>0.4875</v>
+      </c>
+      <c r="AC108">
         <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.85</v>
-      </c>
-      <c r="S108">
-        <v>2</v>
-      </c>
-      <c r="T108">
-        <v>2.25</v>
-      </c>
-      <c r="U108">
-        <v>2.05</v>
-      </c>
-      <c r="V108">
-        <v>1.75</v>
-      </c>
-      <c r="W108">
-        <v>0.8</v>
-      </c>
-      <c r="X108">
-        <v>-1</v>
-      </c>
-      <c r="Y108">
-        <v>-1</v>
-      </c>
-      <c r="Z108">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA108">
-        <v>-1</v>
-      </c>
-      <c r="AB108">
-        <v>-1</v>
-      </c>
-      <c r="AC108">
-        <v>0.75</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10139,10 +10139,10 @@
         <v>45103.65625</v>
       </c>
       <c r="F109" t="s">
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
         <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>6053261</v>
+        <v>6043240</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,13 +10317,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F111" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G111" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H111">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -10332,43 +10332,43 @@
         <v>43</v>
       </c>
       <c r="K111">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L111">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M111">
-        <v>15</v>
+        <v>1.833</v>
       </c>
       <c r="N111">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P111">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q111">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R111">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S111">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T111">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>0.111</v>
+        <v>2.6</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC111">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10495,7 +10495,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
         <v>34</v>
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>6043240</v>
+        <v>6053261</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10676,10 +10676,10 @@
         <v>29</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -10688,43 +10688,43 @@
         <v>43</v>
       </c>
       <c r="K115">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M115">
-        <v>1.833</v>
+        <v>15</v>
       </c>
       <c r="N115">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O115">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P115">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="Q115">
-        <v>0.5</v>
+        <v>-2.25</v>
       </c>
       <c r="R115">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S115">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W115">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X115">
         <v>-1</v>
@@ -10733,16 +10733,16 @@
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA115">
         <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC115">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>6053266</v>
+        <v>6053264</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,73 +10762,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J116" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="L116">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M116">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N116">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="O116">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P116">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R116">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S116">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T116">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X116">
         <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA116">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB116">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC116">
         <v>-1</v>
@@ -10839,7 +10839,7 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>6053264</v>
+        <v>6043241</v>
       </c>
       <c r="C117" t="s">
         <v>28</v>
@@ -10851,40 +10851,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F117" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K117">
+        <v>5.25</v>
+      </c>
+      <c r="L117">
+        <v>3.75</v>
+      </c>
+      <c r="M117">
         <v>1.571</v>
       </c>
-      <c r="L117">
+      <c r="N117">
         <v>3.8</v>
       </c>
-      <c r="M117">
-        <v>5</v>
-      </c>
-      <c r="N117">
-        <v>1.666</v>
-      </c>
       <c r="O117">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P117">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q117">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R117">
         <v>1.925</v>
@@ -10893,34 +10893,34 @@
         <v>1.925</v>
       </c>
       <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>1.875</v>
+      </c>
+      <c r="V117">
+        <v>1.975</v>
+      </c>
+      <c r="W117">
+        <v>-1</v>
+      </c>
+      <c r="X117">
         <v>2.25</v>
       </c>
-      <c r="U117">
-        <v>2.05</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
-      </c>
-      <c r="W117">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X117">
-        <v>-1</v>
-      </c>
       <c r="Y117">
         <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA117">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB117">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC117">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,76 +10940,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J118" t="s">
         <v>41</v>
       </c>
       <c r="K118">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L118">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M118">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N118">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O118">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P118">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q118">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R118">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S118">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T118">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U118">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V118">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W118">
         <v>-1</v>
       </c>
       <c r="X118">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y118">
         <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA118">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB118">
         <v>-1</v>
       </c>
       <c r="AC118">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>6053265</v>
+        <v>6053263</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F119" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G119" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L119">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M119">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N119">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O119">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P119">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q119">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R119">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S119">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T119">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U119">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V119">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W119">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X119">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
         <v>-1</v>
       </c>
       <c r="Z119">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA119">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB119">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC119">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,40 +11118,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F120" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G120" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H120">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L120">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M120">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P120">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R120">
         <v>1.9</v>
@@ -11163,28 +11163,28 @@
         <v>2.5</v>
       </c>
       <c r="U120">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB120">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11207,7 +11207,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G121" t="s">
         <v>36</v>
@@ -11462,7 +11462,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11474,40 +11474,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F124" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G124" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H124">
+        <v>2</v>
+      </c>
+      <c r="I124">
+        <v>2</v>
+      </c>
+      <c r="J124" t="s">
+        <v>41</v>
+      </c>
+      <c r="K124">
+        <v>2.15</v>
+      </c>
+      <c r="L124">
+        <v>3.25</v>
+      </c>
+      <c r="M124">
+        <v>3.1</v>
+      </c>
+      <c r="N124">
+        <v>2.45</v>
+      </c>
+      <c r="O124">
+        <v>3.2</v>
+      </c>
+      <c r="P124">
+        <v>2.7</v>
+      </c>
+      <c r="Q124">
         <v>0</v>
-      </c>
-      <c r="I124">
-        <v>2</v>
-      </c>
-      <c r="J124" t="s">
-        <v>42</v>
-      </c>
-      <c r="K124">
-        <v>2.625</v>
-      </c>
-      <c r="L124">
-        <v>3.2</v>
-      </c>
-      <c r="M124">
-        <v>2.45</v>
-      </c>
-      <c r="N124">
-        <v>3.2</v>
-      </c>
-      <c r="O124">
-        <v>3.1</v>
-      </c>
-      <c r="P124">
-        <v>2.2</v>
-      </c>
-      <c r="Q124">
-        <v>0.25</v>
       </c>
       <c r="R124">
         <v>1.825</v>
@@ -11516,34 +11516,34 @@
         <v>2.025</v>
       </c>
       <c r="T124">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U124">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>-1</v>
       </c>
       <c r="X124">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y124">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z124">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA124">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB124">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC124">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="125" spans="1:29">
@@ -11551,7 +11551,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11563,40 +11563,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F125" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G125" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>2</v>
       </c>
       <c r="J125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K125">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L125">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M125">
+        <v>2.45</v>
+      </c>
+      <c r="N125">
+        <v>3.2</v>
+      </c>
+      <c r="O125">
         <v>3.1</v>
       </c>
-      <c r="N125">
-        <v>2.45</v>
-      </c>
-      <c r="O125">
-        <v>3.2</v>
-      </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q125">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R125">
         <v>1.825</v>
@@ -11605,34 +11605,34 @@
         <v>2.025</v>
       </c>
       <c r="T125">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U125">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V125">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W125">
         <v>-1</v>
       </c>
       <c r="X125">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y125">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z125">
+        <v>-1</v>
+      </c>
+      <c r="AA125">
+        <v>1.025</v>
+      </c>
+      <c r="AB125">
         <v>0</v>
       </c>
-      <c r="AA125">
+      <c r="AC125">
         <v>-0</v>
-      </c>
-      <c r="AB125">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC125">
-        <v>-1</v>
       </c>
     </row>
     <row r="126" spans="1:29">
@@ -11833,7 +11833,7 @@
         <v>33</v>
       </c>
       <c r="G128" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -11919,10 +11919,10 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F129" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H129">
         <v>1</v>
@@ -12097,7 +12097,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F131" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -12186,7 +12186,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F132" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G132" t="s">
         <v>33</v>
@@ -12263,7 +12263,7 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C133" t="s">
         <v>28</v>
@@ -12275,10 +12275,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F133" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G133" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H133">
         <v>1</v>
@@ -12290,61 +12290,61 @@
         <v>41</v>
       </c>
       <c r="K133">
+        <v>1.363</v>
+      </c>
+      <c r="L133">
+        <v>4.5</v>
+      </c>
+      <c r="M133">
+        <v>6.5</v>
+      </c>
+      <c r="N133">
+        <v>1.3</v>
+      </c>
+      <c r="O133">
+        <v>4.75</v>
+      </c>
+      <c r="P133">
+        <v>7</v>
+      </c>
+      <c r="Q133">
+        <v>-1.5</v>
+      </c>
+      <c r="R133">
+        <v>2</v>
+      </c>
+      <c r="S133">
+        <v>1.85</v>
+      </c>
+      <c r="T133">
+        <v>2.75</v>
+      </c>
+      <c r="U133">
+        <v>1.975</v>
+      </c>
+      <c r="V133">
+        <v>1.875</v>
+      </c>
+      <c r="W133">
+        <v>-1</v>
+      </c>
+      <c r="X133">
         <v>3.75</v>
       </c>
-      <c r="L133">
-        <v>3.4</v>
-      </c>
-      <c r="M133">
-        <v>1.8</v>
-      </c>
-      <c r="N133">
-        <v>3.25</v>
-      </c>
-      <c r="O133">
-        <v>3.1</v>
-      </c>
-      <c r="P133">
-        <v>2.05</v>
-      </c>
-      <c r="Q133">
-        <v>0.25</v>
-      </c>
-      <c r="R133">
-        <v>1.95</v>
-      </c>
-      <c r="S133">
-        <v>1.9</v>
-      </c>
-      <c r="T133">
-        <v>2</v>
-      </c>
-      <c r="U133">
-        <v>1.9</v>
-      </c>
-      <c r="V133">
-        <v>1.95</v>
-      </c>
-      <c r="W133">
-        <v>-1</v>
-      </c>
-      <c r="X133">
-        <v>2.1</v>
-      </c>
       <c r="Y133">
         <v>-1</v>
       </c>
       <c r="Z133">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA133">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB133">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC133">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="134" spans="1:29">
@@ -12352,7 +12352,7 @@
         <v>132</v>
       </c>
       <c r="B134">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C134" t="s">
         <v>28</v>
@@ -12364,10 +12364,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F134" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G134" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H134">
         <v>1</v>
@@ -12379,61 +12379,61 @@
         <v>41</v>
       </c>
       <c r="K134">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L134">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M134">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N134">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O134">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P134">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q134">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R134">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S134">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T134">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U134">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V134">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W134">
         <v>-1</v>
       </c>
       <c r="X134">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y134">
         <v>-1</v>
       </c>
       <c r="Z134">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA134">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB134">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC134">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="135" spans="1:29">
@@ -12723,7 +12723,7 @@
         <v>35</v>
       </c>
       <c r="G138" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -12812,7 +12812,7 @@
         <v>38</v>
       </c>
       <c r="G139" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H139">
         <v>1</v>
@@ -12901,7 +12901,7 @@
         <v>33</v>
       </c>
       <c r="G140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -12987,10 +12987,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G141" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H141">
         <v>2</v>
@@ -13076,7 +13076,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F142" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G142" t="s">
         <v>34</v>
@@ -13699,7 +13699,7 @@
         <v>45191.65625</v>
       </c>
       <c r="F149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G149" t="s">
         <v>32</v>
@@ -14055,10 +14055,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F153" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G153" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H153">
         <v>3</v>
@@ -14147,7 +14147,7 @@
         <v>36</v>
       </c>
       <c r="G154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H154">
         <v>1</v>
@@ -14221,7 +14221,7 @@
         <v>153</v>
       </c>
       <c r="B155">
-        <v>6053291</v>
+        <v>7106289</v>
       </c>
       <c r="C155" t="s">
         <v>28</v>
@@ -14233,76 +14233,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F155" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G155" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I155">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J155" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K155">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L155">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M155">
         <v>4.75</v>
       </c>
       <c r="N155">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O155">
+        <v>3.8</v>
+      </c>
+      <c r="P155">
         <v>4.2</v>
       </c>
-      <c r="P155">
-        <v>6</v>
-      </c>
       <c r="Q155">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R155">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S155">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T155">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U155">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V155">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W155">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X155">
         <v>-1</v>
       </c>
       <c r="Y155">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z155">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA155">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB155">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC155">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="156" spans="1:29">
@@ -14310,7 +14310,7 @@
         <v>154</v>
       </c>
       <c r="B156">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C156" t="s">
         <v>28</v>
@@ -14325,73 +14325,73 @@
         <v>29</v>
       </c>
       <c r="G156" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H156">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I156">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J156" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K156">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L156">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M156">
         <v>4.75</v>
       </c>
       <c r="N156">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O156">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P156">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q156">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R156">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S156">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T156">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U156">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V156">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W156">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X156">
         <v>-1</v>
       </c>
       <c r="Y156">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z156">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA156">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB156">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC156">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="157" spans="1:29">
@@ -14399,7 +14399,7 @@
         <v>155</v>
       </c>
       <c r="B157">
-        <v>6323101</v>
+        <v>6323099</v>
       </c>
       <c r="C157" t="s">
         <v>28</v>
@@ -14411,13 +14411,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F157" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G157" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -14426,43 +14426,43 @@
         <v>43</v>
       </c>
       <c r="K157">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="L157">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M157">
-        <v>4.25</v>
+        <v>34</v>
       </c>
       <c r="N157">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O157">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="P157">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="Q157">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R157">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S157">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T157">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U157">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V157">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W157">
-        <v>0.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X157">
         <v>-1</v>
@@ -14471,16 +14471,16 @@
         <v>-1</v>
       </c>
       <c r="Z157">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA157">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB157">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC157">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="158" spans="1:29">
@@ -14488,7 +14488,7 @@
         <v>156</v>
       </c>
       <c r="B158">
-        <v>6323097</v>
+        <v>6323098</v>
       </c>
       <c r="C158" t="s">
         <v>28</v>
@@ -14500,46 +14500,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F158" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G158" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H158">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>1</v>
       </c>
       <c r="J158" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K158">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L158">
         <v>3.5</v>
       </c>
       <c r="M158">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N158">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O158">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P158">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q158">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R158">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S158">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T158">
         <v>2.5</v>
@@ -14551,25 +14551,25 @@
         <v>2.025</v>
       </c>
       <c r="W158">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X158">
         <v>-1</v>
       </c>
       <c r="Y158">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z158">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA158">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB158">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC158">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="159" spans="1:29">
@@ -14577,7 +14577,7 @@
         <v>157</v>
       </c>
       <c r="B159">
-        <v>6323099</v>
+        <v>6323101</v>
       </c>
       <c r="C159" t="s">
         <v>28</v>
@@ -14589,13 +14589,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F159" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G159" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H159">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -14604,43 +14604,43 @@
         <v>43</v>
       </c>
       <c r="K159">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="L159">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M159">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N159">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="O159">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P159">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q159">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R159">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S159">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T159">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U159">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V159">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W159">
-        <v>0.05000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="X159">
         <v>-1</v>
@@ -14649,16 +14649,16 @@
         <v>-1</v>
       </c>
       <c r="Z159">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA159">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB159">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC159">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="160" spans="1:29">
@@ -14666,7 +14666,7 @@
         <v>158</v>
       </c>
       <c r="B160">
-        <v>6323098</v>
+        <v>6323097</v>
       </c>
       <c r="C160" t="s">
         <v>28</v>
@@ -14678,46 +14678,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F160" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G160" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I160">
         <v>1</v>
       </c>
       <c r="J160" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K160">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L160">
         <v>3.5</v>
       </c>
       <c r="M160">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="N160">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O160">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P160">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q160">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R160">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S160">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T160">
         <v>2.5</v>
@@ -14729,25 +14729,25 @@
         <v>2.025</v>
       </c>
       <c r="W160">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X160">
         <v>-1</v>
       </c>
       <c r="Y160">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z160">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA160">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB160">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC160">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="161" spans="1:29">
@@ -14767,7 +14767,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F161" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G161" t="s">
         <v>37</v>
@@ -14945,10 +14945,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F163" t="s">
+        <v>30</v>
+      </c>
+      <c r="G163" t="s">
         <v>31</v>
-      </c>
-      <c r="G163" t="s">
-        <v>29</v>
       </c>
       <c r="H163">
         <v>1</v>
@@ -15126,7 +15126,7 @@
         <v>36</v>
       </c>
       <c r="G165" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -15200,7 +15200,7 @@
         <v>164</v>
       </c>
       <c r="B166">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C166" t="s">
         <v>28</v>
@@ -15212,7 +15212,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F166" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G166" t="s">
         <v>31</v>
@@ -15221,40 +15221,40 @@
         <v>0</v>
       </c>
       <c r="I166">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J166" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K166">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L166">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M166">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N166">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O166">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P166">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q166">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R166">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S166">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T166">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U166">
         <v>1.975</v>
@@ -15266,16 +15266,16 @@
         <v>-1</v>
       </c>
       <c r="X166">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y166">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z166">
         <v>-1</v>
       </c>
       <c r="AA166">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB166">
         <v>-1</v>
@@ -15289,7 +15289,7 @@
         <v>165</v>
       </c>
       <c r="B167">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C167" t="s">
         <v>28</v>
@@ -15301,49 +15301,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F167" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G167" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H167">
         <v>0</v>
       </c>
       <c r="I167">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J167" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K167">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L167">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M167">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N167">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O167">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P167">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q167">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R167">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S167">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T167">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U167">
         <v>1.975</v>
@@ -15355,16 +15355,16 @@
         <v>-1</v>
       </c>
       <c r="X167">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y167">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z167">
         <v>-1</v>
       </c>
       <c r="AA167">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB167">
         <v>-1</v>
@@ -15568,7 +15568,7 @@
         <v>45222.64583333334</v>
       </c>
       <c r="F170" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G170" t="s">
         <v>33</v>
@@ -15657,7 +15657,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G171" t="s">
         <v>35</v>
@@ -15835,7 +15835,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F173" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G173" t="s">
         <v>36</v>
@@ -15924,7 +15924,7 @@
         <v>45226.66666666666</v>
       </c>
       <c r="F174" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G174" t="s">
         <v>38</v>
@@ -16194,7 +16194,7 @@
         <v>35</v>
       </c>
       <c r="G177" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H177">
         <v>1</v>
@@ -16268,7 +16268,7 @@
         <v>176</v>
       </c>
       <c r="B178">
-        <v>6412497</v>
+        <v>6412498</v>
       </c>
       <c r="C178" t="s">
         <v>28</v>
@@ -16280,13 +16280,13 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F178" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G178" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H178">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I178">
         <v>0</v>
@@ -16295,43 +16295,43 @@
         <v>43</v>
       </c>
       <c r="K178">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L178">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M178">
+        <v>4.2</v>
+      </c>
+      <c r="N178">
+        <v>1.45</v>
+      </c>
+      <c r="O178">
+        <v>4</v>
+      </c>
+      <c r="P178">
         <v>6.5</v>
       </c>
-      <c r="N178">
-        <v>1.166</v>
-      </c>
-      <c r="O178">
-        <v>6.5</v>
-      </c>
-      <c r="P178">
-        <v>15</v>
-      </c>
       <c r="Q178">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R178">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S178">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T178">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U178">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V178">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W178">
-        <v>0.1659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X178">
         <v>-1</v>
@@ -16340,16 +16340,16 @@
         <v>-1</v>
       </c>
       <c r="Z178">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA178">
         <v>-1</v>
       </c>
       <c r="AB178">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC178">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="179" spans="1:29">
@@ -16357,7 +16357,7 @@
         <v>177</v>
       </c>
       <c r="B179">
-        <v>6412498</v>
+        <v>6412497</v>
       </c>
       <c r="C179" t="s">
         <v>28</v>
@@ -16369,13 +16369,13 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F179" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G179" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H179">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I179">
         <v>0</v>
@@ -16384,43 +16384,43 @@
         <v>43</v>
       </c>
       <c r="K179">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L179">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M179">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N179">
-        <v>1.45</v>
+        <v>1.166</v>
       </c>
       <c r="O179">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P179">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q179">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R179">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S179">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T179">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U179">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V179">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W179">
-        <v>0.45</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X179">
         <v>-1</v>
@@ -16429,16 +16429,16 @@
         <v>-1</v>
       </c>
       <c r="Z179">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA179">
         <v>-1</v>
       </c>
       <c r="AB179">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC179">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="180" spans="1:29">
@@ -16550,7 +16550,7 @@
         <v>37</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H181">
         <v>2</v>
@@ -16639,7 +16639,7 @@
         <v>39</v>
       </c>
       <c r="G182" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H182">
         <v>0</v>
@@ -16713,7 +16713,7 @@
         <v>181</v>
       </c>
       <c r="B183">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C183" t="s">
         <v>28</v>
@@ -16725,76 +16725,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F183" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G183" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H183">
         <v>2</v>
       </c>
       <c r="I183">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J183" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K183">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L183">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M183">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N183">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O183">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P183">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q183">
+        <v>-1.5</v>
+      </c>
+      <c r="R183">
+        <v>1.975</v>
+      </c>
+      <c r="S183">
+        <v>1.875</v>
+      </c>
+      <c r="T183">
+        <v>2.75</v>
+      </c>
+      <c r="U183">
+        <v>1.875</v>
+      </c>
+      <c r="V183">
+        <v>1.975</v>
+      </c>
+      <c r="W183">
+        <v>0.333</v>
+      </c>
+      <c r="X183">
+        <v>-1</v>
+      </c>
+      <c r="Y183">
+        <v>-1</v>
+      </c>
+      <c r="Z183">
+        <v>-1</v>
+      </c>
+      <c r="AA183">
+        <v>0.875</v>
+      </c>
+      <c r="AB183">
+        <v>0.4375</v>
+      </c>
+      <c r="AC183">
         <v>-0.5</v>
-      </c>
-      <c r="R183">
-        <v>2.025</v>
-      </c>
-      <c r="S183">
-        <v>1.825</v>
-      </c>
-      <c r="T183">
-        <v>2.5</v>
-      </c>
-      <c r="U183">
-        <v>2.05</v>
-      </c>
-      <c r="V183">
-        <v>1.8</v>
-      </c>
-      <c r="W183">
-        <v>-1</v>
-      </c>
-      <c r="X183">
-        <v>2.6</v>
-      </c>
-      <c r="Y183">
-        <v>-1</v>
-      </c>
-      <c r="Z183">
-        <v>-1</v>
-      </c>
-      <c r="AA183">
-        <v>0.825</v>
-      </c>
-      <c r="AB183">
-        <v>1.05</v>
-      </c>
-      <c r="AC183">
-        <v>-1</v>
       </c>
     </row>
     <row r="184" spans="1:29">
@@ -16802,7 +16802,7 @@
         <v>182</v>
       </c>
       <c r="B184">
-        <v>7630128</v>
+        <v>7630127</v>
       </c>
       <c r="C184" t="s">
         <v>28</v>
@@ -16814,10 +16814,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F184" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G184" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H184">
         <v>1</v>
@@ -16829,61 +16829,61 @@
         <v>41</v>
       </c>
       <c r="K184">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L184">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M184">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N184">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O184">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P184">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q184">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R184">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S184">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T184">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U184">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V184">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W184">
         <v>-1</v>
       </c>
       <c r="X184">
-        <v>4.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y184">
         <v>-1</v>
       </c>
       <c r="Z184">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA184">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB184">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC184">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="185" spans="1:29">
@@ -16891,7 +16891,7 @@
         <v>183</v>
       </c>
       <c r="B185">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C185" t="s">
         <v>28</v>
@@ -16903,7 +16903,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G185" t="s">
         <v>31</v>
@@ -16918,61 +16918,61 @@
         <v>41</v>
       </c>
       <c r="K185">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L185">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M185">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N185">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O185">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P185">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q185">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R185">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S185">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T185">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U185">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V185">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W185">
         <v>-1</v>
       </c>
       <c r="X185">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y185">
         <v>-1</v>
       </c>
       <c r="Z185">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA185">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB185">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC185">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="186" spans="1:29">
@@ -16980,7 +16980,7 @@
         <v>184</v>
       </c>
       <c r="B186">
-        <v>7630126</v>
+        <v>7630125</v>
       </c>
       <c r="C186" t="s">
         <v>28</v>
@@ -16992,61 +16992,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F186" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G186" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H186">
         <v>2</v>
       </c>
       <c r="I186">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J186" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K186">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L186">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M186">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N186">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O186">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P186">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q186">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R186">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S186">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T186">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U186">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V186">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W186">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X186">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y186">
         <v>-1</v>
@@ -17055,13 +17055,13 @@
         <v>-1</v>
       </c>
       <c r="AA186">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB186">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC186">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="187" spans="1:29">
@@ -17081,7 +17081,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F187" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G187" t="s">
         <v>36</v>
@@ -17259,7 +17259,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F189" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G189" t="s">
         <v>38</v>
@@ -17348,7 +17348,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F190" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G190" t="s">
         <v>39</v>
@@ -17452,31 +17452,31 @@
         <v>1.909</v>
       </c>
       <c r="N191">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O191">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P191">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q191">
         <v>0.5</v>
       </c>
       <c r="R191">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S191">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T191">
         <v>2.25</v>
       </c>
       <c r="U191">
+        <v>1.9</v>
+      </c>
+      <c r="V191">
         <v>1.95</v>
-      </c>
-      <c r="V191">
-        <v>1.9</v>
       </c>
       <c r="W191">
         <v>0</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -103,19 +103,19 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Drogheda United</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Drogheda United</t>
+    <t>UCD</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
+    <t>Bohemians Dublin</t>
   </si>
   <si>
     <t>Cork City</t>
@@ -133,10 +133,10 @@
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Waterford FC</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Galway United</t>
   </si>
   <si>
     <t>A</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053245</v>
+        <v>6053244</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,37 +619,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P2">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
         <v>1.925</v>
@@ -658,13 +658,13 @@
         <v>1.925</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -673,19 +673,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.222</v>
+        <v>2.2</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053242</v>
+        <v>6043235</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -720,43 +720,43 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -765,16 +765,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053244</v>
+        <v>6053245</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,37 +797,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="L4">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M4">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="N4">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="O4">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P4">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="Q4">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R4">
         <v>1.925</v>
@@ -836,13 +836,13 @@
         <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U4">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W4">
         <v>-1</v>
@@ -851,19 +851,19 @@
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>2.2</v>
+        <v>0.222</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6043235</v>
+        <v>6053242</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -987,43 +987,43 @@
         <v>42</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1032,16 +1032,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7">
         <v>2</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
         <v>4</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053253</v>
+        <v>6053252</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12">
+        <v>3.3</v>
+      </c>
+      <c r="L12">
+        <v>3.3</v>
+      </c>
+      <c r="M12">
         <v>2.05</v>
       </c>
-      <c r="L12">
+      <c r="N12">
         <v>3.2</v>
       </c>
-      <c r="M12">
-        <v>3.4</v>
-      </c>
-      <c r="N12">
-        <v>2.3</v>
-      </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T12">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
+        <v>0.925</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.4875</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="AA12">
-        <v>0.425</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053251</v>
+        <v>6053250</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.1</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>4.5</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.95</v>
-      </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053252</v>
+        <v>6053251</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>1.666</v>
+      </c>
+      <c r="L14">
+        <v>3.5</v>
+      </c>
+      <c r="M14">
+        <v>5</v>
+      </c>
+      <c r="N14">
+        <v>1.85</v>
+      </c>
+      <c r="O14">
+        <v>3</v>
+      </c>
+      <c r="P14">
+        <v>4.5</v>
+      </c>
+      <c r="Q14">
+        <v>-0.5</v>
+      </c>
+      <c r="R14">
+        <v>1.95</v>
+      </c>
+      <c r="S14">
+        <v>1.9</v>
+      </c>
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="I14">
-        <v>1</v>
-      </c>
-      <c r="J14" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14">
-        <v>3.3</v>
-      </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>2.05</v>
-      </c>
-      <c r="N14">
-        <v>3.2</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>2.15</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
       <c r="U14">
+        <v>1.875</v>
+      </c>
+      <c r="V14">
         <v>1.975</v>
       </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
       <c r="W14">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA14">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB14">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053250</v>
+        <v>6053253</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L15">
         <v>3.2</v>
       </c>
       <c r="M15">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N15">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O15">
         <v>3.1</v>
       </c>
       <c r="P15">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R15">
+        <v>2</v>
+      </c>
+      <c r="S15">
         <v>1.85</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>2</v>
       </c>
-      <c r="T15">
-        <v>2.25</v>
-      </c>
       <c r="U15">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V15">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y15">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB15">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC15">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053256</v>
+        <v>6053257</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
       </c>
       <c r="J17" t="s">
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6053257</v>
+        <v>6053254</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,58 +2040,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="Q18">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>5.5</v>
+        <v>0.45</v>
       </c>
       <c r="X18">
         <v>-1</v>
@@ -2100,16 +2100,16 @@
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
         <v>-1</v>
       </c>
       <c r="AB18">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053255</v>
+        <v>6053256</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>1.75</v>
+      </c>
+      <c r="L19">
+        <v>3.5</v>
+      </c>
+      <c r="M19">
+        <v>4.2</v>
+      </c>
+      <c r="N19">
+        <v>1.8</v>
+      </c>
+      <c r="O19">
+        <v>3.25</v>
+      </c>
+      <c r="P19">
+        <v>4.333</v>
+      </c>
+      <c r="Q19">
+        <v>-0.5</v>
+      </c>
+      <c r="R19">
+        <v>1.85</v>
+      </c>
+      <c r="S19">
         <v>2</v>
       </c>
-      <c r="J19" t="s">
-        <v>41</v>
-      </c>
-      <c r="K19">
-        <v>2.45</v>
-      </c>
-      <c r="L19">
-        <v>3.25</v>
-      </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.5</v>
-      </c>
-      <c r="O19">
-        <v>3.4</v>
-      </c>
-      <c r="P19">
-        <v>2.5</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6043238</v>
+        <v>6053255</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,40 +2218,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
         <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
+        <v>2.45</v>
+      </c>
+      <c r="L20">
         <v>3.25</v>
       </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
       <c r="M20">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
+        <v>2.5</v>
+      </c>
+      <c r="O20">
         <v>3.4</v>
       </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R20">
         <v>1.925</v>
@@ -2260,34 +2260,34 @@
         <v>1.925</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W20">
         <v>-1</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z20">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
+        <v>0.925</v>
+      </c>
+      <c r="AB20">
+        <v>0.4875</v>
+      </c>
+      <c r="AC20">
         <v>-0.5</v>
-      </c>
-      <c r="AB20">
-        <v>1</v>
-      </c>
-      <c r="AC20">
-        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053254</v>
+        <v>6043238</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H21">
         <v>2</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L21">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S21">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2485,7 +2485,7 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G23" t="s">
         <v>32</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053262</v>
+        <v>6053259</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.625</v>
+        <v>2.2</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="M24">
+        <v>3</v>
+      </c>
+      <c r="N24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
       <c r="O24">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P24">
-        <v>2.7</v>
+        <v>2.875</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S24">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T24">
+        <v>2.5</v>
+      </c>
+      <c r="U24">
+        <v>1.975</v>
+      </c>
+      <c r="V24">
+        <v>1.875</v>
+      </c>
+      <c r="W24">
+        <v>-1</v>
+      </c>
+      <c r="X24">
         <v>2.25</v>
       </c>
-      <c r="U24">
-        <v>2.05</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
-      <c r="W24">
-        <v>1.7</v>
-      </c>
-      <c r="X24">
-        <v>-1</v>
-      </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.925</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB24">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC24">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053259</v>
+        <v>6053260</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,10 +2663,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2678,61 +2678,61 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
+        <v>3.5</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
       <c r="P25">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA25">
+        <v>-0.5</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>-0</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053260</v>
+        <v>6053261</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>1.166</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1.111</v>
+      </c>
+      <c r="O26">
+        <v>7.5</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.5</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.85</v>
+      </c>
+      <c r="W26">
+        <v>0.111</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>3.6</v>
-      </c>
-      <c r="L26">
-        <v>3.2</v>
-      </c>
-      <c r="M26">
-        <v>2.1</v>
-      </c>
-      <c r="N26">
-        <v>3.5</v>
-      </c>
-      <c r="O26">
-        <v>3</v>
-      </c>
-      <c r="P26">
-        <v>2.25</v>
-      </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
-      <c r="U26">
-        <v>2.1</v>
-      </c>
-      <c r="V26">
-        <v>1.775</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>2</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.425</v>
-      </c>
-      <c r="AA26">
-        <v>-0.5</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6043240</v>
+        <v>6053262</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,58 +2841,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>33</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,16 +2901,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053261</v>
+        <v>6043240</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,13 +2930,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2945,43 +2945,43 @@
         <v>42</v>
       </c>
       <c r="K28">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>1.833</v>
       </c>
       <c r="N28">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>0.111</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,16 +2990,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053263</v>
+        <v>6043241</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>1.571</v>
+      </c>
+      <c r="N29">
+        <v>3.8</v>
+      </c>
+      <c r="O29">
         <v>3.25</v>
       </c>
-      <c r="M29">
-        <v>3</v>
-      </c>
-      <c r="N29">
-        <v>2.1</v>
-      </c>
-      <c r="O29">
-        <v>3.3</v>
-      </c>
       <c r="P29">
-        <v>3</v>
+        <v>1.909</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
         <v>-1</v>
       </c>
       <c r="AB29">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC29">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053266</v>
+        <v>6053263</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K30">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O30">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P30">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R30">
         <v>1.9</v>
@@ -3153,28 +3153,28 @@
         <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053264</v>
+        <v>6053266</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6043241</v>
+        <v>6053264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,40 +3286,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
         <v>1.925</v>
@@ -3328,34 +3328,34 @@
         <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>43</v>
+      </c>
+      <c r="K34">
+        <v>2.4</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K34">
-        <v>6.5</v>
-      </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
       <c r="M34">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,40 +3731,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
+        <v>3.1</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
         <v>3.2</v>
       </c>
-      <c r="M37">
-        <v>2.45</v>
-      </c>
-      <c r="N37">
-        <v>3.2</v>
-      </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1.825</v>
@@ -3773,34 +3773,34 @@
         <v>2.025</v>
       </c>
       <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>2</v>
       </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3820,10 +3820,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,40 +3909,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
+        <v>2.45</v>
+      </c>
+      <c r="N39">
+        <v>3.2</v>
+      </c>
+      <c r="O39">
         <v>3.1</v>
       </c>
-      <c r="N39">
-        <v>2.45</v>
-      </c>
-      <c r="O39">
-        <v>3.2</v>
-      </c>
       <c r="P39">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
         <v>1.825</v>
@@ -3951,34 +3951,34 @@
         <v>2.025</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
+        <v>1.025</v>
+      </c>
+      <c r="AB39">
+        <v>0</v>
+      </c>
+      <c r="AC39">
         <v>-0</v>
-      </c>
-      <c r="AB39">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC39">
-        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4265,7 +4265,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
         <v>34</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053279</v>
+        <v>6053280</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
         <v>1.95</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N44">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O44">
         <v>3.6</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R44">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S44">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T44">
         <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V44">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,10 +4443,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4458,61 +4458,61 @@
         <v>43</v>
       </c>
       <c r="K45">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6043243</v>
+        <v>6053279</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,49 +4532,49 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
         <v>1.9</v>
@@ -4583,25 +4583,25 @@
         <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.475</v>
+        <v>0.4875</v>
       </c>
       <c r="AA46">
         <v>-0.5</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053280</v>
+        <v>6053277</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
         <v>43</v>
       </c>
       <c r="K47">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O47">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R47">
+        <v>2</v>
+      </c>
+      <c r="S47">
         <v>1.85</v>
       </c>
-      <c r="S47">
-        <v>2</v>
-      </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4713,7 +4713,7 @@
         <v>32</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6043244</v>
+        <v>6053283</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>1.7</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M49">
-        <v>4.333</v>
+        <v>1.1</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P49">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
@@ -4977,7 +4977,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
         <v>32</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L52">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,10 +5244,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5259,43 +5259,43 @@
         <v>42</v>
       </c>
       <c r="K54">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6043245</v>
+        <v>6053286</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,10 +5333,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5348,43 +5348,43 @@
         <v>42</v>
       </c>
       <c r="K55">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N55">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6053286</v>
+        <v>6053285</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,10 +5422,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5437,43 +5437,43 @@
         <v>42</v>
       </c>
       <c r="K56">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L56">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.3</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,16 +5482,16 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="57" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
         <v>32</v>
@@ -5781,7 +5781,7 @@
         <v>32</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288773</v>
+        <v>6288259</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,13 +5956,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -5971,43 +5971,43 @@
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
         <v>3.5</v>
       </c>
       <c r="P62">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W62">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,13 +6016,13 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
         <v>-1</v>
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7197534</v>
+        <v>6288260</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P63">
-        <v>1.75</v>
+        <v>1.055</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>3.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
-      </c>
       <c r="W63">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.925</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288259</v>
+        <v>6288773</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,13 +6134,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64">
         <v>1</v>
@@ -6149,58 +6149,58 @@
         <v>42</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="O64">
         <v>3.5</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>5.75</v>
       </c>
       <c r="Q64">
+        <v>-0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.875</v>
+      </c>
+      <c r="S64">
+        <v>1.975</v>
+      </c>
+      <c r="T64">
+        <v>2.25</v>
+      </c>
+      <c r="U64">
+        <v>1.9</v>
+      </c>
+      <c r="V64">
+        <v>1.95</v>
+      </c>
+      <c r="W64">
+        <v>0.6659999999999999</v>
+      </c>
+      <c r="X64">
+        <v>-1</v>
+      </c>
+      <c r="Y64">
+        <v>-1</v>
+      </c>
+      <c r="Z64">
+        <v>0.4375</v>
+      </c>
+      <c r="AA64">
         <v>-0.5</v>
       </c>
-      <c r="R64">
-        <v>1.95</v>
-      </c>
-      <c r="S64">
-        <v>1.9</v>
-      </c>
-      <c r="T64">
-        <v>2.5</v>
-      </c>
-      <c r="U64">
-        <v>1.85</v>
-      </c>
-      <c r="V64">
-        <v>2</v>
-      </c>
-      <c r="W64">
-        <v>0.95</v>
-      </c>
-      <c r="X64">
-        <v>-1</v>
-      </c>
-      <c r="Y64">
-        <v>-1</v>
-      </c>
-      <c r="Z64">
-        <v>0.95</v>
-      </c>
-      <c r="AA64">
-        <v>-1</v>
-      </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
         <v>-1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288260</v>
+        <v>6288772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6238,52 +6238,52 @@
         <v>43</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="L65">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>34</v>
+        <v>4.75</v>
       </c>
       <c r="O65">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
+        <v>0.75</v>
+      </c>
+      <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
+        <v>1.875</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
       <c r="U65">
+        <v>1.85</v>
+      </c>
+      <c r="V65">
         <v>2</v>
       </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288772</v>
+        <v>7197534</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,67 +6312,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G66" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L66">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M66">
         <v>2.1</v>
       </c>
       <c r="N66">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O66">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P66">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q66">
         <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S66">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
@@ -6381,7 +6381,7 @@
         <v>-1</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6053291</v>
+        <v>7106289</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
         <v>4.75</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
+        <v>3.8</v>
+      </c>
+      <c r="P68">
         <v>4.2</v>
       </c>
-      <c r="P68">
-        <v>6</v>
-      </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
         <v>4.75</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323101</v>
+        <v>6323100</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,16 +6668,16 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>42</v>
@@ -6686,40 +6686,40 @@
         <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="N70">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>5</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R70">
+        <v>2.05</v>
+      </c>
+      <c r="S70">
+        <v>1.8</v>
+      </c>
+      <c r="T70">
+        <v>2.75</v>
+      </c>
+      <c r="U70">
         <v>1.9</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>1.95</v>
       </c>
-      <c r="T70">
-        <v>2.25</v>
-      </c>
-      <c r="U70">
-        <v>1.875</v>
-      </c>
-      <c r="V70">
-        <v>1.975</v>
-      </c>
       <c r="W70">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323100</v>
+        <v>6323097</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,10 +6757,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6772,13 +6772,13 @@
         <v>42</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
         <v>1.6</v>
@@ -6790,22 +6790,22 @@
         <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
         <v>0.6000000000000001</v>
@@ -6817,13 +6817,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6849,7 +6849,7 @@
         <v>32</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H72">
         <v>6</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323097</v>
+        <v>6323101</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,31 +7027,31 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>42</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L74">
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N74">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P74">
         <v>5</v>
@@ -7060,22 +7060,22 @@
         <v>-0.75</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S74">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W74">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G77" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G81" t="s">
         <v>34</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6382790</v>
+        <v>6382788</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,40 +7914,40 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
-        <v>1.142</v>
+        <v>5.75</v>
       </c>
       <c r="L84">
-        <v>7.5</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>17</v>
+        <v>1.55</v>
       </c>
       <c r="N84">
-        <v>1.181</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>15</v>
+        <v>1.55</v>
       </c>
       <c r="Q84">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="R84">
         <v>1.9</v>
@@ -7956,34 +7956,34 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z84">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>0.95</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC84">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -8006,7 +8006,7 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H85">
         <v>2</v>
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382788</v>
+        <v>6382790</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,40 +8092,40 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K86">
-        <v>5.75</v>
+        <v>1.142</v>
       </c>
       <c r="L86">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M86">
-        <v>1.55</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="O86">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P86">
-        <v>1.55</v>
+        <v>15</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R86">
         <v>1.9</v>
@@ -8134,34 +8134,34 @@
         <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z86">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8362,7 +8362,7 @@
         <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412497</v>
+        <v>6407558</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,73 +8448,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H90">
+        <v>2</v>
+      </c>
+      <c r="I90">
         <v>4</v>
       </c>
-      <c r="I90">
-        <v>0</v>
-      </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N90">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P90">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6407559</v>
+        <v>6412856</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
+        <v>2</v>
+      </c>
+      <c r="J92" t="s">
+        <v>42</v>
+      </c>
+      <c r="K92">
+        <v>1.25</v>
+      </c>
+      <c r="L92">
+        <v>5.25</v>
+      </c>
+      <c r="M92">
+        <v>9.5</v>
+      </c>
+      <c r="N92">
+        <v>1.222</v>
+      </c>
+      <c r="O92">
+        <v>5.5</v>
+      </c>
+      <c r="P92">
+        <v>9</v>
+      </c>
+      <c r="Q92">
+        <v>-1.75</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.9</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
+        <v>2</v>
+      </c>
+      <c r="V92">
+        <v>1.85</v>
+      </c>
+      <c r="W92">
+        <v>0.222</v>
+      </c>
+      <c r="X92">
+        <v>-1</v>
+      </c>
+      <c r="Y92">
+        <v>-1</v>
+      </c>
+      <c r="Z92">
+        <v>0.475</v>
+      </c>
+      <c r="AA92">
+        <v>-0.5</v>
+      </c>
+      <c r="AB92">
         <v>1</v>
-      </c>
-      <c r="I92">
-        <v>5</v>
-      </c>
-      <c r="J92" t="s">
-        <v>41</v>
-      </c>
-      <c r="K92">
-        <v>10</v>
-      </c>
-      <c r="L92">
-        <v>5.6</v>
-      </c>
-      <c r="M92">
-        <v>1.222</v>
-      </c>
-      <c r="N92">
-        <v>11</v>
-      </c>
-      <c r="O92">
-        <v>6</v>
-      </c>
-      <c r="P92">
-        <v>1.181</v>
-      </c>
-      <c r="Q92">
-        <v>2</v>
-      </c>
-      <c r="R92">
-        <v>1.85</v>
-      </c>
-      <c r="S92">
-        <v>2</v>
-      </c>
-      <c r="T92">
-        <v>3.25</v>
-      </c>
-      <c r="U92">
-        <v>1.85</v>
-      </c>
-      <c r="V92">
-        <v>2</v>
-      </c>
-      <c r="W92">
-        <v>-1</v>
-      </c>
-      <c r="X92">
-        <v>-1</v>
-      </c>
-      <c r="Y92">
-        <v>0.181</v>
-      </c>
-      <c r="Z92">
-        <v>-1</v>
-      </c>
-      <c r="AA92">
-        <v>1</v>
-      </c>
-      <c r="AB92">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6407558</v>
+        <v>6412497</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K93">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6412856</v>
+        <v>6407559</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H94">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>5.6</v>
+      </c>
+      <c r="M94">
+        <v>1.222</v>
+      </c>
+      <c r="N94">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>6</v>
+      </c>
+      <c r="P94">
+        <v>1.181</v>
+      </c>
+      <c r="Q94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
-        <v>42</v>
-      </c>
-      <c r="K94">
-        <v>1.25</v>
-      </c>
-      <c r="L94">
-        <v>5.25</v>
-      </c>
-      <c r="M94">
-        <v>9.5</v>
-      </c>
-      <c r="N94">
-        <v>1.222</v>
-      </c>
-      <c r="O94">
-        <v>5.5</v>
-      </c>
-      <c r="P94">
-        <v>9</v>
-      </c>
-      <c r="Q94">
-        <v>-1.75</v>
-      </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
+        <v>1.85</v>
+      </c>
+      <c r="V94">
         <v>2</v>
       </c>
-      <c r="V94">
-        <v>1.85</v>
-      </c>
       <c r="W94">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z94">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630125</v>
+        <v>7630127</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,40 +8893,40 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
+        <v>2.1</v>
+      </c>
+      <c r="N95">
         <v>3.5</v>
       </c>
-      <c r="N95">
-        <v>1.95</v>
-      </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
         <v>2.025</v>
@@ -8935,34 +8935,34 @@
         <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8985,7 +8985,7 @@
         <v>32</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H96">
         <v>2</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630061</v>
+        <v>7630125</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630128</v>
+        <v>7630061</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N98">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P98">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
+        <v>1.925</v>
+      </c>
+      <c r="V98">
+        <v>1.925</v>
+      </c>
+      <c r="W98">
+        <v>-1</v>
+      </c>
+      <c r="X98">
+        <v>-1</v>
+      </c>
+      <c r="Y98">
         <v>1.9</v>
       </c>
-      <c r="V98">
-        <v>1.95</v>
-      </c>
-      <c r="W98">
-        <v>-1</v>
-      </c>
-      <c r="X98">
-        <v>4.25</v>
-      </c>
-      <c r="Y98">
-        <v>-1</v>
-      </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
         <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,10 +9249,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>43</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O99">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P99">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630062</v>
+        <v>7630130</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
+        <v>4.333</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>1.85</v>
+      </c>
+      <c r="N100">
+        <v>3.75</v>
+      </c>
+      <c r="O100">
+        <v>2.9</v>
+      </c>
+      <c r="P100">
+        <v>2.1</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
         <v>2.1</v>
       </c>
-      <c r="L100">
-        <v>3.2</v>
-      </c>
-      <c r="M100">
-        <v>3.6</v>
-      </c>
-      <c r="N100">
-        <v>2.2</v>
-      </c>
-      <c r="O100">
-        <v>3</v>
-      </c>
-      <c r="P100">
-        <v>3.6</v>
-      </c>
-      <c r="Q100">
-        <v>-0.25</v>
-      </c>
-      <c r="R100">
-        <v>1.9</v>
-      </c>
-      <c r="S100">
-        <v>1.95</v>
-      </c>
-      <c r="T100">
-        <v>2</v>
-      </c>
-      <c r="U100">
-        <v>1.825</v>
-      </c>
-      <c r="V100">
-        <v>2.025</v>
-      </c>
       <c r="W100">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630130</v>
+        <v>7630129</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,73 +9516,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>42</v>
-      </c>
-      <c r="K102">
-        <v>4.333</v>
-      </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.975</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>1.75</v>
       </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.1</v>
-      </c>
-      <c r="W102">
-        <v>2.75</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630129</v>
+        <v>7630062</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,55 +9605,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
         <v>40</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
+        <v>2.1</v>
+      </c>
+      <c r="L103">
+        <v>3.2</v>
+      </c>
+      <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
+        <v>3</v>
+      </c>
+      <c r="P103">
+        <v>3.6</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>1.9</v>
+      </c>
+      <c r="S103">
+        <v>1.95</v>
+      </c>
+      <c r="T103">
         <v>2</v>
       </c>
-      <c r="L103">
-        <v>3.25</v>
-      </c>
-      <c r="M103">
-        <v>3.8</v>
-      </c>
-      <c r="N103">
-        <v>2.625</v>
-      </c>
-      <c r="O103">
-        <v>3.1</v>
-      </c>
-      <c r="P103">
-        <v>2.75</v>
-      </c>
-      <c r="Q103">
-        <v>0</v>
-      </c>
-      <c r="R103">
-        <v>1.875</v>
-      </c>
-      <c r="S103">
-        <v>1.975</v>
-      </c>
-      <c r="T103">
-        <v>2.25</v>
-      </c>
       <c r="U103">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9662,19 +9662,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9810,19 +9810,19 @@
         <v>-0.75</v>
       </c>
       <c r="R105">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S105">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T105">
         <v>2.25</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630133</v>
+        <v>7630063</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9931,25 +9931,25 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K107">
         <v>1.85</v>
       </c>
       <c r="L107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
         <v>1.85</v>
       </c>
       <c r="O107">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P107">
         <v>3.8</v>
@@ -9958,19 +9958,19 @@
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
         <v>2.5</v>
       </c>
       <c r="U107">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V107">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W107">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630063</v>
+        <v>7630133</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10005,25 +10005,25 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="K108">
         <v>1.85</v>
       </c>
       <c r="L108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="N108">
         <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
         <v>3.8</v>
@@ -10041,10 +10041,10 @@
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W108">
         <v>0</v>
@@ -10079,10 +10079,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K109">
         <v>1.222</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -103,7 +103,10 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Drogheda United</t>
+    <t>Bohemians Dublin</t>
+  </si>
+  <si>
+    <t>Derry City</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
@@ -112,16 +115,13 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>Derry City</t>
+    <t>Drogheda United</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Cork City</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -139,13 +139,13 @@
     <t>Galway United</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053244</v>
+        <v>6053242</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M2">
+        <v>3.3</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>3.1</v>
+      </c>
+      <c r="P2">
         <v>3.6</v>
-      </c>
-      <c r="N2">
-        <v>2.1</v>
-      </c>
-      <c r="O2">
-        <v>3.25</v>
-      </c>
-      <c r="P2">
-        <v>3.2</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6043235</v>
+        <v>6053243</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,10 +708,10 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -720,61 +720,61 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N3">
         <v>1.5</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P3">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q3">
         <v>-1</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X3">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y3">
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053245</v>
+        <v>6043235</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,37 +797,37 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>41</v>
       </c>
       <c r="K4">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L4">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M4">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N4">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O4">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="Q4">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R4">
         <v>1.925</v>
@@ -836,34 +836,34 @@
         <v>1.925</v>
       </c>
       <c r="T4">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U4">
+        <v>1.825</v>
+      </c>
+      <c r="V4">
         <v>2.025</v>
       </c>
-      <c r="V4">
-        <v>1.825</v>
-      </c>
       <c r="W4">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA4">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
+        <v>-1</v>
+      </c>
+      <c r="AC4">
         <v>1.025</v>
-      </c>
-      <c r="AC4">
-        <v>-1</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6053243</v>
+        <v>6053245</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="L5">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
         <v>-1</v>
       </c>
       <c r="X5">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6053242</v>
+        <v>6053244</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
+        <v>1.95</v>
+      </c>
+      <c r="L6">
+        <v>3.4</v>
+      </c>
+      <c r="M6">
+        <v>3.6</v>
+      </c>
+      <c r="N6">
         <v>2.1</v>
       </c>
-      <c r="L6">
+      <c r="O6">
+        <v>3.25</v>
+      </c>
+      <c r="P6">
         <v>3.2</v>
-      </c>
-      <c r="M6">
-        <v>3.3</v>
-      </c>
-      <c r="N6">
-        <v>2</v>
-      </c>
-      <c r="O6">
-        <v>3.1</v>
-      </c>
-      <c r="P6">
-        <v>3.6</v>
       </c>
       <c r="Q6">
         <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
         <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,56 +1064,56 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q7">
+        <v>-1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>1.9</v>
+      </c>
+      <c r="W7">
         <v>0.25</v>
       </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
-      <c r="W7">
-        <v>2.1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,55 +1153,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053252</v>
+        <v>6053250</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="J12" t="s">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>2.7</v>
+      </c>
+      <c r="L12">
+        <v>3.2</v>
+      </c>
+      <c r="M12">
+        <v>2.4</v>
+      </c>
+      <c r="N12">
+        <v>2.5</v>
+      </c>
+      <c r="O12">
+        <v>3.1</v>
+      </c>
+      <c r="P12">
+        <v>2.625</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1.85</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12">
+        <v>2.25</v>
+      </c>
+      <c r="U12">
+        <v>2.05</v>
+      </c>
+      <c r="V12">
+        <v>1.8</v>
+      </c>
+      <c r="W12">
+        <v>-1</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>1.625</v>
+      </c>
+      <c r="Z12">
+        <v>-1</v>
+      </c>
+      <c r="AA12">
         <v>1</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>3.3</v>
-      </c>
-      <c r="L12">
-        <v>3.3</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>3.2</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
-      </c>
-      <c r="P12">
-        <v>2.15</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.925</v>
-      </c>
-      <c r="S12">
-        <v>1.925</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
-      <c r="U12">
-        <v>1.975</v>
-      </c>
-      <c r="V12">
-        <v>1.875</v>
-      </c>
-      <c r="W12">
-        <v>2.2</v>
-      </c>
-      <c r="X12">
-        <v>-1</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>0.925</v>
-      </c>
-      <c r="AA12">
-        <v>-1</v>
-      </c>
       <c r="AB12">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053250</v>
+        <v>6053252</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>1</v>
-      </c>
-      <c r="I13">
-        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>2.05</v>
+      </c>
+      <c r="N13">
         <v>3.2</v>
       </c>
-      <c r="M13">
-        <v>2.4</v>
-      </c>
-      <c r="N13">
-        <v>2.5</v>
-      </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053251</v>
+        <v>6053253</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M14">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
+        <v>2.3</v>
+      </c>
+      <c r="O14">
+        <v>3.1</v>
+      </c>
+      <c r="P14">
+        <v>3.1</v>
+      </c>
+      <c r="Q14">
+        <v>-0.25</v>
+      </c>
+      <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
-      </c>
-      <c r="O14">
-        <v>3</v>
-      </c>
-      <c r="P14">
-        <v>4.5</v>
-      </c>
-      <c r="Q14">
-        <v>-0.5</v>
-      </c>
-      <c r="R14">
-        <v>1.95</v>
-      </c>
-      <c r="S14">
-        <v>1.9</v>
       </c>
       <c r="T14">
         <v>2</v>
       </c>
       <c r="U14">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB14">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053253</v>
+        <v>6053251</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L15">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M15">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N15">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O15">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P15">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q15">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R15">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S15">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T15">
         <v>2</v>
       </c>
       <c r="U15">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V15">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W15">
         <v>-1</v>
       </c>
       <c r="X15">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
         <v>-1</v>
       </c>
       <c r="Z15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA15">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC15">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053257</v>
+        <v>6053254</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>1.5</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>6.5</v>
+        <v>1.45</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
       <c r="P17">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>5.5</v>
+        <v>0.45</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1.1</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6053254</v>
+        <v>6043238</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.925</v>
+      </c>
+      <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>1.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.925</v>
+      </c>
+      <c r="AB19">
+        <v>0.4875</v>
+      </c>
+      <c r="AC19">
         <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>2.05</v>
-      </c>
-      <c r="V19">
-        <v>1.75</v>
-      </c>
-      <c r="W19">
-        <v>0.8</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053255</v>
+        <v>6053257</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
         <v>1</v>
-      </c>
-      <c r="I20">
-        <v>2</v>
       </c>
       <c r="J20" t="s">
         <v>41</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N20">
+        <v>6.5</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1.444</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>2.1</v>
+      </c>
+      <c r="S20">
+        <v>1.775</v>
+      </c>
+      <c r="T20">
         <v>2.5</v>
       </c>
-      <c r="O20">
-        <v>3.4</v>
-      </c>
-      <c r="P20">
-        <v>2.5</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
-      <c r="T20">
-        <v>2.75</v>
-      </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6043238</v>
+        <v>6053256</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>1.75</v>
+      </c>
+      <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>4.2</v>
+      </c>
+      <c r="N21">
+        <v>1.8</v>
+      </c>
+      <c r="O21">
+        <v>3.25</v>
+      </c>
+      <c r="P21">
+        <v>4.333</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>43</v>
-      </c>
-      <c r="K21">
-        <v>3.25</v>
-      </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
-      <c r="P21">
-        <v>2.1</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
         <v>30</v>
-      </c>
-      <c r="G23" t="s">
-        <v>32</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053259</v>
+        <v>6053262</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>29</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
       <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
+        <v>1.925</v>
+      </c>
+      <c r="T24">
+        <v>2.25</v>
+      </c>
+      <c r="U24">
+        <v>2.05</v>
+      </c>
+      <c r="V24">
         <v>1.8</v>
       </c>
-      <c r="S24">
-        <v>2.05</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.975</v>
-      </c>
-      <c r="V24">
-        <v>1.875</v>
-      </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053260</v>
+        <v>6053261</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
       </c>
       <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25" t="s">
+        <v>41</v>
+      </c>
+      <c r="K25">
+        <v>1.166</v>
+      </c>
+      <c r="L25">
+        <v>7</v>
+      </c>
+      <c r="M25">
+        <v>15</v>
+      </c>
+      <c r="N25">
+        <v>1.111</v>
+      </c>
+      <c r="O25">
+        <v>7.5</v>
+      </c>
+      <c r="P25">
+        <v>17</v>
+      </c>
+      <c r="Q25">
+        <v>-2.25</v>
+      </c>
+      <c r="R25">
+        <v>1.875</v>
+      </c>
+      <c r="S25">
+        <v>1.975</v>
+      </c>
+      <c r="T25">
+        <v>3.5</v>
+      </c>
+      <c r="U25">
+        <v>2</v>
+      </c>
+      <c r="V25">
+        <v>1.85</v>
+      </c>
+      <c r="W25">
+        <v>0.111</v>
+      </c>
+      <c r="X25">
+        <v>-1</v>
+      </c>
+      <c r="Y25">
+        <v>-1</v>
+      </c>
+      <c r="Z25">
+        <v>0.875</v>
+      </c>
+      <c r="AA25">
+        <v>-1</v>
+      </c>
+      <c r="AB25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1</v>
-      </c>
-      <c r="J25" t="s">
-        <v>43</v>
-      </c>
-      <c r="K25">
-        <v>3.6</v>
-      </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>3.5</v>
-      </c>
-      <c r="O25">
-        <v>3</v>
-      </c>
-      <c r="P25">
-        <v>2.25</v>
-      </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2.1</v>
-      </c>
-      <c r="V25">
-        <v>1.775</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>2</v>
-      </c>
-      <c r="Y25">
-        <v>-1</v>
-      </c>
-      <c r="Z25">
-        <v>0.425</v>
-      </c>
-      <c r="AA25">
-        <v>-0.5</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053261</v>
+        <v>6043240</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
         <v>31</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>1.833</v>
       </c>
       <c r="N26">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.111</v>
+        <v>2.6</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,16 +2812,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053262</v>
+        <v>6053260</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,13 +2841,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -2856,61 +2856,61 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6043240</v>
+        <v>6053259</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2933,73 +2933,73 @@
         <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M28">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P28">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q28">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R28">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S28">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T28">
         <v>2.5</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB28">
         <v>-1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3108,10 +3108,10 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H30">
         <v>3</v>
@@ -3120,7 +3120,7 @@
         <v>2</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K30">
         <v>2.2</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053266</v>
+        <v>6053264</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>41</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053264</v>
+        <v>6053266</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,70 +3289,70 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053265</v>
+        <v>6043241</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="L33">
+        <v>3.75</v>
+      </c>
+      <c r="M33">
+        <v>1.571</v>
+      </c>
+      <c r="N33">
         <v>3.8</v>
       </c>
-      <c r="M33">
-        <v>5.5</v>
-      </c>
-      <c r="N33">
-        <v>1.4</v>
-      </c>
       <c r="O33">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,7 +3464,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
         <v>33</v>
@@ -3473,67 +3473,67 @@
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,7 +3553,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3562,67 +3562,67 @@
         <v>1</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35">
-        <v>6.5</v>
-      </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
       <c r="M35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,13 +3731,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3746,25 +3746,25 @@
         <v>43</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
+        <v>2.45</v>
+      </c>
+      <c r="N37">
+        <v>3.2</v>
+      </c>
+      <c r="O37">
         <v>3.1</v>
       </c>
-      <c r="N37">
-        <v>2.45</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
       <c r="P37">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
         <v>1.825</v>
@@ -3773,34 +3773,34 @@
         <v>2.025</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
+        <v>1.025</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <v>-0</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053270</v>
+        <v>6053272</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3823,73 +3823,73 @@
         <v>33</v>
       </c>
       <c r="G38" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
         <v>42</v>
       </c>
       <c r="K38">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="O38">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053271</v>
+        <v>6053270</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
         <v>41</v>
       </c>
       <c r="K39">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L39">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N39">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="O39">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P39">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3998,10 +3998,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
+        <v>29</v>
+      </c>
+      <c r="G40" t="s">
         <v>33</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4010,7 +4010,7 @@
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K40">
         <v>1.65</v>
@@ -4099,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>2.875</v>
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4357,7 +4357,7 @@
         <v>37</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
         <v>1.95</v>
@@ -4446,7 +4446,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4455,7 +4455,7 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
         <v>3.75</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6053279</v>
+        <v>6053277</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,73 +4535,73 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
         <v>42</v>
       </c>
       <c r="K46">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O46">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R46">
+        <v>2</v>
+      </c>
+      <c r="S46">
+        <v>1.85</v>
+      </c>
+      <c r="T46">
+        <v>2.75</v>
+      </c>
+      <c r="U46">
         <v>1.975</v>
       </c>
-      <c r="S46">
+      <c r="V46">
         <v>1.875</v>
       </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
-      <c r="U46">
-        <v>1.9</v>
-      </c>
-      <c r="V46">
-        <v>1.95</v>
-      </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053277</v>
+        <v>6053279</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4624,73 +4624,73 @@
         <v>34</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H47">
         <v>1</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O47">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X47">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA47">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,73 +4802,73 @@
         <v>31</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L49">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6053282</v>
+        <v>6053281</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,70 +4891,70 @@
         <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
         <v>42</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6053281</v>
+        <v>6053283</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>21</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>8.5</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>12</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>7</v>
       </c>
       <c r="P51">
-        <v>2.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
         <v>-1</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6043244</v>
+        <v>6053282</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,58 +5066,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
         <v>35</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6043245</v>
+        <v>6053288</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,58 +5244,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H54">
+        <v>2</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54">
+        <v>2.8</v>
+      </c>
+      <c r="L54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
-      <c r="J54" t="s">
-        <v>42</v>
-      </c>
-      <c r="K54">
-        <v>1.615</v>
-      </c>
-      <c r="L54">
-        <v>3.75</v>
-      </c>
       <c r="M54">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5333,10 +5333,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
         <v>1.25</v>
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,10 +5422,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5434,46 +5434,46 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053287</v>
+        <v>6053285</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5514,70 +5514,70 @@
         <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>41</v>
       </c>
       <c r="K57">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="L57">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="N57">
-        <v>3.4</v>
+        <v>2.45</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P57">
-        <v>2.15</v>
+        <v>2.8</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.45</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053288</v>
+        <v>6053287</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,73 +5600,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
         <v>3</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5689,10 +5689,10 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288259</v>
+        <v>6288260</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>42</v>
       </c>
       <c r="K62">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="L62">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M62">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="N62">
-        <v>1.95</v>
+        <v>34</v>
       </c>
       <c r="O62">
+        <v>11</v>
+      </c>
+      <c r="P62">
+        <v>1.055</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
         <v>3.5</v>
       </c>
-      <c r="P62">
-        <v>3.8</v>
-      </c>
-      <c r="Q62">
-        <v>-0.5</v>
-      </c>
-      <c r="R62">
-        <v>1.95</v>
-      </c>
-      <c r="S62">
-        <v>1.9</v>
-      </c>
-      <c r="T62">
-        <v>2.5</v>
-      </c>
       <c r="U62">
+        <v>2</v>
+      </c>
+      <c r="V62">
         <v>1.85</v>
       </c>
-      <c r="V62">
-        <v>2</v>
-      </c>
       <c r="W62">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
+        <v>-1</v>
+      </c>
+      <c r="AC62">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC62">
-        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288260</v>
+        <v>6288772</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,10 +6045,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -6057,55 +6057,55 @@
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>34</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="Q63">
+        <v>0.75</v>
+      </c>
+      <c r="R63">
+        <v>1.975</v>
+      </c>
+      <c r="S63">
+        <v>1.875</v>
+      </c>
+      <c r="T63">
         <v>2.75</v>
       </c>
-      <c r="R63">
-        <v>1.925</v>
-      </c>
-      <c r="S63">
-        <v>1.925</v>
-      </c>
-      <c r="T63">
-        <v>3.5</v>
-      </c>
       <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>2</v>
       </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
         <v>-1</v>
       </c>
       <c r="X63">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6114,7 +6114,7 @@
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288773</v>
+        <v>7197534</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64" t="s">
+        <v>41</v>
+      </c>
+      <c r="K64">
+        <v>3.6</v>
+      </c>
+      <c r="L64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <v>2.1</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
+        <v>3.4</v>
+      </c>
+      <c r="P64">
+        <v>1.75</v>
+      </c>
+      <c r="Q64">
+        <v>0.75</v>
+      </c>
+      <c r="R64">
+        <v>1.85</v>
+      </c>
+      <c r="S64">
         <v>2</v>
-      </c>
-      <c r="I64">
-        <v>1</v>
-      </c>
-      <c r="J64" t="s">
-        <v>42</v>
-      </c>
-      <c r="K64">
-        <v>1.615</v>
-      </c>
-      <c r="L64">
-        <v>3.6</v>
-      </c>
-      <c r="M64">
-        <v>6</v>
-      </c>
-      <c r="N64">
-        <v>1.666</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
-      <c r="P64">
-        <v>5.75</v>
-      </c>
-      <c r="Q64">
-        <v>-0.75</v>
-      </c>
-      <c r="R64">
-        <v>1.875</v>
-      </c>
-      <c r="S64">
-        <v>1.975</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
-        <v>0.6659999999999999</v>
+        <v>4</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,16 +6194,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288772</v>
+        <v>6288259</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,49 +6223,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L65">
+        <v>3.4</v>
+      </c>
+      <c r="M65">
+        <v>4.5</v>
+      </c>
+      <c r="N65">
+        <v>1.95</v>
+      </c>
+      <c r="O65">
         <v>3.5</v>
       </c>
-      <c r="M65">
-        <v>2.1</v>
-      </c>
-      <c r="N65">
-        <v>4.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
       <c r="P65">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U65">
         <v>1.85</v>
@@ -6274,25 +6274,25 @@
         <v>2</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,58 +6312,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H66">
+        <v>2</v>
+      </c>
+      <c r="I66">
         <v>1</v>
       </c>
-      <c r="I66">
-        <v>0</v>
-      </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
+        <v>1.615</v>
+      </c>
+      <c r="L66">
         <v>3.6</v>
       </c>
-      <c r="L66">
-        <v>3.25</v>
-      </c>
       <c r="M66">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N66">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S66">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T66">
         <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6372,16 +6372,16 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K68">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
         <v>4.75</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053291</v>
+        <v>7106289</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M69">
         <v>4.75</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O69">
+        <v>3.8</v>
+      </c>
+      <c r="P69">
         <v>4.2</v>
       </c>
-      <c r="P69">
-        <v>6</v>
-      </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323100</v>
+        <v>6323099</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70" t="s">
+        <v>41</v>
+      </c>
+      <c r="K70">
+        <v>1.071</v>
+      </c>
+      <c r="L70">
+        <v>9.5</v>
+      </c>
+      <c r="M70">
+        <v>34</v>
+      </c>
+      <c r="N70">
+        <v>1.05</v>
+      </c>
+      <c r="O70">
+        <v>15</v>
+      </c>
+      <c r="P70">
         <v>29</v>
       </c>
-      <c r="H70">
-        <v>3</v>
-      </c>
-      <c r="I70">
-        <v>1</v>
-      </c>
-      <c r="J70" t="s">
-        <v>42</v>
-      </c>
-      <c r="K70">
-        <v>1.833</v>
-      </c>
-      <c r="L70">
+      <c r="Q70">
+        <v>-3</v>
+      </c>
+      <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>1.6</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>5</v>
-      </c>
-      <c r="Q70">
-        <v>-1</v>
-      </c>
-      <c r="R70">
-        <v>2.05</v>
-      </c>
-      <c r="S70">
-        <v>1.8</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>0.6000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,13 +6728,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6757,7 +6757,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -6769,7 +6769,7 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
         <v>2.1</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323099</v>
+        <v>6323098</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.071</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>2.05</v>
       </c>
       <c r="N72">
+        <v>3.5</v>
+      </c>
+      <c r="O72">
+        <v>3.4</v>
+      </c>
+      <c r="P72">
+        <v>2.05</v>
+      </c>
+      <c r="Q72">
+        <v>0.25</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>1.8</v>
+      </c>
+      <c r="T72">
+        <v>2.5</v>
+      </c>
+      <c r="U72">
+        <v>1.825</v>
+      </c>
+      <c r="V72">
+        <v>2.025</v>
+      </c>
+      <c r="W72">
+        <v>-1</v>
+      </c>
+      <c r="X72">
+        <v>-1</v>
+      </c>
+      <c r="Y72">
         <v>1.05</v>
       </c>
-      <c r="O72">
-        <v>15</v>
-      </c>
-      <c r="P72">
-        <v>29</v>
-      </c>
-      <c r="Q72">
-        <v>-3</v>
-      </c>
-      <c r="R72">
-        <v>1.825</v>
-      </c>
-      <c r="S72">
-        <v>2.025</v>
-      </c>
-      <c r="T72">
-        <v>3.75</v>
-      </c>
-      <c r="U72">
-        <v>1.925</v>
-      </c>
-      <c r="V72">
-        <v>1.925</v>
-      </c>
-      <c r="W72">
-        <v>0.05000000000000004</v>
-      </c>
-      <c r="X72">
-        <v>-1</v>
-      </c>
-      <c r="Y72">
-        <v>-1</v>
-      </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6323098</v>
+        <v>6323101</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,76 +6935,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73" t="s">
         <v>41</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>2.05</v>
+        <v>4.25</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S73">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z73">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB73">
         <v>-1</v>
       </c>
       <c r="AC73">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323101</v>
+        <v>6323100</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
         <v>1</v>
       </c>
-      <c r="I74">
-        <v>0</v>
-      </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K74">
         <v>1.833</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M74">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="N74">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O74">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P74">
         <v>5</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R74">
+        <v>2.05</v>
+      </c>
+      <c r="S74">
+        <v>1.8</v>
+      </c>
+      <c r="T74">
+        <v>2.75</v>
+      </c>
+      <c r="U74">
         <v>1.9</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>1.95</v>
       </c>
-      <c r="T74">
-        <v>2.25</v>
-      </c>
-      <c r="U74">
-        <v>1.875</v>
-      </c>
-      <c r="V74">
-        <v>1.975</v>
-      </c>
       <c r="W74">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,16 +7084,16 @@
         <v>-1</v>
       </c>
       <c r="Z74">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA74">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC74">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7202,10 +7202,10 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G76" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H76">
         <v>0</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>4.5</v>
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7914,10 +7914,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382789</v>
+        <v>6382790</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,58 +8003,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>2</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P85">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>2.2</v>
+        <v>0.181</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382790</v>
+        <v>6382789</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>41</v>
+      </c>
+      <c r="K86">
+        <v>2.625</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>2.55</v>
+      </c>
+      <c r="N86">
+        <v>3.2</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>2.15</v>
+      </c>
+      <c r="Q86">
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>2</v>
       </c>
-      <c r="J86" t="s">
-        <v>42</v>
-      </c>
-      <c r="K86">
-        <v>1.142</v>
-      </c>
-      <c r="L86">
-        <v>7.5</v>
-      </c>
-      <c r="M86">
-        <v>17</v>
-      </c>
-      <c r="N86">
-        <v>1.181</v>
-      </c>
-      <c r="O86">
-        <v>7</v>
-      </c>
-      <c r="P86">
-        <v>15</v>
-      </c>
-      <c r="Q86">
-        <v>-2</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>2.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6407558</v>
+        <v>6412497</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,70 +8451,70 @@
         <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I90">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
       </c>
       <c r="K90">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="O90">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P90">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="Q90">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R90">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z90">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412498</v>
+        <v>6412856</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,49 +8537,49 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>41</v>
+      </c>
+      <c r="K91">
+        <v>1.25</v>
+      </c>
+      <c r="L91">
+        <v>5.25</v>
+      </c>
+      <c r="M91">
+        <v>9.5</v>
+      </c>
+      <c r="N91">
+        <v>1.222</v>
+      </c>
+      <c r="O91">
+        <v>5.5</v>
+      </c>
+      <c r="P91">
+        <v>9</v>
+      </c>
+      <c r="Q91">
+        <v>-1.75</v>
+      </c>
+      <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>1.9</v>
+      </c>
+      <c r="T91">
         <v>3</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>42</v>
-      </c>
-      <c r="K91">
-        <v>1.7</v>
-      </c>
-      <c r="L91">
-        <v>3.75</v>
-      </c>
-      <c r="M91">
-        <v>4.2</v>
-      </c>
-      <c r="N91">
-        <v>1.45</v>
-      </c>
-      <c r="O91">
-        <v>4</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.25</v>
-      </c>
-      <c r="R91">
-        <v>1.925</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
       </c>
       <c r="U91">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6412856</v>
+        <v>6412498</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,46 +8629,46 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H92">
+        <v>3</v>
+      </c>
+      <c r="I92">
+        <v>0</v>
+      </c>
+      <c r="J92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92">
+        <v>1.7</v>
+      </c>
+      <c r="L92">
+        <v>3.75</v>
+      </c>
+      <c r="M92">
+        <v>4.2</v>
+      </c>
+      <c r="N92">
+        <v>1.45</v>
+      </c>
+      <c r="O92">
         <v>4</v>
       </c>
-      <c r="I92">
-        <v>2</v>
-      </c>
-      <c r="J92" t="s">
-        <v>42</v>
-      </c>
-      <c r="K92">
-        <v>1.25</v>
-      </c>
-      <c r="L92">
-        <v>5.25</v>
-      </c>
-      <c r="M92">
-        <v>9.5</v>
-      </c>
-      <c r="N92">
-        <v>1.222</v>
-      </c>
-      <c r="O92">
-        <v>5.5</v>
-      </c>
       <c r="P92">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R92">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S92">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T92">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U92">
         <v>2</v>
@@ -8677,7 +8677,7 @@
         <v>1.85</v>
       </c>
       <c r="W92">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,16 +8686,16 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA92">
+        <v>-1</v>
+      </c>
+      <c r="AB92">
+        <v>0.5</v>
+      </c>
+      <c r="AC92">
         <v>-0.5</v>
-      </c>
-      <c r="AB92">
-        <v>1</v>
-      </c>
-      <c r="AC92">
-        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6412497</v>
+        <v>6407559</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
         <v>34</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I93">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J93" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>5.6</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>1.222</v>
       </c>
       <c r="N93">
-        <v>1.166</v>
+        <v>11</v>
       </c>
       <c r="O93">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="P93">
-        <v>15</v>
+        <v>1.181</v>
       </c>
       <c r="Q93">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="T93">
         <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W93">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6407559</v>
+        <v>6407558</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,55 +8804,55 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>3.3</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
         <v>5</v>
       </c>
-      <c r="J94" t="s">
-        <v>41</v>
-      </c>
-      <c r="K94">
-        <v>10</v>
-      </c>
-      <c r="L94">
-        <v>5.6</v>
-      </c>
-      <c r="M94">
-        <v>1.222</v>
-      </c>
-      <c r="N94">
-        <v>11</v>
-      </c>
       <c r="O94">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,16 +8861,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.181</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630127</v>
+        <v>7630126</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,76 +8893,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N95">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W95">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
+        <v>0.875</v>
+      </c>
+      <c r="AB95">
+        <v>0.4375</v>
+      </c>
+      <c r="AC95">
         <v>-0.5</v>
-      </c>
-      <c r="AB95">
-        <v>-0.5</v>
-      </c>
-      <c r="AC95">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630126</v>
+        <v>7630125</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,61 +8982,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9045,13 +9045,13 @@
         <v>-1</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630125</v>
+        <v>7630128</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,61 +9071,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N97">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q97">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V97">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9134,13 +9134,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB97">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630061</v>
+        <v>7630127</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,49 +9160,49 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
+        <v>2.1</v>
+      </c>
+      <c r="N98">
+        <v>3.5</v>
+      </c>
+      <c r="O98">
         <v>3.4</v>
       </c>
-      <c r="M98">
-        <v>2</v>
-      </c>
-      <c r="N98">
-        <v>2.3</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9214,22 +9214,22 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630128</v>
+        <v>7630061</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,13 +9249,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>43</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>4.75</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>2.9</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
+        <v>1.925</v>
+      </c>
+      <c r="V99">
+        <v>1.925</v>
+      </c>
+      <c r="W99">
+        <v>-1</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
         <v>1.9</v>
       </c>
-      <c r="V99">
-        <v>1.95</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>4.25</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630130</v>
+        <v>7630062</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>2</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
         <v>2</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9430,7 +9430,7 @@
         <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K101">
         <v>2.3</v>
@@ -9516,7 +9516,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G102" t="s">
         <v>39</v>
@@ -9528,7 +9528,7 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630062</v>
+        <v>7630130</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J103" t="s">
         <v>41</v>
       </c>
       <c r="K103">
+        <v>4.333</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>1.85</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>2.9</v>
+      </c>
+      <c r="P103">
         <v>2.1</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>3.6</v>
-      </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.825</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>2.025</v>
+        <v>2.1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630463</v>
+        <v>7630133</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,46 +9783,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K105">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="N105">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="O105">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P105">
-        <v>5</v>
+        <v>3.8</v>
       </c>
       <c r="Q105">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
+        <v>1.9</v>
+      </c>
+      <c r="S105">
+        <v>1.95</v>
+      </c>
+      <c r="T105">
+        <v>2.5</v>
+      </c>
+      <c r="U105">
+        <v>1.975</v>
+      </c>
+      <c r="V105">
         <v>1.875</v>
-      </c>
-      <c r="S105">
-        <v>1.975</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>1.8</v>
-      </c>
-      <c r="V105">
-        <v>2.05</v>
       </c>
       <c r="W105">
         <v>0</v>
@@ -9845,7 +9845,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9857,46 +9857,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K106">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N106">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P106">
-        <v>2.4</v>
+        <v>5</v>
       </c>
       <c r="Q106">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R106">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="S106">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
+        <v>1.825</v>
+      </c>
+      <c r="V106">
         <v>2.025</v>
-      </c>
-      <c r="V106">
-        <v>1.825</v>
       </c>
       <c r="W106">
         <v>0</v>
@@ -9919,7 +9919,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630063</v>
+        <v>7630134</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9931,46 +9931,46 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K107">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
-        <v>1.85</v>
+        <v>2.8</v>
       </c>
       <c r="O107">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="P107">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="Q107">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R107">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="S107">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="T107">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U107">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V107">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W107">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630133</v>
+        <v>7630063</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10005,25 +10005,25 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="K108">
         <v>1.85</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M108">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N108">
         <v>1.85</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P108">
         <v>3.8</v>
@@ -10032,19 +10032,19 @@
         <v>-0.5</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="T108">
         <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
         <v>0</v>
@@ -10079,10 +10079,10 @@
         <v>45352.70833333334</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G109" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K109">
         <v>1.222</v>
@@ -10115,10 +10115,10 @@
         <v>3</v>
       </c>
       <c r="U109">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V109">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W109">
         <v>0</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
+    <t>Bohemians Dublin</t>
+  </si>
+  <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Drogheda United</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -139,13 +139,13 @@
     <t>Galway United</t>
   </si>
   <si>
-    <t>H</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
-    <t>A</t>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC109"/>
+  <dimension ref="A1:AC107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053242</v>
+        <v>6053244</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
+        <v>1.95</v>
+      </c>
+      <c r="L2">
+        <v>3.4</v>
+      </c>
+      <c r="M2">
+        <v>3.6</v>
+      </c>
+      <c r="N2">
         <v>2.1</v>
       </c>
-      <c r="L2">
+      <c r="O2">
+        <v>3.25</v>
+      </c>
+      <c r="P2">
         <v>3.2</v>
-      </c>
-      <c r="M2">
-        <v>3.3</v>
-      </c>
-      <c r="N2">
-        <v>2</v>
-      </c>
-      <c r="O2">
-        <v>3.1</v>
-      </c>
-      <c r="P2">
-        <v>3.6</v>
       </c>
       <c r="Q2">
         <v>-0.25</v>
       </c>
       <c r="R2">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
         <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z2">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053243</v>
+        <v>6053245</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="L3">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P3">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R3">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
         <v>-1</v>
       </c>
       <c r="X3">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6043235</v>
+        <v>6053243</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K4">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L4">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N4">
         <v>1.5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P4">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q4">
         <v>-1</v>
       </c>
       <c r="R4">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S4">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T4">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U4">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <v>-1</v>
       </c>
       <c r="AC4">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6053245</v>
+        <v>6053242</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
+        <v>0.8</v>
+      </c>
+      <c r="AA5">
+        <v>-1</v>
+      </c>
+      <c r="AB5">
         <v>-0.5</v>
       </c>
-      <c r="AA5">
-        <v>0.4625</v>
-      </c>
-      <c r="AB5">
-        <v>1.025</v>
-      </c>
       <c r="AC5">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6053244</v>
+        <v>6043235</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -978,34 +978,34 @@
         <v>35</v>
       </c>
       <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
         <v>0</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M6">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
         <v>1.925</v>
@@ -1014,34 +1014,34 @@
         <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,52 +1067,52 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,56 +1153,56 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q8">
+        <v>-1.75</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.9</v>
+      </c>
+      <c r="W8">
         <v>0.25</v>
       </c>
-      <c r="R8">
-        <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
-      </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>2.025</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
-      <c r="W8">
-        <v>2.1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,10 +1506,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" t="s">
         <v>35</v>
-      </c>
-      <c r="G12" t="s">
-        <v>34</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1518,7 +1518,7 @@
         <v>2</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>2.7</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053252</v>
+        <v>6053253</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>3.3</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>2.05</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>2.3</v>
       </c>
       <c r="O13">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P13">
-        <v>2.15</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U13">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
       <c r="AB13">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053253</v>
+        <v>6053252</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
+        <v>3.3</v>
+      </c>
+      <c r="L14">
+        <v>3.3</v>
+      </c>
+      <c r="M14">
         <v>2.05</v>
       </c>
-      <c r="L14">
+      <c r="N14">
         <v>3.2</v>
       </c>
-      <c r="M14">
-        <v>3.4</v>
-      </c>
-      <c r="N14">
-        <v>2.3</v>
-      </c>
       <c r="O14">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P14">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="Q14">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R14">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S14">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T14">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U14">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V14">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X14">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y14">
         <v>-1</v>
       </c>
       <c r="Z14">
+        <v>0.925</v>
+      </c>
+      <c r="AA14">
+        <v>-1</v>
+      </c>
+      <c r="AB14">
+        <v>0.4875</v>
+      </c>
+      <c r="AC14">
         <v>-0.5</v>
-      </c>
-      <c r="AA14">
-        <v>0.425</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,10 +1773,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053254</v>
+        <v>6053257</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1954,56 +1954,56 @@
         <v>30</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H17">
         <v>2</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K17">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="O17">
         <v>4</v>
       </c>
       <c r="P17">
+        <v>1.444</v>
+      </c>
+      <c r="Q17">
+        <v>1</v>
+      </c>
+      <c r="R17">
+        <v>2.1</v>
+      </c>
+      <c r="S17">
+        <v>1.775</v>
+      </c>
+      <c r="T17">
+        <v>2.5</v>
+      </c>
+      <c r="U17">
+        <v>1.95</v>
+      </c>
+      <c r="V17">
+        <v>1.9</v>
+      </c>
+      <c r="W17">
         <v>5.5</v>
       </c>
-      <c r="Q17">
-        <v>-1</v>
-      </c>
-      <c r="R17">
-        <v>1.875</v>
-      </c>
-      <c r="S17">
-        <v>1.975</v>
-      </c>
-      <c r="T17">
-        <v>2.25</v>
-      </c>
-      <c r="U17">
-        <v>1.825</v>
-      </c>
-      <c r="V17">
-        <v>2.025</v>
-      </c>
-      <c r="W17">
-        <v>0.45</v>
-      </c>
       <c r="X17">
         <v>-1</v>
       </c>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6043238</v>
+        <v>6053254</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053255</v>
+        <v>6053256</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>43</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>1.75</v>
       </c>
       <c r="L19">
+        <v>3.5</v>
+      </c>
+      <c r="M19">
+        <v>4.2</v>
+      </c>
+      <c r="N19">
+        <v>1.8</v>
+      </c>
+      <c r="O19">
         <v>3.25</v>
       </c>
-      <c r="M19">
-        <v>2.625</v>
-      </c>
-      <c r="N19">
-        <v>2.5</v>
-      </c>
-      <c r="O19">
-        <v>3.4</v>
-      </c>
       <c r="P19">
-        <v>2.5</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053257</v>
+        <v>6043238</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2221,70 +2221,70 @@
         <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
+        <v>2</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>3.25</v>
+      </c>
+      <c r="L20">
+        <v>3.2</v>
+      </c>
+      <c r="M20">
+        <v>2.1</v>
+      </c>
+      <c r="N20">
+        <v>3.4</v>
+      </c>
+      <c r="O20">
+        <v>3.1</v>
+      </c>
+      <c r="P20">
+        <v>2.1</v>
+      </c>
+      <c r="Q20">
+        <v>0.25</v>
+      </c>
+      <c r="R20">
+        <v>1.925</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
+        <v>2.25</v>
+      </c>
+      <c r="U20">
+        <v>2</v>
+      </c>
+      <c r="V20">
+        <v>1.85</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>2.1</v>
+      </c>
+      <c r="Y20">
+        <v>-1</v>
+      </c>
+      <c r="Z20">
+        <v>0.4625</v>
+      </c>
+      <c r="AA20">
+        <v>-0.5</v>
+      </c>
+      <c r="AB20">
         <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>1.5</v>
-      </c>
-      <c r="N20">
-        <v>6.5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.444</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2.1</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
-      </c>
-      <c r="T20">
-        <v>2.5</v>
-      </c>
-      <c r="U20">
-        <v>1.95</v>
-      </c>
-      <c r="V20">
-        <v>1.9</v>
-      </c>
-      <c r="W20">
-        <v>5.5</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>1.1</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
         <v>41</v>
       </c>
       <c r="K21">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.925</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>1.975</v>
+      </c>
+      <c r="V21">
+        <v>1.875</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
+        <v>1.5</v>
+      </c>
+      <c r="Z21">
+        <v>-1</v>
+      </c>
+      <c r="AA21">
+        <v>0.925</v>
+      </c>
+      <c r="AB21">
+        <v>0.4875</v>
+      </c>
+      <c r="AC21">
         <v>-0.5</v>
-      </c>
-      <c r="R21">
-        <v>1.85</v>
-      </c>
-      <c r="S21">
-        <v>2</v>
-      </c>
-      <c r="T21">
-        <v>2.25</v>
-      </c>
-      <c r="U21">
-        <v>2.05</v>
-      </c>
-      <c r="V21">
-        <v>1.75</v>
-      </c>
-      <c r="W21">
-        <v>0.8</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
-      <c r="Z21">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA21">
-        <v>-1</v>
-      </c>
-      <c r="AB21">
-        <v>-1</v>
-      </c>
-      <c r="AC21">
-        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" t="s">
         <v>31</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053262</v>
+        <v>6043240</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.825</v>
+      </c>
+      <c r="S24">
+        <v>2.025</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-      <c r="P24">
-        <v>2.7</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>2.05</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.825</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>1.05</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053261</v>
+        <v>6053259</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25">
+        <v>2.2</v>
+      </c>
+      <c r="L25">
+        <v>3.25</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>2.875</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
-      <c r="J25" t="s">
-        <v>41</v>
-      </c>
-      <c r="K25">
-        <v>1.166</v>
-      </c>
-      <c r="L25">
-        <v>7</v>
-      </c>
-      <c r="M25">
-        <v>15</v>
-      </c>
-      <c r="N25">
-        <v>1.111</v>
-      </c>
-      <c r="O25">
-        <v>7.5</v>
-      </c>
-      <c r="P25">
-        <v>17</v>
-      </c>
-      <c r="Q25">
-        <v>-2.25</v>
-      </c>
       <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2.05</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
         <v>1.875</v>
       </c>
-      <c r="S25">
-        <v>1.975</v>
-      </c>
-      <c r="T25">
-        <v>3.5</v>
-      </c>
-      <c r="U25">
-        <v>2</v>
-      </c>
-      <c r="V25">
-        <v>1.85</v>
-      </c>
       <c r="W25">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>-0</v>
+      </c>
+      <c r="AB25">
+        <v>-1</v>
+      </c>
+      <c r="AC25">
         <v>0.875</v>
-      </c>
-      <c r="AA25">
-        <v>-1</v>
-      </c>
-      <c r="AB25">
-        <v>1</v>
-      </c>
-      <c r="AC25">
-        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6043240</v>
+        <v>6053261</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>1.166</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>7</v>
       </c>
       <c r="M26">
-        <v>1.833</v>
+        <v>15</v>
       </c>
       <c r="N26">
-        <v>3.6</v>
+        <v>1.111</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.5</v>
+      </c>
+      <c r="U26">
         <v>2</v>
       </c>
-      <c r="Q26">
-        <v>0.5</v>
-      </c>
-      <c r="R26">
-        <v>1.825</v>
-      </c>
-      <c r="S26">
-        <v>2.025</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.925</v>
-      </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W26">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,16 +2812,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2844,7 +2844,7 @@
         <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053259</v>
+        <v>6053262</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I28">
         <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K28">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M28">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N28">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O28">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P28">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q28">
         <v>0</v>
       </c>
       <c r="R28">
+        <v>1.925</v>
+      </c>
+      <c r="S28">
+        <v>1.925</v>
+      </c>
+      <c r="T28">
+        <v>2.25</v>
+      </c>
+      <c r="U28">
+        <v>2.05</v>
+      </c>
+      <c r="V28">
         <v>1.8</v>
       </c>
-      <c r="S28">
-        <v>2.05</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.975</v>
-      </c>
-      <c r="V28">
-        <v>1.875</v>
-      </c>
       <c r="W28">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X28">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC28">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053265</v>
+        <v>6053264</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I29">
         <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L29">
         <v>3.8</v>
       </c>
       <c r="M29">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W29">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X29">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053263</v>
+        <v>6053265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30">
+        <v>1.55</v>
+      </c>
+      <c r="L30">
+        <v>3.8</v>
+      </c>
+      <c r="M30">
+        <v>5.5</v>
+      </c>
+      <c r="N30">
+        <v>1.4</v>
+      </c>
+      <c r="O30">
+        <v>4.333</v>
+      </c>
+      <c r="P30">
+        <v>7</v>
+      </c>
+      <c r="Q30">
+        <v>-1.25</v>
+      </c>
+      <c r="R30">
         <v>2</v>
       </c>
-      <c r="J30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K30">
-        <v>2.2</v>
-      </c>
-      <c r="L30">
-        <v>3.25</v>
-      </c>
-      <c r="M30">
-        <v>3</v>
-      </c>
-      <c r="N30">
-        <v>2.1</v>
-      </c>
-      <c r="O30">
-        <v>3.3</v>
-      </c>
-      <c r="P30">
-        <v>3</v>
-      </c>
-      <c r="Q30">
-        <v>-0.25</v>
-      </c>
-      <c r="R30">
-        <v>1.9</v>
-      </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053264</v>
+        <v>6053263</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,49 +3197,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H31">
+        <v>3</v>
+      </c>
+      <c r="I31">
         <v>2</v>
       </c>
-      <c r="I31">
-        <v>1</v>
-      </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
         <v>2.05</v>
@@ -3248,7 +3248,7 @@
         <v>1.8</v>
       </c>
       <c r="W31">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X31">
         <v>-1</v>
@@ -3257,10 +3257,10 @@
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
         <v>1.05</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053266</v>
+        <v>6043241</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,76 +3286,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M32">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="N32">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="O32">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
         <v>1.975</v>
       </c>
-      <c r="V32">
-        <v>1.875</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
+        <v>-1</v>
+      </c>
+      <c r="AC32">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC32">
-        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6043241</v>
+        <v>6053266</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K33">
+        <v>6.5</v>
+      </c>
+      <c r="L33">
+        <v>4.2</v>
+      </c>
+      <c r="M33">
+        <v>1.444</v>
+      </c>
+      <c r="N33">
+        <v>10</v>
+      </c>
+      <c r="O33">
         <v>5.25</v>
       </c>
-      <c r="L33">
-        <v>3.75</v>
-      </c>
-      <c r="M33">
-        <v>1.571</v>
-      </c>
-      <c r="N33">
-        <v>3.8</v>
-      </c>
-      <c r="O33">
-        <v>3.25</v>
-      </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
         <v>2.5</v>
       </c>
       <c r="U33">
+        <v>1.975</v>
+      </c>
+      <c r="V33">
         <v>1.875</v>
       </c>
-      <c r="V33">
-        <v>1.975</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
         <v>32</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>2.4</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>6.5</v>
-      </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
       <c r="M34">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,7 +3553,7 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G35" t="s">
         <v>29</v>
@@ -3562,67 +3562,67 @@
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,40 +3731,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
+        <v>3.1</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
         <v>3.2</v>
       </c>
-      <c r="M37">
-        <v>2.45</v>
-      </c>
-      <c r="N37">
-        <v>3.2</v>
-      </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1.825</v>
@@ -3773,34 +3773,34 @@
         <v>2.025</v>
       </c>
       <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>2</v>
       </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,40 +3820,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>2.45</v>
+      </c>
+      <c r="N38">
+        <v>3.2</v>
+      </c>
+      <c r="O38">
         <v>3.1</v>
       </c>
-      <c r="N38">
-        <v>2.45</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
         <v>1.825</v>
@@ -3862,34 +3862,34 @@
         <v>2.025</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z38">
+        <v>-1</v>
+      </c>
+      <c r="AA38">
+        <v>1.025</v>
+      </c>
+      <c r="AB38">
         <v>0</v>
       </c>
-      <c r="AA38">
+      <c r="AC38">
         <v>-0</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
         <v>1.222</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,13 +3998,13 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -4013,61 +4013,61 @@
         <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,13 +4087,13 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -4102,61 +4102,61 @@
         <v>43</v>
       </c>
       <c r="K41">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2.05</v>
-      </c>
-      <c r="Q41">
-        <v>0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053280</v>
+        <v>6053277</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,76 +4354,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>42</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L44">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>3.2</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="Q44">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
         <v>1.85</v>
       </c>
-      <c r="S44">
-        <v>2</v>
-      </c>
       <c r="T44">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U44">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V44">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4446,7 +4446,7 @@
         <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6053277</v>
+        <v>6053279</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4535,73 +4535,73 @@
         <v>35</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H46">
         <v>1</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M46">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N46">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O46">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q46">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R46">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S46">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T46">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X46">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA46">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053279</v>
+        <v>6053280</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6043244</v>
+        <v>6053283</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
         <v>1</v>
-      </c>
-      <c r="I49">
-        <v>0</v>
       </c>
       <c r="J49" t="s">
         <v>41</v>
       </c>
       <c r="K49">
-        <v>1.7</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M49">
-        <v>4.333</v>
+        <v>1.1</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P49">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,10 +4888,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H50">
         <v>2</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H51">
+        <v>1</v>
+      </c>
+      <c r="I51">
         <v>0</v>
-      </c>
-      <c r="I51">
-        <v>1</v>
       </c>
       <c r="J51" t="s">
         <v>43</v>
       </c>
       <c r="K51">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L51">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N51">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P51">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q51">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R51">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T51">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA51">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB51">
         <v>-1</v>
       </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5066,10 +5066,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H52">
         <v>3</v>
@@ -5078,7 +5078,7 @@
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K52">
         <v>1.833</v>
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053288</v>
+        <v>6053287</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,73 +5244,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J54" t="s">
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
         <v>3</v>
       </c>
       <c r="P54">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
         <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z54">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053286</v>
+        <v>6053285</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,10 +5333,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5345,46 +5345,46 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3.4</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>2.3</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>2.45</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>2.8</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>0</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>1.45</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6043245</v>
+        <v>6053288</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G56" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>1</v>
+      </c>
+      <c r="J56" t="s">
+        <v>43</v>
+      </c>
+      <c r="K56">
+        <v>2.8</v>
+      </c>
+      <c r="L56">
         <v>3</v>
       </c>
-      <c r="I56">
-        <v>0</v>
-      </c>
-      <c r="J56" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56">
-        <v>1.615</v>
-      </c>
-      <c r="L56">
-        <v>3.75</v>
-      </c>
       <c r="M56">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>2.375</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.909</v>
+        <v>1.375</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>1.1</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,10 +5511,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G57" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H57">
         <v>3</v>
@@ -5523,46 +5523,46 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L57">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M57">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N57">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O57">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P57">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R57">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S57">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U57">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W57">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,13 +5571,13 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053287</v>
+        <v>6053286</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,49 +5600,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G58" t="s">
         <v>30</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>43</v>
       </c>
       <c r="K58">
+        <v>1.25</v>
+      </c>
+      <c r="L58">
+        <v>5.5</v>
+      </c>
+      <c r="M58">
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>1.3</v>
+      </c>
+      <c r="O58">
+        <v>5.25</v>
+      </c>
+      <c r="P58">
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <v>-1.5</v>
+      </c>
+      <c r="R58">
+        <v>1.925</v>
+      </c>
+      <c r="S58">
+        <v>1.925</v>
+      </c>
+      <c r="T58">
         <v>3</v>
-      </c>
-      <c r="L58">
-        <v>3.25</v>
-      </c>
-      <c r="M58">
-        <v>2.2</v>
-      </c>
-      <c r="N58">
-        <v>3.4</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="P58">
-        <v>2.15</v>
-      </c>
-      <c r="Q58">
-        <v>0.25</v>
-      </c>
-      <c r="R58">
-        <v>1.95</v>
-      </c>
-      <c r="S58">
-        <v>1.9</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
       </c>
       <c r="U58">
         <v>1.975</v>
@@ -5651,25 +5651,25 @@
         <v>1.875</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.3</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,10 +5689,10 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288260</v>
+        <v>6288773</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>12</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>1.181</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>34</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.055</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X62">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288772</v>
+        <v>7197534</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,67 +6045,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
         <v>2.1</v>
       </c>
       <c r="N63">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q63">
         <v>0.75</v>
       </c>
       <c r="R63">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X63">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6114,7 +6114,7 @@
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7197534</v>
+        <v>6288772</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,67 +6134,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
         <v>2.1</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
         <v>0.75</v>
       </c>
       <c r="R64">
+        <v>1.975</v>
+      </c>
+      <c r="S64">
+        <v>1.875</v>
+      </c>
+      <c r="T64">
+        <v>2.75</v>
+      </c>
+      <c r="U64">
         <v>1.85</v>
       </c>
-      <c r="S64">
+      <c r="V64">
         <v>2</v>
       </c>
-      <c r="T64">
-        <v>2.25</v>
-      </c>
-      <c r="U64">
-        <v>1.825</v>
-      </c>
-      <c r="V64">
-        <v>2.025</v>
-      </c>
       <c r="W64">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
@@ -6203,7 +6203,7 @@
         <v>-1</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288259</v>
+        <v>6288260</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,76 +6223,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65" t="s">
+        <v>42</v>
+      </c>
+      <c r="K65">
+        <v>12</v>
+      </c>
+      <c r="L65">
+        <v>7.5</v>
+      </c>
+      <c r="M65">
+        <v>1.181</v>
+      </c>
+      <c r="N65">
         <v>34</v>
       </c>
-      <c r="H65">
-        <v>3</v>
-      </c>
-      <c r="I65">
-        <v>1</v>
-      </c>
-      <c r="J65" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65">
-        <v>1.8</v>
-      </c>
-      <c r="L65">
-        <v>3.4</v>
-      </c>
-      <c r="M65">
-        <v>4.5</v>
-      </c>
-      <c r="N65">
-        <v>1.95</v>
-      </c>
       <c r="O65">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>1.055</v>
+      </c>
+      <c r="Q65">
+        <v>2.75</v>
+      </c>
+      <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
         <v>3.5</v>
       </c>
-      <c r="P65">
-        <v>3.8</v>
-      </c>
-      <c r="Q65">
-        <v>-0.5</v>
-      </c>
-      <c r="R65">
-        <v>1.95</v>
-      </c>
-      <c r="S65">
-        <v>1.9</v>
-      </c>
-      <c r="T65">
-        <v>2.5</v>
-      </c>
       <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
       <c r="W65">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
       </c>
       <c r="AB65">
+        <v>-1</v>
+      </c>
+      <c r="AC65">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC65">
-        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288773</v>
+        <v>6288259</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,58 +6312,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
         <v>35</v>
       </c>
       <c r="H66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I66">
         <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K66">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="N66">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="O66">
         <v>3.5</v>
       </c>
       <c r="P66">
-        <v>5.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W66">
-        <v>0.6659999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="X66">
         <v>-1</v>
@@ -6372,13 +6372,13 @@
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4375</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
         <v>-1</v>
@@ -6401,7 +6401,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>6053291</v>
+        <v>7106289</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J68" t="s">
         <v>43</v>
       </c>
       <c r="K68">
-        <v>1.615</v>
+        <v>1.6</v>
       </c>
       <c r="L68">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M68">
         <v>4.75</v>
       </c>
       <c r="N68">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="O68">
+        <v>3.8</v>
+      </c>
+      <c r="P68">
         <v>4.2</v>
       </c>
-      <c r="P68">
-        <v>6</v>
-      </c>
       <c r="Q68">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R68">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="S68">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="T68">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U68">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="V68">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="W68">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z68">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AA68">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC68">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
         <v>41</v>
       </c>
       <c r="K69">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
         <v>4.75</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
         <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323099</v>
+        <v>6323097</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.071</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>34</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="O70">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P70">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
+        <v>1.775</v>
+      </c>
+      <c r="S70">
+        <v>2.1</v>
+      </c>
+      <c r="T70">
+        <v>2.5</v>
+      </c>
+      <c r="U70">
         <v>1.825</v>
       </c>
-      <c r="S70">
+      <c r="V70">
         <v>2.025</v>
       </c>
-      <c r="T70">
-        <v>3.75</v>
-      </c>
-      <c r="U70">
-        <v>1.925</v>
-      </c>
-      <c r="V70">
-        <v>1.925</v>
-      </c>
       <c r="W70">
-        <v>0.05000000000000004</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,13 +6728,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA70">
+        <v>-1</v>
+      </c>
+      <c r="AB70">
         <v>0.825</v>
-      </c>
-      <c r="AA70">
-        <v>-1</v>
-      </c>
-      <c r="AB70">
-        <v>0.925</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323097</v>
+        <v>6323101</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,34 +6757,34 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N71">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
         <v>5</v>
@@ -6793,22 +6793,22 @@
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323098</v>
+        <v>6323100</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,10 +6849,10 @@
         <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>1</v>
@@ -6861,25 +6861,25 @@
         <v>43</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M72">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R72">
         <v>2.05</v>
@@ -6888,34 +6888,34 @@
         <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
+        <v>-1</v>
+      </c>
+      <c r="Z72">
         <v>1.05</v>
       </c>
-      <c r="Z72">
-        <v>-1</v>
-      </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6323101</v>
+        <v>6323099</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6938,55 +6938,55 @@
         <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I73">
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M73">
-        <v>4.25</v>
+        <v>34</v>
       </c>
       <c r="N73">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O73">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R73">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S73">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T73">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U73">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V73">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W73">
-        <v>0.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,16 +6995,16 @@
         <v>-1</v>
       </c>
       <c r="Z73">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA73">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC73">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323100</v>
+        <v>6323098</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7027,10 +7027,10 @@
         <v>34</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -7039,25 +7039,25 @@
         <v>41</v>
       </c>
       <c r="K74">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>4</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
         <v>2.05</v>
@@ -7066,34 +7066,34 @@
         <v>1.8</v>
       </c>
       <c r="T74">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U74">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V74">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W74">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>32</v>
-      </c>
-      <c r="G77" t="s">
-        <v>29</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7472,7 +7472,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
         <v>2.875</v>
@@ -7558,7 +7558,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>38</v>
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7914,10 +7914,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382790</v>
+        <v>6382789</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,58 +8003,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>43</v>
+      </c>
+      <c r="K85">
+        <v>2.625</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>2.55</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
+        <v>2.15</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
         <v>2</v>
       </c>
-      <c r="J85" t="s">
-        <v>41</v>
-      </c>
-      <c r="K85">
-        <v>1.142</v>
-      </c>
-      <c r="L85">
-        <v>7.5</v>
-      </c>
-      <c r="M85">
-        <v>17</v>
-      </c>
-      <c r="N85">
-        <v>1.181</v>
-      </c>
-      <c r="O85">
-        <v>7</v>
-      </c>
-      <c r="P85">
-        <v>15</v>
-      </c>
-      <c r="Q85">
-        <v>-2</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>3</v>
-      </c>
-      <c r="U85">
-        <v>1.95</v>
-      </c>
-      <c r="V85">
-        <v>1.9</v>
-      </c>
       <c r="W85">
-        <v>0.181</v>
+        <v>2.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382789</v>
+        <v>6382790</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>2</v>
       </c>
-      <c r="I86">
-        <v>0</v>
-      </c>
       <c r="J86" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M86">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P86">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>2.2</v>
+        <v>0.181</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412497</v>
+        <v>6412498</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,58 +8448,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
+        <v>4.2</v>
+      </c>
+      <c r="N90">
+        <v>1.45</v>
+      </c>
+      <c r="O90">
+        <v>4</v>
+      </c>
+      <c r="P90">
         <v>6.5</v>
       </c>
-      <c r="N90">
-        <v>1.166</v>
-      </c>
-      <c r="O90">
-        <v>6.5</v>
-      </c>
-      <c r="P90">
-        <v>15</v>
-      </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412856</v>
+        <v>6412497</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K91">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N91">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q91">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
       </c>
-      <c r="S91">
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
         <v>1.9</v>
       </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.222</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,13 +8597,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6412498</v>
+        <v>6407559</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,73 +8629,73 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H92">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I92">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J92" t="s">
         <v>41</v>
       </c>
       <c r="K92">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="L92">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="M92">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="N92">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="O92">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P92">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="Q92">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S92">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T92">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U92">
+        <v>1.85</v>
+      </c>
+      <c r="V92">
         <v>2</v>
       </c>
-      <c r="V92">
-        <v>1.85</v>
-      </c>
       <c r="W92">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z92">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA92">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB92">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="93" spans="1:29">
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6407559</v>
+        <v>6412856</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>10</v>
+        <v>1.25</v>
       </c>
       <c r="L93">
-        <v>5.6</v>
+        <v>5.25</v>
       </c>
       <c r="M93">
+        <v>9.5</v>
+      </c>
+      <c r="N93">
         <v>1.222</v>
       </c>
-      <c r="N93">
-        <v>11</v>
-      </c>
       <c r="O93">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="P93">
-        <v>1.181</v>
+        <v>9</v>
       </c>
       <c r="Q93">
+        <v>-1.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
         <v>2</v>
       </c>
-      <c r="R93">
+      <c r="V93">
         <v>1.85</v>
       </c>
-      <c r="S93">
-        <v>2</v>
-      </c>
-      <c r="T93">
-        <v>3.25</v>
-      </c>
-      <c r="U93">
-        <v>1.85</v>
-      </c>
-      <c r="V93">
-        <v>2</v>
-      </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.181</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA93">
+        <v>-0.5</v>
+      </c>
+      <c r="AB93">
         <v>1</v>
-      </c>
-      <c r="AB93">
-        <v>0.8500000000000001</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8804,7 +8804,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
         <v>38</v>
@@ -8816,7 +8816,7 @@
         <v>4</v>
       </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
         <v>3.3</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G95" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H95">
         <v>2</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.4</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630125</v>
+        <v>7630127</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,40 +8982,40 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
         <v>42</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
+        <v>2.1</v>
+      </c>
+      <c r="N96">
         <v>3.5</v>
       </c>
-      <c r="N96">
-        <v>1.95</v>
-      </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
         <v>2.025</v>
@@ -9024,34 +9024,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA96">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630128</v>
+        <v>7630125</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,61 +9071,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G97" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V97">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
         <v>-1</v>
@@ -9134,13 +9134,13 @@
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC97">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9175,61 +9175,61 @@
         <v>42</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9261,7 +9261,7 @@
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K99">
         <v>3.1</v>
@@ -9338,7 +9338,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G100" t="s">
         <v>40</v>
@@ -9350,7 +9350,7 @@
         <v>2</v>
       </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K100">
         <v>2.1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630131</v>
+        <v>7630130</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,13 +9427,13 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101">
         <v>1</v>
@@ -9442,61 +9442,61 @@
         <v>43</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R101">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U101">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V101">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W101">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9516,7 +9516,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G102" t="s">
         <v>39</v>
@@ -9528,7 +9528,7 @@
         <v>4</v>
       </c>
       <c r="J102" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K102">
         <v>2</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630130</v>
+        <v>7630131</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,13 +9605,13 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
@@ -9620,61 +9620,61 @@
         <v>41</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
+        <v>3.1</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
         <v>2.1</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>1.75</v>
-      </c>
-      <c r="U103">
-        <v>1.775</v>
-      </c>
-      <c r="V103">
-        <v>2.1</v>
-      </c>
-      <c r="W103">
-        <v>2.75</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630133</v>
+        <v>7630063</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,25 +9783,34 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G105" t="s">
-        <v>34</v>
+        <v>39</v>
+      </c>
+      <c r="H105">
+        <v>2</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105" t="s">
+        <v>43</v>
       </c>
       <c r="K105">
         <v>1.85</v>
       </c>
       <c r="L105">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M105">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="N105">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="O105">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P105">
         <v>3.8</v>
@@ -9810,34 +9819,40 @@
         <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="S105">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="T105">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U105">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V105">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W105">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="X105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y105">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA105">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB105">
+        <v>0.825</v>
+      </c>
+      <c r="AC105">
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9857,11 +9872,20 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
         <v>37</v>
       </c>
+      <c r="H106">
+        <v>2</v>
+      </c>
+      <c r="I106">
+        <v>1</v>
+      </c>
+      <c r="J106" t="s">
+        <v>43</v>
+      </c>
       <c r="K106">
         <v>1.615</v>
       </c>
@@ -9872,46 +9896,52 @@
         <v>5</v>
       </c>
       <c r="N106">
-        <v>1.615</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
         <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="X106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y106">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB106">
+        <v>1</v>
+      </c>
+      <c r="AC106">
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9936,6 +9966,15 @@
       <c r="G107" t="s">
         <v>38</v>
       </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="I107">
+        <v>1</v>
+      </c>
+      <c r="J107" t="s">
+        <v>41</v>
+      </c>
       <c r="K107">
         <v>2.75</v>
       </c>
@@ -9946,194 +9985,52 @@
         <v>2.5</v>
       </c>
       <c r="N107">
-        <v>2.8</v>
+        <v>3.2</v>
       </c>
       <c r="O107">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P107">
-        <v>2.4</v>
+        <v>2.375</v>
       </c>
       <c r="Q107">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
         <v>2.1</v>
       </c>
-      <c r="S107">
-        <v>1.775</v>
-      </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V107">
-        <v>1.825</v>
+        <v>1.75</v>
       </c>
       <c r="W107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y107">
-        <v>0</v>
+        <v>1.375</v>
       </c>
       <c r="Z107">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:29">
-      <c r="A108" s="1">
-        <v>106</v>
-      </c>
-      <c r="B108">
-        <v>7630063</v>
-      </c>
-      <c r="C108" t="s">
-        <v>28</v>
-      </c>
-      <c r="D108" t="s">
-        <v>28</v>
-      </c>
-      <c r="E108" s="2">
-        <v>45352.69791666666</v>
-      </c>
-      <c r="F108" t="s">
-        <v>40</v>
-      </c>
-      <c r="G108" t="s">
-        <v>39</v>
-      </c>
-      <c r="K108">
-        <v>1.85</v>
-      </c>
-      <c r="L108">
-        <v>3.5</v>
-      </c>
-      <c r="M108">
-        <v>3.75</v>
-      </c>
-      <c r="N108">
-        <v>1.85</v>
-      </c>
-      <c r="O108">
-        <v>3.5</v>
-      </c>
-      <c r="P108">
-        <v>3.8</v>
-      </c>
-      <c r="Q108">
-        <v>-0.5</v>
-      </c>
-      <c r="R108">
-        <v>1.975</v>
-      </c>
-      <c r="S108">
-        <v>1.875</v>
-      </c>
-      <c r="T108">
-        <v>2.5</v>
-      </c>
-      <c r="U108">
-        <v>1.925</v>
-      </c>
-      <c r="V108">
-        <v>1.925</v>
-      </c>
-      <c r="W108">
-        <v>0</v>
-      </c>
-      <c r="X108">
-        <v>0</v>
-      </c>
-      <c r="Y108">
-        <v>0</v>
-      </c>
-      <c r="Z108">
-        <v>0</v>
-      </c>
-      <c r="AA108">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="109" spans="1:29">
-      <c r="A109" s="1">
-        <v>107</v>
-      </c>
-      <c r="B109">
-        <v>7630135</v>
-      </c>
-      <c r="C109" t="s">
-        <v>28</v>
-      </c>
-      <c r="D109" t="s">
-        <v>28</v>
-      </c>
-      <c r="E109" s="2">
-        <v>45352.70833333334</v>
-      </c>
-      <c r="F109" t="s">
-        <v>31</v>
-      </c>
-      <c r="G109" t="s">
-        <v>33</v>
-      </c>
-      <c r="K109">
-        <v>1.222</v>
-      </c>
-      <c r="L109">
-        <v>5.5</v>
-      </c>
-      <c r="M109">
-        <v>11</v>
-      </c>
-      <c r="N109">
-        <v>1.222</v>
-      </c>
-      <c r="O109">
-        <v>5.5</v>
-      </c>
-      <c r="P109">
-        <v>11</v>
-      </c>
-      <c r="Q109">
-        <v>-1.75</v>
-      </c>
-      <c r="R109">
-        <v>1.925</v>
-      </c>
-      <c r="S109">
-        <v>1.925</v>
-      </c>
-      <c r="T109">
-        <v>3</v>
-      </c>
-      <c r="U109">
-        <v>2</v>
-      </c>
-      <c r="V109">
-        <v>1.85</v>
-      </c>
-      <c r="W109">
-        <v>0</v>
-      </c>
-      <c r="X109">
-        <v>0</v>
-      </c>
-      <c r="Y109">
-        <v>0</v>
-      </c>
-      <c r="Z109">
-        <v>0</v>
-      </c>
-      <c r="AA109">
-        <v>0</v>
+        <v>1.1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
+        <v>0.75</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Drogheda United</t>
+    <t>UCD</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Bohemians Dublin</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
+    <t>Drogheda United</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Cork City</t>
+    <t>Dundalk</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -133,19 +133,19 @@
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>Galway United</t>
   </si>
   <si>
-    <t>Galway United</t>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC107"/>
+  <dimension ref="A1:AC112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053244</v>
+        <v>6053245</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,37 +619,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.95</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>3.6</v>
+        <v>1.333</v>
       </c>
       <c r="N2">
-        <v>2.1</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>3.25</v>
+        <v>5.25</v>
       </c>
       <c r="P2">
-        <v>3.2</v>
+        <v>1.222</v>
       </c>
       <c r="Q2">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R2">
         <v>1.925</v>
@@ -658,13 +658,13 @@
         <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -673,19 +673,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>2.2</v>
+        <v>0.222</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053245</v>
+        <v>6053242</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3">
+        <v>2.1</v>
+      </c>
+      <c r="L3">
+        <v>3.2</v>
+      </c>
+      <c r="M3">
+        <v>3.3</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>3.1</v>
+      </c>
+      <c r="P3">
+        <v>3.6</v>
+      </c>
+      <c r="Q3">
+        <v>-0.25</v>
+      </c>
+      <c r="R3">
+        <v>1.8</v>
+      </c>
+      <c r="S3">
+        <v>2.05</v>
+      </c>
+      <c r="T3">
+        <v>2.25</v>
+      </c>
+      <c r="U3">
+        <v>2</v>
+      </c>
+      <c r="V3">
+        <v>1.85</v>
+      </c>
+      <c r="W3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-      <c r="J3" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3">
-        <v>7.5</v>
-      </c>
-      <c r="L3">
-        <v>5</v>
-      </c>
-      <c r="M3">
-        <v>1.333</v>
-      </c>
-      <c r="N3">
-        <v>12</v>
-      </c>
-      <c r="O3">
-        <v>5.25</v>
-      </c>
-      <c r="P3">
-        <v>1.222</v>
-      </c>
-      <c r="Q3">
-        <v>1.75</v>
-      </c>
-      <c r="R3">
-        <v>1.925</v>
-      </c>
-      <c r="S3">
-        <v>1.925</v>
-      </c>
-      <c r="T3">
-        <v>3</v>
-      </c>
-      <c r="U3">
-        <v>2.025</v>
-      </c>
-      <c r="V3">
-        <v>1.825</v>
-      </c>
-      <c r="W3">
-        <v>-1</v>
-      </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
+        <v>0.8</v>
+      </c>
+      <c r="AA3">
+        <v>-1</v>
+      </c>
+      <c r="AB3">
         <v>-0.5</v>
       </c>
-      <c r="AA3">
-        <v>0.4625</v>
-      </c>
-      <c r="AB3">
-        <v>1.025</v>
-      </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6053242</v>
+        <v>6053244</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
+        <v>1.95</v>
+      </c>
+      <c r="L5">
+        <v>3.4</v>
+      </c>
+      <c r="M5">
+        <v>3.6</v>
+      </c>
+      <c r="N5">
         <v>2.1</v>
       </c>
-      <c r="L5">
+      <c r="O5">
+        <v>3.25</v>
+      </c>
+      <c r="P5">
         <v>3.2</v>
-      </c>
-      <c r="M5">
-        <v>3.3</v>
-      </c>
-      <c r="N5">
-        <v>2</v>
-      </c>
-      <c r="O5">
-        <v>3.1</v>
-      </c>
-      <c r="P5">
-        <v>3.6</v>
       </c>
       <c r="Q5">
         <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
         <v>2.25</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC5">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
         <v>1.4</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,56 +1064,56 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q7">
+        <v>-1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>1.9</v>
+      </c>
+      <c r="W7">
         <v>0.25</v>
       </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
-      <c r="W7">
-        <v>2.1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1156,52 +1156,52 @@
         <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,10 +1506,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
         <v>34</v>
-      </c>
-      <c r="G12" t="s">
-        <v>35</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -1607,7 +1607,7 @@
         <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K13">
         <v>2.05</v>
@@ -1684,7 +1684,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G14" t="s">
         <v>37</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1776,7 +1776,7 @@
         <v>31</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1865,7 +1865,7 @@
         <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053257</v>
+        <v>6053256</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>1.75</v>
+      </c>
+      <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>4.2</v>
+      </c>
+      <c r="N17">
+        <v>1.8</v>
+      </c>
+      <c r="O17">
+        <v>3.25</v>
+      </c>
+      <c r="P17">
+        <v>4.333</v>
+      </c>
+      <c r="Q17">
+        <v>-0.5</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>6</v>
-      </c>
-      <c r="L17">
-        <v>4</v>
-      </c>
-      <c r="M17">
-        <v>1.5</v>
-      </c>
-      <c r="N17">
-        <v>6.5</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>1.444</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>2.1</v>
-      </c>
-      <c r="S17">
-        <v>1.775</v>
-      </c>
       <c r="T17">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V17">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W17">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2043,7 +2043,7 @@
         <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>1.333</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N19">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O19">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P19">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.925</v>
+      </c>
+      <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
+        <v>1.5</v>
+      </c>
+      <c r="Z19">
+        <v>-1</v>
+      </c>
+      <c r="AA19">
+        <v>0.925</v>
+      </c>
+      <c r="AB19">
+        <v>0.4875</v>
+      </c>
+      <c r="AC19">
         <v>-0.5</v>
-      </c>
-      <c r="R19">
-        <v>1.85</v>
-      </c>
-      <c r="S19">
-        <v>2</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>2.05</v>
-      </c>
-      <c r="V19">
-        <v>1.75</v>
-      </c>
-      <c r="W19">
-        <v>0.8</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
-      <c r="Z19">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA19">
-        <v>-1</v>
-      </c>
-      <c r="AB19">
-        <v>-1</v>
-      </c>
-      <c r="AC19">
-        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6043238</v>
+        <v>6053257</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,73 +2218,73 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H20">
         <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="s">
         <v>42</v>
       </c>
       <c r="K20">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="L20">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="M20">
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <v>6.5</v>
+      </c>
+      <c r="O20">
+        <v>4</v>
+      </c>
+      <c r="P20">
+        <v>1.444</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
         <v>2.1</v>
       </c>
-      <c r="N20">
-        <v>3.4</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
-      <c r="P20">
-        <v>2.1</v>
-      </c>
-      <c r="Q20">
-        <v>0.25</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T20">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4625</v>
+        <v>1.1</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AC20">
         <v>-1</v>
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053255</v>
+        <v>6043238</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,40 +2307,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21">
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M21">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N21">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O21">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P21">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R21">
         <v>1.925</v>
@@ -2349,34 +2349,34 @@
         <v>1.925</v>
       </c>
       <c r="T21">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W21">
         <v>-1</v>
       </c>
       <c r="X21">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y21">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB21">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6043240</v>
+        <v>6053261</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>1.166</v>
+      </c>
+      <c r="L24">
+        <v>7</v>
+      </c>
+      <c r="M24">
+        <v>15</v>
+      </c>
+      <c r="N24">
+        <v>1.111</v>
+      </c>
+      <c r="O24">
+        <v>7.5</v>
+      </c>
+      <c r="P24">
+        <v>17</v>
+      </c>
+      <c r="Q24">
+        <v>-2.25</v>
+      </c>
+      <c r="R24">
+        <v>1.875</v>
+      </c>
+      <c r="S24">
+        <v>1.975</v>
+      </c>
+      <c r="T24">
+        <v>3.5</v>
+      </c>
+      <c r="U24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>3.75</v>
-      </c>
-      <c r="M24">
-        <v>1.833</v>
-      </c>
-      <c r="N24">
-        <v>3.6</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
-        <v>2</v>
-      </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
-      <c r="U24">
-        <v>1.925</v>
-      </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W24">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053259</v>
+        <v>6053260</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,10 +2663,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2675,64 +2675,64 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
+        <v>2.1</v>
+      </c>
+      <c r="N25">
+        <v>3.5</v>
+      </c>
+      <c r="O25">
         <v>3</v>
       </c>
-      <c r="N25">
-        <v>2.5</v>
-      </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
       <c r="P25">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V25">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
         <v>-1</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA25">
+        <v>-0.5</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
         <v>-0</v>
-      </c>
-      <c r="AB25">
-        <v>-1</v>
-      </c>
-      <c r="AC25">
-        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053261</v>
+        <v>6053262</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,58 +2752,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>1.166</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>0.111</v>
+        <v>1.7</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,13 +2812,13 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053260</v>
+        <v>6053259</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,10 +2841,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2853,64 +2853,64 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K27">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O27">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
+        <v>2.875</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
+        <v>1.875</v>
+      </c>
+      <c r="W27">
+        <v>-1</v>
+      </c>
+      <c r="X27">
         <v>2.25</v>
       </c>
-      <c r="Q27">
-        <v>0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.85</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>2.1</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2</v>
-      </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA27">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053262</v>
+        <v>6043240</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K28">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L28">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M28">
+        <v>1.833</v>
+      </c>
+      <c r="N28">
+        <v>3.6</v>
+      </c>
+      <c r="O28">
+        <v>3.6</v>
+      </c>
+      <c r="P28">
+        <v>2</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>1.825</v>
+      </c>
+      <c r="S28">
+        <v>2.025</v>
+      </c>
+      <c r="T28">
         <v>2.5</v>
       </c>
-      <c r="N28">
-        <v>2.7</v>
-      </c>
-      <c r="O28">
-        <v>3.1</v>
-      </c>
-      <c r="P28">
-        <v>2.7</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
+      <c r="U28">
         <v>1.925</v>
       </c>
-      <c r="S28">
+      <c r="V28">
         <v>1.925</v>
       </c>
-      <c r="T28">
-        <v>2.25</v>
-      </c>
-      <c r="U28">
-        <v>2.05</v>
-      </c>
-      <c r="V28">
-        <v>1.8</v>
-      </c>
       <c r="W28">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,16 +2990,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
+        <v>0.825</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
+        <v>-1</v>
+      </c>
+      <c r="AC28">
         <v>0.925</v>
-      </c>
-      <c r="AA28">
-        <v>-1</v>
-      </c>
-      <c r="AB28">
-        <v>1.05</v>
-      </c>
-      <c r="AC28">
-        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053264</v>
+        <v>6053263</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,49 +3019,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>2</v>
       </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
         <v>2.05</v>
@@ -3070,7 +3070,7 @@
         <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,10 +3079,10 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>1.05</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053265</v>
+        <v>6053264</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,13 +3108,13 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3123,61 +3123,61 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
         <v>3.8</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X30">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053263</v>
+        <v>6053265</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
         <v>43</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>1.55</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>5.5</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6043241</v>
+        <v>6053266</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,73 +3289,73 @@
         <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K32">
+        <v>6.5</v>
+      </c>
+      <c r="L32">
+        <v>4.2</v>
+      </c>
+      <c r="M32">
+        <v>1.444</v>
+      </c>
+      <c r="N32">
+        <v>10</v>
+      </c>
+      <c r="O32">
         <v>5.25</v>
       </c>
-      <c r="L32">
-        <v>3.75</v>
-      </c>
-      <c r="M32">
-        <v>1.571</v>
-      </c>
-      <c r="N32">
-        <v>3.8</v>
-      </c>
-      <c r="O32">
-        <v>3.25</v>
-      </c>
       <c r="P32">
-        <v>1.909</v>
+        <v>1.25</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
         <v>2.5</v>
       </c>
       <c r="U32">
+        <v>1.975</v>
+      </c>
+      <c r="V32">
         <v>1.875</v>
       </c>
-      <c r="V32">
-        <v>1.975</v>
-      </c>
       <c r="W32">
         <v>-1</v>
       </c>
       <c r="X32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053266</v>
+        <v>6043241</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
       <c r="I33">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="L33">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M33">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="N33">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="O33">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P33">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q33">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R33">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
         <v>2.5</v>
       </c>
       <c r="U33">
+        <v>1.875</v>
+      </c>
+      <c r="V33">
         <v>1.975</v>
       </c>
-      <c r="V33">
-        <v>1.875</v>
-      </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y33">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA33">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
+        <v>-1</v>
+      </c>
+      <c r="AC33">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC33">
-        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3467,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>1</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>2.4</v>
@@ -3553,10 +3553,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G35" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,40 +3731,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
+        <v>2.45</v>
+      </c>
+      <c r="N37">
+        <v>3.2</v>
+      </c>
+      <c r="O37">
         <v>3.1</v>
       </c>
-      <c r="N37">
-        <v>2.45</v>
-      </c>
-      <c r="O37">
-        <v>3.2</v>
-      </c>
       <c r="P37">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
         <v>1.825</v>
@@ -3773,34 +3773,34 @@
         <v>2.025</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
+        <v>1.025</v>
+      </c>
+      <c r="AB37">
+        <v>0</v>
+      </c>
+      <c r="AC37">
         <v>-0</v>
-      </c>
-      <c r="AB37">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC37">
-        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,40 +3820,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.2</v>
       </c>
-      <c r="M38">
-        <v>2.45</v>
-      </c>
-      <c r="N38">
-        <v>3.2</v>
-      </c>
-      <c r="O38">
-        <v>3.1</v>
-      </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1.825</v>
@@ -3862,34 +3862,34 @@
         <v>2.025</v>
       </c>
       <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>2</v>
       </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,10 +3909,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>2</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K39">
         <v>1.222</v>
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4268,7 +4268,7 @@
         <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4366,64 +4366,64 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,10 +4443,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4455,64 +4455,64 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
+        <v>1.363</v>
+      </c>
+      <c r="L45">
+        <v>4.5</v>
+      </c>
+      <c r="M45">
+        <v>6.5</v>
+      </c>
+      <c r="N45">
+        <v>1.3</v>
+      </c>
+      <c r="O45">
+        <v>4.75</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>-1.5</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.85</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.975</v>
+      </c>
+      <c r="V45">
+        <v>1.875</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3.75</v>
       </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>1.8</v>
-      </c>
-      <c r="N45">
-        <v>3.25</v>
-      </c>
-      <c r="O45">
-        <v>3.1</v>
-      </c>
-      <c r="P45">
-        <v>2.05</v>
-      </c>
-      <c r="Q45">
-        <v>0.25</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.1</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4532,7 +4532,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G46" t="s">
         <v>36</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K46">
         <v>1.95</v>
@@ -4624,7 +4624,7 @@
         <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
         <v>1.95</v>
@@ -4713,7 +4713,7 @@
         <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L49">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M49">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O49">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P49">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q49">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R49">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T49">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
         <v>-1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4888,7 +4888,7 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
         <v>31</v>
@@ -4900,7 +4900,7 @@
         <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K50">
         <v>2.3</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6043244</v>
+        <v>6053282</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5037,16 +5037,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053282</v>
+        <v>6053283</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,46 +5069,46 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>1</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>21</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
         <v>1.875</v>
@@ -5117,25 +5117,25 @@
         <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
         <v>-1</v>
       </c>
       <c r="AB52">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053287</v>
+        <v>6043245</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>1.95</v>
@@ -5286,31 +5286,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5333,7 +5333,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -5345,7 +5345,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
         <v>2.8</v>
@@ -5434,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
         <v>2.8</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6043245</v>
+        <v>6053287</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,40 +5511,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
         <v>3</v>
       </c>
-      <c r="I57">
-        <v>0</v>
-      </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K57">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L57">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M57">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N57">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O57">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q57">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R57">
         <v>1.95</v>
@@ -5553,31 +5553,31 @@
         <v>1.9</v>
       </c>
       <c r="T57">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z57">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA57">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB57">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5600,10 +5600,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
+        <v>32</v>
+      </c>
+      <c r="G58" t="s">
         <v>29</v>
-      </c>
-      <c r="G58" t="s">
-        <v>30</v>
       </c>
       <c r="H58">
         <v>3</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>1.25</v>
@@ -5689,7 +5689,7 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288773</v>
+        <v>7197534</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,58 +5956,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H62">
+        <v>1</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62" t="s">
+        <v>42</v>
+      </c>
+      <c r="K62">
+        <v>3.6</v>
+      </c>
+      <c r="L62">
+        <v>3.25</v>
+      </c>
+      <c r="M62">
+        <v>2.1</v>
+      </c>
+      <c r="N62">
+        <v>5</v>
+      </c>
+      <c r="O62">
+        <v>3.4</v>
+      </c>
+      <c r="P62">
+        <v>1.75</v>
+      </c>
+      <c r="Q62">
+        <v>0.75</v>
+      </c>
+      <c r="R62">
+        <v>1.85</v>
+      </c>
+      <c r="S62">
         <v>2</v>
-      </c>
-      <c r="I62">
-        <v>1</v>
-      </c>
-      <c r="J62" t="s">
-        <v>43</v>
-      </c>
-      <c r="K62">
-        <v>1.615</v>
-      </c>
-      <c r="L62">
-        <v>3.6</v>
-      </c>
-      <c r="M62">
-        <v>6</v>
-      </c>
-      <c r="N62">
-        <v>1.666</v>
-      </c>
-      <c r="O62">
-        <v>3.5</v>
-      </c>
-      <c r="P62">
-        <v>5.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.75</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.975</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W62">
-        <v>0.6659999999999999</v>
+        <v>4</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,16 +6016,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,58 +6045,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H63">
+        <v>2</v>
+      </c>
+      <c r="I63">
         <v>1</v>
       </c>
-      <c r="I63">
-        <v>0</v>
-      </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
+        <v>1.615</v>
+      </c>
+      <c r="L63">
         <v>3.6</v>
       </c>
-      <c r="L63">
-        <v>3.25</v>
-      </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R63">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S63">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T63">
         <v>2.25</v>
       </c>
       <c r="U63">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V63">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W63">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X63">
         <v>-1</v>
@@ -6105,16 +6105,16 @@
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA63">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC63">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288772</v>
+        <v>6288259</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,49 +6134,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
       </c>
       <c r="K64">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>4.5</v>
+      </c>
+      <c r="N64">
+        <v>1.95</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="M64">
-        <v>2.1</v>
-      </c>
-      <c r="N64">
-        <v>4.75</v>
-      </c>
-      <c r="O64">
-        <v>3.75</v>
-      </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.85</v>
@@ -6185,25 +6185,25 @@
         <v>2</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288260</v>
+        <v>6288772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,11 +6223,11 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
+        <v>32</v>
+      </c>
+      <c r="G65" t="s">
         <v>30</v>
       </c>
-      <c r="G65" t="s">
-        <v>33</v>
-      </c>
       <c r="H65">
         <v>0</v>
       </c>
@@ -6235,55 +6235,55 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>3.3</v>
       </c>
       <c r="L65">
-        <v>7.5</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>34</v>
+        <v>4.75</v>
       </c>
       <c r="O65">
-        <v>11</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>1.055</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
+        <v>0.75</v>
+      </c>
+      <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
+        <v>1.875</v>
+      </c>
+      <c r="T65">
         <v>2.75</v>
       </c>
-      <c r="R65">
-        <v>1.925</v>
-      </c>
-      <c r="S65">
-        <v>1.925</v>
-      </c>
-      <c r="T65">
-        <v>3.5</v>
-      </c>
       <c r="U65">
+        <v>1.85</v>
+      </c>
+      <c r="V65">
         <v>2</v>
       </c>
-      <c r="V65">
-        <v>1.85</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>10</v>
+        <v>2.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288259</v>
+        <v>6288260</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>43</v>
       </c>
       <c r="K66">
-        <v>1.8</v>
+        <v>12</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>1.181</v>
       </c>
       <c r="N66">
-        <v>1.95</v>
+        <v>34</v>
       </c>
       <c r="O66">
+        <v>11</v>
+      </c>
+      <c r="P66">
+        <v>1.055</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
         <v>3.5</v>
       </c>
-      <c r="P66">
-        <v>3.8</v>
-      </c>
-      <c r="Q66">
-        <v>-0.5</v>
-      </c>
-      <c r="R66">
-        <v>1.95</v>
-      </c>
-      <c r="S66">
-        <v>1.9</v>
-      </c>
-      <c r="T66">
-        <v>2.5</v>
-      </c>
       <c r="U66">
+        <v>2</v>
+      </c>
+      <c r="V66">
         <v>1.85</v>
       </c>
-      <c r="V66">
-        <v>2</v>
-      </c>
       <c r="W66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
+        <v>-1</v>
+      </c>
+      <c r="AC66">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AC66">
-        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6401,7 +6401,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
         <v>38</v>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
         <v>1.8</v>
@@ -6490,10 +6490,10 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K68">
         <v>1.6</v>
@@ -6582,7 +6582,7 @@
         <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323097</v>
+        <v>6323100</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,10 +6668,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
+        <v>34</v>
+      </c>
+      <c r="G70" t="s">
         <v>32</v>
-      </c>
-      <c r="G70" t="s">
-        <v>36</v>
       </c>
       <c r="H70">
         <v>3</v>
@@ -6680,16 +6680,16 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="N70">
         <v>1.6</v>
@@ -6701,22 +6701,22 @@
         <v>5</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W70">
         <v>0.6000000000000001</v>
@@ -6728,13 +6728,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323101</v>
+        <v>6323099</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M71">
-        <v>4.25</v>
+        <v>34</v>
       </c>
       <c r="N71">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W71">
-        <v>0.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323100</v>
+        <v>6323101</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,58 +6846,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K72">
         <v>1.833</v>
       </c>
       <c r="L72">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
         <v>5</v>
       </c>
       <c r="Q72">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>1.05</v>
+        <v>0.45</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6323099</v>
+        <v>6323097</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,58 +6935,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H73">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
-        <v>1.071</v>
+        <v>2.1</v>
       </c>
       <c r="L73">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M73">
-        <v>34</v>
+        <v>3.25</v>
       </c>
       <c r="N73">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R73">
+        <v>1.775</v>
+      </c>
+      <c r="S73">
+        <v>2.1</v>
+      </c>
+      <c r="T73">
+        <v>2.5</v>
+      </c>
+      <c r="U73">
         <v>1.825</v>
       </c>
-      <c r="S73">
+      <c r="V73">
         <v>2.025</v>
       </c>
-      <c r="T73">
-        <v>3.75</v>
-      </c>
-      <c r="U73">
-        <v>1.925</v>
-      </c>
-      <c r="V73">
-        <v>1.925</v>
-      </c>
       <c r="W73">
-        <v>0.05000000000000004</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
@@ -6995,13 +6995,13 @@
         <v>-1</v>
       </c>
       <c r="Z73">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA73">
+        <v>-1</v>
+      </c>
+      <c r="AB73">
         <v>0.825</v>
-      </c>
-      <c r="AA73">
-        <v>-1</v>
-      </c>
-      <c r="AB73">
-        <v>0.925</v>
       </c>
       <c r="AC73">
         <v>-1</v>
@@ -7024,7 +7024,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
         <v>37</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7128,52 +7128,52 @@
         <v>42</v>
       </c>
       <c r="K75">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7217,52 +7217,52 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>29</v>
+      </c>
+      <c r="G77" t="s">
         <v>30</v>
-      </c>
-      <c r="G77" t="s">
-        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6364849</v>
+        <v>6364853</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7395,40 +7395,40 @@
         <v>41</v>
       </c>
       <c r="K78">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L78">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R78">
+        <v>2.025</v>
+      </c>
+      <c r="S78">
         <v>1.825</v>
-      </c>
-      <c r="S78">
-        <v>2.025</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7437,19 +7437,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364850</v>
+        <v>6364849</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,76 +7558,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L80">
         <v>3.6</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V80">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W80">
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7739,7 +7739,7 @@
         <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6382788</v>
+        <v>6382789</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84">
+        <v>0</v>
+      </c>
+      <c r="J84" t="s">
+        <v>42</v>
+      </c>
+      <c r="K84">
+        <v>2.625</v>
+      </c>
+      <c r="L84">
+        <v>3.4</v>
+      </c>
+      <c r="M84">
+        <v>2.55</v>
+      </c>
+      <c r="N84">
+        <v>3.2</v>
+      </c>
+      <c r="O84">
+        <v>3.6</v>
+      </c>
+      <c r="P84">
+        <v>2.15</v>
+      </c>
+      <c r="Q84">
+        <v>0.25</v>
+      </c>
+      <c r="R84">
+        <v>2.025</v>
+      </c>
+      <c r="S84">
+        <v>1.825</v>
+      </c>
+      <c r="T84">
+        <v>2.75</v>
+      </c>
+      <c r="U84">
+        <v>1.85</v>
+      </c>
+      <c r="V84">
+        <v>2</v>
+      </c>
+      <c r="W84">
+        <v>2.2</v>
+      </c>
+      <c r="X84">
+        <v>-1</v>
+      </c>
+      <c r="Y84">
+        <v>-1</v>
+      </c>
+      <c r="Z84">
+        <v>1.025</v>
+      </c>
+      <c r="AA84">
+        <v>-1</v>
+      </c>
+      <c r="AB84">
+        <v>-1</v>
+      </c>
+      <c r="AC84">
         <v>1</v>
-      </c>
-      <c r="J84" t="s">
-        <v>41</v>
-      </c>
-      <c r="K84">
-        <v>5.75</v>
-      </c>
-      <c r="L84">
-        <v>4</v>
-      </c>
-      <c r="M84">
-        <v>1.55</v>
-      </c>
-      <c r="N84">
-        <v>6</v>
-      </c>
-      <c r="O84">
-        <v>4</v>
-      </c>
-      <c r="P84">
-        <v>1.55</v>
-      </c>
-      <c r="Q84">
-        <v>1</v>
-      </c>
-      <c r="R84">
-        <v>1.9</v>
-      </c>
-      <c r="S84">
-        <v>1.95</v>
-      </c>
-      <c r="T84">
-        <v>2.5</v>
-      </c>
-      <c r="U84">
-        <v>1.975</v>
-      </c>
-      <c r="V84">
-        <v>1.875</v>
-      </c>
-      <c r="W84">
-        <v>-1</v>
-      </c>
-      <c r="X84">
-        <v>-1</v>
-      </c>
-      <c r="Y84">
-        <v>0.55</v>
-      </c>
-      <c r="Z84">
-        <v>0</v>
-      </c>
-      <c r="AA84">
-        <v>-0</v>
-      </c>
-      <c r="AB84">
-        <v>-1</v>
-      </c>
-      <c r="AC84">
-        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382789</v>
+        <v>6382788</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8104,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K86">
         <v>1.142</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,7 +8359,7 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>33</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412498</v>
+        <v>6412497</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,58 +8448,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>1.45</v>
+        <v>1.166</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.45</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412497</v>
+        <v>6412498</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>3.75</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.45</v>
+      </c>
+      <c r="O91">
         <v>4</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91">
-        <v>1.4</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
+      <c r="P91">
         <v>6.5</v>
       </c>
-      <c r="N91">
-        <v>1.166</v>
-      </c>
-      <c r="O91">
-        <v>6.5</v>
-      </c>
-      <c r="P91">
-        <v>15</v>
-      </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,10 +8626,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6412856</v>
+        <v>6407558</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>4</v>
       </c>
-      <c r="I93">
+      <c r="J93" t="s">
+        <v>41</v>
+      </c>
+      <c r="K93">
+        <v>3.3</v>
+      </c>
+      <c r="L93">
+        <v>3.4</v>
+      </c>
+      <c r="M93">
         <v>2</v>
       </c>
-      <c r="J93" t="s">
-        <v>43</v>
-      </c>
-      <c r="K93">
-        <v>1.25</v>
-      </c>
-      <c r="L93">
-        <v>5.25</v>
-      </c>
-      <c r="M93">
-        <v>9.5</v>
-      </c>
       <c r="N93">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6407558</v>
+        <v>6412856</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>4</v>
-      </c>
       <c r="J94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K94">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M94">
+        <v>9.5</v>
+      </c>
+      <c r="N94">
+        <v>1.222</v>
+      </c>
+      <c r="O94">
+        <v>5.5</v>
+      </c>
+      <c r="P94">
+        <v>9</v>
+      </c>
+      <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94">
-        <v>3.75</v>
-      </c>
-      <c r="P94">
-        <v>1.6</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630126</v>
+        <v>7630125</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,61 +8893,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H95">
         <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>43</v>
       </c>
       <c r="K95">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V95">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X95">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8956,13 +8956,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630127</v>
+        <v>7630061</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,46 +8985,46 @@
         <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N96">
+        <v>2.3</v>
+      </c>
+      <c r="O96">
         <v>3.5</v>
       </c>
-      <c r="O96">
-        <v>3.4</v>
-      </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
         <v>1.925</v>
@@ -9036,22 +9036,22 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z96">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
+        <v>31</v>
+      </c>
+      <c r="G97" t="s">
         <v>32</v>
-      </c>
-      <c r="G97" t="s">
-        <v>36</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
         <v>42</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>0.333</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.875</v>
+      </c>
+      <c r="AB97">
+        <v>0.4375</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>2.05</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.6</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.825</v>
-      </c>
-      <c r="AB97">
-        <v>1.05</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630128</v>
+        <v>7630127</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9172,64 +9172,64 @@
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K98">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L98">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M98">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N98">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O98">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P98">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>4.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630061</v>
+        <v>7630128</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>4.75</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N99">
-        <v>2.3</v>
+        <v>1.4</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>5.25</v>
       </c>
       <c r="P99">
-        <v>2.9</v>
+        <v>5.75</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>4.25</v>
       </c>
       <c r="Y99">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
         <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9338,10 +9338,10 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630130</v>
+        <v>7630129</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,73 +9427,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G101" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H101">
+        <v>1</v>
+      </c>
+      <c r="I101">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>41</v>
+      </c>
+      <c r="K101">
         <v>2</v>
       </c>
-      <c r="I101">
-        <v>1</v>
-      </c>
-      <c r="J101" t="s">
-        <v>43</v>
-      </c>
-      <c r="K101">
-        <v>4.333</v>
-      </c>
       <c r="L101">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N101">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O101">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
+        <v>2.25</v>
+      </c>
+      <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
+        <v>1.975</v>
+      </c>
+      <c r="W101">
+        <v>-1</v>
+      </c>
+      <c r="X101">
+        <v>-1</v>
+      </c>
+      <c r="Y101">
         <v>1.75</v>
       </c>
-      <c r="U101">
-        <v>1.775</v>
-      </c>
-      <c r="V101">
-        <v>2.1</v>
-      </c>
-      <c r="W101">
-        <v>2.75</v>
-      </c>
-      <c r="X101">
-        <v>-1</v>
-      </c>
-      <c r="Y101">
-        <v>-1</v>
-      </c>
       <c r="Z101">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA101">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630129</v>
+        <v>7630131</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,56 +9516,56 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
         <v>3.25</v>
       </c>
-      <c r="M102">
-        <v>3.8</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
+      <c r="P102">
         <v>3.1</v>
       </c>
-      <c r="P102">
-        <v>2.75</v>
-      </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>2.05</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="S102">
-        <v>1.975</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9573,19 +9573,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.875</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630131</v>
+        <v>7630130</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M103">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N103">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O103">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q103">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9783,10 +9783,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
         <v>40</v>
-      </c>
-      <c r="G105" t="s">
-        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K105">
         <v>1.85</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630463</v>
+        <v>7630134</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K106">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
+        <v>3.2</v>
+      </c>
+      <c r="O106">
+        <v>2.875</v>
+      </c>
+      <c r="P106">
+        <v>2.375</v>
+      </c>
+      <c r="Q106">
+        <v>0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.1</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>2.05</v>
+      </c>
+      <c r="V106">
         <v>1.75</v>
       </c>
-      <c r="O106">
-        <v>3.3</v>
-      </c>
-      <c r="P106">
-        <v>4.75</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.8</v>
-      </c>
-      <c r="S106">
-        <v>2.05</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>2</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>1.375</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>1.1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.75</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>0.8</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>1</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,446 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
+        <v>1.615</v>
+      </c>
+      <c r="L107">
+        <v>3.6</v>
+      </c>
+      <c r="M107">
+        <v>5</v>
+      </c>
+      <c r="N107">
+        <v>1.75</v>
+      </c>
+      <c r="O107">
+        <v>3.3</v>
+      </c>
+      <c r="P107">
+        <v>4.75</v>
+      </c>
+      <c r="Q107">
+        <v>-0.5</v>
+      </c>
+      <c r="R107">
+        <v>1.8</v>
+      </c>
+      <c r="S107">
+        <v>2.05</v>
+      </c>
+      <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
+        <v>2</v>
+      </c>
+      <c r="V107">
+        <v>1.85</v>
+      </c>
+      <c r="W107">
+        <v>0.75</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>-1</v>
+      </c>
+      <c r="Z107">
+        <v>0.8</v>
+      </c>
+      <c r="AA107">
+        <v>-1</v>
+      </c>
+      <c r="AB107">
+        <v>1</v>
+      </c>
+      <c r="AC107">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:29">
+      <c r="A108" s="1">
+        <v>106</v>
+      </c>
+      <c r="B108">
+        <v>7630138</v>
+      </c>
+      <c r="C108" t="s">
+        <v>28</v>
+      </c>
+      <c r="D108" t="s">
+        <v>28</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45355.69791666666</v>
+      </c>
+      <c r="F108" t="s">
+        <v>40</v>
+      </c>
+      <c r="G108" t="s">
+        <v>37</v>
+      </c>
+      <c r="K108">
         <v>2.75</v>
       </c>
-      <c r="L107">
+      <c r="L108">
         <v>3.1</v>
       </c>
-      <c r="M107">
+      <c r="M108">
+        <v>2.6</v>
+      </c>
+      <c r="N108">
+        <v>3.1</v>
+      </c>
+      <c r="O108">
+        <v>3.1</v>
+      </c>
+      <c r="P108">
+        <v>2.375</v>
+      </c>
+      <c r="Q108">
+        <v>0.25</v>
+      </c>
+      <c r="R108">
+        <v>1.8</v>
+      </c>
+      <c r="S108">
+        <v>2.05</v>
+      </c>
+      <c r="T108">
+        <v>2.25</v>
+      </c>
+      <c r="U108">
+        <v>1.95</v>
+      </c>
+      <c r="V108">
+        <v>1.9</v>
+      </c>
+      <c r="W108">
+        <v>0</v>
+      </c>
+      <c r="X108">
+        <v>0</v>
+      </c>
+      <c r="Y108">
+        <v>0</v>
+      </c>
+      <c r="Z108">
+        <v>0</v>
+      </c>
+      <c r="AA108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:29">
+      <c r="A109" s="1">
+        <v>107</v>
+      </c>
+      <c r="B109">
+        <v>7630137</v>
+      </c>
+      <c r="C109" t="s">
+        <v>28</v>
+      </c>
+      <c r="D109" t="s">
+        <v>28</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45355.69791666666</v>
+      </c>
+      <c r="F109" t="s">
+        <v>34</v>
+      </c>
+      <c r="G109" t="s">
+        <v>36</v>
+      </c>
+      <c r="K109">
+        <v>2.2</v>
+      </c>
+      <c r="L109">
+        <v>3.4</v>
+      </c>
+      <c r="M109">
+        <v>3.2</v>
+      </c>
+      <c r="N109">
+        <v>2.2</v>
+      </c>
+      <c r="O109">
+        <v>3.4</v>
+      </c>
+      <c r="P109">
+        <v>3.25</v>
+      </c>
+      <c r="Q109">
+        <v>-0.25</v>
+      </c>
+      <c r="R109">
+        <v>1.875</v>
+      </c>
+      <c r="S109">
+        <v>1.975</v>
+      </c>
+      <c r="T109">
+        <v>2.25</v>
+      </c>
+      <c r="U109">
+        <v>1.875</v>
+      </c>
+      <c r="V109">
+        <v>1.975</v>
+      </c>
+      <c r="W109">
+        <v>0</v>
+      </c>
+      <c r="X109">
+        <v>0</v>
+      </c>
+      <c r="Y109">
+        <v>0</v>
+      </c>
+      <c r="Z109">
+        <v>0</v>
+      </c>
+      <c r="AA109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:29">
+      <c r="A110" s="1">
+        <v>108</v>
+      </c>
+      <c r="B110">
+        <v>7630139</v>
+      </c>
+      <c r="C110" t="s">
+        <v>28</v>
+      </c>
+      <c r="D110" t="s">
+        <v>28</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45355.69791666666</v>
+      </c>
+      <c r="F110" t="s">
+        <v>33</v>
+      </c>
+      <c r="G110" t="s">
+        <v>31</v>
+      </c>
+      <c r="K110">
+        <v>2.2</v>
+      </c>
+      <c r="L110">
+        <v>3.1</v>
+      </c>
+      <c r="M110">
+        <v>3.4</v>
+      </c>
+      <c r="N110">
+        <v>2.2</v>
+      </c>
+      <c r="O110">
+        <v>3.1</v>
+      </c>
+      <c r="P110">
+        <v>3.4</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2</v>
+      </c>
+      <c r="U110">
+        <v>1.825</v>
+      </c>
+      <c r="V110">
+        <v>2.025</v>
+      </c>
+      <c r="W110">
+        <v>0</v>
+      </c>
+      <c r="X110">
+        <v>0</v>
+      </c>
+      <c r="Y110">
+        <v>0</v>
+      </c>
+      <c r="Z110">
+        <v>0</v>
+      </c>
+      <c r="AA110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:29">
+      <c r="A111" s="1">
+        <v>109</v>
+      </c>
+      <c r="B111">
+        <v>7630064</v>
+      </c>
+      <c r="C111" t="s">
+        <v>28</v>
+      </c>
+      <c r="D111" t="s">
+        <v>28</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45355.69791666666</v>
+      </c>
+      <c r="F111" t="s">
+        <v>38</v>
+      </c>
+      <c r="G111" t="s">
+        <v>39</v>
+      </c>
+      <c r="K111">
+        <v>1.8</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>4.5</v>
+      </c>
+      <c r="N111">
+        <v>1.909</v>
+      </c>
+      <c r="O111">
+        <v>3.3</v>
+      </c>
+      <c r="P111">
+        <v>4.2</v>
+      </c>
+      <c r="Q111">
+        <v>-0.5</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>1.9</v>
+      </c>
+      <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.8</v>
+      </c>
+      <c r="V111">
+        <v>2.05</v>
+      </c>
+      <c r="W111">
+        <v>0</v>
+      </c>
+      <c r="X111">
+        <v>0</v>
+      </c>
+      <c r="Y111">
+        <v>0</v>
+      </c>
+      <c r="Z111">
+        <v>0</v>
+      </c>
+      <c r="AA111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:29">
+      <c r="A112" s="1">
+        <v>110</v>
+      </c>
+      <c r="B112">
+        <v>7630136</v>
+      </c>
+      <c r="C112" t="s">
+        <v>28</v>
+      </c>
+      <c r="D112" t="s">
+        <v>28</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45355.69791666666</v>
+      </c>
+      <c r="F112" t="s">
+        <v>32</v>
+      </c>
+      <c r="G112" t="s">
+        <v>30</v>
+      </c>
+      <c r="K112">
+        <v>3.75</v>
+      </c>
+      <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
+        <v>1.909</v>
+      </c>
+      <c r="N112">
+        <v>3.75</v>
+      </c>
+      <c r="O112">
+        <v>3.6</v>
+      </c>
+      <c r="P112">
+        <v>1.909</v>
+      </c>
+      <c r="Q112">
+        <v>0.5</v>
+      </c>
+      <c r="R112">
+        <v>1.925</v>
+      </c>
+      <c r="S112">
+        <v>1.925</v>
+      </c>
+      <c r="T112">
         <v>2.5</v>
       </c>
-      <c r="N107">
-        <v>3.2</v>
-      </c>
-      <c r="O107">
-        <v>2.875</v>
-      </c>
-      <c r="P107">
-        <v>2.375</v>
-      </c>
-      <c r="Q107">
-        <v>0.25</v>
-      </c>
-      <c r="R107">
-        <v>1.775</v>
-      </c>
-      <c r="S107">
-        <v>2.1</v>
-      </c>
-      <c r="T107">
-        <v>2</v>
-      </c>
-      <c r="U107">
-        <v>2.05</v>
-      </c>
-      <c r="V107">
-        <v>1.75</v>
-      </c>
-      <c r="W107">
-        <v>-1</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>1.375</v>
-      </c>
-      <c r="Z107">
-        <v>-1</v>
-      </c>
-      <c r="AA107">
-        <v>1.1</v>
-      </c>
-      <c r="AB107">
-        <v>-1</v>
-      </c>
-      <c r="AC107">
-        <v>0.75</v>
+      <c r="U112">
+        <v>1.925</v>
+      </c>
+      <c r="V112">
+        <v>1.925</v>
+      </c>
+      <c r="W112">
+        <v>0</v>
+      </c>
+      <c r="X112">
+        <v>0</v>
+      </c>
+      <c r="Y112">
+        <v>0</v>
+      </c>
+      <c r="Z112">
+        <v>0</v>
+      </c>
+      <c r="AA112">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,7 +103,7 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Bohemians Dublin</t>
@@ -115,13 +115,13 @@
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -133,19 +133,19 @@
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Galway United</t>
-  </si>
-  <si>
     <t>Waterford FC</t>
   </si>
   <si>
-    <t>A</t>
+    <t>Galway United</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC112"/>
+  <dimension ref="A1:AC117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053245</v>
+        <v>6043235</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,37 +619,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>1.4</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>4.333</v>
       </c>
       <c r="M2">
-        <v>1.333</v>
+        <v>7</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O2">
-        <v>5.25</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>1.222</v>
+        <v>5.5</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="R2">
         <v>1.925</v>
@@ -658,34 +658,34 @@
         <v>1.925</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
+        <v>1.825</v>
+      </c>
+      <c r="V2">
         <v>2.025</v>
       </c>
-      <c r="V2">
-        <v>1.825</v>
-      </c>
       <c r="W2">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X2">
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AA2">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AB2">
+        <v>-1</v>
+      </c>
+      <c r="AC2">
         <v>1.025</v>
-      </c>
-      <c r="AC2">
-        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
         <v>2.1</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K4">
         <v>1.55</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -895,7 +895,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>1.95</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6043235</v>
+        <v>6053245</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,37 +975,37 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>7.5</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>5</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>1.333</v>
       </c>
       <c r="N6">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>5.25</v>
       </c>
       <c r="P6">
-        <v>5.5</v>
+        <v>1.222</v>
       </c>
       <c r="Q6">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R6">
         <v>1.925</v>
@@ -1014,34 +1014,34 @@
         <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U6">
+        <v>2.025</v>
+      </c>
+      <c r="V6">
         <v>1.825</v>
       </c>
-      <c r="V6">
-        <v>2.025</v>
-      </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB6">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,55 +1064,55 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,56 +1153,56 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q8">
+        <v>-1.75</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.9</v>
+      </c>
+      <c r="W8">
         <v>0.25</v>
       </c>
-      <c r="R8">
-        <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
-      </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>2.025</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
-      <c r="W8">
-        <v>2.1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053250</v>
+        <v>6053253</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L12">
         <v>3.2</v>
       </c>
       <c r="M12">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O12">
         <v>3.1</v>
       </c>
       <c r="P12">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="T12">
-        <v>2.25</v>
-      </c>
       <c r="U12">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053253</v>
+        <v>6053250</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>43</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>2.7</v>
       </c>
       <c r="L13">
         <v>3.2</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>2.625</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R13">
+        <v>1.85</v>
+      </c>
+      <c r="S13">
         <v>2</v>
       </c>
-      <c r="S13">
-        <v>1.85</v>
-      </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.425</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>3.3</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>1.666</v>
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" t="s">
         <v>33</v>
-      </c>
-      <c r="G16" t="s">
-        <v>29</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053256</v>
+        <v>6053257</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,58 +1951,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H17">
+        <v>2</v>
+      </c>
+      <c r="I17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K17">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="N17">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T17">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U17">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V17">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC17">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6053254</v>
+        <v>6053255</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G18" t="s">
         <v>35</v>
       </c>
       <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
         <v>2</v>
       </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="L18">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N18">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P18">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R18">
+        <v>1.925</v>
+      </c>
+      <c r="S18">
+        <v>1.925</v>
+      </c>
+      <c r="T18">
+        <v>2.75</v>
+      </c>
+      <c r="U18">
+        <v>1.975</v>
+      </c>
+      <c r="V18">
         <v>1.875</v>
       </c>
-      <c r="S18">
-        <v>1.975</v>
-      </c>
-      <c r="T18">
-        <v>2.25</v>
-      </c>
-      <c r="U18">
-        <v>1.825</v>
-      </c>
-      <c r="V18">
-        <v>2.025</v>
-      </c>
       <c r="W18">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X18">
         <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB18">
+        <v>0.4875</v>
+      </c>
+      <c r="AC18">
         <v>-0.5</v>
-      </c>
-      <c r="AC18">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053255</v>
+        <v>6053254</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>34</v>
       </c>
       <c r="H19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>41</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O19">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P19">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R19">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S19">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T19">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053257</v>
+        <v>6053256</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,58 +2218,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>4.2</v>
+      </c>
+      <c r="N20">
+        <v>1.8</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
+        <v>4.333</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>4</v>
-      </c>
-      <c r="M20">
-        <v>1.5</v>
-      </c>
-      <c r="N20">
-        <v>6.5</v>
-      </c>
-      <c r="O20">
-        <v>4</v>
-      </c>
-      <c r="P20">
-        <v>1.444</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>2.1</v>
-      </c>
-      <c r="S20">
-        <v>1.775</v>
-      </c>
       <c r="T20">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X20">
         <v>-1</v>
@@ -2278,16 +2278,16 @@
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
         <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2310,7 +2310,7 @@
         <v>30</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -2319,7 +2319,7 @@
         <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
         <v>3.25</v>
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,7 +2485,7 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G23" t="s">
         <v>31</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053261</v>
+        <v>6053262</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H24">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K24">
-        <v>1.166</v>
+        <v>2.625</v>
       </c>
       <c r="L24">
-        <v>7</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>15</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>1.111</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q24">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S24">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T24">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U24">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>0.111</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,13 +2634,13 @@
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
         <v>-1</v>
       </c>
       <c r="AB24">
-        <v>1</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
         <v>-1</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053260</v>
+        <v>6043240</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
+        <v>4</v>
+      </c>
+      <c r="L25">
+        <v>3.75</v>
+      </c>
+      <c r="M25">
+        <v>1.833</v>
+      </c>
+      <c r="N25">
         <v>3.6</v>
       </c>
-      <c r="L25">
-        <v>3.2</v>
-      </c>
-      <c r="M25">
-        <v>2.1</v>
-      </c>
-      <c r="N25">
-        <v>3.5</v>
-      </c>
       <c r="O25">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q25">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R25">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S25">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T25">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U25">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V25">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X25">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053262</v>
+        <v>6053261</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,73 +2752,73 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H26">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>41</v>
+      </c>
+      <c r="K26">
+        <v>1.166</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1.111</v>
+      </c>
+      <c r="O26">
+        <v>7.5</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.5</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.85</v>
+      </c>
+      <c r="W26">
+        <v>0.111</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>42</v>
-      </c>
-      <c r="K26">
-        <v>2.625</v>
-      </c>
-      <c r="L26">
-        <v>3.1</v>
-      </c>
-      <c r="M26">
-        <v>2.5</v>
-      </c>
-      <c r="N26">
-        <v>2.7</v>
-      </c>
-      <c r="O26">
-        <v>3.1</v>
-      </c>
-      <c r="P26">
-        <v>2.7</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.925</v>
-      </c>
-      <c r="S26">
-        <v>1.925</v>
-      </c>
-      <c r="T26">
-        <v>2.25</v>
-      </c>
-      <c r="U26">
-        <v>2.05</v>
-      </c>
-      <c r="V26">
-        <v>1.8</v>
-      </c>
-      <c r="W26">
-        <v>1.7</v>
-      </c>
-      <c r="X26">
-        <v>-1</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0.925</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>1.05</v>
       </c>
       <c r="AC26">
         <v>-1</v>
@@ -2841,7 +2841,7 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>32</v>
@@ -2853,7 +2853,7 @@
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
         <v>2.2</v>
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6043240</v>
+        <v>6053260</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>42</v>
       </c>
       <c r="K28">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="L28">
-        <v>3.75</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="P28">
+        <v>2.25</v>
+      </c>
+      <c r="Q28">
+        <v>0.25</v>
+      </c>
+      <c r="R28">
+        <v>1.85</v>
+      </c>
+      <c r="S28">
         <v>2</v>
       </c>
-      <c r="Q28">
-        <v>0.5</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
-      </c>
       <c r="T28">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X28">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053263</v>
+        <v>6053264</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,49 +3019,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U29">
         <v>2.05</v>
@@ -3070,7 +3070,7 @@
         <v>1.8</v>
       </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,10 +3079,10 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB29">
         <v>1.05</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053264</v>
+        <v>6053265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,13 +3108,13 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3123,61 +3123,61 @@
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.571</v>
+        <v>1.55</v>
       </c>
       <c r="L30">
         <v>3.8</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>4.5</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W30">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053265</v>
+        <v>6053263</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X31">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3286,7 +3286,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G32" t="s">
         <v>38</v>
@@ -3298,7 +3298,7 @@
         <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K32">
         <v>6.5</v>
@@ -3378,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K33">
         <v>5.25</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>43</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K35">
-        <v>6.5</v>
-      </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
       <c r="M35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,40 +3731,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
         <v>2</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L37">
+        <v>3.25</v>
+      </c>
+      <c r="M37">
+        <v>3.1</v>
+      </c>
+      <c r="N37">
+        <v>2.45</v>
+      </c>
+      <c r="O37">
         <v>3.2</v>
       </c>
-      <c r="M37">
-        <v>2.45</v>
-      </c>
-      <c r="N37">
-        <v>3.2</v>
-      </c>
-      <c r="O37">
-        <v>3.1</v>
-      </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R37">
         <v>1.825</v>
@@ -3773,34 +3773,34 @@
         <v>2.025</v>
       </c>
       <c r="T37">
+        <v>2.25</v>
+      </c>
+      <c r="U37">
+        <v>1.85</v>
+      </c>
+      <c r="V37">
         <v>2</v>
       </c>
-      <c r="U37">
-        <v>1.9</v>
-      </c>
-      <c r="V37">
-        <v>1.95</v>
-      </c>
       <c r="W37">
         <v>-1</v>
       </c>
       <c r="X37">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053272</v>
+        <v>6053270</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M38">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="O38">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X38">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB38">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053270</v>
+        <v>6053271</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
         <v>2</v>
       </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
       <c r="J39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N39">
-        <v>1.125</v>
+        <v>3.2</v>
       </c>
       <c r="O39">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P39">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="Q39">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W39">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X39">
         <v>-1</v>
       </c>
       <c r="Y39">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA39">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,13 +4087,13 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>2</v>
@@ -4102,61 +4102,61 @@
         <v>41</v>
       </c>
       <c r="K41">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2.05</v>
-      </c>
-      <c r="Q41">
-        <v>0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,7 +4354,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
         <v>33</v>
@@ -4366,64 +4366,64 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K44">
+        <v>1.363</v>
+      </c>
+      <c r="L44">
+        <v>4.5</v>
+      </c>
+      <c r="M44">
+        <v>6.5</v>
+      </c>
+      <c r="N44">
+        <v>1.3</v>
+      </c>
+      <c r="O44">
+        <v>4.75</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>-1.5</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
+        <v>1.875</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>3.75</v>
       </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>1.8</v>
-      </c>
-      <c r="N44">
-        <v>3.25</v>
-      </c>
-      <c r="O44">
-        <v>3.1</v>
-      </c>
-      <c r="P44">
-        <v>2.05</v>
-      </c>
-      <c r="Q44">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
-        <v>1.95</v>
-      </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.1</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,7 +4443,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
         <v>29</v>
@@ -4455,64 +4455,64 @@
         <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6053279</v>
+        <v>6053280</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,13 +4532,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -4550,58 +4550,58 @@
         <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
         <v>3.6</v>
       </c>
       <c r="P46">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T46">
         <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X46">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
         <v>-1</v>
       </c>
       <c r="AC46">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053280</v>
+        <v>6053279</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K47">
         <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6043244</v>
+        <v>6053281</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,61 +4799,61 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
       </c>
       <c r="K49">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L49">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O49">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R49">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S49">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U49">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V49">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y49">
         <v>-1</v>
@@ -4865,10 +4865,10 @@
         <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6053281</v>
+        <v>6053282</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,73 +4888,73 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
+        <v>3.5</v>
+      </c>
+      <c r="Q50">
+        <v>-0.5</v>
+      </c>
+      <c r="R50">
+        <v>2.025</v>
+      </c>
+      <c r="S50">
+        <v>1.825</v>
+      </c>
+      <c r="T50">
         <v>2.5</v>
       </c>
-      <c r="Q50">
-        <v>0</v>
-      </c>
-      <c r="R50">
-        <v>2.05</v>
-      </c>
-      <c r="S50">
-        <v>1.8</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
       <c r="U50">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y50">
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
         <v>-1</v>
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6053282</v>
+        <v>6053283</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,49 +4977,49 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>1</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>1.833</v>
+        <v>21</v>
       </c>
       <c r="L51">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M51">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="N51">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="O51">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P51">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q51">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R51">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S51">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T51">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U51">
         <v>1.875</v>
@@ -5028,25 +5028,25 @@
         <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X51">
         <v>-1</v>
       </c>
       <c r="Y51">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z51">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA51">
         <v>-1</v>
       </c>
       <c r="AB51">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5069,73 +5069,73 @@
         <v>29</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>41</v>
       </c>
       <c r="K52">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L52">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6043245</v>
+        <v>6053285</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,10 +5244,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5256,46 +5256,46 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053285</v>
+        <v>6053286</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,10 +5333,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G55" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5345,46 +5345,46 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K55">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>3.4</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>2.3</v>
+        <v>11</v>
       </c>
       <c r="N55">
-        <v>2.45</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>1.45</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6053288</v>
+        <v>6043245</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,58 +5422,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G56" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K56">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
+        <v>5</v>
+      </c>
+      <c r="N56">
+        <v>1.909</v>
+      </c>
+      <c r="O56">
+        <v>3.3</v>
+      </c>
+      <c r="P56">
+        <v>4</v>
+      </c>
+      <c r="Q56">
+        <v>-0.5</v>
+      </c>
+      <c r="R56">
+        <v>1.95</v>
+      </c>
+      <c r="S56">
+        <v>1.9</v>
+      </c>
+      <c r="T56">
         <v>2.5</v>
       </c>
-      <c r="N56">
-        <v>2.375</v>
-      </c>
-      <c r="O56">
-        <v>3</v>
-      </c>
-      <c r="P56">
-        <v>3</v>
-      </c>
-      <c r="Q56">
-        <v>-0.25</v>
-      </c>
-      <c r="R56">
-        <v>2.1</v>
-      </c>
-      <c r="S56">
-        <v>1.775</v>
-      </c>
-      <c r="T56">
-        <v>2.25</v>
-      </c>
       <c r="U56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.375</v>
+        <v>0.909</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>1.1</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5511,7 +5511,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>41</v>
+      </c>
+      <c r="K58">
+        <v>2.8</v>
+      </c>
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>42</v>
-      </c>
-      <c r="K58">
-        <v>1.25</v>
-      </c>
-      <c r="L58">
-        <v>5.5</v>
-      </c>
       <c r="M58">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N58">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O58">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,7 +5689,7 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5781,7 +5781,7 @@
         <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5968,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K62">
         <v>3.6</v>
@@ -6048,7 +6048,7 @@
         <v>38</v>
       </c>
       <c r="G63" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H63">
         <v>2</v>
@@ -6057,7 +6057,7 @@
         <v>1</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
         <v>1.615</v>
@@ -6137,7 +6137,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K64">
         <v>1.8</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K65">
         <v>3.3</v>
@@ -6312,11 +6312,11 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
+        <v>33</v>
+      </c>
+      <c r="G66" t="s">
         <v>29</v>
       </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
       <c r="H66">
         <v>0</v>
       </c>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>12</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6053289</v>
+        <v>6053291</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
         <v>43</v>
       </c>
       <c r="K67">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L67">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M67">
+        <v>4.75</v>
+      </c>
+      <c r="N67">
+        <v>1.5</v>
+      </c>
+      <c r="O67">
         <v>4.2</v>
       </c>
-      <c r="N67">
-        <v>2.1</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
       <c r="P67">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q67">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R67">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S67">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U67">
+        <v>2.025</v>
+      </c>
+      <c r="V67">
         <v>1.825</v>
       </c>
-      <c r="V67">
-        <v>2.025</v>
-      </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA67">
-        <v>0.5249999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,10 +6490,10 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
+        <v>35</v>
+      </c>
+      <c r="G68" t="s">
         <v>34</v>
-      </c>
-      <c r="G68" t="s">
-        <v>35</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -6502,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
         <v>1.6</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053291</v>
+        <v>6053289</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K69">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
+        <v>1.825</v>
+      </c>
+      <c r="V69">
         <v>2.025</v>
       </c>
-      <c r="V69">
-        <v>1.825</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6668,7 +6668,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -6680,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K70">
         <v>1.833</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323099</v>
+        <v>6323101</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,58 +6757,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I71">
         <v>0</v>
       </c>
       <c r="J71" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N71">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="O71">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.05000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323101</v>
+        <v>6323098</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.25</v>
+        <v>2.05</v>
       </c>
       <c r="N72">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K73">
         <v>2.1</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323098</v>
+        <v>6323099</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
         <v>41</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.071</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M74">
-        <v>2.05</v>
+        <v>34</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>29</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7116,7 +7116,7 @@
         <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H75">
         <v>1</v>
@@ -7125,7 +7125,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
         <v>2.15</v>
@@ -7214,7 +7214,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
         <v>4.5</v>
@@ -7291,7 +7291,7 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G77" t="s">
         <v>30</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6364853</v>
+        <v>6364849</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,10 +7380,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -7392,43 +7392,43 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
-        <v>2.875</v>
+        <v>1.85</v>
       </c>
       <c r="L78">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M78">
-        <v>2.375</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>2.375</v>
+        <v>1.8</v>
       </c>
       <c r="O78">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>2.9</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
+        <v>1.825</v>
+      </c>
+      <c r="S78">
         <v>2.025</v>
-      </c>
-      <c r="S78">
-        <v>1.825</v>
       </c>
       <c r="T78">
         <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
@@ -7437,19 +7437,19 @@
         <v>-1</v>
       </c>
       <c r="Y78">
-        <v>1.9</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.825</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
         <v>1.571</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364849</v>
+        <v>6364853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,10 +7558,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7570,43 +7570,43 @@
         <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
+        <v>2.025</v>
+      </c>
+      <c r="S80">
         <v>1.825</v>
-      </c>
-      <c r="S80">
-        <v>2.025</v>
       </c>
       <c r="T80">
         <v>2.5</v>
       </c>
       <c r="U80">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V80">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W80">
         <v>-1</v>
@@ -7615,19 +7615,19 @@
         <v>-1</v>
       </c>
       <c r="Y80">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
       </c>
       <c r="AC80">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="81" spans="1:29">
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,7 +7736,7 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6382789</v>
+        <v>6382788</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7917,73 +7917,73 @@
         <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K84">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="L84">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M84">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="N84">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O84">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P84">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q84">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R84">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S84">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U84">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V84">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W84">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z84">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA84">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB84">
         <v>-1</v>
       </c>
       <c r="AC84">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382788</v>
+        <v>6382789</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>41</v>
       </c>
       <c r="K85">
-        <v>5.75</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>1.55</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>1.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>2.2</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1.025</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>1</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.975</v>
-      </c>
-      <c r="V85">
-        <v>1.875</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>0.55</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>-0</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8095,7 +8095,7 @@
         <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H86">
         <v>3</v>
@@ -8104,7 +8104,7 @@
         <v>2</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K86">
         <v>1.142</v>
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412497</v>
+        <v>6412856</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,58 +8448,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N90">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.9</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,13 +8508,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8549,7 +8549,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K91">
         <v>1.7</v>
@@ -8626,10 +8626,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8638,7 +8638,7 @@
         <v>5</v>
       </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K92">
         <v>10</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6407558</v>
+        <v>6412497</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I93">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>41</v>
       </c>
       <c r="K93">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>2</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>5</v>
+        <v>1.166</v>
       </c>
       <c r="O93">
-        <v>3.75</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>1.6</v>
+        <v>15</v>
       </c>
       <c r="Q93">
-        <v>0.75</v>
+        <v>-2</v>
       </c>
       <c r="R93">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S93">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T93">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U93">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6412856</v>
+        <v>6407558</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>3.3</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
-        <v>42</v>
-      </c>
-      <c r="K94">
-        <v>1.25</v>
-      </c>
-      <c r="L94">
-        <v>5.25</v>
-      </c>
-      <c r="M94">
-        <v>9.5</v>
-      </c>
       <c r="N94">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="O94">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630125</v>
+        <v>7630128</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,61 +8893,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G95" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K95">
-        <v>1.8</v>
+        <v>1.363</v>
       </c>
       <c r="L95">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="M95">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="Q95">
-        <v>-0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.6</v>
+        <v>4.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8956,13 +8956,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630061</v>
+        <v>7630127</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,46 +8985,46 @@
         <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L96">
+        <v>3.25</v>
+      </c>
+      <c r="M96">
+        <v>2.1</v>
+      </c>
+      <c r="N96">
+        <v>3.5</v>
+      </c>
+      <c r="O96">
         <v>3.4</v>
       </c>
-      <c r="M96">
-        <v>2</v>
-      </c>
-      <c r="N96">
-        <v>2.3</v>
-      </c>
-      <c r="O96">
-        <v>3.5</v>
-      </c>
       <c r="P96">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
         <v>1.925</v>
@@ -9036,22 +9036,22 @@
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y96">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA96">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630126</v>
+        <v>7630061</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G97" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O97">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
         <v>-1</v>
       </c>
       <c r="Y97">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630127</v>
+        <v>7630126</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I98">
         <v>1</v>
       </c>
       <c r="J98" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P98">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W98">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
+        <v>0.875</v>
+      </c>
+      <c r="AB98">
+        <v>0.4375</v>
+      </c>
+      <c r="AC98">
         <v>-0.5</v>
-      </c>
-      <c r="AB98">
-        <v>-0.5</v>
-      </c>
-      <c r="AC98">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630128</v>
+        <v>7630125</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,61 +9249,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G99" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L99">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M99">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N99">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O99">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P99">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q99">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
         <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V99">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W99">
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y99">
         <v>-1</v>
@@ -9312,13 +9312,13 @@
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC99">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630062</v>
+        <v>7630129</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,55 +9338,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G100" t="s">
         <v>39</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>2.1</v>
-      </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,19 +9395,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630129</v>
+        <v>7630062</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,55 +9427,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K101">
+        <v>2.1</v>
+      </c>
+      <c r="L101">
+        <v>3.2</v>
+      </c>
+      <c r="M101">
+        <v>3.6</v>
+      </c>
+      <c r="N101">
+        <v>2.2</v>
+      </c>
+      <c r="O101">
+        <v>3</v>
+      </c>
+      <c r="P101">
+        <v>3.6</v>
+      </c>
+      <c r="Q101">
+        <v>-0.25</v>
+      </c>
+      <c r="R101">
+        <v>1.9</v>
+      </c>
+      <c r="S101">
+        <v>1.95</v>
+      </c>
+      <c r="T101">
         <v>2</v>
       </c>
-      <c r="L101">
-        <v>3.25</v>
-      </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
-        <v>2.625</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
-        <v>2.75</v>
-      </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
       <c r="U101">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V101">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,19 +9484,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.75</v>
+        <v>2.6</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AC101">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630131</v>
+        <v>7630130</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,13 +9516,13 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102">
         <v>1</v>
@@ -9531,61 +9531,61 @@
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>4.333</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M102">
-        <v>3</v>
+        <v>1.85</v>
       </c>
       <c r="N102">
-        <v>2.3</v>
+        <v>3.75</v>
       </c>
       <c r="O102">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>2.1</v>
       </c>
       <c r="Q102">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="W102">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630130</v>
+        <v>7630131</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
+        <v>3.1</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
         <v>2.1</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>1.75</v>
-      </c>
-      <c r="U103">
-        <v>1.775</v>
-      </c>
-      <c r="V103">
-        <v>2.1</v>
-      </c>
-      <c r="W103">
-        <v>2.75</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9783,10 +9783,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
+        <v>40</v>
+      </c>
+      <c r="G105" t="s">
         <v>39</v>
-      </c>
-      <c r="G105" t="s">
-        <v>40</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K105">
         <v>1.85</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,13 +9872,13 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>1</v>
@@ -9887,61 +9887,61 @@
         <v>41</v>
       </c>
       <c r="K106">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N106">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
+        <v>2.25</v>
+      </c>
+      <c r="U106">
         <v>2</v>
       </c>
-      <c r="U106">
-        <v>2.05</v>
-      </c>
       <c r="V106">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC106">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630463</v>
+        <v>7630134</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
+        <v>3.2</v>
+      </c>
+      <c r="O107">
+        <v>2.875</v>
+      </c>
+      <c r="P107">
+        <v>2.375</v>
+      </c>
+      <c r="Q107">
+        <v>0.25</v>
+      </c>
+      <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.1</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>2.05</v>
+      </c>
+      <c r="V107">
         <v>1.75</v>
       </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
-      <c r="P107">
-        <v>4.75</v>
-      </c>
-      <c r="Q107">
-        <v>-0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.8</v>
-      </c>
-      <c r="S107">
-        <v>2.05</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>1.375</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>1.1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.75</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630138</v>
+        <v>7630136</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,61 +10050,76 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="G108" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="H108">
+        <v>2</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108" t="s">
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>2.75</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>2.6</v>
+        <v>1.909</v>
       </c>
       <c r="N108">
         <v>3.1</v>
       </c>
       <c r="O108">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>2.375</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="X108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y108">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB108">
+        <v>0.875</v>
+      </c>
+      <c r="AC108">
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10112,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630137</v>
+        <v>7630064</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10124,61 +10139,76 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>36</v>
+        <v>40</v>
+      </c>
+      <c r="H109">
+        <v>1</v>
+      </c>
+      <c r="I109">
+        <v>0</v>
+      </c>
+      <c r="J109" t="s">
+        <v>41</v>
       </c>
       <c r="K109">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="L109">
         <v>3.4</v>
       </c>
       <c r="M109">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="N109">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P109">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q109">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R109">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S109">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T109">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="X109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA109">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB109">
+        <v>-1</v>
+      </c>
+      <c r="AC109">
+        <v>0.925</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10186,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630139</v>
+        <v>7630138</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10198,61 +10228,76 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>37</v>
+      </c>
+      <c r="H110">
+        <v>3</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110" t="s">
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
         <v>3.1</v>
       </c>
       <c r="M110">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N110">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="O110">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="P110">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
+        <v>2.025</v>
+      </c>
+      <c r="S110">
+        <v>1.825</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
         <v>1.925</v>
       </c>
-      <c r="S110">
+      <c r="V110">
         <v>1.925</v>
       </c>
-      <c r="T110">
-        <v>2</v>
-      </c>
-      <c r="U110">
-        <v>1.825</v>
-      </c>
-      <c r="V110">
-        <v>2.025</v>
-      </c>
       <c r="W110">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="X110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB110">
+        <v>0.925</v>
+      </c>
+      <c r="AC110">
+        <v>-1</v>
       </c>
     </row>
     <row r="111" spans="1:29">
@@ -10260,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630064</v>
+        <v>7630139</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10272,61 +10317,76 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G111" t="s">
-        <v>39</v>
+        <v>31</v>
+      </c>
+      <c r="H111">
+        <v>2</v>
+      </c>
+      <c r="I111">
+        <v>2</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
       </c>
       <c r="K111">
+        <v>2.2</v>
+      </c>
+      <c r="L111">
+        <v>3.1</v>
+      </c>
+      <c r="M111">
+        <v>3.4</v>
+      </c>
+      <c r="N111">
+        <v>2.15</v>
+      </c>
+      <c r="O111">
+        <v>3.25</v>
+      </c>
+      <c r="P111">
+        <v>3.3</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
         <v>1.8</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>4.5</v>
-      </c>
-      <c r="N111">
-        <v>1.909</v>
-      </c>
-      <c r="O111">
-        <v>3.3</v>
-      </c>
-      <c r="P111">
-        <v>4.2</v>
-      </c>
-      <c r="Q111">
-        <v>-0.5</v>
-      </c>
-      <c r="R111">
-        <v>1.95</v>
-      </c>
       <c r="S111">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="Y111">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>0</v>
+        <v>0.5249999999999999</v>
+      </c>
+      <c r="AB111">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC111">
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10334,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630136</v>
+        <v>7630137</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10346,31 +10406,40 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G112" t="s">
-        <v>30</v>
+        <v>36</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>5</v>
+      </c>
+      <c r="J112" t="s">
+        <v>43</v>
       </c>
       <c r="K112">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N112">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O112">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P112">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="Q112">
-        <v>0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R112">
         <v>1.925</v>
@@ -10379,7 +10448,7 @@
         <v>1.925</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U112">
         <v>1.925</v>
@@ -10388,18 +10457,394 @@
         <v>1.925</v>
       </c>
       <c r="W112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="Z112">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA112">
+        <v>0.925</v>
+      </c>
+      <c r="AB112">
+        <v>0.925</v>
+      </c>
+      <c r="AC112">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
+      <c r="A113" s="1">
+        <v>111</v>
+      </c>
+      <c r="B113">
+        <v>7644569</v>
+      </c>
+      <c r="C113" t="s">
+        <v>28</v>
+      </c>
+      <c r="D113" t="s">
+        <v>28</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F113" t="s">
+        <v>37</v>
+      </c>
+      <c r="G113" t="s">
+        <v>35</v>
+      </c>
+      <c r="K113">
+        <v>1.95</v>
+      </c>
+      <c r="L113">
+        <v>3.5</v>
+      </c>
+      <c r="M113">
+        <v>3.8</v>
+      </c>
+      <c r="N113">
+        <v>1.85</v>
+      </c>
+      <c r="O113">
+        <v>3.5</v>
+      </c>
+      <c r="P113">
+        <v>4</v>
+      </c>
+      <c r="Q113">
+        <v>-0.5</v>
+      </c>
+      <c r="R113">
+        <v>1.875</v>
+      </c>
+      <c r="S113">
+        <v>1.975</v>
+      </c>
+      <c r="T113">
+        <v>2.5</v>
+      </c>
+      <c r="U113">
+        <v>2</v>
+      </c>
+      <c r="V113">
+        <v>1.85</v>
+      </c>
+      <c r="W113">
+        <v>0</v>
+      </c>
+      <c r="X113">
+        <v>0</v>
+      </c>
+      <c r="Y113">
+        <v>0</v>
+      </c>
+      <c r="Z113">
+        <v>0</v>
+      </c>
+      <c r="AA113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
+      <c r="A114" s="1">
+        <v>112</v>
+      </c>
+      <c r="B114">
+        <v>7644566</v>
+      </c>
+      <c r="C114" t="s">
+        <v>28</v>
+      </c>
+      <c r="D114" t="s">
+        <v>28</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F114" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+      <c r="K114">
+        <v>2.3</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>3.4</v>
+      </c>
+      <c r="N114">
+        <v>2.75</v>
+      </c>
+      <c r="O114">
+        <v>2.9</v>
+      </c>
+      <c r="P114">
+        <v>2.875</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>1.875</v>
+      </c>
+      <c r="S114">
+        <v>1.975</v>
+      </c>
+      <c r="T114">
+        <v>2.25</v>
+      </c>
+      <c r="U114">
+        <v>2.025</v>
+      </c>
+      <c r="V114">
+        <v>1.825</v>
+      </c>
+      <c r="W114">
+        <v>0</v>
+      </c>
+      <c r="X114">
+        <v>0</v>
+      </c>
+      <c r="Y114">
+        <v>0</v>
+      </c>
+      <c r="Z114">
+        <v>0</v>
+      </c>
+      <c r="AA114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
+      <c r="A115" s="1">
+        <v>113</v>
+      </c>
+      <c r="B115">
+        <v>7644567</v>
+      </c>
+      <c r="C115" t="s">
+        <v>28</v>
+      </c>
+      <c r="D115" t="s">
+        <v>28</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F115" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+      <c r="K115">
+        <v>1.615</v>
+      </c>
+      <c r="L115">
+        <v>3.8</v>
+      </c>
+      <c r="M115">
+        <v>5.25</v>
+      </c>
+      <c r="N115">
+        <v>1.5</v>
+      </c>
+      <c r="O115">
+        <v>4</v>
+      </c>
+      <c r="P115">
+        <v>6.5</v>
+      </c>
+      <c r="Q115">
+        <v>-1</v>
+      </c>
+      <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
+        <v>2.05</v>
+      </c>
+      <c r="T115">
+        <v>2.5</v>
+      </c>
+      <c r="U115">
+        <v>1.925</v>
+      </c>
+      <c r="V115">
+        <v>1.925</v>
+      </c>
+      <c r="W115">
+        <v>0</v>
+      </c>
+      <c r="X115">
+        <v>0</v>
+      </c>
+      <c r="Y115">
+        <v>0</v>
+      </c>
+      <c r="Z115">
+        <v>0</v>
+      </c>
+      <c r="AA115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
+      <c r="A116" s="1">
+        <v>114</v>
+      </c>
+      <c r="B116">
+        <v>7644568</v>
+      </c>
+      <c r="C116" t="s">
+        <v>28</v>
+      </c>
+      <c r="D116" t="s">
+        <v>28</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45359.69791666666</v>
+      </c>
+      <c r="F116" t="s">
+        <v>40</v>
+      </c>
+      <c r="G116" t="s">
+        <v>32</v>
+      </c>
+      <c r="K116">
+        <v>1.666</v>
+      </c>
+      <c r="L116">
+        <v>3.75</v>
+      </c>
+      <c r="M116">
+        <v>5.25</v>
+      </c>
+      <c r="N116">
+        <v>1.615</v>
+      </c>
+      <c r="O116">
+        <v>3.8</v>
+      </c>
+      <c r="P116">
+        <v>5.5</v>
+      </c>
+      <c r="Q116">
+        <v>-0.75</v>
+      </c>
+      <c r="R116">
+        <v>1.825</v>
+      </c>
+      <c r="S116">
+        <v>2.025</v>
+      </c>
+      <c r="T116">
+        <v>2.5</v>
+      </c>
+      <c r="U116">
+        <v>1.925</v>
+      </c>
+      <c r="V116">
+        <v>1.925</v>
+      </c>
+      <c r="W116">
+        <v>0</v>
+      </c>
+      <c r="X116">
+        <v>0</v>
+      </c>
+      <c r="Y116">
+        <v>0</v>
+      </c>
+      <c r="Z116">
+        <v>0</v>
+      </c>
+      <c r="AA116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117">
+        <v>7644570</v>
+      </c>
+      <c r="C117" t="s">
+        <v>28</v>
+      </c>
+      <c r="D117" t="s">
+        <v>28</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45360.69791666666</v>
+      </c>
+      <c r="F117" t="s">
+        <v>36</v>
+      </c>
+      <c r="G117" t="s">
+        <v>29</v>
+      </c>
+      <c r="K117">
+        <v>4.5</v>
+      </c>
+      <c r="L117">
+        <v>3.5</v>
+      </c>
+      <c r="M117">
+        <v>1.8</v>
+      </c>
+      <c r="N117">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <v>3.4</v>
+      </c>
+      <c r="P117">
+        <v>1.909</v>
+      </c>
+      <c r="Q117">
+        <v>0.5</v>
+      </c>
+      <c r="R117">
+        <v>1.925</v>
+      </c>
+      <c r="S117">
+        <v>1.925</v>
+      </c>
+      <c r="T117">
+        <v>2.5</v>
+      </c>
+      <c r="U117">
+        <v>2.05</v>
+      </c>
+      <c r="V117">
+        <v>1.8</v>
+      </c>
+      <c r="W117">
+        <v>0</v>
+      </c>
+      <c r="X117">
+        <v>0</v>
+      </c>
+      <c r="Y117">
+        <v>0</v>
+      </c>
+      <c r="Z117">
+        <v>0</v>
+      </c>
+      <c r="AA117">
         <v>0</v>
       </c>
     </row>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -118,10 +118,10 @@
     <t>UCD</t>
   </si>
   <si>
-    <t>Cork City</t>
+    <t>Dundalk</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -619,7 +619,7 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H2">
         <v>2</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1076,44 +1076,44 @@
         <v>41</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q7">
+        <v>-1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>1.9</v>
+      </c>
+      <c r="W7">
         <v>0.25</v>
       </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
-      <c r="W7">
-        <v>2.1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1165,43 +1165,43 @@
         <v>41</v>
       </c>
       <c r="K8">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053253</v>
+        <v>6053251</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053250</v>
+        <v>6053253</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L13">
         <v>3.2</v>
       </c>
       <c r="M13">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N13">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O13">
         <v>3.1</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R13">
+        <v>2</v>
+      </c>
+      <c r="S13">
         <v>1.85</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>2</v>
       </c>
-      <c r="T13">
-        <v>2.25</v>
-      </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB13">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053252</v>
+        <v>6053250</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="J14" t="s">
+        <v>43</v>
+      </c>
+      <c r="K14">
+        <v>2.7</v>
+      </c>
+      <c r="L14">
+        <v>3.2</v>
+      </c>
+      <c r="M14">
+        <v>2.4</v>
+      </c>
+      <c r="N14">
+        <v>2.5</v>
+      </c>
+      <c r="O14">
+        <v>3.1</v>
+      </c>
+      <c r="P14">
+        <v>2.625</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1.85</v>
+      </c>
+      <c r="S14">
+        <v>2</v>
+      </c>
+      <c r="T14">
+        <v>2.25</v>
+      </c>
+      <c r="U14">
+        <v>2.05</v>
+      </c>
+      <c r="V14">
+        <v>1.8</v>
+      </c>
+      <c r="W14">
+        <v>-1</v>
+      </c>
+      <c r="X14">
+        <v>-1</v>
+      </c>
+      <c r="Y14">
+        <v>1.625</v>
+      </c>
+      <c r="Z14">
+        <v>-1</v>
+      </c>
+      <c r="AA14">
         <v>1</v>
       </c>
-      <c r="J14" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14">
-        <v>3.3</v>
-      </c>
-      <c r="L14">
-        <v>3.3</v>
-      </c>
-      <c r="M14">
-        <v>2.05</v>
-      </c>
-      <c r="N14">
-        <v>3.2</v>
-      </c>
-      <c r="O14">
-        <v>3.25</v>
-      </c>
-      <c r="P14">
-        <v>2.15</v>
-      </c>
-      <c r="Q14">
-        <v>0.25</v>
-      </c>
-      <c r="R14">
-        <v>1.925</v>
-      </c>
-      <c r="S14">
-        <v>1.925</v>
-      </c>
-      <c r="T14">
-        <v>2.75</v>
-      </c>
-      <c r="U14">
-        <v>1.975</v>
-      </c>
-      <c r="V14">
-        <v>1.875</v>
-      </c>
-      <c r="W14">
-        <v>2.2</v>
-      </c>
-      <c r="X14">
-        <v>-1</v>
-      </c>
-      <c r="Y14">
-        <v>-1</v>
-      </c>
-      <c r="Z14">
-        <v>0.925</v>
-      </c>
-      <c r="AA14">
-        <v>-1</v>
-      </c>
       <c r="AB14">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC14">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053251</v>
+        <v>6053252</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K15">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L15">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M15">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N15">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O15">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P15">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q15">
+        <v>0.25</v>
+      </c>
+      <c r="R15">
+        <v>1.925</v>
+      </c>
+      <c r="S15">
+        <v>1.925</v>
+      </c>
+      <c r="T15">
+        <v>2.75</v>
+      </c>
+      <c r="U15">
+        <v>1.975</v>
+      </c>
+      <c r="V15">
+        <v>1.875</v>
+      </c>
+      <c r="W15">
+        <v>2.2</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>-1</v>
+      </c>
+      <c r="Z15">
+        <v>0.925</v>
+      </c>
+      <c r="AA15">
+        <v>-1</v>
+      </c>
+      <c r="AB15">
+        <v>0.4875</v>
+      </c>
+      <c r="AC15">
         <v>-0.5</v>
-      </c>
-      <c r="R15">
-        <v>1.95</v>
-      </c>
-      <c r="S15">
-        <v>1.9</v>
-      </c>
-      <c r="T15">
-        <v>2</v>
-      </c>
-      <c r="U15">
-        <v>1.875</v>
-      </c>
-      <c r="V15">
-        <v>1.975</v>
-      </c>
-      <c r="W15">
-        <v>-1</v>
-      </c>
-      <c r="X15">
-        <v>2</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>-1</v>
-      </c>
-      <c r="AA15">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB15">
-        <v>-1</v>
-      </c>
-      <c r="AC15">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6053255</v>
+        <v>6043238</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2082,34 +2082,34 @@
         <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z18">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA18">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2132,7 +2132,7 @@
         <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>2</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053256</v>
+        <v>6053255</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1.925</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
+        <v>1.875</v>
+      </c>
+      <c r="W20">
+        <v>-1</v>
+      </c>
+      <c r="X20">
+        <v>-1</v>
+      </c>
+      <c r="Y20">
+        <v>1.5</v>
+      </c>
+      <c r="Z20">
+        <v>-1</v>
+      </c>
+      <c r="AA20">
+        <v>0.925</v>
+      </c>
+      <c r="AB20">
+        <v>0.4875</v>
+      </c>
+      <c r="AC20">
         <v>-0.5</v>
-      </c>
-      <c r="R20">
-        <v>1.85</v>
-      </c>
-      <c r="S20">
-        <v>2</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>2.05</v>
-      </c>
-      <c r="V20">
-        <v>1.75</v>
-      </c>
-      <c r="W20">
-        <v>0.8</v>
-      </c>
-      <c r="X20">
-        <v>-1</v>
-      </c>
-      <c r="Y20">
-        <v>-1</v>
-      </c>
-      <c r="Z20">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AA20">
-        <v>-1</v>
-      </c>
-      <c r="AB20">
-        <v>-1</v>
-      </c>
-      <c r="AC20">
-        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6043238</v>
+        <v>6053256</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K21">
+        <v>1.75</v>
+      </c>
+      <c r="L21">
+        <v>3.5</v>
+      </c>
+      <c r="M21">
+        <v>4.2</v>
+      </c>
+      <c r="N21">
+        <v>1.8</v>
+      </c>
+      <c r="O21">
+        <v>3.25</v>
+      </c>
+      <c r="P21">
+        <v>4.333</v>
+      </c>
+      <c r="Q21">
+        <v>-0.5</v>
+      </c>
+      <c r="R21">
+        <v>1.85</v>
+      </c>
+      <c r="S21">
         <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21" t="s">
-        <v>42</v>
-      </c>
-      <c r="K21">
-        <v>3.25</v>
-      </c>
-      <c r="L21">
-        <v>3.2</v>
-      </c>
-      <c r="M21">
-        <v>2.1</v>
-      </c>
-      <c r="N21">
-        <v>3.4</v>
-      </c>
-      <c r="O21">
-        <v>3.1</v>
-      </c>
-      <c r="P21">
-        <v>2.1</v>
-      </c>
-      <c r="Q21">
-        <v>0.25</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
       </c>
       <c r="T21">
         <v>2.25</v>
       </c>
       <c r="U21">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V21">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X21">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y21">
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6043240</v>
+        <v>6053259</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2666,73 +2666,73 @@
         <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K25">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S25">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T25">
         <v>2.5</v>
       </c>
       <c r="U25">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V25">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W25">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
         <v>-1</v>
       </c>
       <c r="AC25">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053261</v>
+        <v>6043240</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,13 +2752,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -2767,43 +2767,43 @@
         <v>41</v>
       </c>
       <c r="K26">
-        <v>1.166</v>
+        <v>4</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>3.75</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>1.833</v>
       </c>
       <c r="N26">
-        <v>1.111</v>
+        <v>3.6</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>0.5</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W26">
-        <v>0.111</v>
+        <v>2.6</v>
       </c>
       <c r="X26">
         <v>-1</v>
@@ -2812,16 +2812,16 @@
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AA26">
         <v>-1</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053259</v>
+        <v>6053260</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,10 +2841,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H27">
         <v>1</v>
@@ -2856,61 +2856,61 @@
         <v>42</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
+        <v>2.1</v>
+      </c>
+      <c r="N27">
+        <v>3.5</v>
+      </c>
+      <c r="O27">
         <v>3</v>
       </c>
-      <c r="N27">
-        <v>2.5</v>
-      </c>
-      <c r="O27">
-        <v>3.25</v>
-      </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>2.1</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
         <v>-1</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.425</v>
       </c>
       <c r="AA27">
+        <v>-0.5</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
         <v>-0</v>
-      </c>
-      <c r="AB27">
-        <v>-1</v>
-      </c>
-      <c r="AC27">
-        <v>0.875</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053260</v>
+        <v>6053261</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>41</v>
+      </c>
+      <c r="K28">
+        <v>1.166</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>1.111</v>
+      </c>
+      <c r="O28">
+        <v>7.5</v>
+      </c>
+      <c r="P28">
+        <v>17</v>
+      </c>
+      <c r="Q28">
+        <v>-2.25</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>0.111</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>0.875</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28">
-        <v>3.6</v>
-      </c>
-      <c r="L28">
-        <v>3.2</v>
-      </c>
-      <c r="M28">
-        <v>2.1</v>
-      </c>
-      <c r="N28">
-        <v>3.5</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>2.25</v>
-      </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>2.1</v>
-      </c>
-      <c r="V28">
-        <v>1.775</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.425</v>
-      </c>
-      <c r="AA28">
-        <v>-0.5</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053264</v>
+        <v>6053263</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,49 +3019,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
         <v>2</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
       </c>
       <c r="K29">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L29">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M29">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N29">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O29">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P29">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q29">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T29">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
         <v>2.05</v>
@@ -3070,7 +3070,7 @@
         <v>1.8</v>
       </c>
       <c r="W29">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X29">
         <v>-1</v>
@@ -3079,10 +3079,10 @@
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA29">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>1.05</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053265</v>
+        <v>6043241</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
         <v>42</v>
       </c>
       <c r="K30">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="L30">
+        <v>3.75</v>
+      </c>
+      <c r="M30">
+        <v>1.571</v>
+      </c>
+      <c r="N30">
         <v>3.8</v>
       </c>
-      <c r="M30">
-        <v>5.5</v>
-      </c>
-      <c r="N30">
-        <v>1.4</v>
-      </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,40 +3197,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L31">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O31">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P31">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q31">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
         <v>1.9</v>
@@ -3242,28 +3242,28 @@
         <v>2.5</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053266</v>
+        <v>6053264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,73 +3286,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L33">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M33">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N33">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O33">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P33">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q33">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W33">
         <v>-1</v>
       </c>
       <c r="X33">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
         <v>-1</v>
       </c>
       <c r="AC33">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34">
+        <v>2.4</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>6.5</v>
-      </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
       <c r="M34">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053272</v>
+        <v>6053270</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H37">
         <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="L37">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N37">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="O37">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P37">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X37">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y37">
         <v>-1</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB37">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053270</v>
+        <v>6053272</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H38">
         <v>2</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N38">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="O38">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P38">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W38">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
         <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G39" t="s">
         <v>38</v>
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4268,7 +4268,7 @@
         <v>29</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4369,61 +4369,61 @@
         <v>42</v>
       </c>
       <c r="K44">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,10 +4443,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4458,61 +4458,61 @@
         <v>42</v>
       </c>
       <c r="K45">
+        <v>1.363</v>
+      </c>
+      <c r="L45">
+        <v>4.5</v>
+      </c>
+      <c r="M45">
+        <v>6.5</v>
+      </c>
+      <c r="N45">
+        <v>1.3</v>
+      </c>
+      <c r="O45">
+        <v>4.75</v>
+      </c>
+      <c r="P45">
+        <v>7</v>
+      </c>
+      <c r="Q45">
+        <v>-1.5</v>
+      </c>
+      <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.85</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
+        <v>1.975</v>
+      </c>
+      <c r="V45">
+        <v>1.875</v>
+      </c>
+      <c r="W45">
+        <v>-1</v>
+      </c>
+      <c r="X45">
         <v>3.75</v>
       </c>
-      <c r="L45">
-        <v>3.4</v>
-      </c>
-      <c r="M45">
-        <v>1.8</v>
-      </c>
-      <c r="N45">
-        <v>3.25</v>
-      </c>
-      <c r="O45">
-        <v>3.1</v>
-      </c>
-      <c r="P45">
-        <v>2.05</v>
-      </c>
-      <c r="Q45">
-        <v>0.25</v>
-      </c>
-      <c r="R45">
-        <v>1.95</v>
-      </c>
-      <c r="S45">
-        <v>1.9</v>
-      </c>
-      <c r="T45">
-        <v>2</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
-      <c r="W45">
-        <v>-1</v>
-      </c>
-      <c r="X45">
-        <v>2.1</v>
-      </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC45">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4621,7 +4621,7 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G47" t="s">
         <v>36</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053281</v>
+        <v>6053282</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,73 +4799,73 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K49">
-        <v>2.3</v>
+        <v>1.833</v>
       </c>
       <c r="L49">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="M49">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N49">
-        <v>2.75</v>
+        <v>1.909</v>
       </c>
       <c r="O49">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="P49">
+        <v>3.5</v>
+      </c>
+      <c r="Q49">
+        <v>-0.5</v>
+      </c>
+      <c r="R49">
+        <v>2.025</v>
+      </c>
+      <c r="S49">
+        <v>1.825</v>
+      </c>
+      <c r="T49">
         <v>2.5</v>
       </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
-      <c r="R49">
-        <v>2.05</v>
-      </c>
-      <c r="S49">
-        <v>1.8</v>
-      </c>
-      <c r="T49">
-        <v>2.25</v>
-      </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X49">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
         <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>0.875</v>
       </c>
       <c r="AC49">
         <v>-1</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6053282</v>
+        <v>6043244</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,58 +4888,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
         <v>34</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
         <v>41</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>1.7</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
+        <v>4.333</v>
+      </c>
+      <c r="N50">
+        <v>1.5</v>
+      </c>
+      <c r="O50">
         <v>4</v>
       </c>
-      <c r="N50">
-        <v>1.909</v>
-      </c>
-      <c r="O50">
-        <v>3.4</v>
-      </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4948,16 +4948,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6053283</v>
+        <v>6053281</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,76 +4977,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G51" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51">
+        <v>2</v>
+      </c>
+      <c r="J51" t="s">
+        <v>42</v>
+      </c>
+      <c r="K51">
+        <v>2.3</v>
+      </c>
+      <c r="L51">
+        <v>3.2</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51">
+        <v>2.75</v>
+      </c>
+      <c r="O51">
+        <v>3.2</v>
+      </c>
+      <c r="P51">
+        <v>2.5</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>2.05</v>
+      </c>
+      <c r="S51">
+        <v>1.8</v>
+      </c>
+      <c r="T51">
+        <v>2.25</v>
+      </c>
+      <c r="U51">
+        <v>2</v>
+      </c>
+      <c r="V51">
+        <v>1.85</v>
+      </c>
+      <c r="W51">
+        <v>-1</v>
+      </c>
+      <c r="X51">
+        <v>2.2</v>
+      </c>
+      <c r="Y51">
+        <v>-1</v>
+      </c>
+      <c r="Z51">
+        <v>0</v>
+      </c>
+      <c r="AA51">
+        <v>-0</v>
+      </c>
+      <c r="AB51">
         <v>1</v>
       </c>
-      <c r="J51" t="s">
-        <v>43</v>
-      </c>
-      <c r="K51">
-        <v>21</v>
-      </c>
-      <c r="L51">
-        <v>8.5</v>
-      </c>
-      <c r="M51">
-        <v>1.1</v>
-      </c>
-      <c r="N51">
-        <v>12</v>
-      </c>
-      <c r="O51">
-        <v>7</v>
-      </c>
-      <c r="P51">
-        <v>1.2</v>
-      </c>
-      <c r="Q51">
-        <v>2</v>
-      </c>
-      <c r="R51">
-        <v>1.875</v>
-      </c>
-      <c r="S51">
-        <v>1.975</v>
-      </c>
-      <c r="T51">
-        <v>3.25</v>
-      </c>
-      <c r="U51">
-        <v>1.875</v>
-      </c>
-      <c r="V51">
-        <v>1.975</v>
-      </c>
-      <c r="W51">
-        <v>-1</v>
-      </c>
-      <c r="X51">
-        <v>-1</v>
-      </c>
-      <c r="Y51">
-        <v>0.2</v>
-      </c>
-      <c r="Z51">
-        <v>0.875</v>
-      </c>
-      <c r="AA51">
-        <v>-1</v>
-      </c>
-      <c r="AB51">
-        <v>-1</v>
-      </c>
       <c r="AC51">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6043244</v>
+        <v>6053283</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
         <v>1</v>
       </c>
-      <c r="I52">
-        <v>0</v>
-      </c>
       <c r="J52" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K52">
-        <v>1.7</v>
+        <v>21</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>8.5</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>1.1</v>
       </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P52">
-        <v>5.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,10 +5244,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G54" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5259,43 +5259,43 @@
         <v>41</v>
       </c>
       <c r="K54">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,13 +5304,13 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>41</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6043245</v>
+        <v>6053285</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,10 +5422,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="G56" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5437,43 +5437,43 @@
         <v>41</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5511,7 +5511,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G57" t="s">
         <v>31</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053288</v>
+        <v>6053286</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
         <v>41</v>
       </c>
       <c r="K58">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L58">
+        <v>5.5</v>
+      </c>
+      <c r="M58">
+        <v>11</v>
+      </c>
+      <c r="N58">
+        <v>1.3</v>
+      </c>
+      <c r="O58">
+        <v>5.25</v>
+      </c>
+      <c r="P58">
+        <v>9</v>
+      </c>
+      <c r="Q58">
+        <v>-1.5</v>
+      </c>
+      <c r="R58">
+        <v>1.925</v>
+      </c>
+      <c r="S58">
+        <v>1.925</v>
+      </c>
+      <c r="T58">
         <v>3</v>
       </c>
-      <c r="M58">
-        <v>2.5</v>
-      </c>
-      <c r="N58">
-        <v>2.375</v>
-      </c>
-      <c r="O58">
-        <v>3</v>
-      </c>
-      <c r="P58">
-        <v>3</v>
-      </c>
-      <c r="Q58">
-        <v>-0.25</v>
-      </c>
-      <c r="R58">
-        <v>2.1</v>
-      </c>
-      <c r="S58">
-        <v>1.775</v>
-      </c>
-      <c r="T58">
-        <v>2.25</v>
-      </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC58">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,58 +5956,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H62">
+        <v>2</v>
+      </c>
+      <c r="I62">
         <v>1</v>
-      </c>
-      <c r="I62">
-        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
       </c>
       <c r="K62">
+        <v>1.615</v>
+      </c>
+      <c r="L62">
         <v>3.6</v>
       </c>
-      <c r="L62">
-        <v>3.25</v>
-      </c>
       <c r="M62">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
         <v>2.25</v>
       </c>
       <c r="U62">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X62">
         <v>-1</v>
@@ -6016,16 +6016,16 @@
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288773</v>
+        <v>6288260</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G63" t="s">
+        <v>29</v>
+      </c>
+      <c r="H63">
+        <v>0</v>
+      </c>
+      <c r="I63">
+        <v>0</v>
+      </c>
+      <c r="J63" t="s">
+        <v>42</v>
+      </c>
+      <c r="K63">
+        <v>12</v>
+      </c>
+      <c r="L63">
+        <v>7.5</v>
+      </c>
+      <c r="M63">
+        <v>1.181</v>
+      </c>
+      <c r="N63">
         <v>34</v>
       </c>
-      <c r="H63">
+      <c r="O63">
+        <v>11</v>
+      </c>
+      <c r="P63">
+        <v>1.055</v>
+      </c>
+      <c r="Q63">
+        <v>2.75</v>
+      </c>
+      <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>3.5</v>
+      </c>
+      <c r="U63">
         <v>2</v>
       </c>
-      <c r="I63">
-        <v>1</v>
-      </c>
-      <c r="J63" t="s">
-        <v>41</v>
-      </c>
-      <c r="K63">
-        <v>1.615</v>
-      </c>
-      <c r="L63">
-        <v>3.6</v>
-      </c>
-      <c r="M63">
-        <v>6</v>
-      </c>
-      <c r="N63">
-        <v>1.666</v>
-      </c>
-      <c r="O63">
-        <v>3.5</v>
-      </c>
-      <c r="P63">
-        <v>5.75</v>
-      </c>
-      <c r="Q63">
-        <v>-0.75</v>
-      </c>
-      <c r="R63">
-        <v>1.875</v>
-      </c>
-      <c r="S63">
-        <v>1.975</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.9</v>
-      </c>
       <c r="V63">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W63">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA63">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288259</v>
+        <v>6288772</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,49 +6134,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M64">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N64">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="O64">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U64">
         <v>1.85</v>
@@ -6185,25 +6185,25 @@
         <v>2</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X64">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288772</v>
+        <v>7197534</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,67 +6223,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
         <v>2.1</v>
       </c>
       <c r="N65">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="Q65">
         <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X65">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288260</v>
+        <v>6288259</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G66" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K66">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="L66">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M66">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="N66">
-        <v>34</v>
+        <v>1.95</v>
       </c>
       <c r="O66">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P66">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="Q66">
-        <v>2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R66">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S66">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T66">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
+        <v>1.85</v>
+      </c>
+      <c r="V66">
         <v>2</v>
       </c>
-      <c r="V66">
-        <v>1.85</v>
-      </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X66">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6053291</v>
+        <v>6053289</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G67" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H67">
         <v>1</v>
       </c>
       <c r="I67">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S67">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T67">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
+        <v>1.825</v>
+      </c>
+      <c r="V67">
         <v>2.025</v>
       </c>
-      <c r="V67">
-        <v>1.825</v>
-      </c>
       <c r="W67">
         <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>0.9750000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6490,10 +6490,10 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
+        <v>34</v>
+      </c>
+      <c r="G68" t="s">
         <v>35</v>
-      </c>
-      <c r="G68" t="s">
-        <v>34</v>
       </c>
       <c r="H68">
         <v>5</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053289</v>
+        <v>6053291</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K69">
-        <v>1.8</v>
+        <v>1.615</v>
       </c>
       <c r="L69">
-        <v>3.3</v>
+        <v>3.75</v>
       </c>
       <c r="M69">
+        <v>4.75</v>
+      </c>
+      <c r="N69">
+        <v>1.5</v>
+      </c>
+      <c r="O69">
         <v>4.2</v>
       </c>
-      <c r="N69">
-        <v>2.1</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
       <c r="P69">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="Q69">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R69">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="S69">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U69">
+        <v>2.025</v>
+      </c>
+      <c r="V69">
         <v>1.825</v>
       </c>
-      <c r="V69">
-        <v>2.025</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA69">
-        <v>0.5249999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323100</v>
+        <v>6323099</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>41</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="L70">
+        <v>9.5</v>
+      </c>
+      <c r="M70">
+        <v>34</v>
+      </c>
+      <c r="N70">
+        <v>1.05</v>
+      </c>
+      <c r="O70">
+        <v>15</v>
+      </c>
+      <c r="P70">
+        <v>29</v>
+      </c>
+      <c r="Q70">
+        <v>-3</v>
+      </c>
+      <c r="R70">
+        <v>1.825</v>
+      </c>
+      <c r="S70">
+        <v>2.025</v>
+      </c>
+      <c r="T70">
         <v>3.75</v>
       </c>
-      <c r="M70">
-        <v>4</v>
-      </c>
-      <c r="N70">
-        <v>1.6</v>
-      </c>
-      <c r="O70">
-        <v>4</v>
-      </c>
-      <c r="P70">
-        <v>5</v>
-      </c>
-      <c r="Q70">
-        <v>-1</v>
-      </c>
-      <c r="R70">
-        <v>2.05</v>
-      </c>
-      <c r="S70">
-        <v>1.8</v>
-      </c>
-      <c r="T70">
-        <v>2.75</v>
-      </c>
       <c r="U70">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V70">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W70">
-        <v>0.6000000000000001</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,13 +6728,13 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>1.05</v>
+        <v>0.825</v>
       </c>
       <c r="AA70">
         <v>-1</v>
       </c>
       <c r="AB70">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC70">
         <v>-1</v>
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323101</v>
+        <v>6323100</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,16 +6757,16 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>41</v>
@@ -6775,40 +6775,40 @@
         <v>1.833</v>
       </c>
       <c r="L71">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M71">
-        <v>4.25</v>
+        <v>4</v>
       </c>
       <c r="N71">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P71">
         <v>5</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R71">
+        <v>2.05</v>
+      </c>
+      <c r="S71">
+        <v>1.8</v>
+      </c>
+      <c r="T71">
+        <v>2.75</v>
+      </c>
+      <c r="U71">
         <v>1.9</v>
       </c>
-      <c r="S71">
+      <c r="V71">
         <v>1.95</v>
       </c>
-      <c r="T71">
-        <v>2.25</v>
-      </c>
-      <c r="U71">
-        <v>1.875</v>
-      </c>
-      <c r="V71">
-        <v>1.975</v>
-      </c>
       <c r="W71">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>1.05</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323098</v>
+        <v>6323101</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.05</v>
+        <v>4.25</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6323097</v>
+        <v>6323098</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,46 +6935,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H73">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K73">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L73">
         <v>3.5</v>
       </c>
       <c r="M73">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N73">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O73">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P73">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q73">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R73">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T73">
         <v>2.5</v>
@@ -6986,25 +6986,25 @@
         <v>2.025</v>
       </c>
       <c r="W73">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z73">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA73">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB73">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC73">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323099</v>
+        <v>6323097</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,58 +7024,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H74">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74" t="s">
         <v>41</v>
       </c>
       <c r="K74">
-        <v>1.071</v>
+        <v>2.1</v>
       </c>
       <c r="L74">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M74">
-        <v>34</v>
+        <v>3.25</v>
       </c>
       <c r="N74">
-        <v>1.05</v>
+        <v>1.6</v>
       </c>
       <c r="O74">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="P74">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q74">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R74">
+        <v>1.775</v>
+      </c>
+      <c r="S74">
+        <v>2.1</v>
+      </c>
+      <c r="T74">
+        <v>2.5</v>
+      </c>
+      <c r="U74">
         <v>1.825</v>
       </c>
-      <c r="S74">
+      <c r="V74">
         <v>2.025</v>
       </c>
-      <c r="T74">
-        <v>3.75</v>
-      </c>
-      <c r="U74">
-        <v>1.925</v>
-      </c>
-      <c r="V74">
-        <v>1.925</v>
-      </c>
       <c r="W74">
-        <v>0.05000000000000004</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X74">
         <v>-1</v>
@@ -7084,13 +7084,13 @@
         <v>-1</v>
       </c>
       <c r="Z74">
+        <v>0.7749999999999999</v>
+      </c>
+      <c r="AA74">
+        <v>-1</v>
+      </c>
+      <c r="AB74">
         <v>0.825</v>
-      </c>
-      <c r="AA74">
-        <v>-1</v>
-      </c>
-      <c r="AB74">
-        <v>0.925</v>
       </c>
       <c r="AC74">
         <v>-1</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G75" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K76">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6364849</v>
+        <v>6364850</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J78" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K78">
-        <v>1.85</v>
+        <v>1.571</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="N78">
-        <v>1.8</v>
+        <v>1.65</v>
       </c>
       <c r="O78">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="P78">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q78">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R78">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="S78">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="T78">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U78">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V78">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y78">
-        <v>3.2</v>
+        <v>-1</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364850</v>
+        <v>6364849</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,76 +7469,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L79">
         <v>3.6</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V79">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W79">
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7561,7 +7561,7 @@
         <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
@@ -7650,7 +7650,7 @@
         <v>33</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7914,7 +7914,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G84" t="s">
         <v>31</v>
@@ -8003,7 +8003,7 @@
         <v>45226.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
@@ -8359,7 +8359,7 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
         <v>29</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412856</v>
+        <v>6412498</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,49 +8448,49 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I90">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="s">
         <v>41</v>
       </c>
       <c r="K90">
-        <v>1.25</v>
+        <v>1.7</v>
       </c>
       <c r="L90">
-        <v>5.25</v>
+        <v>3.75</v>
       </c>
       <c r="M90">
-        <v>9.5</v>
+        <v>4.2</v>
       </c>
       <c r="N90">
-        <v>1.222</v>
+        <v>1.45</v>
       </c>
       <c r="O90">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="P90">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.5</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412498</v>
+        <v>6412497</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,13 +8537,13 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H91">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -8552,43 +8552,43 @@
         <v>41</v>
       </c>
       <c r="K91">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L91">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N91">
-        <v>1.45</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q91">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R91">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S91">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T91">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U91">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.45</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8629,7 +8629,7 @@
         <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6412497</v>
+        <v>6407558</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,73 +8715,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H93">
+        <v>2</v>
+      </c>
+      <c r="I93">
         <v>4</v>
       </c>
-      <c r="I93">
-        <v>0</v>
-      </c>
       <c r="J93" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M93">
-        <v>6.5</v>
+        <v>2</v>
       </c>
       <c r="N93">
-        <v>1.166</v>
+        <v>5</v>
       </c>
       <c r="O93">
-        <v>6.5</v>
+        <v>3.75</v>
       </c>
       <c r="P93">
-        <v>15</v>
+        <v>1.6</v>
       </c>
       <c r="Q93">
-        <v>-2</v>
+        <v>0.75</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W93">
-        <v>0.1659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA93">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6407558</v>
+        <v>6412856</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H94">
+        <v>4</v>
+      </c>
+      <c r="I94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>4</v>
-      </c>
       <c r="J94" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K94">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L94">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M94">
+        <v>9.5</v>
+      </c>
+      <c r="N94">
+        <v>1.222</v>
+      </c>
+      <c r="O94">
+        <v>5.5</v>
+      </c>
+      <c r="P94">
+        <v>9</v>
+      </c>
+      <c r="Q94">
+        <v>-1.75</v>
+      </c>
+      <c r="R94">
+        <v>1.95</v>
+      </c>
+      <c r="S94">
+        <v>1.9</v>
+      </c>
+      <c r="T94">
+        <v>3</v>
+      </c>
+      <c r="U94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94">
-        <v>3.75</v>
-      </c>
-      <c r="P94">
-        <v>1.6</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
-      <c r="T94">
-        <v>2.5</v>
-      </c>
-      <c r="U94">
-        <v>1.925</v>
-      </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W94">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z94">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630128</v>
+        <v>7630127</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8908,61 +8908,61 @@
         <v>42</v>
       </c>
       <c r="K95">
-        <v>1.363</v>
+        <v>3</v>
       </c>
       <c r="L95">
-        <v>4.75</v>
+        <v>3.25</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>3.5</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="P95">
-        <v>5.75</v>
+        <v>2.1</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>0.25</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>4.25</v>
+        <v>2.4</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,10 +8982,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H96">
         <v>1</v>
@@ -8997,61 +8997,61 @@
         <v>42</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R96">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S96">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630126</v>
+        <v>7630125</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,61 +9160,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G98" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H98">
         <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K98">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>4.5</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>1.333</v>
+        <v>1.95</v>
       </c>
       <c r="O98">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>8</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V98">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
         <v>-1</v>
@@ -9223,13 +9223,13 @@
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>0.4375</v>
+        <v>1.05</v>
       </c>
       <c r="AC98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G99" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H99">
         <v>2</v>
       </c>
       <c r="I99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K99">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P99">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q99">
+        <v>-1.5</v>
+      </c>
+      <c r="R99">
+        <v>1.975</v>
+      </c>
+      <c r="S99">
+        <v>1.875</v>
+      </c>
+      <c r="T99">
+        <v>2.75</v>
+      </c>
+      <c r="U99">
+        <v>1.875</v>
+      </c>
+      <c r="V99">
+        <v>1.975</v>
+      </c>
+      <c r="W99">
+        <v>0.333</v>
+      </c>
+      <c r="X99">
+        <v>-1</v>
+      </c>
+      <c r="Y99">
+        <v>-1</v>
+      </c>
+      <c r="Z99">
+        <v>-1</v>
+      </c>
+      <c r="AA99">
+        <v>0.875</v>
+      </c>
+      <c r="AB99">
+        <v>0.4375</v>
+      </c>
+      <c r="AC99">
         <v>-0.5</v>
-      </c>
-      <c r="R99">
-        <v>2.025</v>
-      </c>
-      <c r="S99">
-        <v>1.825</v>
-      </c>
-      <c r="T99">
-        <v>2.5</v>
-      </c>
-      <c r="U99">
-        <v>2.05</v>
-      </c>
-      <c r="V99">
-        <v>1.8</v>
-      </c>
-      <c r="W99">
-        <v>-1</v>
-      </c>
-      <c r="X99">
-        <v>2.6</v>
-      </c>
-      <c r="Y99">
-        <v>-1</v>
-      </c>
-      <c r="Z99">
-        <v>-1</v>
-      </c>
-      <c r="AA99">
-        <v>0.825</v>
-      </c>
-      <c r="AB99">
-        <v>1.05</v>
-      </c>
-      <c r="AC99">
-        <v>-1</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630129</v>
+        <v>7630130</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,73 +9338,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K100">
+        <v>4.333</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>1.85</v>
+      </c>
+      <c r="N100">
+        <v>3.75</v>
+      </c>
+      <c r="O100">
+        <v>2.9</v>
+      </c>
+      <c r="P100">
+        <v>2.1</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="L100">
-        <v>3.25</v>
-      </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.1</v>
+      </c>
+      <c r="W100">
         <v>2.75</v>
       </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9427,7 +9427,7 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G101" t="s">
         <v>40</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630130</v>
+        <v>7630129</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,73 +9516,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G102" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>43</v>
+      </c>
+      <c r="K102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>41</v>
-      </c>
-      <c r="K102">
-        <v>4.333</v>
-      </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.975</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>1.75</v>
       </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.1</v>
-      </c>
-      <c r="W102">
-        <v>2.75</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630463</v>
+        <v>7630134</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G106" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L106">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M106">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N106">
+        <v>3.2</v>
+      </c>
+      <c r="O106">
+        <v>2.875</v>
+      </c>
+      <c r="P106">
+        <v>2.375</v>
+      </c>
+      <c r="Q106">
+        <v>0.25</v>
+      </c>
+      <c r="R106">
+        <v>1.775</v>
+      </c>
+      <c r="S106">
+        <v>2.1</v>
+      </c>
+      <c r="T106">
+        <v>2</v>
+      </c>
+      <c r="U106">
+        <v>2.05</v>
+      </c>
+      <c r="V106">
         <v>1.75</v>
       </c>
-      <c r="O106">
-        <v>3.3</v>
-      </c>
-      <c r="P106">
-        <v>4.75</v>
-      </c>
-      <c r="Q106">
-        <v>-0.5</v>
-      </c>
-      <c r="R106">
-        <v>1.8</v>
-      </c>
-      <c r="S106">
-        <v>2.05</v>
-      </c>
-      <c r="T106">
-        <v>2.25</v>
-      </c>
-      <c r="U106">
-        <v>2</v>
-      </c>
-      <c r="V106">
-        <v>1.85</v>
-      </c>
       <c r="W106">
+        <v>-1</v>
+      </c>
+      <c r="X106">
+        <v>-1</v>
+      </c>
+      <c r="Y106">
+        <v>1.375</v>
+      </c>
+      <c r="Z106">
+        <v>-1</v>
+      </c>
+      <c r="AA106">
+        <v>1.1</v>
+      </c>
+      <c r="AB106">
+        <v>-1</v>
+      </c>
+      <c r="AC106">
         <v>0.75</v>
-      </c>
-      <c r="X106">
-        <v>-1</v>
-      </c>
-      <c r="Y106">
-        <v>-1</v>
-      </c>
-      <c r="Z106">
-        <v>0.8</v>
-      </c>
-      <c r="AA106">
-        <v>-1</v>
-      </c>
-      <c r="AB106">
-        <v>1</v>
-      </c>
-      <c r="AC106">
-        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K107">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N107">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O107">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
         <v>2</v>
       </c>
-      <c r="U107">
-        <v>2.05</v>
-      </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630136</v>
+        <v>7630138</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,13 +10050,13 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -10065,43 +10065,43 @@
         <v>41</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>2.75</v>
       </c>
       <c r="L108">
+        <v>3.1</v>
+      </c>
+      <c r="M108">
+        <v>2.6</v>
+      </c>
+      <c r="N108">
         <v>3.6</v>
       </c>
-      <c r="M108">
-        <v>1.909</v>
-      </c>
-      <c r="N108">
-        <v>3.1</v>
-      </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q108">
         <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,13 +10110,13 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>1.025</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630138</v>
+        <v>7630139</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,73 +10228,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G110" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H110">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.75</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
         <v>3.1</v>
       </c>
       <c r="M110">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="N110">
-        <v>3.6</v>
+        <v>2.15</v>
       </c>
       <c r="O110">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="P110">
-        <v>2.1</v>
+        <v>3.3</v>
       </c>
       <c r="Q110">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R110">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="S110">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="T110">
         <v>2.25</v>
       </c>
       <c r="U110">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V110">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W110">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X110">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB110">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630139</v>
+        <v>7630136</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,73 +10317,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
+        <v>3.75</v>
+      </c>
+      <c r="L111">
+        <v>3.6</v>
+      </c>
+      <c r="M111">
+        <v>1.909</v>
+      </c>
+      <c r="N111">
+        <v>3.1</v>
+      </c>
+      <c r="O111">
+        <v>3.4</v>
+      </c>
+      <c r="P111">
         <v>2.2</v>
       </c>
-      <c r="L111">
-        <v>3.1</v>
-      </c>
-      <c r="M111">
-        <v>3.4</v>
-      </c>
-      <c r="N111">
-        <v>2.15</v>
-      </c>
-      <c r="O111">
-        <v>3.25</v>
-      </c>
-      <c r="P111">
-        <v>3.3</v>
-      </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA111">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10406,7 +10406,7 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G112" t="s">
         <v>36</v>
@@ -10478,12 +10478,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="113" spans="1:27">
+    <row r="113" spans="1:29">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7644569</v>
+        <v>7644566</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,69 +10495,84 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G113" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>2</v>
+      </c>
+      <c r="J113" t="s">
+        <v>43</v>
       </c>
       <c r="K113">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L113">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M113">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N113">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="O113">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P113">
-        <v>4</v>
+        <v>2.75</v>
       </c>
       <c r="Q113">
+        <v>0.25</v>
+      </c>
+      <c r="R113">
+        <v>1.8</v>
+      </c>
+      <c r="S113">
+        <v>2.05</v>
+      </c>
+      <c r="T113">
+        <v>2.25</v>
+      </c>
+      <c r="U113">
+        <v>2.05</v>
+      </c>
+      <c r="V113">
+        <v>1.8</v>
+      </c>
+      <c r="W113">
+        <v>-1</v>
+      </c>
+      <c r="X113">
+        <v>-1</v>
+      </c>
+      <c r="Y113">
+        <v>1.75</v>
+      </c>
+      <c r="Z113">
+        <v>-1</v>
+      </c>
+      <c r="AA113">
+        <v>1.05</v>
+      </c>
+      <c r="AB113">
         <v>-0.5</v>
       </c>
-      <c r="R113">
-        <v>1.875</v>
-      </c>
-      <c r="S113">
-        <v>1.975</v>
-      </c>
-      <c r="T113">
-        <v>2.5</v>
-      </c>
-      <c r="U113">
-        <v>2</v>
-      </c>
-      <c r="V113">
-        <v>1.85</v>
-      </c>
-      <c r="W113">
-        <v>0</v>
-      </c>
-      <c r="X113">
-        <v>0</v>
-      </c>
-      <c r="Y113">
-        <v>0</v>
-      </c>
-      <c r="Z113">
-        <v>0</v>
-      </c>
-      <c r="AA113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:27">
+      <c r="AC113">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:29">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7644566</v>
+        <v>7644567</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10569,40 +10584,49 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="H114">
+        <v>3</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114" t="s">
+        <v>41</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N114">
-        <v>2.75</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>2.9</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>2.875</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
         <v>2.025</v>
@@ -10611,27 +10635,33 @@
         <v>1.825</v>
       </c>
       <c r="W114">
-        <v>0</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y114">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB114">
+        <v>1.025</v>
+      </c>
+      <c r="AC114">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:29">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7644567</v>
+        <v>7644568</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10643,69 +10673,84 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115" t="s">
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L115">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M115">
         <v>5.25</v>
       </c>
       <c r="N115">
-        <v>1.5</v>
+        <v>1.571</v>
       </c>
       <c r="O115">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P115">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q115">
         <v>-1</v>
       </c>
       <c r="R115">
+        <v>2.05</v>
+      </c>
+      <c r="S115">
         <v>1.8</v>
-      </c>
-      <c r="S115">
-        <v>2.05</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V115">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X115">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="Y115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:27">
+        <v>0.8</v>
+      </c>
+      <c r="AB115">
+        <v>-1</v>
+      </c>
+      <c r="AC115">
+        <v>0.875</v>
+      </c>
+    </row>
+    <row r="116" spans="1:29">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7644568</v>
+        <v>7644569</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10717,64 +10762,79 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="H116">
+        <v>1</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116" t="s">
+        <v>41</v>
       </c>
       <c r="K116">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N116">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S116">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z116">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:27">
+        <v>-1</v>
+      </c>
+      <c r="AB116">
+        <v>-1</v>
+      </c>
+      <c r="AC116">
+        <v>0.825</v>
+      </c>
+    </row>
+    <row r="117" spans="1:29">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -10806,10 +10866,10 @@
         <v>1.8</v>
       </c>
       <c r="N117">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="O117">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="P117">
         <v>1.909</v>
@@ -10818,19 +10878,19 @@
         <v>0.5</v>
       </c>
       <c r="R117">
+        <v>1.9</v>
+      </c>
+      <c r="S117">
+        <v>1.95</v>
+      </c>
+      <c r="T117">
+        <v>2.25</v>
+      </c>
+      <c r="U117">
         <v>1.925</v>
       </c>
-      <c r="S117">
+      <c r="V117">
         <v>1.925</v>
-      </c>
-      <c r="T117">
-        <v>2.5</v>
-      </c>
-      <c r="U117">
-        <v>2.05</v>
-      </c>
-      <c r="V117">
-        <v>1.8</v>
       </c>
       <c r="W117">
         <v>0</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,19 +103,19 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
+    <t>Derry City</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
-  </si>
-  <si>
-    <t>Derry City</t>
+    <t>UCD</t>
   </si>
   <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Bohemians Dublin</t>
   </si>
   <si>
     <t>Dundalk</t>
@@ -133,19 +133,19 @@
     <t>Shelbourne</t>
   </si>
   <si>
-    <t>Waterford FC</t>
-  </si>
-  <si>
     <t>Galway United</t>
   </si>
   <si>
-    <t>H</t>
+    <t>Waterford FC</t>
   </si>
   <si>
     <t>D</t>
   </si>
   <si>
     <t>A</t>
+  </si>
+  <si>
+    <t>H</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC117"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6043235</v>
+        <v>6053243</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,10 +619,10 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -631,61 +631,61 @@
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L2">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N2">
         <v>1.5</v>
       </c>
       <c r="O2">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P2">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>-1</v>
       </c>
       <c r="R2">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S2">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U2">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
         <v>-1</v>
       </c>
       <c r="Z2">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
         <v>-1</v>
       </c>
       <c r="AC2">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053242</v>
+        <v>6053245</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,73 +708,73 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L3">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O3">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P3">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R3">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S3">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U3">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V3">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z3">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA3">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB3">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC3">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053243</v>
+        <v>6053244</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,46 +797,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>1.95</v>
       </c>
       <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
         <v>3.6</v>
       </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
       <c r="N4">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O4">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -848,16 +848,16 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6053244</v>
+        <v>6043235</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,37 +886,37 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J5" t="s">
         <v>43</v>
       </c>
       <c r="K5">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L5">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M5">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N5">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O5">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R5">
         <v>1.925</v>
@@ -925,34 +925,34 @@
         <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U5">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V5">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z5">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA5">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB5">
         <v>-1</v>
       </c>
       <c r="AC5">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6053245</v>
+        <v>6053242</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J6" t="s">
         <v>43</v>
       </c>
       <c r="K6">
-        <v>7.5</v>
+        <v>2.1</v>
       </c>
       <c r="L6">
-        <v>5</v>
+        <v>3.2</v>
       </c>
       <c r="M6">
-        <v>1.333</v>
+        <v>3.3</v>
       </c>
       <c r="N6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>5.25</v>
+        <v>3.1</v>
       </c>
       <c r="P6">
-        <v>1.222</v>
+        <v>3.6</v>
       </c>
       <c r="Q6">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U6">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V6">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X6">
         <v>-1</v>
       </c>
       <c r="Y6">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="Z6">
+        <v>0.8</v>
+      </c>
+      <c r="AA6">
+        <v>-1</v>
+      </c>
+      <c r="AB6">
         <v>-0.5</v>
       </c>
-      <c r="AA6">
-        <v>0.4625</v>
-      </c>
-      <c r="AB6">
-        <v>1.025</v>
-      </c>
       <c r="AC6">
-        <v>-1</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1064,7 +1064,7 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7">
         <v>4</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K7">
         <v>1.3</v>
@@ -1153,7 +1153,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K8">
         <v>3.75</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053251</v>
+        <v>6053253</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12">
-        <v>1.666</v>
+        <v>2.05</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="N12">
+        <v>2.3</v>
+      </c>
+      <c r="O12">
+        <v>3.1</v>
+      </c>
+      <c r="P12">
+        <v>3.1</v>
+      </c>
+      <c r="Q12">
+        <v>-0.25</v>
+      </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
+      <c r="S12">
         <v>1.85</v>
-      </c>
-      <c r="O12">
-        <v>3</v>
-      </c>
-      <c r="P12">
-        <v>4.5</v>
-      </c>
-      <c r="Q12">
-        <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V12">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA12">
-        <v>0.8999999999999999</v>
+        <v>0.425</v>
       </c>
       <c r="AB12">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>0.9750000000000001</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053253</v>
+        <v>6053251</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L13">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
         <v>2</v>
       </c>
       <c r="U13">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V13">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>2</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K14">
         <v>2.7</v>
@@ -1773,7 +1773,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053257</v>
+        <v>6053255</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
         <v>2</v>
       </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
       <c r="J17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L17">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M17">
+        <v>2.625</v>
+      </c>
+      <c r="N17">
+        <v>2.5</v>
+      </c>
+      <c r="O17">
+        <v>3.4</v>
+      </c>
+      <c r="P17">
+        <v>2.5</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1.925</v>
+      </c>
+      <c r="S17">
+        <v>1.925</v>
+      </c>
+      <c r="T17">
+        <v>2.75</v>
+      </c>
+      <c r="U17">
+        <v>1.975</v>
+      </c>
+      <c r="V17">
+        <v>1.875</v>
+      </c>
+      <c r="W17">
+        <v>-1</v>
+      </c>
+      <c r="X17">
+        <v>-1</v>
+      </c>
+      <c r="Y17">
         <v>1.5</v>
       </c>
-      <c r="N17">
-        <v>6.5</v>
-      </c>
-      <c r="O17">
-        <v>4</v>
-      </c>
-      <c r="P17">
-        <v>1.444</v>
-      </c>
-      <c r="Q17">
-        <v>1</v>
-      </c>
-      <c r="R17">
-        <v>2.1</v>
-      </c>
-      <c r="S17">
-        <v>1.775</v>
-      </c>
-      <c r="T17">
-        <v>2.5</v>
-      </c>
-      <c r="U17">
-        <v>1.95</v>
-      </c>
-      <c r="V17">
-        <v>1.9</v>
-      </c>
-      <c r="W17">
-        <v>5.5</v>
-      </c>
-      <c r="X17">
-        <v>-1</v>
-      </c>
-      <c r="Y17">
-        <v>-1</v>
-      </c>
       <c r="Z17">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA17">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB17">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,10 +2040,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
         <v>3.25</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053254</v>
+        <v>6053257</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,59 +2129,59 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
         <v>2</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19">
-        <v>1.333</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
-        <v>1.45</v>
+        <v>6.5</v>
       </c>
       <c r="O19">
         <v>4</v>
       </c>
       <c r="P19">
+        <v>1.444</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
+        <v>2.5</v>
+      </c>
+      <c r="U19">
+        <v>1.95</v>
+      </c>
+      <c r="V19">
+        <v>1.9</v>
+      </c>
+      <c r="W19">
         <v>5.5</v>
       </c>
-      <c r="Q19">
-        <v>-1</v>
-      </c>
-      <c r="R19">
-        <v>1.875</v>
-      </c>
-      <c r="S19">
-        <v>1.975</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
-        <v>1.825</v>
-      </c>
-      <c r="V19">
-        <v>2.025</v>
-      </c>
-      <c r="W19">
-        <v>0.45</v>
-      </c>
       <c r="X19">
         <v>-1</v>
       </c>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>0.875</v>
+        <v>1.1</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053255</v>
+        <v>6053254</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
         <v>43</v>
       </c>
       <c r="K20">
-        <v>2.45</v>
+        <v>1.333</v>
       </c>
       <c r="L20">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M20">
-        <v>2.625</v>
+        <v>8</v>
       </c>
       <c r="N20">
-        <v>2.5</v>
+        <v>1.45</v>
       </c>
       <c r="O20">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P20">
-        <v>2.5</v>
+        <v>5.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.4875</v>
+        <v>-0.5</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K21">
         <v>1.75</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
         <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053262</v>
+        <v>6043240</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K24">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.825</v>
+      </c>
+      <c r="S24">
+        <v>2.025</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-      <c r="P24">
-        <v>2.7</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>2.05</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.825</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>1.05</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053259</v>
+        <v>6053262</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,76 +2663,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25">
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K25">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="L25">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M25">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="N25">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="O25">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P25">
-        <v>2.875</v>
+        <v>2.7</v>
       </c>
       <c r="Q25">
         <v>0</v>
       </c>
       <c r="R25">
+        <v>1.925</v>
+      </c>
+      <c r="S25">
+        <v>1.925</v>
+      </c>
+      <c r="T25">
+        <v>2.25</v>
+      </c>
+      <c r="U25">
+        <v>2.05</v>
+      </c>
+      <c r="V25">
         <v>1.8</v>
       </c>
-      <c r="S25">
-        <v>2.05</v>
-      </c>
-      <c r="T25">
-        <v>2.5</v>
-      </c>
-      <c r="U25">
-        <v>1.975</v>
-      </c>
-      <c r="V25">
-        <v>1.875</v>
-      </c>
       <c r="W25">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X25">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA25">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB25">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC25">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6043240</v>
+        <v>6053259</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>41</v>
       </c>
       <c r="K26">
-        <v>4</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>1.833</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>3.6</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>2</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="S26">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T26">
         <v>2.5</v>
       </c>
       <c r="U26">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="V26">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="W26">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.825</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB26">
         <v>-1</v>
       </c>
       <c r="AC26">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053260</v>
+        <v>6053261</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>43</v>
+      </c>
+      <c r="K27">
+        <v>1.166</v>
+      </c>
+      <c r="L27">
+        <v>7</v>
+      </c>
+      <c r="M27">
+        <v>15</v>
+      </c>
+      <c r="N27">
+        <v>1.111</v>
+      </c>
+      <c r="O27">
+        <v>7.5</v>
+      </c>
+      <c r="P27">
+        <v>17</v>
+      </c>
+      <c r="Q27">
+        <v>-2.25</v>
+      </c>
+      <c r="R27">
+        <v>1.875</v>
+      </c>
+      <c r="S27">
+        <v>1.975</v>
+      </c>
+      <c r="T27">
+        <v>3.5</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>1.85</v>
+      </c>
+      <c r="W27">
+        <v>0.111</v>
+      </c>
+      <c r="X27">
+        <v>-1</v>
+      </c>
+      <c r="Y27">
+        <v>-1</v>
+      </c>
+      <c r="Z27">
+        <v>0.875</v>
+      </c>
+      <c r="AA27">
+        <v>-1</v>
+      </c>
+      <c r="AB27">
         <v>1</v>
       </c>
-      <c r="I27">
-        <v>1</v>
-      </c>
-      <c r="J27" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27">
-        <v>3.6</v>
-      </c>
-      <c r="L27">
-        <v>3.2</v>
-      </c>
-      <c r="M27">
-        <v>2.1</v>
-      </c>
-      <c r="N27">
-        <v>3.5</v>
-      </c>
-      <c r="O27">
-        <v>3</v>
-      </c>
-      <c r="P27">
-        <v>2.25</v>
-      </c>
-      <c r="Q27">
-        <v>0.25</v>
-      </c>
-      <c r="R27">
-        <v>1.85</v>
-      </c>
-      <c r="S27">
-        <v>2</v>
-      </c>
-      <c r="T27">
-        <v>2</v>
-      </c>
-      <c r="U27">
-        <v>2.1</v>
-      </c>
-      <c r="V27">
-        <v>1.775</v>
-      </c>
-      <c r="W27">
-        <v>-1</v>
-      </c>
-      <c r="X27">
-        <v>2</v>
-      </c>
-      <c r="Y27">
-        <v>-1</v>
-      </c>
-      <c r="Z27">
-        <v>0.425</v>
-      </c>
-      <c r="AA27">
-        <v>-0.5</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
       <c r="AC27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053261</v>
+        <v>6053260</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
         <v>41</v>
       </c>
       <c r="K28">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
+        <v>2.1</v>
+      </c>
+      <c r="V28">
+        <v>1.775</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2</v>
       </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
-      <c r="W28">
-        <v>0.111</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,37 +3022,37 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H29">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K29">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L29">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M29">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N29">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O29">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P29">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q29">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R29">
         <v>1.9</v>
@@ -3064,28 +3064,28 @@
         <v>2.5</v>
       </c>
       <c r="U29">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V29">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W29">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X29">
         <v>-1</v>
       </c>
       <c r="Y29">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z29">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB29">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC29">
         <v>-1</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6043241</v>
+        <v>6053264</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,40 +3108,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R30">
         <v>1.925</v>
@@ -3150,34 +3150,34 @@
         <v>1.925</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W30">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053266</v>
+        <v>6053265</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N31">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="O31">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P31">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053264</v>
+        <v>6043241</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,37 +3289,37 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="s">
         <v>41</v>
       </c>
       <c r="K32">
+        <v>5.25</v>
+      </c>
+      <c r="L32">
+        <v>3.75</v>
+      </c>
+      <c r="M32">
         <v>1.571</v>
       </c>
-      <c r="L32">
+      <c r="N32">
         <v>3.8</v>
       </c>
-      <c r="M32">
-        <v>5</v>
-      </c>
-      <c r="N32">
-        <v>1.666</v>
-      </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>1.909</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>0.5</v>
       </c>
       <c r="R32">
         <v>1.925</v>
@@ -3328,34 +3328,34 @@
         <v>1.925</v>
       </c>
       <c r="T32">
+        <v>2.5</v>
+      </c>
+      <c r="U32">
+        <v>1.875</v>
+      </c>
+      <c r="V32">
+        <v>1.975</v>
+      </c>
+      <c r="W32">
+        <v>-1</v>
+      </c>
+      <c r="X32">
         <v>2.25</v>
       </c>
-      <c r="U32">
-        <v>2.05</v>
-      </c>
-      <c r="V32">
-        <v>1.8</v>
-      </c>
-      <c r="W32">
-        <v>0.6659999999999999</v>
-      </c>
-      <c r="X32">
-        <v>-1</v>
-      </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC32">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053265</v>
+        <v>6053263</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X33">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
         <v>42</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
         <v>33</v>
-      </c>
-      <c r="G35" t="s">
-        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35">
-        <v>6.5</v>
-      </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
       <c r="M35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3731,10 +3731,10 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
+        <v>33</v>
+      </c>
+      <c r="G37" t="s">
         <v>30</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
       </c>
       <c r="H37">
         <v>2</v>
@@ -3743,7 +3743,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K37">
         <v>1.222</v>
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,25 +3835,25 @@
         <v>42</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>2.45</v>
+      </c>
+      <c r="N38">
+        <v>3.2</v>
+      </c>
+      <c r="O38">
         <v>3.1</v>
       </c>
-      <c r="N38">
-        <v>2.45</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
         <v>1.825</v>
@@ -3862,34 +3862,34 @@
         <v>2.025</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
+        <v>1.025</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <v>-0</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,40 +3909,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39">
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
+        <v>3.25</v>
+      </c>
+      <c r="M39">
+        <v>3.1</v>
+      </c>
+      <c r="N39">
+        <v>2.45</v>
+      </c>
+      <c r="O39">
         <v>3.2</v>
       </c>
-      <c r="M39">
-        <v>2.45</v>
-      </c>
-      <c r="N39">
-        <v>3.2</v>
-      </c>
-      <c r="O39">
-        <v>3.1</v>
-      </c>
       <c r="P39">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q39">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
         <v>1.825</v>
@@ -3951,34 +3951,34 @@
         <v>2.025</v>
       </c>
       <c r="T39">
+        <v>2.25</v>
+      </c>
+      <c r="U39">
+        <v>1.85</v>
+      </c>
+      <c r="V39">
         <v>2</v>
       </c>
-      <c r="U39">
-        <v>1.9</v>
-      </c>
-      <c r="V39">
-        <v>1.95</v>
-      </c>
       <c r="W39">
         <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,13 +3998,13 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -4013,61 +4013,61 @@
         <v>43</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,7 +4265,7 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G43" t="s">
         <v>35</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4366,64 +4366,64 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K44">
+        <v>1.363</v>
+      </c>
+      <c r="L44">
+        <v>4.5</v>
+      </c>
+      <c r="M44">
+        <v>6.5</v>
+      </c>
+      <c r="N44">
+        <v>1.3</v>
+      </c>
+      <c r="O44">
+        <v>4.75</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>-1.5</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
+        <v>1.875</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>3.75</v>
       </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>1.8</v>
-      </c>
-      <c r="N44">
-        <v>3.25</v>
-      </c>
-      <c r="O44">
-        <v>3.1</v>
-      </c>
-      <c r="P44">
-        <v>2.05</v>
-      </c>
-      <c r="Q44">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
-        <v>1.95</v>
-      </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.1</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053277</v>
+        <v>6053279</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,76 +4443,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K45">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6053280</v>
+        <v>6043243</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K46">
+        <v>3.75</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>1.8</v>
+      </c>
+      <c r="N46">
+        <v>3.25</v>
+      </c>
+      <c r="O46">
+        <v>3.1</v>
+      </c>
+      <c r="P46">
+        <v>2.05</v>
+      </c>
+      <c r="Q46">
+        <v>0.25</v>
+      </c>
+      <c r="R46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.2</v>
-      </c>
-      <c r="N46">
-        <v>2.4</v>
-      </c>
-      <c r="O46">
-        <v>3.6</v>
-      </c>
-      <c r="P46">
-        <v>2.5</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA46">
+        <v>-0.5</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
         <v>-0</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053279</v>
+        <v>6053280</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,13 +4621,13 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -4639,58 +4639,58 @@
         <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>1.727</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X47">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.4875</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s">
         <v>31</v>
-      </c>
-      <c r="G48" t="s">
-        <v>32</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053282</v>
+        <v>6053283</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,49 +4799,49 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G49" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H49">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K49">
-        <v>1.833</v>
+        <v>21</v>
       </c>
       <c r="L49">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M49">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="N49">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="O49">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P49">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q49">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R49">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
         <v>1.875</v>
@@ -4850,25 +4850,25 @@
         <v>1.975</v>
       </c>
       <c r="W49">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X49">
         <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z49">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
         <v>-1</v>
       </c>
       <c r="AB49">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6043244</v>
+        <v>6053282</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,58 +4888,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H50">
+        <v>3</v>
+      </c>
+      <c r="I50">
         <v>1</v>
       </c>
-      <c r="I50">
-        <v>0</v>
-      </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K50">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M50">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N50">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P50">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T50">
         <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X50">
         <v>-1</v>
@@ -4948,16 +4948,16 @@
         <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA50">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,10 +4977,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H51">
         <v>2</v>
@@ -4989,7 +4989,7 @@
         <v>2</v>
       </c>
       <c r="J51" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K51">
         <v>2.3</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,76 +5066,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L52">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P52">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q52">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T52">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
         <v>-1</v>
       </c>
       <c r="Y52">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
         <v>-1</v>
       </c>
       <c r="AC52">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5244,10 +5244,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K54">
         <v>1.615</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053288</v>
+        <v>6053286</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K55">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
+        <v>5.5</v>
+      </c>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>1.3</v>
+      </c>
+      <c r="O55">
+        <v>5.25</v>
+      </c>
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>-1.5</v>
+      </c>
+      <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
+        <v>1.925</v>
+      </c>
+      <c r="T55">
         <v>3</v>
       </c>
-      <c r="M55">
-        <v>2.5</v>
-      </c>
-      <c r="N55">
-        <v>2.375</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>2.1</v>
-      </c>
-      <c r="S55">
-        <v>1.775</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5434,7 +5434,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K56">
         <v>2.8</v>
@@ -5514,7 +5514,7 @@
         <v>34</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,58 +5600,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G58" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H58">
+        <v>2</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58" t="s">
+        <v>43</v>
+      </c>
+      <c r="K58">
+        <v>2.8</v>
+      </c>
+      <c r="L58">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>41</v>
-      </c>
-      <c r="K58">
-        <v>1.25</v>
-      </c>
-      <c r="L58">
-        <v>5.5</v>
-      </c>
       <c r="M58">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N58">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O58">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q58">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R58">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S58">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T58">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W58">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,16 +5660,16 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA58">
         <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="59" spans="1:29">
@@ -5689,10 +5689,10 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288773</v>
+        <v>6288260</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G62" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>41</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>12</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>34</v>
       </c>
       <c r="O62">
+        <v>11</v>
+      </c>
+      <c r="P62">
+        <v>1.055</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
         <v>3.5</v>
       </c>
-      <c r="P62">
-        <v>5.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.75</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288260</v>
+        <v>7197534</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,67 +6045,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G63" t="s">
         <v>29</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K63">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="L63">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M63">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O63">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P63">
-        <v>1.055</v>
+        <v>1.75</v>
       </c>
       <c r="Q63">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U63">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V63">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W63">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X63">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
@@ -6114,7 +6114,7 @@
         <v>-1</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288772</v>
+        <v>6288259</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,49 +6134,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K64">
-        <v>3.3</v>
+        <v>1.8</v>
       </c>
       <c r="L64">
+        <v>3.4</v>
+      </c>
+      <c r="M64">
+        <v>4.5</v>
+      </c>
+      <c r="N64">
+        <v>1.95</v>
+      </c>
+      <c r="O64">
         <v>3.5</v>
       </c>
-      <c r="M64">
-        <v>2.1</v>
-      </c>
-      <c r="N64">
-        <v>4.75</v>
-      </c>
-      <c r="O64">
-        <v>3.75</v>
-      </c>
       <c r="P64">
-        <v>1.7</v>
+        <v>3.8</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R64">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="S64">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="T64">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U64">
         <v>1.85</v>
@@ -6185,25 +6185,25 @@
         <v>2</v>
       </c>
       <c r="W64">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X64">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y64">
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.9750000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC64">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,58 +6223,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H65">
+        <v>2</v>
+      </c>
+      <c r="I65">
         <v>1</v>
       </c>
-      <c r="I65">
-        <v>0</v>
-      </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K65">
+        <v>1.615</v>
+      </c>
+      <c r="L65">
         <v>3.6</v>
       </c>
-      <c r="L65">
-        <v>3.25</v>
-      </c>
       <c r="M65">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P65">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q65">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R65">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S65">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V65">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W65">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6283,16 +6283,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA65">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB65">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288259</v>
+        <v>6288772</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,49 +6312,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G66" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H66">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66" t="s">
         <v>41</v>
       </c>
       <c r="K66">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M66">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N66">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="O66">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P66">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q66">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R66">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S66">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T66">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U66">
         <v>1.85</v>
@@ -6363,25 +6363,25 @@
         <v>2</v>
       </c>
       <c r="W66">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA66">
         <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6053289</v>
+        <v>7106289</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K67">
+        <v>1.6</v>
+      </c>
+      <c r="L67">
+        <v>3.8</v>
+      </c>
+      <c r="M67">
+        <v>4.75</v>
+      </c>
+      <c r="N67">
+        <v>1.75</v>
+      </c>
+      <c r="O67">
+        <v>3.8</v>
+      </c>
+      <c r="P67">
+        <v>4.2</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
         <v>1.8</v>
       </c>
-      <c r="L67">
-        <v>3.3</v>
-      </c>
-      <c r="M67">
-        <v>4.2</v>
-      </c>
-      <c r="N67">
-        <v>2.1</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
-      <c r="P67">
-        <v>3.5</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2.05</v>
-      </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6478,7 +6478,7 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>7106289</v>
+        <v>6053291</v>
       </c>
       <c r="C68" t="s">
         <v>28</v>
@@ -6490,76 +6490,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F68" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H68">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K68">
-        <v>1.6</v>
+        <v>1.615</v>
       </c>
       <c r="L68">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M68">
         <v>4.75</v>
       </c>
       <c r="N68">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O68">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="P68">
-        <v>4.2</v>
+        <v>6</v>
       </c>
       <c r="Q68">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R68">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S68">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T68">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U68">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="V68">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="W68">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X68">
         <v>-1</v>
       </c>
       <c r="Y68">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="Z68">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AA68">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB68">
-        <v>0.8500000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC68">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="69" spans="1:29">
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053291</v>
+        <v>6053289</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G69" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H69">
         <v>1</v>
       </c>
       <c r="I69">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
-        <v>1.615</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.75</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="S69">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="T69">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
+        <v>1.825</v>
+      </c>
+      <c r="V69">
         <v>2.025</v>
       </c>
-      <c r="V69">
-        <v>1.825</v>
-      </c>
       <c r="W69">
         <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y69">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>0.9750000000000001</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-0</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323099</v>
+        <v>6323101</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,58 +6668,58 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M70">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N70">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="O70">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.05000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323100</v>
+        <v>6323097</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,10 +6757,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H71">
         <v>3</v>
@@ -6769,16 +6769,16 @@
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M71">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
         <v>1.6</v>
@@ -6790,22 +6790,22 @@
         <v>5</v>
       </c>
       <c r="Q71">
-        <v>-1</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
         <v>0.6000000000000001</v>
@@ -6817,13 +6817,13 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>1.05</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA71">
         <v>-1</v>
       </c>
       <c r="AB71">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
         <v>-1</v>
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323101</v>
+        <v>6323099</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6849,55 +6849,55 @@
         <v>29</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I72">
         <v>0</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>1.071</v>
       </c>
       <c r="L72">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M72">
-        <v>4.25</v>
+        <v>34</v>
       </c>
       <c r="N72">
-        <v>1.7</v>
+        <v>1.05</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>15</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>-3</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W72">
-        <v>0.7</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.45</v>
+        <v>0.825</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6923,7 +6923,7 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>6323098</v>
+        <v>6323100</v>
       </c>
       <c r="C73" t="s">
         <v>28</v>
@@ -6935,13 +6935,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I73">
         <v>1</v>
@@ -6950,25 +6950,25 @@
         <v>43</v>
       </c>
       <c r="K73">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L73">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M73">
-        <v>2.05</v>
+        <v>4</v>
       </c>
       <c r="N73">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O73">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P73">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q73">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R73">
         <v>2.05</v>
@@ -6977,34 +6977,34 @@
         <v>1.8</v>
       </c>
       <c r="T73">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U73">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V73">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W73">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X73">
         <v>-1</v>
       </c>
       <c r="Y73">
+        <v>-1</v>
+      </c>
+      <c r="Z73">
         <v>1.05</v>
       </c>
-      <c r="Z73">
-        <v>-1</v>
-      </c>
       <c r="AA73">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB73">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC73">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="74" spans="1:29">
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323097</v>
+        <v>6323098</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,46 +7024,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H74">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>1</v>
       </c>
       <c r="J74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K74">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L74">
         <v>3.5</v>
       </c>
       <c r="M74">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N74">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O74">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P74">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q74">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R74">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S74">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T74">
         <v>2.5</v>
@@ -7075,25 +7075,25 @@
         <v>2.025</v>
       </c>
       <c r="W74">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z74">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA74">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB74">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC74">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K75">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G76" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7217,52 +7217,52 @@
         <v>41</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
+        <v>30</v>
+      </c>
+      <c r="G77" t="s">
         <v>33</v>
-      </c>
-      <c r="G77" t="s">
-        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7368,7 +7368,7 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>6364850</v>
+        <v>6364849</v>
       </c>
       <c r="C78" t="s">
         <v>28</v>
@@ -7380,76 +7380,76 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G78" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H78">
         <v>0</v>
       </c>
       <c r="I78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J78" t="s">
         <v>42</v>
       </c>
       <c r="K78">
-        <v>1.571</v>
+        <v>1.85</v>
       </c>
       <c r="L78">
         <v>3.6</v>
       </c>
       <c r="M78">
-        <v>5.5</v>
+        <v>4</v>
       </c>
       <c r="N78">
-        <v>1.65</v>
+        <v>1.8</v>
       </c>
       <c r="O78">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="P78">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="Q78">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R78">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="S78">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="T78">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U78">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V78">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W78">
         <v>-1</v>
       </c>
       <c r="X78">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y78">
-        <v>-1</v>
+        <v>3.2</v>
       </c>
       <c r="Z78">
         <v>-1</v>
       </c>
       <c r="AA78">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AB78">
         <v>-1</v>
       </c>
       <c r="AC78">
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364849</v>
+        <v>6364853</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,10 +7469,10 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7481,43 +7481,43 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K79">
-        <v>1.85</v>
+        <v>2.875</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>4</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.8</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>4.2</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-0.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
+        <v>2.025</v>
+      </c>
+      <c r="S79">
         <v>1.825</v>
-      </c>
-      <c r="S79">
-        <v>2.025</v>
       </c>
       <c r="T79">
         <v>2.5</v>
       </c>
       <c r="U79">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V79">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W79">
         <v>-1</v>
@@ -7526,19 +7526,19 @@
         <v>-1</v>
       </c>
       <c r="Y79">
-        <v>3.2</v>
+        <v>1.9</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="80" spans="1:29">
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7647,7 +7647,7 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G81" t="s">
         <v>35</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7917,7 +7917,7 @@
         <v>35</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382789</v>
+        <v>6382790</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,58 +8003,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G85" t="s">
         <v>30</v>
       </c>
       <c r="H85">
+        <v>3</v>
+      </c>
+      <c r="I85">
         <v>2</v>
       </c>
-      <c r="I85">
-        <v>0</v>
-      </c>
       <c r="J85" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P85">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W85">
-        <v>2.2</v>
+        <v>0.181</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB85">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382790</v>
+        <v>6382789</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
         <v>33</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>43</v>
+      </c>
+      <c r="K86">
+        <v>2.625</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>2.55</v>
+      </c>
+      <c r="N86">
+        <v>3.2</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>2.15</v>
+      </c>
+      <c r="Q86">
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>2</v>
       </c>
-      <c r="J86" t="s">
-        <v>41</v>
-      </c>
-      <c r="K86">
-        <v>1.142</v>
-      </c>
-      <c r="L86">
-        <v>7.5</v>
-      </c>
-      <c r="M86">
-        <v>17</v>
-      </c>
-      <c r="N86">
-        <v>1.181</v>
-      </c>
-      <c r="O86">
-        <v>7</v>
-      </c>
-      <c r="P86">
-        <v>15</v>
-      </c>
-      <c r="Q86">
-        <v>-2</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>2.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8362,7 +8362,7 @@
         <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412498</v>
+        <v>6412497</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,58 +8448,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I90">
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>4.5</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>6.5</v>
       </c>
       <c r="N90">
-        <v>1.45</v>
+        <v>1.166</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>6.5</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>15</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>-2</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V90">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W90">
-        <v>0.45</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA90">
         <v>-1</v>
       </c>
       <c r="AB90">
-        <v>0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412497</v>
+        <v>6412498</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G91" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H91">
+        <v>3</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>43</v>
+      </c>
+      <c r="K91">
+        <v>1.7</v>
+      </c>
+      <c r="L91">
+        <v>3.75</v>
+      </c>
+      <c r="M91">
+        <v>4.2</v>
+      </c>
+      <c r="N91">
+        <v>1.45</v>
+      </c>
+      <c r="O91">
         <v>4</v>
       </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>41</v>
-      </c>
-      <c r="K91">
-        <v>1.4</v>
-      </c>
-      <c r="L91">
-        <v>4.5</v>
-      </c>
-      <c r="M91">
+      <c r="P91">
         <v>6.5</v>
       </c>
-      <c r="N91">
-        <v>1.166</v>
-      </c>
-      <c r="O91">
-        <v>6.5</v>
-      </c>
-      <c r="P91">
-        <v>15</v>
-      </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R91">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S91">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA91">
         <v>-1</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
         <v>34</v>
@@ -8638,7 +8638,7 @@
         <v>5</v>
       </c>
       <c r="J92" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K92">
         <v>10</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6407558</v>
+        <v>6412856</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,70 +8718,70 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H93">
+        <v>4</v>
+      </c>
+      <c r="I93">
         <v>2</v>
-      </c>
-      <c r="I93">
-        <v>4</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L93">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M93">
+        <v>9.5</v>
+      </c>
+      <c r="N93">
+        <v>1.222</v>
+      </c>
+      <c r="O93">
+        <v>5.5</v>
+      </c>
+      <c r="P93">
+        <v>9</v>
+      </c>
+      <c r="Q93">
+        <v>-1.75</v>
+      </c>
+      <c r="R93">
+        <v>1.95</v>
+      </c>
+      <c r="S93">
+        <v>1.9</v>
+      </c>
+      <c r="T93">
+        <v>3</v>
+      </c>
+      <c r="U93">
         <v>2</v>
       </c>
-      <c r="N93">
-        <v>5</v>
-      </c>
-      <c r="O93">
-        <v>3.75</v>
-      </c>
-      <c r="P93">
-        <v>1.6</v>
-      </c>
-      <c r="Q93">
-        <v>0.75</v>
-      </c>
-      <c r="R93">
-        <v>2.05</v>
-      </c>
-      <c r="S93">
-        <v>1.8</v>
-      </c>
-      <c r="T93">
-        <v>2.5</v>
-      </c>
-      <c r="U93">
-        <v>1.925</v>
-      </c>
       <c r="V93">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X93">
         <v>-1</v>
       </c>
       <c r="Y93">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z93">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA93">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB93">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6412856</v>
+        <v>6407558</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,73 +8804,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H94">
+        <v>2</v>
+      </c>
+      <c r="I94">
         <v>4</v>
       </c>
-      <c r="I94">
+      <c r="J94" t="s">
+        <v>42</v>
+      </c>
+      <c r="K94">
+        <v>3.3</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
         <v>2</v>
       </c>
-      <c r="J94" t="s">
-        <v>41</v>
-      </c>
-      <c r="K94">
-        <v>1.25</v>
-      </c>
-      <c r="L94">
-        <v>5.25</v>
-      </c>
-      <c r="M94">
-        <v>9.5</v>
-      </c>
       <c r="N94">
-        <v>1.222</v>
+        <v>5</v>
       </c>
       <c r="O94">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>9</v>
+        <v>1.6</v>
       </c>
       <c r="Q94">
-        <v>-1.75</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
-        <v>0.222</v>
+        <v>-1</v>
       </c>
       <c r="X94">
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA94">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>1</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G95" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,64 +8905,64 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K95">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L95">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M95">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N95">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O95">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P95">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q95">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R95">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S95">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T95">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V95">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y95">
         <v>-1</v>
       </c>
       <c r="Z95">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA95">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB95">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC95">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630128</v>
+        <v>7630126</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8985,37 +8985,37 @@
         <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>1.363</v>
+        <v>1.4</v>
       </c>
       <c r="L96">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="N96">
-        <v>1.4</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="P96">
-        <v>5.75</v>
+        <v>8</v>
       </c>
       <c r="Q96">
-        <v>-1.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R96">
         <v>1.975</v>
@@ -9024,19 +9024,19 @@
         <v>1.875</v>
       </c>
       <c r="T96">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U96">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="V96">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="W96">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X96">
-        <v>4.25</v>
+        <v>-1</v>
       </c>
       <c r="Y96">
         <v>-1</v>
@@ -9048,10 +9048,10 @@
         <v>0.875</v>
       </c>
       <c r="AB96">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC96">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630061</v>
+        <v>7630125</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G97" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L97">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M97">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N97">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O97">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P97">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q97">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R97">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
         <v>2.5</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W97">
         <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y97">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z97">
         <v>-1</v>
       </c>
       <c r="AA97">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB97">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC97">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630125</v>
+        <v>7630061</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
       </c>
       <c r="K98">
+        <v>3.1</v>
+      </c>
+      <c r="L98">
+        <v>3.4</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>2.3</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
+        <v>2.9</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
         <v>1.8</v>
-      </c>
-      <c r="L98">
-        <v>3.6</v>
-      </c>
-      <c r="M98">
-        <v>3.5</v>
-      </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>3.6</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630126</v>
+        <v>7630127</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,13 +9249,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -9264,61 +9264,61 @@
         <v>41</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X99">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y99">
         <v>-1</v>
       </c>
       <c r="Z99">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB99">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630130</v>
+        <v>7630129</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,73 +9338,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>1</v>
+      </c>
+      <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>42</v>
+      </c>
+      <c r="K100">
         <v>2</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>4.333</v>
-      </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
+        <v>2.25</v>
+      </c>
+      <c r="U100">
+        <v>1.875</v>
+      </c>
+      <c r="V100">
+        <v>1.975</v>
+      </c>
+      <c r="W100">
+        <v>-1</v>
+      </c>
+      <c r="X100">
+        <v>-1</v>
+      </c>
+      <c r="Y100">
         <v>1.75</v>
       </c>
-      <c r="U100">
-        <v>1.775</v>
-      </c>
-      <c r="V100">
-        <v>2.1</v>
-      </c>
-      <c r="W100">
-        <v>2.75</v>
-      </c>
-      <c r="X100">
-        <v>-1</v>
-      </c>
-      <c r="Y100">
-        <v>-1</v>
-      </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9430,7 +9430,7 @@
         <v>34</v>
       </c>
       <c r="G101" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -9439,7 +9439,7 @@
         <v>2</v>
       </c>
       <c r="J101" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K101">
         <v>2.1</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630129</v>
+        <v>7630130</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,73 +9516,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
+        <v>38</v>
+      </c>
+      <c r="G102" t="s">
         <v>32</v>
       </c>
-      <c r="G102" t="s">
-        <v>39</v>
-      </c>
       <c r="H102">
+        <v>2</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
+        <v>4.333</v>
+      </c>
+      <c r="L102">
+        <v>3.3</v>
+      </c>
+      <c r="M102">
+        <v>1.85</v>
+      </c>
+      <c r="N102">
+        <v>3.75</v>
+      </c>
+      <c r="O102">
+        <v>2.9</v>
+      </c>
+      <c r="P102">
+        <v>2.1</v>
+      </c>
+      <c r="Q102">
+        <v>0.25</v>
+      </c>
+      <c r="R102">
         <v>2</v>
       </c>
-      <c r="L102">
-        <v>3.25</v>
-      </c>
-      <c r="M102">
-        <v>3.8</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
-        <v>3.1</v>
-      </c>
-      <c r="P102">
+      <c r="S102">
+        <v>1.85</v>
+      </c>
+      <c r="T102">
+        <v>1.75</v>
+      </c>
+      <c r="U102">
+        <v>1.775</v>
+      </c>
+      <c r="V102">
+        <v>2.1</v>
+      </c>
+      <c r="W102">
         <v>2.75</v>
       </c>
-      <c r="Q102">
-        <v>0</v>
-      </c>
-      <c r="R102">
-        <v>1.875</v>
-      </c>
-      <c r="S102">
-        <v>1.975</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
-      <c r="W102">
-        <v>-1</v>
-      </c>
       <c r="X102">
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z102">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB102">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9608,7 +9608,7 @@
         <v>37</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K103">
         <v>2.3</v>
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9783,10 +9783,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
+        <v>39</v>
+      </c>
+      <c r="G105" t="s">
         <v>40</v>
-      </c>
-      <c r="G105" t="s">
-        <v>39</v>
       </c>
       <c r="H105">
         <v>2</v>
@@ -9795,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K105">
         <v>1.85</v>
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>2.75</v>
@@ -9961,7 +9961,7 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -9973,7 +9973,7 @@
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K107">
         <v>1.615</v>
@@ -10050,7 +10050,7 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G108" t="s">
         <v>37</v>
@@ -10062,7 +10062,7 @@
         <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K108">
         <v>2.75</v>
@@ -10142,7 +10142,7 @@
         <v>38</v>
       </c>
       <c r="G109" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H109">
         <v>1</v>
@@ -10151,7 +10151,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K109">
         <v>1.8</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630139</v>
+        <v>7630136</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,73 +10228,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G110" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H110">
         <v>2</v>
       </c>
       <c r="I110">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K110">
+        <v>3.75</v>
+      </c>
+      <c r="L110">
+        <v>3.6</v>
+      </c>
+      <c r="M110">
+        <v>1.909</v>
+      </c>
+      <c r="N110">
+        <v>3.1</v>
+      </c>
+      <c r="O110">
+        <v>3.4</v>
+      </c>
+      <c r="P110">
         <v>2.2</v>
       </c>
-      <c r="L110">
-        <v>3.1</v>
-      </c>
-      <c r="M110">
-        <v>3.4</v>
-      </c>
-      <c r="N110">
-        <v>2.15</v>
-      </c>
-      <c r="O110">
-        <v>3.25</v>
-      </c>
-      <c r="P110">
-        <v>3.3</v>
-      </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S110">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T110">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U110">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V110">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X110">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y110">
         <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA110">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630136</v>
+        <v>7630139</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10320,70 +10320,70 @@
         <v>32</v>
       </c>
       <c r="G111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H111">
         <v>2</v>
       </c>
       <c r="I111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
         <v>41</v>
       </c>
       <c r="K111">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L111">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M111">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N111">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O111">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P111">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R111">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S111">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V111">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W111">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB111">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10418,7 +10418,7 @@
         <v>5</v>
       </c>
       <c r="J112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K112">
         <v>2.2</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7644566</v>
+        <v>7644567</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J113" t="s">
         <v>43</v>
       </c>
       <c r="K113">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L113">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M113">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N113">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="O113">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P113">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q113">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S113">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T113">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V113">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W113">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X113">
         <v>-1</v>
       </c>
       <c r="Y113">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z113">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA113">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB113">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC113">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7644567</v>
+        <v>7644566</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>42</v>
+      </c>
+      <c r="K114">
+        <v>2.3</v>
+      </c>
+      <c r="L114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>41</v>
-      </c>
-      <c r="K114">
-        <v>1.615</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
       <c r="M114">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7644568</v>
+        <v>7644569</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115">
         <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K115">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L115">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M115">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N115">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O115">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P115">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R115">
+        <v>1.8</v>
+      </c>
+      <c r="S115">
         <v>2.05</v>
-      </c>
-      <c r="S115">
-        <v>1.8</v>
       </c>
       <c r="T115">
         <v>2.5</v>
       </c>
       <c r="U115">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X115">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y115">
         <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
         <v>-1</v>
       </c>
       <c r="AC115">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7644569</v>
+        <v>7644568</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,13 +10762,13 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -10777,61 +10777,61 @@
         <v>41</v>
       </c>
       <c r="K116">
-        <v>1.95</v>
+        <v>1.666</v>
       </c>
       <c r="L116">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="M116">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="N116">
+        <v>1.571</v>
+      </c>
+      <c r="O116">
+        <v>3.75</v>
+      </c>
+      <c r="P116">
+        <v>6</v>
+      </c>
+      <c r="Q116">
+        <v>-1</v>
+      </c>
+      <c r="R116">
+        <v>2.05</v>
+      </c>
+      <c r="S116">
         <v>1.8</v>
-      </c>
-      <c r="O116">
-        <v>3.5</v>
-      </c>
-      <c r="P116">
-        <v>4.5</v>
-      </c>
-      <c r="Q116">
-        <v>-0.5</v>
-      </c>
-      <c r="R116">
-        <v>1.8</v>
-      </c>
-      <c r="S116">
-        <v>2.05</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V116">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W116">
+        <v>-1</v>
+      </c>
+      <c r="X116">
+        <v>2.75</v>
+      </c>
+      <c r="Y116">
+        <v>-1</v>
+      </c>
+      <c r="Z116">
+        <v>-1</v>
+      </c>
+      <c r="AA116">
         <v>0.8</v>
       </c>
-      <c r="X116">
-        <v>-1</v>
-      </c>
-      <c r="Y116">
-        <v>-1</v>
-      </c>
-      <c r="Z116">
-        <v>0.8</v>
-      </c>
-      <c r="AA116">
-        <v>-1</v>
-      </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,16 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>29</v>
+        <v>32</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117" t="s">
+        <v>41</v>
       </c>
       <c r="K117">
         <v>4.5</v>
@@ -10866,22 +10875,22 @@
         <v>1.8</v>
       </c>
       <c r="N117">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="O117">
         <v>3.3</v>
       </c>
       <c r="P117">
-        <v>1.909</v>
+        <v>1.833</v>
       </c>
       <c r="Q117">
         <v>0.5</v>
       </c>
       <c r="R117">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S117">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T117">
         <v>2.25</v>
@@ -10893,18 +10902,394 @@
         <v>1.925</v>
       </c>
       <c r="W117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X117">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="Y117">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z117">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA117">
+        <v>-1</v>
+      </c>
+      <c r="AB117">
+        <v>-1</v>
+      </c>
+      <c r="AC117">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row r="118" spans="1:29">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>7644574</v>
+      </c>
+      <c r="C118" t="s">
+        <v>28</v>
+      </c>
+      <c r="D118" t="s">
+        <v>28</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F118" t="s">
+        <v>37</v>
+      </c>
+      <c r="G118" t="s">
+        <v>38</v>
+      </c>
+      <c r="K118">
+        <v>2.4</v>
+      </c>
+      <c r="L118">
+        <v>3.2</v>
+      </c>
+      <c r="M118">
+        <v>2.6</v>
+      </c>
+      <c r="N118">
+        <v>2.375</v>
+      </c>
+      <c r="O118">
+        <v>3.2</v>
+      </c>
+      <c r="P118">
+        <v>2.6</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>1.85</v>
+      </c>
+      <c r="S118">
+        <v>2</v>
+      </c>
+      <c r="T118">
+        <v>2.25</v>
+      </c>
+      <c r="U118">
+        <v>2.025</v>
+      </c>
+      <c r="V118">
+        <v>1.825</v>
+      </c>
+      <c r="W118">
+        <v>0</v>
+      </c>
+      <c r="X118">
+        <v>0</v>
+      </c>
+      <c r="Y118">
+        <v>0</v>
+      </c>
+      <c r="Z118">
+        <v>0</v>
+      </c>
+      <c r="AA118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:29">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>7644573</v>
+      </c>
+      <c r="C119" t="s">
+        <v>28</v>
+      </c>
+      <c r="D119" t="s">
+        <v>28</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F119" t="s">
+        <v>39</v>
+      </c>
+      <c r="G119" t="s">
+        <v>32</v>
+      </c>
+      <c r="K119">
+        <v>4.5</v>
+      </c>
+      <c r="L119">
+        <v>3.5</v>
+      </c>
+      <c r="M119">
+        <v>1.8</v>
+      </c>
+      <c r="N119">
+        <v>3.8</v>
+      </c>
+      <c r="O119">
+        <v>3.25</v>
+      </c>
+      <c r="P119">
+        <v>2.05</v>
+      </c>
+      <c r="Q119">
+        <v>0.5</v>
+      </c>
+      <c r="R119">
+        <v>1.8</v>
+      </c>
+      <c r="S119">
+        <v>2.05</v>
+      </c>
+      <c r="T119">
+        <v>2.25</v>
+      </c>
+      <c r="U119">
+        <v>2</v>
+      </c>
+      <c r="V119">
+        <v>1.85</v>
+      </c>
+      <c r="W119">
+        <v>0</v>
+      </c>
+      <c r="X119">
+        <v>0</v>
+      </c>
+      <c r="Y119">
+        <v>0</v>
+      </c>
+      <c r="Z119">
+        <v>0</v>
+      </c>
+      <c r="AA119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:29">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>7644572</v>
+      </c>
+      <c r="C120" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" t="s">
+        <v>28</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F120" t="s">
+        <v>34</v>
+      </c>
+      <c r="G120" t="s">
+        <v>40</v>
+      </c>
+      <c r="K120">
+        <v>2.1</v>
+      </c>
+      <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>3.4</v>
+      </c>
+      <c r="N120">
+        <v>2.1</v>
+      </c>
+      <c r="O120">
+        <v>3.3</v>
+      </c>
+      <c r="P120">
+        <v>3.5</v>
+      </c>
+      <c r="Q120">
+        <v>-0.25</v>
+      </c>
+      <c r="R120">
+        <v>1.85</v>
+      </c>
+      <c r="S120">
+        <v>2</v>
+      </c>
+      <c r="T120">
+        <v>2.25</v>
+      </c>
+      <c r="U120">
+        <v>1.875</v>
+      </c>
+      <c r="V120">
+        <v>1.975</v>
+      </c>
+      <c r="W120">
+        <v>0</v>
+      </c>
+      <c r="X120">
+        <v>0</v>
+      </c>
+      <c r="Y120">
+        <v>0</v>
+      </c>
+      <c r="Z120">
+        <v>0</v>
+      </c>
+      <c r="AA120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:29">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>7644571</v>
+      </c>
+      <c r="C121" t="s">
+        <v>28</v>
+      </c>
+      <c r="D121" t="s">
+        <v>28</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45366.69791666666</v>
+      </c>
+      <c r="F121" t="s">
+        <v>33</v>
+      </c>
+      <c r="G121" t="s">
+        <v>29</v>
+      </c>
+      <c r="K121">
+        <v>3.75</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>4.2</v>
+      </c>
+      <c r="O121">
+        <v>3.5</v>
+      </c>
+      <c r="P121">
+        <v>1.85</v>
+      </c>
+      <c r="Q121">
+        <v>0.5</v>
+      </c>
+      <c r="R121">
+        <v>1.975</v>
+      </c>
+      <c r="S121">
+        <v>1.875</v>
+      </c>
+      <c r="T121">
+        <v>2.25</v>
+      </c>
+      <c r="U121">
+        <v>1.825</v>
+      </c>
+      <c r="V121">
+        <v>2.025</v>
+      </c>
+      <c r="W121">
+        <v>0</v>
+      </c>
+      <c r="X121">
+        <v>0</v>
+      </c>
+      <c r="Y121">
+        <v>0</v>
+      </c>
+      <c r="Z121">
+        <v>0</v>
+      </c>
+      <c r="AA121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:29">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>7644575</v>
+      </c>
+      <c r="C122" t="s">
+        <v>28</v>
+      </c>
+      <c r="D122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45367.69791666666</v>
+      </c>
+      <c r="F122" t="s">
+        <v>36</v>
+      </c>
+      <c r="G122" t="s">
+        <v>31</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>3.4</v>
+      </c>
+      <c r="M122">
+        <v>3.75</v>
+      </c>
+      <c r="N122">
+        <v>1.833</v>
+      </c>
+      <c r="O122">
+        <v>3.6</v>
+      </c>
+      <c r="P122">
+        <v>4.2</v>
+      </c>
+      <c r="Q122">
+        <v>-0.5</v>
+      </c>
+      <c r="R122">
+        <v>1.8</v>
+      </c>
+      <c r="S122">
+        <v>2.05</v>
+      </c>
+      <c r="T122">
+        <v>2.5</v>
+      </c>
+      <c r="U122">
+        <v>1.975</v>
+      </c>
+      <c r="V122">
+        <v>1.875</v>
+      </c>
+      <c r="W122">
+        <v>0</v>
+      </c>
+      <c r="X122">
+        <v>0</v>
+      </c>
+      <c r="Y122">
+        <v>0</v>
+      </c>
+      <c r="Z122">
+        <v>0</v>
+      </c>
+      <c r="AA122">
         <v>0</v>
       </c>
     </row>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>Derry City</t>
-  </si>
-  <si>
     <t>UCD</t>
   </si>
   <si>
     <t>Drogheda United</t>
   </si>
   <si>
-    <t>Shamrock Rovers</t>
+    <t>Derry City</t>
   </si>
   <si>
     <t>Bohemians Dublin</t>
   </si>
   <si>
-    <t>Dundalk</t>
+    <t>Shamrock Rovers</t>
   </si>
   <si>
     <t>Cork City</t>
+  </si>
+  <si>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -133,16 +133,16 @@
     <t>Shelbourne</t>
   </si>
   <si>
+    <t>Waterford FC</t>
+  </si>
+  <si>
     <t>Galway United</t>
   </si>
   <si>
-    <t>Waterford FC</t>
+    <t>A</t>
   </si>
   <si>
     <t>D</t>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <t>H</t>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053243</v>
+        <v>6053245</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,73 +619,73 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>1.55</v>
+        <v>7.5</v>
       </c>
       <c r="L2">
-        <v>3.6</v>
+        <v>5</v>
       </c>
       <c r="M2">
-        <v>6</v>
+        <v>1.333</v>
       </c>
       <c r="N2">
-        <v>1.5</v>
+        <v>12</v>
       </c>
       <c r="O2">
-        <v>3.75</v>
+        <v>5.25</v>
       </c>
       <c r="P2">
-        <v>7</v>
+        <v>1.222</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="R2">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S2">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U2">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="V2">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="W2">
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y2">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z2">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA2">
-        <v>0.95</v>
+        <v>0.4625</v>
       </c>
       <c r="AB2">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AC2">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053245</v>
+        <v>6053244</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,37 +708,37 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
       <c r="J3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="L3">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M3">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="N3">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="O3">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P3">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="Q3">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
         <v>1.925</v>
@@ -747,13 +747,13 @@
         <v>1.925</v>
       </c>
       <c r="T3">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V3">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W3">
         <v>-1</v>
@@ -762,19 +762,19 @@
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>0.222</v>
+        <v>2.2</v>
       </c>
       <c r="Z3">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA3">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB3">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC3">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053244</v>
+        <v>6053243</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,46 +797,46 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>42</v>
       </c>
       <c r="K4">
+        <v>1.55</v>
+      </c>
+      <c r="L4">
+        <v>3.6</v>
+      </c>
+      <c r="M4">
+        <v>6</v>
+      </c>
+      <c r="N4">
+        <v>1.5</v>
+      </c>
+      <c r="O4">
+        <v>3.75</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>-1</v>
+      </c>
+      <c r="R4">
+        <v>1.9</v>
+      </c>
+      <c r="S4">
         <v>1.95</v>
       </c>
-      <c r="L4">
-        <v>3.4</v>
-      </c>
-      <c r="M4">
-        <v>3.6</v>
-      </c>
-      <c r="N4">
-        <v>2.1</v>
-      </c>
-      <c r="O4">
-        <v>3.25</v>
-      </c>
-      <c r="P4">
-        <v>3.2</v>
-      </c>
-      <c r="Q4">
-        <v>-0.25</v>
-      </c>
-      <c r="R4">
-        <v>1.925</v>
-      </c>
-      <c r="S4">
-        <v>1.925</v>
-      </c>
       <c r="T4">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U4">
         <v>1.8</v>
@@ -848,16 +848,16 @@
         <v>-1</v>
       </c>
       <c r="X4">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y4">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z4">
         <v>-1</v>
       </c>
       <c r="AA4">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB4">
         <v>-1</v>
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6043235</v>
+        <v>6053242</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,7 +886,7 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -898,43 +898,43 @@
         <v>43</v>
       </c>
       <c r="K5">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L5">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M5">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N5">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P5">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q5">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R5">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S5">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T5">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U5">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V5">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>-1</v>
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="Z5">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA5">
         <v>-1</v>
       </c>
       <c r="AB5">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC5">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6053242</v>
+        <v>6043235</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,7 +975,7 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6">
         <v>2</v>
@@ -987,43 +987,43 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3.2</v>
+        <v>4.333</v>
       </c>
       <c r="M6">
-        <v>3.3</v>
+        <v>7</v>
       </c>
       <c r="N6">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="Q6">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
         <v>-1</v>
@@ -1032,16 +1032,16 @@
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.8</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
         <v>-1</v>
       </c>
       <c r="AB6">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC6">
-        <v>0.425</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1076,43 +1076,43 @@
         <v>43</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1165,44 +1165,44 @@
         <v>43</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q8">
+        <v>-1.75</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.9</v>
+      </c>
+      <c r="W8">
         <v>0.25</v>
       </c>
-      <c r="R8">
-        <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
-      </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>2.025</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
-      <c r="W8">
-        <v>2.1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053253</v>
+        <v>6053251</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>2.05</v>
+        <v>1.666</v>
       </c>
       <c r="L12">
-        <v>3.2</v>
+        <v>3.5</v>
       </c>
       <c r="M12">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="N12">
-        <v>2.3</v>
+        <v>1.85</v>
       </c>
       <c r="O12">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P12">
-        <v>3.1</v>
+        <v>4.5</v>
       </c>
       <c r="Q12">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R12">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="S12">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="T12">
         <v>2</v>
       </c>
       <c r="U12">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V12">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W12">
         <v>-1</v>
       </c>
       <c r="X12">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>0.425</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053251</v>
+        <v>6053250</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J13" t="s">
         <v>41</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>2.7</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="N13">
+        <v>2.5</v>
+      </c>
+      <c r="O13">
+        <v>3.1</v>
+      </c>
+      <c r="P13">
+        <v>2.625</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
         <v>1.85</v>
       </c>
-      <c r="O13">
-        <v>3</v>
-      </c>
-      <c r="P13">
-        <v>4.5</v>
-      </c>
-      <c r="Q13">
-        <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.95</v>
-      </c>
       <c r="S13">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T13">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U13">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V13">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W13">
         <v>-1</v>
       </c>
       <c r="X13">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y13">
-        <v>-1</v>
+        <v>1.625</v>
       </c>
       <c r="Z13">
         <v>-1</v>
       </c>
       <c r="AA13">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AB13">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC13">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1672,7 +1672,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6053250</v>
+        <v>6053253</v>
       </c>
       <c r="C14" t="s">
         <v>28</v>
@@ -1684,76 +1684,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F14" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G14" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14">
-        <v>2.7</v>
+        <v>2.05</v>
       </c>
       <c r="L14">
         <v>3.2</v>
       </c>
       <c r="M14">
-        <v>2.4</v>
+        <v>3.4</v>
       </c>
       <c r="N14">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="O14">
         <v>3.1</v>
       </c>
       <c r="P14">
-        <v>2.625</v>
+        <v>3.1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R14">
+        <v>2</v>
+      </c>
+      <c r="S14">
         <v>1.85</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>2</v>
       </c>
-      <c r="T14">
-        <v>2.25</v>
-      </c>
       <c r="U14">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V14">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="W14">
         <v>-1</v>
       </c>
       <c r="X14">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y14">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z14">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>0.425</v>
       </c>
       <c r="AB14">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC14">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="15" spans="1:29">
@@ -1773,7 +1773,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053255</v>
+        <v>6043238</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,13 +1951,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -1966,25 +1966,25 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>2.45</v>
+        <v>3.25</v>
       </c>
       <c r="L17">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M17">
-        <v>2.625</v>
+        <v>2.1</v>
       </c>
       <c r="N17">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="O17">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P17">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R17">
         <v>1.925</v>
@@ -1993,34 +1993,34 @@
         <v>1.925</v>
       </c>
       <c r="T17">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U17">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V17">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W17">
         <v>-1</v>
       </c>
       <c r="X17">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y17">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z17">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA17">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AB17">
-        <v>0.4875</v>
+        <v>1</v>
       </c>
       <c r="AC17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6043238</v>
+        <v>6053254</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>3.25</v>
+        <v>1.333</v>
       </c>
       <c r="L18">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="N18">
-        <v>3.4</v>
+        <v>1.45</v>
       </c>
       <c r="O18">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R18">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S18">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.4625</v>
+        <v>0.875</v>
       </c>
       <c r="AA18">
+        <v>-1</v>
+      </c>
+      <c r="AB18">
         <v>-0.5</v>
       </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
       <c r="AC18">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2129,7 +2129,7 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053254</v>
+        <v>6053255</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
         <v>35</v>
       </c>
       <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
         <v>2</v>
       </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
       <c r="J20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.333</v>
+        <v>2.45</v>
       </c>
       <c r="L20">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M20">
-        <v>8</v>
+        <v>2.625</v>
       </c>
       <c r="N20">
-        <v>1.45</v>
+        <v>2.5</v>
       </c>
       <c r="O20">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P20">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q20">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R20">
+        <v>1.925</v>
+      </c>
+      <c r="S20">
+        <v>1.925</v>
+      </c>
+      <c r="T20">
+        <v>2.75</v>
+      </c>
+      <c r="U20">
+        <v>1.975</v>
+      </c>
+      <c r="V20">
         <v>1.875</v>
       </c>
-      <c r="S20">
-        <v>1.975</v>
-      </c>
-      <c r="T20">
-        <v>2.25</v>
-      </c>
-      <c r="U20">
-        <v>1.825</v>
-      </c>
-      <c r="V20">
-        <v>2.025</v>
-      </c>
       <c r="W20">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z20">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB20">
+        <v>0.4875</v>
+      </c>
+      <c r="AC20">
         <v>-0.5</v>
-      </c>
-      <c r="AC20">
-        <v>0.5125</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6043240</v>
+        <v>6053260</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,76 +2574,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24">
+        <v>3.6</v>
+      </c>
+      <c r="L24">
+        <v>3.2</v>
+      </c>
+      <c r="M24">
+        <v>2.1</v>
+      </c>
+      <c r="N24">
+        <v>3.5</v>
+      </c>
+      <c r="O24">
+        <v>3</v>
+      </c>
+      <c r="P24">
+        <v>2.25</v>
+      </c>
+      <c r="Q24">
+        <v>0.25</v>
+      </c>
+      <c r="R24">
+        <v>1.85</v>
+      </c>
+      <c r="S24">
         <v>2</v>
       </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24" t="s">
-        <v>43</v>
-      </c>
-      <c r="K24">
-        <v>4</v>
-      </c>
-      <c r="L24">
-        <v>3.75</v>
-      </c>
-      <c r="M24">
-        <v>1.833</v>
-      </c>
-      <c r="N24">
-        <v>3.6</v>
-      </c>
-      <c r="O24">
-        <v>3.6</v>
-      </c>
-      <c r="P24">
+      <c r="T24">
         <v>2</v>
       </c>
-      <c r="Q24">
-        <v>0.5</v>
-      </c>
-      <c r="R24">
-        <v>1.825</v>
-      </c>
-      <c r="S24">
-        <v>2.025</v>
-      </c>
-      <c r="T24">
-        <v>2.5</v>
-      </c>
       <c r="U24">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="V24">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="W24">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="X24">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.825</v>
+        <v>0.425</v>
       </c>
       <c r="AA24">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB24">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>0.925</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2666,7 +2666,7 @@
         <v>36</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25">
         <v>3</v>
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053259</v>
+        <v>6053261</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>43</v>
+      </c>
+      <c r="K26">
+        <v>1.166</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1.111</v>
+      </c>
+      <c r="O26">
+        <v>7.5</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.5</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.85</v>
+      </c>
+      <c r="W26">
+        <v>0.111</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>41</v>
-      </c>
-      <c r="K26">
-        <v>2.2</v>
-      </c>
-      <c r="L26">
-        <v>3.25</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>2.5</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.875</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2.05</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>2.25</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>-0</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053261</v>
+        <v>6053259</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K27">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="L27">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M27">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N27">
-        <v>1.111</v>
+        <v>2.5</v>
       </c>
       <c r="O27">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P27">
-        <v>17</v>
+        <v>2.875</v>
       </c>
       <c r="Q27">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R27">
+        <v>1.8</v>
+      </c>
+      <c r="S27">
+        <v>2.05</v>
+      </c>
+      <c r="T27">
+        <v>2.5</v>
+      </c>
+      <c r="U27">
+        <v>1.975</v>
+      </c>
+      <c r="V27">
         <v>1.875</v>
       </c>
-      <c r="S27">
-        <v>1.975</v>
-      </c>
-      <c r="T27">
-        <v>3.5</v>
-      </c>
-      <c r="U27">
-        <v>2</v>
-      </c>
-      <c r="V27">
-        <v>1.85</v>
-      </c>
       <c r="W27">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>-0</v>
+      </c>
+      <c r="AB27">
+        <v>-1</v>
+      </c>
+      <c r="AC27">
         <v>0.875</v>
-      </c>
-      <c r="AA27">
-        <v>-1</v>
-      </c>
-      <c r="AB27">
-        <v>1</v>
-      </c>
-      <c r="AC27">
-        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053260</v>
+        <v>6043240</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K28">
+        <v>4</v>
+      </c>
+      <c r="L28">
+        <v>3.75</v>
+      </c>
+      <c r="M28">
+        <v>1.833</v>
+      </c>
+      <c r="N28">
         <v>3.6</v>
       </c>
-      <c r="L28">
-        <v>3.2</v>
-      </c>
-      <c r="M28">
-        <v>2.1</v>
-      </c>
-      <c r="N28">
-        <v>3.5</v>
-      </c>
       <c r="O28">
-        <v>3</v>
+        <v>3.6</v>
       </c>
       <c r="P28">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="Q28">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="R28">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S28">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T28">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U28">
-        <v>2.1</v>
+        <v>1.925</v>
       </c>
       <c r="V28">
-        <v>1.775</v>
+        <v>1.925</v>
       </c>
       <c r="W28">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X28">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.425</v>
+        <v>0.825</v>
       </c>
       <c r="AA28">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053266</v>
+        <v>6043241</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3022,73 +3022,73 @@
         <v>30</v>
       </c>
       <c r="G29" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
       </c>
       <c r="I29">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>42</v>
       </c>
       <c r="K29">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="L29">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M29">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="O29">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q29">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R29">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
         <v>2.5</v>
       </c>
       <c r="U29">
+        <v>1.875</v>
+      </c>
+      <c r="V29">
         <v>1.975</v>
       </c>
-      <c r="V29">
-        <v>1.875</v>
-      </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
+        <v>-1</v>
+      </c>
+      <c r="AC29">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC29">
-        <v>-1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053264</v>
+        <v>6053266</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3111,70 +3111,70 @@
         <v>29</v>
       </c>
       <c r="G30" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P30">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q30">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X30">
         <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z30">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
         <v>-1</v>
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053265</v>
+        <v>6053263</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.55</v>
+        <v>2.2</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>3.3</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X31">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6043241</v>
+        <v>6053264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3289,37 +3289,37 @@
         <v>31</v>
       </c>
       <c r="G32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K32">
-        <v>5.25</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>1.571</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>3.8</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
         <v>1.925</v>
@@ -3328,34 +3328,34 @@
         <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y32">
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC32">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" spans="1:29">
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053263</v>
+        <v>6053265</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,76 +3375,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G33" t="s">
         <v>34</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33">
+        <v>1.55</v>
+      </c>
+      <c r="L33">
+        <v>3.8</v>
+      </c>
+      <c r="M33">
+        <v>5.5</v>
+      </c>
+      <c r="N33">
+        <v>1.4</v>
+      </c>
+      <c r="O33">
+        <v>4.333</v>
+      </c>
+      <c r="P33">
+        <v>7</v>
+      </c>
+      <c r="Q33">
+        <v>-1.25</v>
+      </c>
+      <c r="R33">
         <v>2</v>
       </c>
-      <c r="J33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K33">
-        <v>2.2</v>
-      </c>
-      <c r="L33">
-        <v>3.25</v>
-      </c>
-      <c r="M33">
-        <v>3</v>
-      </c>
-      <c r="N33">
-        <v>2.1</v>
-      </c>
-      <c r="O33">
-        <v>3.3</v>
-      </c>
-      <c r="P33">
-        <v>3</v>
-      </c>
-      <c r="Q33">
-        <v>-0.25</v>
-      </c>
-      <c r="R33">
-        <v>1.9</v>
-      </c>
       <c r="S33">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T33">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X33">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC33">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,10 +3464,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
         <v>30</v>
-      </c>
-      <c r="G34" t="s">
-        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K34">
         <v>6.5</v>
@@ -3556,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K35">
         <v>2.4</v>
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053270</v>
+        <v>6053271</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>2</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K37">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N37">
-        <v>1.125</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053271</v>
+        <v>6053272</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,13 +3820,13 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -3835,25 +3835,25 @@
         <v>42</v>
       </c>
       <c r="K38">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="L38">
+        <v>3.25</v>
+      </c>
+      <c r="M38">
+        <v>3.1</v>
+      </c>
+      <c r="N38">
+        <v>2.45</v>
+      </c>
+      <c r="O38">
         <v>3.2</v>
       </c>
-      <c r="M38">
-        <v>2.45</v>
-      </c>
-      <c r="N38">
-        <v>3.2</v>
-      </c>
-      <c r="O38">
-        <v>3.1</v>
-      </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>2.7</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R38">
         <v>1.825</v>
@@ -3862,34 +3862,34 @@
         <v>2.025</v>
       </c>
       <c r="T38">
+        <v>2.25</v>
+      </c>
+      <c r="U38">
+        <v>1.85</v>
+      </c>
+      <c r="V38">
         <v>2</v>
       </c>
-      <c r="U38">
-        <v>1.9</v>
-      </c>
-      <c r="V38">
-        <v>1.95</v>
-      </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>-0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053272</v>
+        <v>6053270</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G39" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K39">
-        <v>2.15</v>
+        <v>1.222</v>
       </c>
       <c r="L39">
-        <v>3.25</v>
+        <v>6</v>
       </c>
       <c r="M39">
-        <v>3.1</v>
+        <v>10</v>
       </c>
       <c r="N39">
-        <v>2.45</v>
+        <v>1.125</v>
       </c>
       <c r="O39">
-        <v>3.2</v>
+        <v>7.5</v>
       </c>
       <c r="P39">
-        <v>2.7</v>
+        <v>17</v>
       </c>
       <c r="Q39">
-        <v>0</v>
+        <v>-2.25</v>
       </c>
       <c r="R39">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S39">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T39">
-        <v>2.25</v>
+        <v>3.5</v>
       </c>
       <c r="U39">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V39">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W39">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X39">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="AA39">
-        <v>-0</v>
+        <v>0.4625</v>
       </c>
       <c r="AB39">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC39">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K41">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2.05</v>
-      </c>
-      <c r="Q41">
-        <v>0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053277</v>
+        <v>6053279</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,73 +4357,73 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K44">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M44">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R44">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S44">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T44">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X44">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053279</v>
+        <v>6053277</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,73 +4446,73 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K45">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.85</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
         <v>1.975</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6043243</v>
+        <v>6053280</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>32</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053280</v>
+        <v>6043243</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G47" t="s">
         <v>33</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K47">
+        <v>3.75</v>
+      </c>
+      <c r="L47">
+        <v>3.4</v>
+      </c>
+      <c r="M47">
+        <v>1.8</v>
+      </c>
+      <c r="N47">
+        <v>3.25</v>
+      </c>
+      <c r="O47">
+        <v>3.1</v>
+      </c>
+      <c r="P47">
+        <v>2.05</v>
+      </c>
+      <c r="Q47">
+        <v>0.25</v>
+      </c>
+      <c r="R47">
         <v>1.95</v>
       </c>
-      <c r="L47">
-        <v>3.5</v>
-      </c>
-      <c r="M47">
-        <v>3.2</v>
-      </c>
-      <c r="N47">
-        <v>2.4</v>
-      </c>
-      <c r="O47">
-        <v>3.6</v>
-      </c>
-      <c r="P47">
-        <v>2.5</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>1.85</v>
-      </c>
       <c r="S47">
+        <v>1.9</v>
+      </c>
+      <c r="T47">
         <v>2</v>
       </c>
-      <c r="T47">
-        <v>2.5</v>
-      </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA47">
+        <v>-0.5</v>
+      </c>
+      <c r="AB47">
+        <v>0</v>
+      </c>
+      <c r="AC47">
         <v>-0</v>
-      </c>
-      <c r="AB47">
-        <v>-1</v>
-      </c>
-      <c r="AC47">
-        <v>1.025</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053283</v>
+        <v>6053281</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4799,76 +4799,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J49" t="s">
         <v>42</v>
       </c>
       <c r="K49">
-        <v>21</v>
+        <v>2.3</v>
       </c>
       <c r="L49">
-        <v>8.5</v>
+        <v>3.2</v>
       </c>
       <c r="M49">
-        <v>1.1</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>12</v>
+        <v>2.75</v>
       </c>
       <c r="O49">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="P49">
-        <v>1.2</v>
+        <v>2.5</v>
       </c>
       <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>2.05</v>
+      </c>
+      <c r="S49">
+        <v>1.8</v>
+      </c>
+      <c r="T49">
+        <v>2.25</v>
+      </c>
+      <c r="U49">
         <v>2</v>
       </c>
-      <c r="R49">
-        <v>1.875</v>
-      </c>
-      <c r="S49">
-        <v>1.975</v>
-      </c>
-      <c r="T49">
-        <v>3.25</v>
-      </c>
-      <c r="U49">
-        <v>1.875</v>
-      </c>
       <c r="V49">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y49">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z49">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB49">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC49">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6053282</v>
+        <v>6053283</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,49 +4888,49 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G50" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H50">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>1</v>
       </c>
       <c r="J50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>1.833</v>
+        <v>21</v>
       </c>
       <c r="L50">
-        <v>3.3</v>
+        <v>8.5</v>
       </c>
       <c r="M50">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="N50">
-        <v>1.909</v>
+        <v>12</v>
       </c>
       <c r="O50">
-        <v>3.4</v>
+        <v>7</v>
       </c>
       <c r="P50">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="Q50">
-        <v>-0.5</v>
+        <v>2</v>
       </c>
       <c r="R50">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S50">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U50">
         <v>1.875</v>
@@ -4939,25 +4939,25 @@
         <v>1.975</v>
       </c>
       <c r="W50">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z50">
-        <v>1.025</v>
+        <v>0.875</v>
       </c>
       <c r="AA50">
         <v>-1</v>
       </c>
       <c r="AB50">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC50">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6053281</v>
+        <v>6043244</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4980,58 +4980,58 @@
         <v>33</v>
       </c>
       <c r="G51" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I51">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K51">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L51">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M51">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N51">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O51">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P51">
+        <v>5.5</v>
+      </c>
+      <c r="Q51">
+        <v>-1</v>
+      </c>
+      <c r="R51">
+        <v>1.925</v>
+      </c>
+      <c r="S51">
+        <v>1.925</v>
+      </c>
+      <c r="T51">
         <v>2.5</v>
       </c>
-      <c r="Q51">
-        <v>0</v>
-      </c>
-      <c r="R51">
-        <v>2.05</v>
-      </c>
-      <c r="S51">
-        <v>1.8</v>
-      </c>
-      <c r="T51">
-        <v>2.25</v>
-      </c>
       <c r="U51">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V51">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W51">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X51">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y51">
         <v>-1</v>
@@ -5043,10 +5043,10 @@
         <v>-0</v>
       </c>
       <c r="AB51">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC51">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6043244</v>
+        <v>6053282</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,58 +5066,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G52" t="s">
         <v>34</v>
       </c>
       <c r="H52">
+        <v>3</v>
+      </c>
+      <c r="I52">
         <v>1</v>
-      </c>
-      <c r="I52">
-        <v>0</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L52">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M52">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N52">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O52">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P52">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q52">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R52">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S52">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T52">
         <v>2.5</v>
       </c>
       <c r="U52">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V52">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W52">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X52">
         <v>-1</v>
@@ -5126,16 +5126,16 @@
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA52">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB52">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC52">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6043245</v>
+        <v>6053286</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,10 +5244,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H54">
         <v>3</v>
@@ -5259,43 +5259,43 @@
         <v>43</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R54">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S54">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X54">
         <v>-1</v>
@@ -5304,16 +5304,16 @@
         <v>-1</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA54">
         <v>-1</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053286</v>
+        <v>6043245</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,10 +5333,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H55">
         <v>3</v>
@@ -5348,43 +5348,43 @@
         <v>43</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>1.615</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3.75</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>1.909</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-0.5</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>0.909</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5422,7 +5422,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -5511,10 +5511,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G57" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H57">
         <v>1</v>
@@ -5523,7 +5523,7 @@
         <v>3</v>
       </c>
       <c r="J57" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K57">
         <v>3</v>
@@ -5689,10 +5689,10 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G59" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288260</v>
+        <v>6288773</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G62" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K62">
-        <v>12</v>
+        <v>1.615</v>
       </c>
       <c r="L62">
-        <v>7.5</v>
+        <v>3.6</v>
       </c>
       <c r="M62">
-        <v>1.181</v>
+        <v>6</v>
       </c>
       <c r="N62">
-        <v>34</v>
+        <v>1.666</v>
       </c>
       <c r="O62">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.055</v>
+        <v>5.75</v>
       </c>
       <c r="Q62">
-        <v>2.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U62">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="V62">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X62">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.4375</v>
       </c>
       <c r="AA62">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>7197534</v>
+        <v>6288260</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G63" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K63">
-        <v>3.6</v>
+        <v>12</v>
       </c>
       <c r="L63">
-        <v>3.25</v>
+        <v>7.5</v>
       </c>
       <c r="M63">
-        <v>2.1</v>
+        <v>1.181</v>
       </c>
       <c r="N63">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="O63">
-        <v>3.4</v>
+        <v>11</v>
       </c>
       <c r="P63">
-        <v>1.75</v>
+        <v>1.055</v>
       </c>
       <c r="Q63">
-        <v>0.75</v>
+        <v>2.75</v>
       </c>
       <c r="R63">
+        <v>1.925</v>
+      </c>
+      <c r="S63">
+        <v>1.925</v>
+      </c>
+      <c r="T63">
+        <v>3.5</v>
+      </c>
+      <c r="U63">
+        <v>2</v>
+      </c>
+      <c r="V63">
         <v>1.85</v>
       </c>
-      <c r="S63">
-        <v>2</v>
-      </c>
-      <c r="T63">
-        <v>2.25</v>
-      </c>
-      <c r="U63">
-        <v>1.825</v>
-      </c>
-      <c r="V63">
-        <v>2.025</v>
-      </c>
       <c r="W63">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
+        <v>0.925</v>
+      </c>
+      <c r="AA63">
+        <v>-1</v>
+      </c>
+      <c r="AB63">
+        <v>-1</v>
+      </c>
+      <c r="AC63">
         <v>0.8500000000000001</v>
-      </c>
-      <c r="AA63">
-        <v>-1</v>
-      </c>
-      <c r="AB63">
-        <v>-1</v>
-      </c>
-      <c r="AC63">
-        <v>1.025</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>37</v>
       </c>
       <c r="G64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>3</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288773</v>
+        <v>7197534</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,58 +6223,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="H65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J65" t="s">
         <v>43</v>
       </c>
       <c r="K65">
-        <v>1.615</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>6</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>1.666</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>5.75</v>
+        <v>1.75</v>
       </c>
       <c r="Q65">
-        <v>-0.75</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T65">
         <v>2.25</v>
       </c>
       <c r="U65">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>0.6659999999999999</v>
+        <v>4</v>
       </c>
       <c r="X65">
         <v>-1</v>
@@ -6283,16 +6283,16 @@
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.4375</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB65">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC65">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6312,10 +6312,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -6324,7 +6324,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K66">
         <v>3.3</v>
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>7106289</v>
+        <v>6053289</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G67" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H67">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K67">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L67">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M67">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N67">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O67">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P67">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q67">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R67">
+        <v>1.8</v>
+      </c>
+      <c r="S67">
         <v>2.05</v>
       </c>
-      <c r="S67">
-        <v>1.8</v>
-      </c>
       <c r="T67">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U67">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V67">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W67">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X67">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA67">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB67">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC67">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K68">
         <v>1.615</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>6053289</v>
+        <v>7106289</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K69">
+        <v>1.6</v>
+      </c>
+      <c r="L69">
+        <v>3.8</v>
+      </c>
+      <c r="M69">
+        <v>4.75</v>
+      </c>
+      <c r="N69">
+        <v>1.75</v>
+      </c>
+      <c r="O69">
+        <v>3.8</v>
+      </c>
+      <c r="P69">
+        <v>4.2</v>
+      </c>
+      <c r="Q69">
+        <v>-0.75</v>
+      </c>
+      <c r="R69">
+        <v>2.05</v>
+      </c>
+      <c r="S69">
         <v>1.8</v>
       </c>
-      <c r="L69">
-        <v>3.3</v>
-      </c>
-      <c r="M69">
-        <v>4.2</v>
-      </c>
-      <c r="N69">
-        <v>2.1</v>
-      </c>
-      <c r="O69">
-        <v>3.3</v>
-      </c>
-      <c r="P69">
-        <v>3.5</v>
-      </c>
-      <c r="Q69">
-        <v>-0.25</v>
-      </c>
-      <c r="R69">
-        <v>1.8</v>
-      </c>
-      <c r="S69">
-        <v>2.05</v>
-      </c>
       <c r="T69">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U69">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V69">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W69">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X69">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA69">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB69">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC69">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323101</v>
+        <v>6323097</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6671,31 +6671,31 @@
         <v>32</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H70">
+        <v>3</v>
+      </c>
+      <c r="I70">
         <v>1</v>
-      </c>
-      <c r="I70">
-        <v>0</v>
       </c>
       <c r="J70" t="s">
         <v>43</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="N70">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P70">
         <v>5</v>
@@ -6704,22 +6704,22 @@
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB70">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323097</v>
+        <v>6323098</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,46 +6757,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N71">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P71">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q71">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6808,25 +6808,25 @@
         <v>2.025</v>
       </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323099</v>
+        <v>6323101</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,13 +6846,13 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G72" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H72">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -6861,43 +6861,43 @@
         <v>43</v>
       </c>
       <c r="K72">
-        <v>1.071</v>
+        <v>1.833</v>
       </c>
       <c r="L72">
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="M72">
-        <v>34</v>
+        <v>4.25</v>
       </c>
       <c r="N72">
-        <v>1.05</v>
+        <v>1.7</v>
       </c>
       <c r="O72">
-        <v>15</v>
+        <v>3.6</v>
       </c>
       <c r="P72">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="Q72">
-        <v>-3</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S72">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T72">
-        <v>3.75</v>
+        <v>2.25</v>
       </c>
       <c r="U72">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V72">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W72">
-        <v>0.05000000000000004</v>
+        <v>0.7</v>
       </c>
       <c r="X72">
         <v>-1</v>
@@ -6906,16 +6906,16 @@
         <v>-1</v>
       </c>
       <c r="Z72">
-        <v>0.825</v>
+        <v>0.45</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB72">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,10 +6935,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7012,7 +7012,7 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>6323098</v>
+        <v>6323099</v>
       </c>
       <c r="C74" t="s">
         <v>28</v>
@@ -7024,76 +7024,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G74" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K74">
-        <v>3.4</v>
+        <v>1.071</v>
       </c>
       <c r="L74">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="M74">
-        <v>2.05</v>
+        <v>34</v>
       </c>
       <c r="N74">
-        <v>3.5</v>
+        <v>1.05</v>
       </c>
       <c r="O74">
-        <v>3.4</v>
+        <v>15</v>
       </c>
       <c r="P74">
-        <v>2.05</v>
+        <v>29</v>
       </c>
       <c r="Q74">
-        <v>0.25</v>
+        <v>-3</v>
       </c>
       <c r="R74">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="S74">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="T74">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="U74">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="V74">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="W74">
-        <v>-1</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="X74">
         <v>-1</v>
       </c>
       <c r="Y74">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z74">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AA74">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB74">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC74">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="75" spans="1:29">
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K76">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7472,7 +7472,7 @@
         <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
@@ -7481,7 +7481,7 @@
         <v>2</v>
       </c>
       <c r="J79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K79">
         <v>2.875</v>
@@ -7558,7 +7558,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G80" t="s">
         <v>38</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K80">
         <v>1.571</v>
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7914,10 +7914,10 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G84" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -7926,7 +7926,7 @@
         <v>1</v>
       </c>
       <c r="J84" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K84">
         <v>5.75</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382790</v>
+        <v>6382789</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8003,58 +8003,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F85" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J85" t="s">
         <v>43</v>
       </c>
       <c r="K85">
-        <v>1.142</v>
+        <v>2.625</v>
       </c>
       <c r="L85">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M85">
-        <v>17</v>
+        <v>2.55</v>
       </c>
       <c r="N85">
-        <v>1.181</v>
+        <v>3.2</v>
       </c>
       <c r="O85">
-        <v>7</v>
+        <v>3.6</v>
       </c>
       <c r="P85">
-        <v>15</v>
+        <v>2.15</v>
       </c>
       <c r="Q85">
-        <v>-2</v>
+        <v>0.25</v>
       </c>
       <c r="R85">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="S85">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="T85">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U85">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="V85">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="W85">
-        <v>0.181</v>
+        <v>2.2</v>
       </c>
       <c r="X85">
         <v>-1</v>
@@ -8063,16 +8063,16 @@
         <v>-1</v>
       </c>
       <c r="Z85">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB85">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC85">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382789</v>
+        <v>6382790</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G86" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H86">
+        <v>3</v>
+      </c>
+      <c r="I86">
         <v>2</v>
-      </c>
-      <c r="I86">
-        <v>0</v>
       </c>
       <c r="J86" t="s">
         <v>43</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>1.142</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="M86">
-        <v>2.55</v>
+        <v>17</v>
       </c>
       <c r="N86">
-        <v>3.2</v>
+        <v>1.181</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="P86">
-        <v>2.15</v>
+        <v>15</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>-2</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="W86">
-        <v>2.2</v>
+        <v>0.181</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB86">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412497</v>
+        <v>6412856</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,55 +8451,55 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H90">
         <v>4</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="s">
         <v>43</v>
       </c>
       <c r="K90">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L90">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M90">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N90">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O90">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P90">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q90">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R90">
+        <v>1.95</v>
+      </c>
+      <c r="S90">
         <v>1.9</v>
       </c>
-      <c r="S90">
-        <v>1.95</v>
-      </c>
       <c r="T90">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U90">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V90">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.1659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,13 +8508,13 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB90">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC90">
         <v>-1</v>
@@ -8537,7 +8537,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G91" t="s">
         <v>37</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6407559</v>
+        <v>6407558</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8629,52 +8629,52 @@
         <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I92">
+        <v>4</v>
+      </c>
+      <c r="J92" t="s">
+        <v>41</v>
+      </c>
+      <c r="K92">
+        <v>3.3</v>
+      </c>
+      <c r="L92">
+        <v>3.4</v>
+      </c>
+      <c r="M92">
+        <v>2</v>
+      </c>
+      <c r="N92">
         <v>5</v>
       </c>
-      <c r="J92" t="s">
-        <v>42</v>
-      </c>
-      <c r="K92">
-        <v>10</v>
-      </c>
-      <c r="L92">
-        <v>5.6</v>
-      </c>
-      <c r="M92">
-        <v>1.222</v>
-      </c>
-      <c r="N92">
-        <v>11</v>
-      </c>
       <c r="O92">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P92">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="Q92">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="R92">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S92">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T92">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U92">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V92">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W92">
         <v>-1</v>
@@ -8683,16 +8683,16 @@
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.181</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z92">
         <v>-1</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB92">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6412856</v>
+        <v>6412497</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8718,55 +8718,55 @@
         <v>32</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H93">
         <v>4</v>
       </c>
       <c r="I93">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
         <v>43</v>
       </c>
       <c r="K93">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L93">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M93">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N93">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O93">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P93">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q93">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R93">
+        <v>1.9</v>
+      </c>
+      <c r="S93">
         <v>1.95</v>
       </c>
-      <c r="S93">
+      <c r="T93">
+        <v>3.25</v>
+      </c>
+      <c r="U93">
         <v>1.9</v>
       </c>
-      <c r="T93">
-        <v>3</v>
-      </c>
-      <c r="U93">
-        <v>2</v>
-      </c>
       <c r="V93">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W93">
-        <v>0.222</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,13 +8775,13 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA93">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB93">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC93">
         <v>-1</v>
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6407558</v>
+        <v>6407559</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,55 +8804,55 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H94">
+        <v>1</v>
+      </c>
+      <c r="I94">
+        <v>5</v>
+      </c>
+      <c r="J94" t="s">
+        <v>41</v>
+      </c>
+      <c r="K94">
+        <v>10</v>
+      </c>
+      <c r="L94">
+        <v>5.6</v>
+      </c>
+      <c r="M94">
+        <v>1.222</v>
+      </c>
+      <c r="N94">
+        <v>11</v>
+      </c>
+      <c r="O94">
+        <v>6</v>
+      </c>
+      <c r="P94">
+        <v>1.181</v>
+      </c>
+      <c r="Q94">
         <v>2</v>
       </c>
-      <c r="I94">
-        <v>4</v>
-      </c>
-      <c r="J94" t="s">
-        <v>42</v>
-      </c>
-      <c r="K94">
-        <v>3.3</v>
-      </c>
-      <c r="L94">
-        <v>3.4</v>
-      </c>
-      <c r="M94">
+      <c r="R94">
+        <v>1.85</v>
+      </c>
+      <c r="S94">
         <v>2</v>
       </c>
-      <c r="N94">
-        <v>5</v>
-      </c>
-      <c r="O94">
-        <v>3.75</v>
-      </c>
-      <c r="P94">
-        <v>1.6</v>
-      </c>
-      <c r="Q94">
-        <v>0.75</v>
-      </c>
-      <c r="R94">
-        <v>2.05</v>
-      </c>
-      <c r="S94">
-        <v>1.8</v>
-      </c>
       <c r="T94">
-        <v>2.5</v>
+        <v>3.25</v>
       </c>
       <c r="U94">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V94">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,16 +8861,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.6000000000000001</v>
+        <v>0.181</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="AB94">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K95">
         <v>1.363</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630126</v>
+        <v>7630127</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G96" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96">
         <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L96">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M96">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N96">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O96">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P96">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q96">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R96">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S96">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U96">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V96">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W96">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X96">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA96">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB96">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC96">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G97" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H97">
         <v>2</v>
       </c>
       <c r="I97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K97">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P97">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q97">
+        <v>-1.5</v>
+      </c>
+      <c r="R97">
+        <v>1.975</v>
+      </c>
+      <c r="S97">
+        <v>1.875</v>
+      </c>
+      <c r="T97">
+        <v>2.75</v>
+      </c>
+      <c r="U97">
+        <v>1.875</v>
+      </c>
+      <c r="V97">
+        <v>1.975</v>
+      </c>
+      <c r="W97">
+        <v>0.333</v>
+      </c>
+      <c r="X97">
+        <v>-1</v>
+      </c>
+      <c r="Y97">
+        <v>-1</v>
+      </c>
+      <c r="Z97">
+        <v>-1</v>
+      </c>
+      <c r="AA97">
+        <v>0.875</v>
+      </c>
+      <c r="AB97">
+        <v>0.4375</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="R97">
-        <v>2.025</v>
-      </c>
-      <c r="S97">
-        <v>1.825</v>
-      </c>
-      <c r="T97">
-        <v>2.5</v>
-      </c>
-      <c r="U97">
-        <v>2.05</v>
-      </c>
-      <c r="V97">
-        <v>1.8</v>
-      </c>
-      <c r="W97">
-        <v>-1</v>
-      </c>
-      <c r="X97">
-        <v>2.6</v>
-      </c>
-      <c r="Y97">
-        <v>-1</v>
-      </c>
-      <c r="Z97">
-        <v>-1</v>
-      </c>
-      <c r="AA97">
-        <v>0.825</v>
-      </c>
-      <c r="AB97">
-        <v>1.05</v>
-      </c>
-      <c r="AC97">
-        <v>-1</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630061</v>
+        <v>7630125</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J98" t="s">
         <v>42</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>1.8</v>
       </c>
       <c r="L98">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M98">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="N98">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="O98">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>3.6</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Y98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>0.825</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630127</v>
+        <v>7630061</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9252,10 +9252,10 @@
         <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
@@ -9264,34 +9264,34 @@
         <v>41</v>
       </c>
       <c r="K99">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="N99">
+        <v>2.3</v>
+      </c>
+      <c r="O99">
         <v>3.5</v>
       </c>
-      <c r="O99">
-        <v>3.4</v>
-      </c>
       <c r="P99">
-        <v>2.1</v>
+        <v>2.9</v>
       </c>
       <c r="Q99">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
         <v>1.925</v>
@@ -9303,22 +9303,22 @@
         <v>-1</v>
       </c>
       <c r="X99">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z99">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA99">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630129</v>
+        <v>7630130</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,73 +9338,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="H100">
+        <v>2</v>
+      </c>
+      <c r="I100">
         <v>1</v>
       </c>
-      <c r="I100">
-        <v>4</v>
-      </c>
       <c r="J100" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K100">
+        <v>4.333</v>
+      </c>
+      <c r="L100">
+        <v>3.3</v>
+      </c>
+      <c r="M100">
+        <v>1.85</v>
+      </c>
+      <c r="N100">
+        <v>3.75</v>
+      </c>
+      <c r="O100">
+        <v>2.9</v>
+      </c>
+      <c r="P100">
+        <v>2.1</v>
+      </c>
+      <c r="Q100">
+        <v>0.25</v>
+      </c>
+      <c r="R100">
         <v>2</v>
       </c>
-      <c r="L100">
-        <v>3.25</v>
-      </c>
-      <c r="M100">
-        <v>3.8</v>
-      </c>
-      <c r="N100">
-        <v>2.625</v>
-      </c>
-      <c r="O100">
-        <v>3.1</v>
-      </c>
-      <c r="P100">
+      <c r="S100">
+        <v>1.85</v>
+      </c>
+      <c r="T100">
+        <v>1.75</v>
+      </c>
+      <c r="U100">
+        <v>1.775</v>
+      </c>
+      <c r="V100">
+        <v>2.1</v>
+      </c>
+      <c r="W100">
         <v>2.75</v>
       </c>
-      <c r="Q100">
-        <v>0</v>
-      </c>
-      <c r="R100">
-        <v>1.875</v>
-      </c>
-      <c r="S100">
-        <v>1.975</v>
-      </c>
-      <c r="T100">
-        <v>2.25</v>
-      </c>
-      <c r="U100">
-        <v>1.875</v>
-      </c>
-      <c r="V100">
-        <v>1.975</v>
-      </c>
-      <c r="W100">
-        <v>-1</v>
-      </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z100">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA100">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB100">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC100">
         <v>-1</v>
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630062</v>
+        <v>7630131</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,55 +9427,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H101">
         <v>0</v>
       </c>
       <c r="I101">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K101">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L101">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M101">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N101">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P101">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q101">
         <v>-0.25</v>
       </c>
       <c r="R101">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S101">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T101">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U101">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V101">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W101">
         <v>-1</v>
@@ -9484,19 +9484,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB101">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC101">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630130</v>
+        <v>7630129</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,73 +9516,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G102" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H102">
+        <v>1</v>
+      </c>
+      <c r="I102">
+        <v>4</v>
+      </c>
+      <c r="J102" t="s">
+        <v>41</v>
+      </c>
+      <c r="K102">
         <v>2</v>
       </c>
-      <c r="I102">
-        <v>1</v>
-      </c>
-      <c r="J102" t="s">
-        <v>43</v>
-      </c>
-      <c r="K102">
-        <v>4.333</v>
-      </c>
       <c r="L102">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M102">
-        <v>1.85</v>
+        <v>3.8</v>
       </c>
       <c r="N102">
-        <v>3.75</v>
+        <v>2.625</v>
       </c>
       <c r="O102">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="P102">
-        <v>2.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q102">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R102">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="S102">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="T102">
+        <v>2.25</v>
+      </c>
+      <c r="U102">
+        <v>1.875</v>
+      </c>
+      <c r="V102">
+        <v>1.975</v>
+      </c>
+      <c r="W102">
+        <v>-1</v>
+      </c>
+      <c r="X102">
+        <v>-1</v>
+      </c>
+      <c r="Y102">
         <v>1.75</v>
       </c>
-      <c r="U102">
-        <v>1.775</v>
-      </c>
-      <c r="V102">
-        <v>2.1</v>
-      </c>
-      <c r="W102">
-        <v>2.75</v>
-      </c>
-      <c r="X102">
-        <v>-1</v>
-      </c>
-      <c r="Y102">
-        <v>-1</v>
-      </c>
       <c r="Z102">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA102">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB102">
-        <v>0.7749999999999999</v>
+        <v>0.875</v>
       </c>
       <c r="AC102">
         <v>-1</v>
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630131</v>
+        <v>7630062</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,55 +9605,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
         <v>3</v>
       </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9662,19 +9662,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630063</v>
+        <v>7630134</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K105">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>3.75</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
-        <v>1.95</v>
+        <v>3.2</v>
       </c>
       <c r="O105">
-        <v>3.1</v>
+        <v>2.875</v>
       </c>
       <c r="P105">
-        <v>3.8</v>
+        <v>2.375</v>
       </c>
       <c r="Q105">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R105">
-        <v>1.975</v>
+        <v>1.775</v>
       </c>
       <c r="S105">
-        <v>1.875</v>
+        <v>2.1</v>
       </c>
       <c r="T105">
         <v>2</v>
       </c>
       <c r="U105">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="V105">
-        <v>2.025</v>
+        <v>1.75</v>
       </c>
       <c r="W105">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="Z105">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AA105">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AB105">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC105">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630134</v>
+        <v>7630063</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,76 +9872,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106">
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K106">
-        <v>2.75</v>
+        <v>1.85</v>
       </c>
       <c r="L106">
+        <v>3.5</v>
+      </c>
+      <c r="M106">
+        <v>3.75</v>
+      </c>
+      <c r="N106">
+        <v>1.95</v>
+      </c>
+      <c r="O106">
         <v>3.1</v>
       </c>
-      <c r="M106">
-        <v>2.5</v>
-      </c>
-      <c r="N106">
-        <v>3.2</v>
-      </c>
-      <c r="O106">
-        <v>2.875</v>
-      </c>
       <c r="P106">
-        <v>2.375</v>
+        <v>3.8</v>
       </c>
       <c r="Q106">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.775</v>
+        <v>1.975</v>
       </c>
       <c r="S106">
-        <v>2.1</v>
+        <v>1.875</v>
       </c>
       <c r="T106">
         <v>2</v>
       </c>
       <c r="U106">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V106">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W106">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X106">
         <v>-1</v>
       </c>
       <c r="Y106">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z106">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA106">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB106">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC106">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="107" spans="1:29">
@@ -9961,7 +9961,7 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G107" t="s">
         <v>37</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630138</v>
+        <v>7630064</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,49 +10050,49 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
+        <v>38</v>
+      </c>
+      <c r="G108" t="s">
         <v>40</v>
       </c>
-      <c r="G108" t="s">
-        <v>37</v>
-      </c>
       <c r="H108">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>43</v>
       </c>
       <c r="K108">
-        <v>2.75</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
+        <v>4.5</v>
+      </c>
+      <c r="N108">
         <v>2.6</v>
       </c>
-      <c r="N108">
-        <v>3.6</v>
-      </c>
       <c r="O108">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
+        <v>1.825</v>
+      </c>
+      <c r="S108">
         <v>2.025</v>
       </c>
-      <c r="S108">
-        <v>1.825</v>
-      </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U108">
         <v>1.925</v>
@@ -10101,7 +10101,7 @@
         <v>1.925</v>
       </c>
       <c r="W108">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,16 +10110,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
+        <v>-1</v>
+      </c>
+      <c r="AC108">
         <v>0.925</v>
-      </c>
-      <c r="AC108">
-        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630064</v>
+        <v>7630136</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,58 +10139,58 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="H109">
+        <v>2</v>
+      </c>
+      <c r="I109">
         <v>1</v>
-      </c>
-      <c r="I109">
-        <v>0</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L109">
+        <v>3.6</v>
+      </c>
+      <c r="M109">
+        <v>1.909</v>
+      </c>
+      <c r="N109">
+        <v>3.1</v>
+      </c>
+      <c r="O109">
         <v>3.4</v>
       </c>
-      <c r="M109">
-        <v>4.5</v>
-      </c>
-      <c r="N109">
-        <v>2.6</v>
-      </c>
-      <c r="O109">
-        <v>3</v>
-      </c>
       <c r="P109">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q109">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R109">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S109">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T109">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U109">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V109">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W109">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="X109">
         <v>-1</v>
@@ -10199,16 +10199,16 @@
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA109">
         <v>-1</v>
       </c>
       <c r="AB109">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC109">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="110" spans="1:29">
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630136</v>
+        <v>7630137</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,73 +10228,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G110" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J110" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K110">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L110">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M110">
-        <v>1.909</v>
+        <v>3.2</v>
       </c>
       <c r="N110">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="O110">
         <v>3.4</v>
       </c>
       <c r="P110">
+        <v>3.2</v>
+      </c>
+      <c r="Q110">
+        <v>-0.25</v>
+      </c>
+      <c r="R110">
+        <v>1.925</v>
+      </c>
+      <c r="S110">
+        <v>1.925</v>
+      </c>
+      <c r="T110">
+        <v>2.25</v>
+      </c>
+      <c r="U110">
+        <v>1.925</v>
+      </c>
+      <c r="V110">
+        <v>1.925</v>
+      </c>
+      <c r="W110">
+        <v>-1</v>
+      </c>
+      <c r="X110">
+        <v>-1</v>
+      </c>
+      <c r="Y110">
         <v>2.2</v>
       </c>
-      <c r="Q110">
-        <v>0.25</v>
-      </c>
-      <c r="R110">
-        <v>1.9</v>
-      </c>
-      <c r="S110">
-        <v>1.95</v>
-      </c>
-      <c r="T110">
-        <v>2.5</v>
-      </c>
-      <c r="U110">
-        <v>1.875</v>
-      </c>
-      <c r="V110">
-        <v>1.975</v>
-      </c>
-      <c r="W110">
-        <v>2.1</v>
-      </c>
-      <c r="X110">
-        <v>-1</v>
-      </c>
-      <c r="Y110">
-        <v>-1</v>
-      </c>
       <c r="Z110">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA110">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB110">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
       <c r="AC110">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630139</v>
+        <v>7630138</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,73 +10317,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G111" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I111">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J111" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K111">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L111">
         <v>3.1</v>
       </c>
       <c r="M111">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N111">
-        <v>2.15</v>
+        <v>3.6</v>
       </c>
       <c r="O111">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="P111">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="Q111">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R111">
-        <v>1.8</v>
+        <v>2.025</v>
       </c>
       <c r="S111">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="T111">
         <v>2.25</v>
       </c>
       <c r="U111">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V111">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W111">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X111">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AA111">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB111">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC111">
         <v>-1</v>
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630137</v>
+        <v>7630139</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,16 +10406,16 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G112" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
@@ -10424,55 +10424,55 @@
         <v>2.2</v>
       </c>
       <c r="L112">
+        <v>3.1</v>
+      </c>
+      <c r="M112">
         <v>3.4</v>
       </c>
-      <c r="M112">
-        <v>3.2</v>
-      </c>
       <c r="N112">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P112">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q112">
         <v>-0.25</v>
       </c>
       <c r="R112">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S112">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T112">
         <v>2.25</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="W112">
         <v>-1</v>
       </c>
       <c r="X112">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y112">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA112">
-        <v>0.925</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB112">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10483,7 +10483,7 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>7644567</v>
+        <v>7644568</v>
       </c>
       <c r="C113" t="s">
         <v>28</v>
@@ -10495,76 +10495,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H113">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K113">
-        <v>1.615</v>
+        <v>1.666</v>
       </c>
       <c r="L113">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="M113">
         <v>5.25</v>
       </c>
       <c r="N113">
-        <v>1.533</v>
+        <v>1.571</v>
       </c>
       <c r="O113">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P113">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q113">
         <v>-1</v>
       </c>
       <c r="R113">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S113">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T113">
         <v>2.5</v>
       </c>
       <c r="U113">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V113">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W113">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X113">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y113">
         <v>-1</v>
       </c>
       <c r="Z113">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA113">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB113">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC113">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="114" spans="1:29">
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7644566</v>
+        <v>7644567</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10584,76 +10584,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I114">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J114" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K114">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L114">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M114">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N114">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="O114">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P114">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q114">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R114">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S114">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T114">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U114">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V114">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W114">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z114">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA114">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB114">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC114">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7644569</v>
+        <v>7644566</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,40 +10673,40 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G115" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J115" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K115">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="L115">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="M115">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="N115">
-        <v>1.8</v>
+        <v>2.875</v>
       </c>
       <c r="O115">
-        <v>3.5</v>
+        <v>2.875</v>
       </c>
       <c r="P115">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q115">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R115">
         <v>1.8</v>
@@ -10715,34 +10715,34 @@
         <v>2.05</v>
       </c>
       <c r="T115">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U115">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V115">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z115">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA115">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB115">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC115">
-        <v>0.825</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10750,7 +10750,7 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>7644568</v>
+        <v>7644569</v>
       </c>
       <c r="C116" t="s">
         <v>28</v>
@@ -10762,76 +10762,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F116" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116">
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K116">
-        <v>1.666</v>
+        <v>1.95</v>
       </c>
       <c r="L116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="M116">
-        <v>5.25</v>
+        <v>3.8</v>
       </c>
       <c r="N116">
-        <v>1.571</v>
+        <v>1.8</v>
       </c>
       <c r="O116">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="P116">
-        <v>6</v>
+        <v>4.5</v>
       </c>
       <c r="Q116">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R116">
+        <v>1.8</v>
+      </c>
+      <c r="S116">
         <v>2.05</v>
-      </c>
-      <c r="S116">
-        <v>1.8</v>
       </c>
       <c r="T116">
         <v>2.5</v>
       </c>
       <c r="U116">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V116">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X116">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y116">
         <v>-1</v>
       </c>
       <c r="Z116">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA116">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB116">
         <v>-1</v>
       </c>
       <c r="AC116">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="117" spans="1:29">
@@ -10854,7 +10854,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K117">
         <v>4.5</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7644574</v>
+        <v>7644571</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,61 +10940,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
+        <v>1</v>
+      </c>
+      <c r="J118" t="s">
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L118">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M118">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N118">
-        <v>2.375</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="P118">
-        <v>2.6</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S118">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T118">
         <v>2.25</v>
       </c>
       <c r="U118">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="X118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y118">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>0</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB118">
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="AC118">
+        <v>-1</v>
       </c>
     </row>
     <row r="119" spans="1:29">
@@ -11002,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7644573</v>
+        <v>7644572</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11014,61 +11029,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F119" t="s">
+        <v>35</v>
+      </c>
+      <c r="G119" t="s">
         <v>39</v>
       </c>
-      <c r="G119" t="s">
-        <v>32</v>
+      <c r="H119">
+        <v>0</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119" t="s">
+        <v>42</v>
       </c>
       <c r="K119">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L119">
+        <v>3.4</v>
+      </c>
+      <c r="M119">
+        <v>3.4</v>
+      </c>
+      <c r="N119">
+        <v>2.15</v>
+      </c>
+      <c r="O119">
         <v>3.5</v>
       </c>
-      <c r="M119">
-        <v>1.8</v>
-      </c>
-      <c r="N119">
-        <v>3.8</v>
-      </c>
-      <c r="O119">
+      <c r="P119">
         <v>3.25</v>
       </c>
-      <c r="P119">
-        <v>2.05</v>
-      </c>
       <c r="Q119">
+        <v>-0.25</v>
+      </c>
+      <c r="R119">
+        <v>1.85</v>
+      </c>
+      <c r="S119">
+        <v>2</v>
+      </c>
+      <c r="T119">
+        <v>2.5</v>
+      </c>
+      <c r="U119">
+        <v>1.95</v>
+      </c>
+      <c r="V119">
+        <v>1.9</v>
+      </c>
+      <c r="W119">
+        <v>-1</v>
+      </c>
+      <c r="X119">
+        <v>2.5</v>
+      </c>
+      <c r="Y119">
+        <v>-1</v>
+      </c>
+      <c r="Z119">
+        <v>-0.5</v>
+      </c>
+      <c r="AA119">
         <v>0.5</v>
       </c>
-      <c r="R119">
-        <v>1.8</v>
-      </c>
-      <c r="S119">
-        <v>2.05</v>
-      </c>
-      <c r="T119">
-        <v>2.25</v>
-      </c>
-      <c r="U119">
-        <v>2</v>
-      </c>
-      <c r="V119">
-        <v>1.85</v>
-      </c>
-      <c r="W119">
-        <v>0</v>
-      </c>
-      <c r="X119">
-        <v>0</v>
-      </c>
-      <c r="Y119">
-        <v>0</v>
-      </c>
-      <c r="Z119">
-        <v>0</v>
-      </c>
-      <c r="AA119">
-        <v>0</v>
+      <c r="AB119">
+        <v>-1</v>
+      </c>
+      <c r="AC119">
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11076,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7644572</v>
+        <v>7644573</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11088,61 +11118,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G120" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>1</v>
+      </c>
+      <c r="J120" t="s">
+        <v>41</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N120">
-        <v>2.1</v>
+        <v>3.2</v>
       </c>
       <c r="O120">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="P120">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T120">
         <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V120">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="Z120">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB120">
+        <v>-1</v>
+      </c>
+      <c r="AC120">
+        <v>0.925</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11150,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7644571</v>
+        <v>7644574</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11162,61 +11207,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G121" t="s">
-        <v>29</v>
+        <v>38</v>
+      </c>
+      <c r="H121">
+        <v>1</v>
+      </c>
+      <c r="I121">
+        <v>2</v>
+      </c>
+      <c r="J121" t="s">
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L121">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M121">
+        <v>2.6</v>
+      </c>
+      <c r="N121">
+        <v>2.6</v>
+      </c>
+      <c r="O121">
+        <v>3</v>
+      </c>
+      <c r="P121">
+        <v>2.55</v>
+      </c>
+      <c r="Q121">
+        <v>0</v>
+      </c>
+      <c r="R121">
+        <v>1.925</v>
+      </c>
+      <c r="S121">
+        <v>1.925</v>
+      </c>
+      <c r="T121">
         <v>2</v>
       </c>
-      <c r="N121">
-        <v>4.2</v>
-      </c>
-      <c r="O121">
-        <v>3.5</v>
-      </c>
-      <c r="P121">
-        <v>1.85</v>
-      </c>
-      <c r="Q121">
-        <v>0.5</v>
-      </c>
-      <c r="R121">
+      <c r="U121">
         <v>1.975</v>
       </c>
-      <c r="S121">
+      <c r="V121">
         <v>1.875</v>
       </c>
-      <c r="T121">
-        <v>2.25</v>
-      </c>
-      <c r="U121">
-        <v>1.825</v>
-      </c>
-      <c r="V121">
-        <v>2.025</v>
-      </c>
       <c r="W121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y121">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="Z121">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA121">
-        <v>0</v>
+        <v>0.925</v>
+      </c>
+      <c r="AB121">
+        <v>0.9750000000000001</v>
+      </c>
+      <c r="AC121">
+        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11239,7 +11299,16 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="H122">
+        <v>3</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122" t="s">
+        <v>43</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -11251,46 +11320,52 @@
         <v>3.75</v>
       </c>
       <c r="N122">
-        <v>1.833</v>
+        <v>1.727</v>
       </c>
       <c r="O122">
         <v>3.6</v>
       </c>
       <c r="P122">
-        <v>4.2</v>
+        <v>5</v>
       </c>
       <c r="Q122">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R122">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="S122">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="T122">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U122">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V122">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W122">
-        <v>0</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Y122">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Z122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA122">
-        <v>0</v>
+        <v>-1</v>
+      </c>
+      <c r="AB122">
+        <v>0.8500000000000001</v>
+      </c>
+      <c r="AC122">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -103,25 +103,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
-    <t>UCD</t>
+    <t>Drogheda United</t>
   </si>
   <si>
-    <t>Drogheda United</t>
+    <t>Shamrock Rovers</t>
+  </si>
+  <si>
+    <t>Bohemians Dublin</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
-  </si>
-  <si>
-    <t>Shamrock Rovers</t>
+    <t>Dundalk</t>
   </si>
   <si>
     <t>Cork City</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -142,10 +142,10 @@
     <t>A</t>
   </si>
   <si>
-    <t>D</t>
+    <t>H</t>
   </si>
   <si>
-    <t>H</t>
+    <t>D</t>
   </si>
 </sst>
 </file>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC122"/>
+  <dimension ref="A1:AC127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053245</v>
+        <v>6053244</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,37 +619,37 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
         <v>1</v>
-      </c>
-      <c r="I2">
-        <v>3</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
-        <v>7.5</v>
+        <v>1.95</v>
       </c>
       <c r="L2">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M2">
-        <v>1.333</v>
+        <v>3.6</v>
       </c>
       <c r="N2">
-        <v>12</v>
+        <v>2.1</v>
       </c>
       <c r="O2">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P2">
-        <v>1.222</v>
+        <v>3.2</v>
       </c>
       <c r="Q2">
-        <v>1.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R2">
         <v>1.925</v>
@@ -658,13 +658,13 @@
         <v>1.925</v>
       </c>
       <c r="T2">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U2">
-        <v>2.025</v>
+        <v>1.8</v>
       </c>
       <c r="V2">
-        <v>1.825</v>
+        <v>2.05</v>
       </c>
       <c r="W2">
         <v>-1</v>
@@ -673,19 +673,19 @@
         <v>-1</v>
       </c>
       <c r="Y2">
-        <v>0.222</v>
+        <v>2.2</v>
       </c>
       <c r="Z2">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.4625</v>
+        <v>0.925</v>
       </c>
       <c r="AB2">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
       <c r="AC2">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="3" spans="1:29">
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6053244</v>
+        <v>6043235</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -711,34 +711,34 @@
         <v>34</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K3">
-        <v>1.95</v>
+        <v>1.4</v>
       </c>
       <c r="L3">
-        <v>3.4</v>
+        <v>4.333</v>
       </c>
       <c r="M3">
-        <v>3.6</v>
+        <v>7</v>
       </c>
       <c r="N3">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="O3">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>3.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q3">
-        <v>-0.25</v>
+        <v>-1</v>
       </c>
       <c r="R3">
         <v>1.925</v>
@@ -747,34 +747,34 @@
         <v>1.925</v>
       </c>
       <c r="T3">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U3">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V3">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W3">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X3">
         <v>-1</v>
       </c>
       <c r="Y3">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z3">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA3">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB3">
         <v>-1</v>
       </c>
       <c r="AC3">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053243</v>
+        <v>6053242</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,10 +797,10 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -809,61 +809,61 @@
         <v>42</v>
       </c>
       <c r="K4">
-        <v>1.55</v>
+        <v>2.1</v>
       </c>
       <c r="L4">
+        <v>3.2</v>
+      </c>
+      <c r="M4">
+        <v>3.3</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>3.1</v>
+      </c>
+      <c r="P4">
         <v>3.6</v>
       </c>
-      <c r="M4">
-        <v>6</v>
-      </c>
-      <c r="N4">
-        <v>1.5</v>
-      </c>
-      <c r="O4">
-        <v>3.75</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
       <c r="Q4">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S4">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T4">
+        <v>2.25</v>
+      </c>
+      <c r="U4">
         <v>2</v>
       </c>
-      <c r="U4">
-        <v>1.8</v>
-      </c>
       <c r="V4">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y4">
         <v>-1</v>
       </c>
       <c r="Z4">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA4">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB4">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC4">
-        <v>1.05</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -871,7 +871,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>6053242</v>
+        <v>6053245</v>
       </c>
       <c r="C5" t="s">
         <v>28</v>
@@ -886,73 +886,73 @@
         <v>32</v>
       </c>
       <c r="G5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5">
-        <v>2.1</v>
+        <v>7.5</v>
       </c>
       <c r="L5">
-        <v>3.2</v>
+        <v>5</v>
       </c>
       <c r="M5">
-        <v>3.3</v>
+        <v>1.333</v>
       </c>
       <c r="N5">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="O5">
-        <v>3.1</v>
+        <v>5.25</v>
       </c>
       <c r="P5">
-        <v>3.6</v>
+        <v>1.222</v>
       </c>
       <c r="Q5">
-        <v>-0.25</v>
+        <v>1.75</v>
       </c>
       <c r="R5">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S5">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T5">
-        <v>2.25</v>
+        <v>3</v>
       </c>
       <c r="U5">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V5">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X5">
         <v>-1</v>
       </c>
       <c r="Y5">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="Z5">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AA5">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AB5">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC5">
-        <v>0.425</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6" spans="1:29">
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6043235</v>
+        <v>6053243</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,10 +975,10 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -987,61 +987,61 @@
         <v>43</v>
       </c>
       <c r="K6">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="L6">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="M6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N6">
         <v>1.5</v>
       </c>
       <c r="O6">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="P6">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S6">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T6">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U6">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="V6">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="W6">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X6">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA6">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.025</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1067,53 +1067,53 @@
         <v>32</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L7">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N7">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O7">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P7">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q7">
+        <v>-1.75</v>
+      </c>
+      <c r="R7">
+        <v>1.95</v>
+      </c>
+      <c r="S7">
+        <v>1.9</v>
+      </c>
+      <c r="T7">
+        <v>3</v>
+      </c>
+      <c r="U7">
+        <v>1.95</v>
+      </c>
+      <c r="V7">
+        <v>1.9</v>
+      </c>
+      <c r="W7">
         <v>0.25</v>
       </c>
-      <c r="R7">
-        <v>1.825</v>
-      </c>
-      <c r="S7">
-        <v>2.025</v>
-      </c>
-      <c r="T7">
-        <v>2.25</v>
-      </c>
-      <c r="U7">
-        <v>2.025</v>
-      </c>
-      <c r="V7">
-        <v>1.825</v>
-      </c>
-      <c r="W7">
-        <v>2.1</v>
-      </c>
       <c r="X7">
         <v>-1</v>
       </c>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,55 +1153,55 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K8">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L8">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M8">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N8">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O8">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P8">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q8">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R8">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S8">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T8">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U8">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V8">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W8">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X8">
         <v>-1</v>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1340,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10">
         <v>3.1</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1429,7 +1429,7 @@
         <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K11">
         <v>1.909</v>
@@ -1506,11 +1506,11 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" t="s">
         <v>31</v>
       </c>
-      <c r="G12" t="s">
-        <v>32</v>
-      </c>
       <c r="H12">
         <v>0</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K12">
         <v>1.666</v>
@@ -1595,10 +1595,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" t="s">
         <v>34</v>
-      </c>
-      <c r="G13" t="s">
-        <v>35</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K14">
         <v>2.05</v>
@@ -1773,7 +1773,7 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G15" t="s">
         <v>37</v>
@@ -1785,7 +1785,7 @@
         <v>1</v>
       </c>
       <c r="J15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K15">
         <v>3.3</v>
@@ -1862,10 +1862,10 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H16">
         <v>4</v>
@@ -1874,7 +1874,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K16">
         <v>1.083</v>
@@ -1951,10 +1951,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H17">
         <v>2</v>
@@ -1963,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K17">
         <v>3.25</v>
@@ -2040,10 +2040,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K18">
         <v>1.333</v>
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053257</v>
+        <v>6053255</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2132,73 +2132,73 @@
         <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
         <v>2</v>
       </c>
-      <c r="I19">
-        <v>1</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M19">
+        <v>2.625</v>
+      </c>
+      <c r="N19">
+        <v>2.5</v>
+      </c>
+      <c r="O19">
+        <v>3.4</v>
+      </c>
+      <c r="P19">
+        <v>2.5</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1.925</v>
+      </c>
+      <c r="S19">
+        <v>1.925</v>
+      </c>
+      <c r="T19">
+        <v>2.75</v>
+      </c>
+      <c r="U19">
+        <v>1.975</v>
+      </c>
+      <c r="V19">
+        <v>1.875</v>
+      </c>
+      <c r="W19">
+        <v>-1</v>
+      </c>
+      <c r="X19">
+        <v>-1</v>
+      </c>
+      <c r="Y19">
         <v>1.5</v>
       </c>
-      <c r="N19">
-        <v>6.5</v>
-      </c>
-      <c r="O19">
-        <v>4</v>
-      </c>
-      <c r="P19">
-        <v>1.444</v>
-      </c>
-      <c r="Q19">
-        <v>1</v>
-      </c>
-      <c r="R19">
-        <v>2.1</v>
-      </c>
-      <c r="S19">
-        <v>1.775</v>
-      </c>
-      <c r="T19">
-        <v>2.5</v>
-      </c>
-      <c r="U19">
-        <v>1.95</v>
-      </c>
-      <c r="V19">
-        <v>1.9</v>
-      </c>
-      <c r="W19">
-        <v>5.5</v>
-      </c>
-      <c r="X19">
-        <v>-1</v>
-      </c>
-      <c r="Y19">
-        <v>-1</v>
-      </c>
       <c r="Z19">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA19">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053255</v>
+        <v>6053256</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H20">
         <v>1</v>
       </c>
       <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>4.2</v>
+      </c>
+      <c r="N20">
+        <v>1.8</v>
+      </c>
+      <c r="O20">
+        <v>3.25</v>
+      </c>
+      <c r="P20">
+        <v>4.333</v>
+      </c>
+      <c r="Q20">
+        <v>-0.5</v>
+      </c>
+      <c r="R20">
+        <v>1.85</v>
+      </c>
+      <c r="S20">
         <v>2</v>
       </c>
-      <c r="J20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K20">
-        <v>2.45</v>
-      </c>
-      <c r="L20">
-        <v>3.25</v>
-      </c>
-      <c r="M20">
-        <v>2.625</v>
-      </c>
-      <c r="N20">
-        <v>2.5</v>
-      </c>
-      <c r="O20">
-        <v>3.4</v>
-      </c>
-      <c r="P20">
-        <v>2.5</v>
-      </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>1.925</v>
-      </c>
-      <c r="S20">
-        <v>1.925</v>
-      </c>
       <c r="T20">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U20">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.875</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X20">
         <v>-1</v>
       </c>
       <c r="Y20">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z20">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053256</v>
+        <v>6053257</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,58 +2307,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>1.75</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>4.2</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
-        <v>1.8</v>
+        <v>6.5</v>
       </c>
       <c r="O21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P21">
-        <v>4.333</v>
+        <v>1.444</v>
       </c>
       <c r="Q21">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="R21">
-        <v>1.85</v>
+        <v>2.1</v>
       </c>
       <c r="S21">
-        <v>2</v>
+        <v>1.775</v>
       </c>
       <c r="T21">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U21">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>0.8</v>
+        <v>5.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
@@ -2367,16 +2367,16 @@
         <v>-1</v>
       </c>
       <c r="Z21">
-        <v>0.8500000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="AA21">
         <v>-1</v>
       </c>
       <c r="AB21">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
+        <v>30</v>
+      </c>
+      <c r="G23" t="s">
         <v>33</v>
-      </c>
-      <c r="G23" t="s">
-        <v>31</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2497,7 +2497,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K23">
         <v>1.75</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053260</v>
+        <v>6053262</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,13 +2574,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G24" t="s">
         <v>31</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2589,61 +2589,61 @@
         <v>42</v>
       </c>
       <c r="K24">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="L24">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M24">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N24">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O24">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P24">
+        <v>2.7</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>1.925</v>
+      </c>
+      <c r="S24">
+        <v>1.925</v>
+      </c>
+      <c r="T24">
         <v>2.25</v>
       </c>
-      <c r="Q24">
-        <v>0.25</v>
-      </c>
-      <c r="R24">
-        <v>1.85</v>
-      </c>
-      <c r="S24">
-        <v>2</v>
-      </c>
-      <c r="T24">
-        <v>2</v>
-      </c>
       <c r="U24">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V24">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W24">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X24">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y24">
         <v>-1</v>
       </c>
       <c r="Z24">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA24">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB24">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC24">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053262</v>
+        <v>6053260</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,13 +2663,13 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G25" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -2678,61 +2678,61 @@
         <v>43</v>
       </c>
       <c r="K25">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="L25">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M25">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N25">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O25">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P25">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R25">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S25">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T25">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U25">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V25">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W25">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X25">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA25">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB25">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053261</v>
+        <v>6053259</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G26" t="s">
         <v>29</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
         <v>43</v>
       </c>
       <c r="K26">
-        <v>1.166</v>
+        <v>2.2</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>3.25</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="N26">
-        <v>1.111</v>
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>2.875</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R26">
+        <v>1.8</v>
+      </c>
+      <c r="S26">
+        <v>2.05</v>
+      </c>
+      <c r="T26">
+        <v>2.5</v>
+      </c>
+      <c r="U26">
+        <v>1.975</v>
+      </c>
+      <c r="V26">
         <v>1.875</v>
       </c>
-      <c r="S26">
-        <v>1.975</v>
-      </c>
-      <c r="T26">
-        <v>3.5</v>
-      </c>
-      <c r="U26">
-        <v>2</v>
-      </c>
-      <c r="V26">
-        <v>1.85</v>
-      </c>
       <c r="W26">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>-0</v>
+      </c>
+      <c r="AB26">
+        <v>-1</v>
+      </c>
+      <c r="AC26">
         <v>0.875</v>
-      </c>
-      <c r="AA26">
-        <v>-1</v>
-      </c>
-      <c r="AB26">
-        <v>1</v>
-      </c>
-      <c r="AC26">
-        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053259</v>
+        <v>6043240</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2847,70 +2847,70 @@
         <v>30</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
       </c>
       <c r="K27">
-        <v>2.2</v>
+        <v>4</v>
       </c>
       <c r="L27">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M27">
-        <v>3</v>
+        <v>1.833</v>
       </c>
       <c r="N27">
-        <v>2.5</v>
+        <v>3.6</v>
       </c>
       <c r="O27">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="P27">
-        <v>2.875</v>
+        <v>2</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="R27">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="S27">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="T27">
         <v>2.5</v>
       </c>
       <c r="U27">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="V27">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="W27">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X27">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>0.825</v>
       </c>
       <c r="AA27">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB27">
         <v>-1</v>
       </c>
       <c r="AC27">
-        <v>0.875</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6043240</v>
+        <v>6053261</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,58 +2930,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>1.166</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>1.111</v>
+      </c>
+      <c r="O28">
+        <v>7.5</v>
+      </c>
+      <c r="P28">
+        <v>17</v>
+      </c>
+      <c r="Q28">
+        <v>-2.25</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
         <v>2</v>
       </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28" t="s">
-        <v>43</v>
-      </c>
-      <c r="K28">
-        <v>4</v>
-      </c>
-      <c r="L28">
-        <v>3.75</v>
-      </c>
-      <c r="M28">
-        <v>1.833</v>
-      </c>
-      <c r="N28">
-        <v>3.6</v>
-      </c>
-      <c r="O28">
-        <v>3.6</v>
-      </c>
-      <c r="P28">
-        <v>2</v>
-      </c>
-      <c r="Q28">
-        <v>0.5</v>
-      </c>
-      <c r="R28">
-        <v>1.825</v>
-      </c>
-      <c r="S28">
-        <v>2.025</v>
-      </c>
-      <c r="T28">
-        <v>2.5</v>
-      </c>
-      <c r="U28">
-        <v>1.925</v>
-      </c>
       <c r="V28">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W28">
-        <v>2.6</v>
+        <v>0.111</v>
       </c>
       <c r="X28">
         <v>-1</v>
@@ -2990,16 +2990,16 @@
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.825</v>
+        <v>0.875</v>
       </c>
       <c r="AA28">
         <v>-1</v>
       </c>
       <c r="AB28">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC28">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,11 +3019,11 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s">
         <v>30</v>
       </c>
-      <c r="G29" t="s">
-        <v>33</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K29">
         <v>5.25</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053266</v>
+        <v>6053265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K30">
-        <v>6.5</v>
+        <v>1.55</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>5.25</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>1.25</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y30">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC30">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3197,10 +3197,10 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H31">
         <v>3</v>
@@ -3209,7 +3209,7 @@
         <v>2</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
         <v>2.2</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053264</v>
+        <v>6053266</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,73 +3286,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J32" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>6.5</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>1.444</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>10</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>5.25</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>1.25</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>1.5</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V32">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>0.95</v>
       </c>
       <c r="AB32">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053265</v>
+        <v>6053264</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,13 +3375,13 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G33" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3390,61 +3390,61 @@
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.55</v>
+        <v>1.571</v>
       </c>
       <c r="L33">
         <v>3.8</v>
       </c>
       <c r="M33">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="N33">
-        <v>1.4</v>
+        <v>1.666</v>
       </c>
       <c r="O33">
-        <v>4.333</v>
+        <v>3.6</v>
       </c>
       <c r="P33">
-        <v>7</v>
+        <v>4.5</v>
       </c>
       <c r="Q33">
-        <v>-1.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R33">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S33">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T33">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U33">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="V33">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="W33">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X33">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y33">
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA33">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB33">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34" spans="1:29">
@@ -3464,10 +3464,10 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" t="s">
         <v>29</v>
-      </c>
-      <c r="G34" t="s">
-        <v>30</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3556,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K35">
         <v>2.4</v>
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3654,7 +3654,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K36">
         <v>1.85</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053271</v>
+        <v>6053270</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053272</v>
+        <v>6053271</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,40 +3820,40 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G38" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>2</v>
       </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K38">
-        <v>2.15</v>
+        <v>2.625</v>
       </c>
       <c r="L38">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
+        <v>2.45</v>
+      </c>
+      <c r="N38">
+        <v>3.2</v>
+      </c>
+      <c r="O38">
         <v>3.1</v>
       </c>
-      <c r="N38">
-        <v>2.45</v>
-      </c>
-      <c r="O38">
-        <v>3.2</v>
-      </c>
       <c r="P38">
-        <v>2.7</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
         <v>1.825</v>
@@ -3862,34 +3862,34 @@
         <v>2.025</v>
       </c>
       <c r="T38">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
         <v>-1</v>
       </c>
       <c r="X38">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
+        <v>1.025</v>
+      </c>
+      <c r="AB38">
+        <v>0</v>
+      </c>
+      <c r="AC38">
         <v>-0</v>
-      </c>
-      <c r="AB38">
-        <v>0.8500000000000001</v>
-      </c>
-      <c r="AC38">
-        <v>-1</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3897,7 +3897,7 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>6053270</v>
+        <v>6053272</v>
       </c>
       <c r="C39" t="s">
         <v>28</v>
@@ -3909,76 +3909,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G39" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H39">
         <v>2</v>
       </c>
       <c r="I39">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J39" t="s">
         <v>43</v>
       </c>
       <c r="K39">
-        <v>1.222</v>
+        <v>2.15</v>
       </c>
       <c r="L39">
-        <v>6</v>
+        <v>3.25</v>
       </c>
       <c r="M39">
-        <v>10</v>
+        <v>3.1</v>
       </c>
       <c r="N39">
-        <v>1.125</v>
+        <v>2.45</v>
       </c>
       <c r="O39">
-        <v>7.5</v>
+        <v>3.2</v>
       </c>
       <c r="P39">
-        <v>17</v>
+        <v>2.7</v>
       </c>
       <c r="Q39">
-        <v>-2.25</v>
+        <v>0</v>
       </c>
       <c r="R39">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S39">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T39">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U39">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="V39">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="W39">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X39">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y39">
         <v>-1</v>
       </c>
       <c r="Z39">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="AA39">
-        <v>0.4625</v>
+        <v>-0</v>
       </c>
       <c r="AB39">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC39">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="40" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G40" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K40">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L40">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M40">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N40">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O40">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P40">
+        <v>5</v>
+      </c>
+      <c r="Q40">
+        <v>-0.75</v>
+      </c>
+      <c r="R40">
+        <v>1.8</v>
+      </c>
+      <c r="S40">
         <v>2.05</v>
-      </c>
-      <c r="Q40">
-        <v>0.25</v>
-      </c>
-      <c r="R40">
-        <v>1.975</v>
-      </c>
-      <c r="S40">
-        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V40">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W40">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z40">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA40">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB40">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC40">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G41" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H41">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K41">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L41">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M41">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N41">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O41">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P41">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q41">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R41">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S41">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V41">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W41">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z41">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA41">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB41">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC41">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G43" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4277,7 +4277,7 @@
         <v>1</v>
       </c>
       <c r="J43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K43">
         <v>1.5</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053279</v>
+        <v>6053277</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4357,73 +4357,73 @@
         <v>35</v>
       </c>
       <c r="G44" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
       </c>
       <c r="I44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="s">
         <v>43</v>
       </c>
       <c r="K44">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L44">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M44">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N44">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O44">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P44">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q44">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
         <v>1.975</v>
       </c>
-      <c r="S44">
+      <c r="V44">
         <v>1.875</v>
       </c>
-      <c r="T44">
-        <v>2.5</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
       <c r="W44">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X44">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
         <v>-1</v>
       </c>
       <c r="AC44">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053277</v>
+        <v>6053279</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,73 +4446,73 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
         <v>42</v>
       </c>
       <c r="K45">
-        <v>1.363</v>
+        <v>1.95</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>3.3</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>1.727</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R45">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="S45">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="T45">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X45">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.4875</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6053280</v>
+        <v>6043243</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G46" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K46">
+        <v>3.75</v>
+      </c>
+      <c r="L46">
+        <v>3.4</v>
+      </c>
+      <c r="M46">
+        <v>1.8</v>
+      </c>
+      <c r="N46">
+        <v>3.25</v>
+      </c>
+      <c r="O46">
+        <v>3.1</v>
+      </c>
+      <c r="P46">
+        <v>2.05</v>
+      </c>
+      <c r="Q46">
+        <v>0.25</v>
+      </c>
+      <c r="R46">
         <v>1.95</v>
       </c>
-      <c r="L46">
-        <v>3.5</v>
-      </c>
-      <c r="M46">
-        <v>3.2</v>
-      </c>
-      <c r="N46">
-        <v>2.4</v>
-      </c>
-      <c r="O46">
-        <v>3.6</v>
-      </c>
-      <c r="P46">
-        <v>2.5</v>
-      </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>1.85</v>
-      </c>
       <c r="S46">
+        <v>1.9</v>
+      </c>
+      <c r="T46">
         <v>2</v>
       </c>
-      <c r="T46">
-        <v>2.5</v>
-      </c>
       <c r="U46">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V46">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0</v>
+        <v>0.475</v>
       </c>
       <c r="AA46">
+        <v>-0.5</v>
+      </c>
+      <c r="AB46">
+        <v>0</v>
+      </c>
+      <c r="AC46">
         <v>-0</v>
-      </c>
-      <c r="AB46">
-        <v>-1</v>
-      </c>
-      <c r="AC46">
-        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6043243</v>
+        <v>6053280</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G47" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K47">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M47">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N47">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="O47">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q47">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R47">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S47">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T47">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V47">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W47">
         <v>-1</v>
       </c>
       <c r="X47">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA47">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB47">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC47">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G48" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4722,7 +4722,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K48">
         <v>1.5</v>
@@ -4787,7 +4787,7 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>6053281</v>
+        <v>6053283</v>
       </c>
       <c r="C49" t="s">
         <v>28</v>
@@ -4802,73 +4802,73 @@
         <v>32</v>
       </c>
       <c r="G49" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49" t="s">
+        <v>41</v>
+      </c>
+      <c r="K49">
+        <v>21</v>
+      </c>
+      <c r="L49">
+        <v>8.5</v>
+      </c>
+      <c r="M49">
+        <v>1.1</v>
+      </c>
+      <c r="N49">
+        <v>12</v>
+      </c>
+      <c r="O49">
+        <v>7</v>
+      </c>
+      <c r="P49">
+        <v>1.2</v>
+      </c>
+      <c r="Q49">
         <v>2</v>
       </c>
-      <c r="I49">
-        <v>2</v>
-      </c>
-      <c r="J49" t="s">
-        <v>42</v>
-      </c>
-      <c r="K49">
-        <v>2.3</v>
-      </c>
-      <c r="L49">
-        <v>3.2</v>
-      </c>
-      <c r="M49">
-        <v>3</v>
-      </c>
-      <c r="N49">
-        <v>2.75</v>
-      </c>
-      <c r="O49">
-        <v>3.2</v>
-      </c>
-      <c r="P49">
-        <v>2.5</v>
-      </c>
-      <c r="Q49">
-        <v>0</v>
-      </c>
       <c r="R49">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S49">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T49">
-        <v>2.25</v>
+        <v>3.25</v>
       </c>
       <c r="U49">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="V49">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="W49">
         <v>-1</v>
       </c>
       <c r="X49">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y49">
-        <v>-1</v>
+        <v>0.2</v>
       </c>
       <c r="Z49">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AA49">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB49">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC49">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:29">
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6053283</v>
+        <v>6043244</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4888,76 +4888,76 @@
         <v>45163.65625</v>
       </c>
       <c r="F50" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K50">
-        <v>21</v>
+        <v>1.7</v>
       </c>
       <c r="L50">
-        <v>8.5</v>
+        <v>3.6</v>
       </c>
       <c r="M50">
-        <v>1.1</v>
+        <v>4.333</v>
       </c>
       <c r="N50">
-        <v>12</v>
+        <v>1.5</v>
       </c>
       <c r="O50">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P50">
-        <v>1.2</v>
+        <v>5.5</v>
       </c>
       <c r="Q50">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="R50">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T50">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U50">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V50">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W50">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X50">
         <v>-1</v>
       </c>
       <c r="Y50">
-        <v>0.2</v>
+        <v>-1</v>
       </c>
       <c r="Z50">
-        <v>0.875</v>
+        <v>0</v>
       </c>
       <c r="AA50">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB50">
         <v>-1</v>
       </c>
       <c r="AC50">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4965,7 +4965,7 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>6043244</v>
+        <v>6053282</v>
       </c>
       <c r="C51" t="s">
         <v>28</v>
@@ -4977,58 +4977,58 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G51" t="s">
         <v>35</v>
       </c>
       <c r="H51">
+        <v>3</v>
+      </c>
+      <c r="I51">
         <v>1</v>
       </c>
-      <c r="I51">
-        <v>0</v>
-      </c>
       <c r="J51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K51">
-        <v>1.7</v>
+        <v>1.833</v>
       </c>
       <c r="L51">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="M51">
-        <v>4.333</v>
+        <v>4</v>
       </c>
       <c r="N51">
-        <v>1.5</v>
+        <v>1.909</v>
       </c>
       <c r="O51">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P51">
-        <v>5.5</v>
+        <v>3.5</v>
       </c>
       <c r="Q51">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R51">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S51">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T51">
         <v>2.5</v>
       </c>
       <c r="U51">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V51">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W51">
-        <v>0.5</v>
+        <v>0.909</v>
       </c>
       <c r="X51">
         <v>-1</v>
@@ -5037,16 +5037,16 @@
         <v>-1</v>
       </c>
       <c r="Z51">
-        <v>0</v>
+        <v>1.025</v>
       </c>
       <c r="AA51">
-        <v>-0</v>
+        <v>-1</v>
       </c>
       <c r="AB51">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC51">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="52" spans="1:29">
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053282</v>
+        <v>6053281</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,73 +5066,73 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H52">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J52" t="s">
         <v>43</v>
       </c>
       <c r="K52">
-        <v>1.833</v>
+        <v>2.3</v>
       </c>
       <c r="L52">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M52">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52">
-        <v>1.909</v>
+        <v>2.75</v>
       </c>
       <c r="O52">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="P52">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q52">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R52">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="S52">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="T52">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U52">
-        <v>1.875</v>
+        <v>2</v>
       </c>
       <c r="V52">
-        <v>1.975</v>
+        <v>1.85</v>
       </c>
       <c r="W52">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X52">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y52">
         <v>-1</v>
       </c>
       <c r="Z52">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA52">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB52">
-        <v>0.875</v>
+        <v>1</v>
       </c>
       <c r="AC52">
         <v>-1</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053286</v>
+        <v>6053287</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,49 +5244,49 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K54">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>11</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>1.3</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>9</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S54">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T54">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
         <v>1.975</v>
@@ -5295,25 +5295,25 @@
         <v>1.875</v>
       </c>
       <c r="W54">
-        <v>0.3</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z54">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="55" spans="1:29">
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6043245</v>
+        <v>6053286</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,7 +5333,7 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G55" t="s">
         <v>32</v>
@@ -5345,46 +5345,46 @@
         <v>0</v>
       </c>
       <c r="J55" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K55">
-        <v>1.615</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
-        <v>3.75</v>
+        <v>5.5</v>
       </c>
       <c r="M55">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="N55">
-        <v>1.909</v>
+        <v>1.3</v>
       </c>
       <c r="O55">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P55">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="Q55">
-        <v>-0.5</v>
+        <v>-1.5</v>
       </c>
       <c r="R55">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S55">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T55">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U55">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>0.909</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.95</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6053285</v>
+        <v>6043245</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,10 +5422,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G56" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5434,46 +5434,46 @@
         <v>0</v>
       </c>
       <c r="J56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K56">
-        <v>2.8</v>
+        <v>1.615</v>
       </c>
       <c r="L56">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="M56">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="N56">
-        <v>2.45</v>
+        <v>1.909</v>
       </c>
       <c r="O56">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P56">
-        <v>2.8</v>
+        <v>4</v>
       </c>
       <c r="Q56">
-        <v>0</v>
+        <v>-0.5</v>
       </c>
       <c r="R56">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S56">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T56">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U56">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="V56">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="W56">
-        <v>1.45</v>
+        <v>0.909</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1</v>
+        <v>1.025</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053287</v>
+        <v>6053288</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,73 +5511,73 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H57">
+        <v>2</v>
+      </c>
+      <c r="I57">
         <v>1</v>
       </c>
-      <c r="I57">
+      <c r="J57" t="s">
+        <v>42</v>
+      </c>
+      <c r="K57">
+        <v>2.8</v>
+      </c>
+      <c r="L57">
         <v>3</v>
       </c>
-      <c r="J57" t="s">
-        <v>41</v>
-      </c>
-      <c r="K57">
-        <v>3</v>
-      </c>
-      <c r="L57">
-        <v>3.25</v>
-      </c>
       <c r="M57">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="N57">
-        <v>3.4</v>
+        <v>2.375</v>
       </c>
       <c r="O57">
         <v>3</v>
       </c>
       <c r="P57">
-        <v>2.15</v>
+        <v>3</v>
       </c>
       <c r="Q57">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="T57">
         <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>-1</v>
+        <v>1.375</v>
       </c>
       <c r="X57">
         <v>-1</v>
       </c>
       <c r="Y57">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z57">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA57">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
       <c r="AC57">
         <v>-1</v>
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053288</v>
+        <v>6053285</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,46 +5600,46 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
         <v>2.8</v>
       </c>
       <c r="L58">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M58">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="N58">
-        <v>2.375</v>
+        <v>2.45</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P58">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="Q58">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R58">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="S58">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="T58">
         <v>2.25</v>
@@ -5651,7 +5651,7 @@
         <v>1.85</v>
       </c>
       <c r="W58">
-        <v>1.375</v>
+        <v>1.45</v>
       </c>
       <c r="X58">
         <v>-1</v>
@@ -5660,7 +5660,7 @@
         <v>-1</v>
       </c>
       <c r="Z58">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="AA58">
         <v>-1</v>
@@ -5689,10 +5689,10 @@
         <v>45175.65625</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5870,7 +5870,7 @@
         <v>36</v>
       </c>
       <c r="G61" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H61">
         <v>2</v>
@@ -5879,7 +5879,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K61">
         <v>1.222</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288773</v>
+        <v>6288260</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G62" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J62" t="s">
         <v>43</v>
       </c>
       <c r="K62">
-        <v>1.615</v>
+        <v>12</v>
       </c>
       <c r="L62">
-        <v>3.6</v>
+        <v>7.5</v>
       </c>
       <c r="M62">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="N62">
-        <v>1.666</v>
+        <v>34</v>
       </c>
       <c r="O62">
+        <v>11</v>
+      </c>
+      <c r="P62">
+        <v>1.055</v>
+      </c>
+      <c r="Q62">
+        <v>2.75</v>
+      </c>
+      <c r="R62">
+        <v>1.925</v>
+      </c>
+      <c r="S62">
+        <v>1.925</v>
+      </c>
+      <c r="T62">
         <v>3.5</v>
       </c>
-      <c r="P62">
-        <v>5.75</v>
-      </c>
-      <c r="Q62">
-        <v>-0.75</v>
-      </c>
-      <c r="R62">
-        <v>1.875</v>
-      </c>
-      <c r="S62">
-        <v>1.975</v>
-      </c>
-      <c r="T62">
-        <v>2.25</v>
-      </c>
       <c r="U62">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V62">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W62">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X62">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA62">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB62">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288260</v>
+        <v>6288259</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,76 +6045,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="G63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" t="s">
         <v>42</v>
       </c>
       <c r="K63">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="L63">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M63">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="N63">
-        <v>34</v>
+        <v>1.95</v>
       </c>
       <c r="O63">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P63">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="Q63">
-        <v>2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R63">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S63">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T63">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U63">
+        <v>1.85</v>
+      </c>
+      <c r="V63">
         <v>2</v>
       </c>
-      <c r="V63">
-        <v>1.85</v>
-      </c>
       <c r="W63">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X63">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>6288259</v>
+        <v>7197534</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H64">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J64" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K64">
-        <v>1.8</v>
+        <v>3.6</v>
       </c>
       <c r="L64">
+        <v>3.25</v>
+      </c>
+      <c r="M64">
+        <v>2.1</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64">
         <v>3.4</v>
       </c>
-      <c r="M64">
-        <v>4.5</v>
-      </c>
-      <c r="N64">
-        <v>1.95</v>
-      </c>
-      <c r="O64">
-        <v>3.5</v>
-      </c>
       <c r="P64">
-        <v>3.8</v>
+        <v>1.75</v>
       </c>
       <c r="Q64">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R64">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S64">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T64">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V64">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W64">
-        <v>0.95</v>
+        <v>4</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,16 +6194,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.95</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA64">
         <v>-1</v>
       </c>
       <c r="AB64">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC64">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>7197534</v>
+        <v>6288772</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,13 +6223,13 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G65" t="s">
         <v>31</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -6238,52 +6238,52 @@
         <v>43</v>
       </c>
       <c r="K65">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="L65">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M65">
         <v>2.1</v>
       </c>
       <c r="N65">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="O65">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P65">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Q65">
         <v>0.75</v>
       </c>
       <c r="R65">
+        <v>1.975</v>
+      </c>
+      <c r="S65">
+        <v>1.875</v>
+      </c>
+      <c r="T65">
+        <v>2.75</v>
+      </c>
+      <c r="U65">
         <v>1.85</v>
       </c>
-      <c r="S65">
+      <c r="V65">
         <v>2</v>
       </c>
-      <c r="T65">
-        <v>2.25</v>
-      </c>
-      <c r="U65">
-        <v>1.825</v>
-      </c>
-      <c r="V65">
-        <v>2.025</v>
-      </c>
       <c r="W65">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="X65">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.8500000000000001</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1.025</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288772</v>
+        <v>6288773</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" t="s">
         <v>42</v>
       </c>
       <c r="K66">
-        <v>3.3</v>
+        <v>1.615</v>
       </c>
       <c r="L66">
+        <v>3.6</v>
+      </c>
+      <c r="M66">
+        <v>6</v>
+      </c>
+      <c r="N66">
+        <v>1.666</v>
+      </c>
+      <c r="O66">
         <v>3.5</v>
       </c>
-      <c r="M66">
-        <v>2.1</v>
-      </c>
-      <c r="N66">
-        <v>4.75</v>
-      </c>
-      <c r="O66">
-        <v>3.75</v>
-      </c>
       <c r="P66">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="Q66">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R66">
+        <v>1.875</v>
+      </c>
+      <c r="S66">
         <v>1.975</v>
       </c>
-      <c r="S66">
-        <v>1.875</v>
-      </c>
       <c r="T66">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U66">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="V66">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="W66">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X66">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.9750000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA66">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB66">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC66">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6389,7 +6389,7 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>6053289</v>
+        <v>7106289</v>
       </c>
       <c r="C67" t="s">
         <v>28</v>
@@ -6401,76 +6401,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G67" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67" t="s">
         <v>42</v>
       </c>
       <c r="K67">
+        <v>1.6</v>
+      </c>
+      <c r="L67">
+        <v>3.8</v>
+      </c>
+      <c r="M67">
+        <v>4.75</v>
+      </c>
+      <c r="N67">
+        <v>1.75</v>
+      </c>
+      <c r="O67">
+        <v>3.8</v>
+      </c>
+      <c r="P67">
+        <v>4.2</v>
+      </c>
+      <c r="Q67">
+        <v>-0.75</v>
+      </c>
+      <c r="R67">
+        <v>2.05</v>
+      </c>
+      <c r="S67">
         <v>1.8</v>
       </c>
-      <c r="L67">
-        <v>3.3</v>
-      </c>
-      <c r="M67">
-        <v>4.2</v>
-      </c>
-      <c r="N67">
-        <v>2.1</v>
-      </c>
-      <c r="O67">
-        <v>3.3</v>
-      </c>
-      <c r="P67">
-        <v>3.5</v>
-      </c>
-      <c r="Q67">
-        <v>-0.25</v>
-      </c>
-      <c r="R67">
-        <v>1.8</v>
-      </c>
-      <c r="S67">
-        <v>2.05</v>
-      </c>
       <c r="T67">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U67">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V67">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W67">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X67">
-        <v>2.3</v>
+        <v>-1</v>
       </c>
       <c r="Y67">
         <v>-1</v>
       </c>
       <c r="Z67">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AA67">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB67">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC67">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="68" spans="1:29">
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6567,7 +6567,7 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>7106289</v>
+        <v>6053289</v>
       </c>
       <c r="C69" t="s">
         <v>28</v>
@@ -6579,76 +6579,76 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G69" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H69">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" t="s">
         <v>43</v>
       </c>
       <c r="K69">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="L69">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="M69">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="N69">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="O69">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="P69">
-        <v>4.2</v>
+        <v>3.5</v>
       </c>
       <c r="Q69">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R69">
+        <v>1.8</v>
+      </c>
+      <c r="S69">
         <v>2.05</v>
       </c>
-      <c r="S69">
-        <v>1.8</v>
-      </c>
       <c r="T69">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U69">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V69">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W69">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
       <c r="X69">
-        <v>-1</v>
+        <v>2.3</v>
       </c>
       <c r="Y69">
         <v>-1</v>
       </c>
       <c r="Z69">
-        <v>1.05</v>
+        <v>-0.5</v>
       </c>
       <c r="AA69">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB69">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AC69">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="70" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323097</v>
+        <v>6323101</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,34 +6668,34 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G70" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N70">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O70">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
         <v>5</v>
@@ -6704,22 +6704,22 @@
         <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
@@ -6728,16 +6728,16 @@
         <v>-1</v>
       </c>
       <c r="Z70">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA70">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC70">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323098</v>
+        <v>6323097</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,46 +6757,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G71" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I71">
         <v>1</v>
       </c>
       <c r="J71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K71">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O71">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P71">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q71">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
         <v>2.5</v>
@@ -6808,25 +6808,25 @@
         <v>2.025</v>
       </c>
       <c r="W71">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
       </c>
       <c r="Y71">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z71">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA71">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323101</v>
+        <v>6323098</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,76 +6846,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G72" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H72">
+        <v>0</v>
+      </c>
+      <c r="I72">
         <v>1</v>
       </c>
-      <c r="I72">
-        <v>0</v>
-      </c>
       <c r="J72" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K72">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>4.25</v>
+        <v>2.05</v>
       </c>
       <c r="N72">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U72">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V72">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z72">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
         <v>-1</v>
       </c>
       <c r="AC72">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,10 +6935,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -6947,7 +6947,7 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K73">
         <v>1.833</v>
@@ -7024,10 +7024,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G74" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H74">
         <v>6</v>
@@ -7036,7 +7036,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K74">
         <v>1.071</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,13 +7113,13 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G75" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -7128,52 +7128,52 @@
         <v>42</v>
       </c>
       <c r="K75">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L75">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M75">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N75">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O75">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P75">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q75">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R75">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S75">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T75">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U75">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V75">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W75">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X75">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,13 +7202,13 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="G76" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -7217,52 +7217,52 @@
         <v>43</v>
       </c>
       <c r="K76">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L76">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M76">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N76">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O76">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P76">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q76">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R76">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S76">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T76">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U76">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V76">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W76">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X76">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7291,10 +7291,10 @@
         <v>45211.65625</v>
       </c>
       <c r="F77" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7647,10 +7647,10 @@
         <v>45221.45833333334</v>
       </c>
       <c r="F81" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K82">
         <v>1.333</v>
@@ -7837,7 +7837,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K83">
         <v>1.6</v>
@@ -7902,7 +7902,7 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>6382788</v>
+        <v>6382790</v>
       </c>
       <c r="C84" t="s">
         <v>28</v>
@@ -7914,40 +7914,40 @@
         <v>45226.65625</v>
       </c>
       <c r="F84" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K84">
-        <v>5.75</v>
+        <v>1.142</v>
       </c>
       <c r="L84">
-        <v>4</v>
+        <v>7.5</v>
       </c>
       <c r="M84">
-        <v>1.55</v>
+        <v>17</v>
       </c>
       <c r="N84">
-        <v>6</v>
+        <v>1.181</v>
       </c>
       <c r="O84">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P84">
-        <v>1.55</v>
+        <v>15</v>
       </c>
       <c r="Q84">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="R84">
         <v>1.9</v>
@@ -7956,34 +7956,34 @@
         <v>1.95</v>
       </c>
       <c r="T84">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="U84">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V84">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W84">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="X84">
         <v>-1</v>
       </c>
       <c r="Y84">
-        <v>0.55</v>
+        <v>-1</v>
       </c>
       <c r="Z84">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA84">
-        <v>-0</v>
+        <v>0.95</v>
       </c>
       <c r="AB84">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AC84">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="85" spans="1:29">
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382789</v>
+        <v>6382788</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K85">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="L85">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M85">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="N85">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O85">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P85">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q85">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R85">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S85">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T85">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U85">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V85">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W85">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X85">
         <v>-1</v>
       </c>
       <c r="Y85">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z85">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA85">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB85">
         <v>-1</v>
       </c>
       <c r="AC85">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382790</v>
+        <v>6382789</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8092,58 +8092,58 @@
         <v>45226.65625</v>
       </c>
       <c r="F86" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H86">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86" t="s">
+        <v>42</v>
+      </c>
+      <c r="K86">
+        <v>2.625</v>
+      </c>
+      <c r="L86">
+        <v>3.4</v>
+      </c>
+      <c r="M86">
+        <v>2.55</v>
+      </c>
+      <c r="N86">
+        <v>3.2</v>
+      </c>
+      <c r="O86">
+        <v>3.6</v>
+      </c>
+      <c r="P86">
+        <v>2.15</v>
+      </c>
+      <c r="Q86">
+        <v>0.25</v>
+      </c>
+      <c r="R86">
+        <v>2.025</v>
+      </c>
+      <c r="S86">
+        <v>1.825</v>
+      </c>
+      <c r="T86">
+        <v>2.75</v>
+      </c>
+      <c r="U86">
+        <v>1.85</v>
+      </c>
+      <c r="V86">
         <v>2</v>
       </c>
-      <c r="J86" t="s">
-        <v>43</v>
-      </c>
-      <c r="K86">
-        <v>1.142</v>
-      </c>
-      <c r="L86">
-        <v>7.5</v>
-      </c>
-      <c r="M86">
-        <v>17</v>
-      </c>
-      <c r="N86">
-        <v>1.181</v>
-      </c>
-      <c r="O86">
-        <v>7</v>
-      </c>
-      <c r="P86">
-        <v>15</v>
-      </c>
-      <c r="Q86">
-        <v>-2</v>
-      </c>
-      <c r="R86">
-        <v>1.9</v>
-      </c>
-      <c r="S86">
-        <v>1.95</v>
-      </c>
-      <c r="T86">
-        <v>3</v>
-      </c>
-      <c r="U86">
-        <v>1.95</v>
-      </c>
-      <c r="V86">
-        <v>1.9</v>
-      </c>
       <c r="W86">
-        <v>0.181</v>
+        <v>2.2</v>
       </c>
       <c r="X86">
         <v>-1</v>
@@ -8152,16 +8152,16 @@
         <v>-1</v>
       </c>
       <c r="Z86">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB86">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC86">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G89" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412856</v>
+        <v>6412498</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8451,46 +8451,46 @@
         <v>33</v>
       </c>
       <c r="G90" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H90">
+        <v>3</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>42</v>
+      </c>
+      <c r="K90">
+        <v>1.7</v>
+      </c>
+      <c r="L90">
+        <v>3.75</v>
+      </c>
+      <c r="M90">
+        <v>4.2</v>
+      </c>
+      <c r="N90">
+        <v>1.45</v>
+      </c>
+      <c r="O90">
         <v>4</v>
       </c>
-      <c r="I90">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>43</v>
-      </c>
-      <c r="K90">
-        <v>1.25</v>
-      </c>
-      <c r="L90">
-        <v>5.25</v>
-      </c>
-      <c r="M90">
-        <v>9.5</v>
-      </c>
-      <c r="N90">
-        <v>1.222</v>
-      </c>
-      <c r="O90">
-        <v>5.5</v>
-      </c>
       <c r="P90">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="Q90">
-        <v>-1.75</v>
+        <v>-1.25</v>
       </c>
       <c r="R90">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="S90">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="T90">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="U90">
         <v>2</v>
@@ -8499,7 +8499,7 @@
         <v>1.85</v>
       </c>
       <c r="W90">
-        <v>0.222</v>
+        <v>0.45</v>
       </c>
       <c r="X90">
         <v>-1</v>
@@ -8508,16 +8508,16 @@
         <v>-1</v>
       </c>
       <c r="Z90">
-        <v>0.475</v>
+        <v>0.925</v>
       </c>
       <c r="AA90">
+        <v>-1</v>
+      </c>
+      <c r="AB90">
+        <v>0.5</v>
+      </c>
+      <c r="AC90">
         <v>-0.5</v>
-      </c>
-      <c r="AB90">
-        <v>1</v>
-      </c>
-      <c r="AC90">
-        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412498</v>
+        <v>6412856</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,49 +8537,49 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H91">
+        <v>4</v>
+      </c>
+      <c r="I91">
+        <v>2</v>
+      </c>
+      <c r="J91" t="s">
+        <v>42</v>
+      </c>
+      <c r="K91">
+        <v>1.25</v>
+      </c>
+      <c r="L91">
+        <v>5.25</v>
+      </c>
+      <c r="M91">
+        <v>9.5</v>
+      </c>
+      <c r="N91">
+        <v>1.222</v>
+      </c>
+      <c r="O91">
+        <v>5.5</v>
+      </c>
+      <c r="P91">
+        <v>9</v>
+      </c>
+      <c r="Q91">
+        <v>-1.75</v>
+      </c>
+      <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
+        <v>1.9</v>
+      </c>
+      <c r="T91">
         <v>3</v>
-      </c>
-      <c r="I91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>43</v>
-      </c>
-      <c r="K91">
-        <v>1.7</v>
-      </c>
-      <c r="L91">
-        <v>3.75</v>
-      </c>
-      <c r="M91">
-        <v>4.2</v>
-      </c>
-      <c r="N91">
-        <v>1.45</v>
-      </c>
-      <c r="O91">
-        <v>4</v>
-      </c>
-      <c r="P91">
-        <v>6.5</v>
-      </c>
-      <c r="Q91">
-        <v>-1.25</v>
-      </c>
-      <c r="R91">
-        <v>1.925</v>
-      </c>
-      <c r="S91">
-        <v>1.925</v>
-      </c>
-      <c r="T91">
-        <v>2.75</v>
       </c>
       <c r="U91">
         <v>2</v>
@@ -8588,7 +8588,7 @@
         <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.45</v>
+        <v>0.222</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,16 +8597,16 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.925</v>
+        <v>0.475</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AC91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="92" spans="1:29">
@@ -8626,7 +8626,7 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G92" t="s">
         <v>38</v>
@@ -8715,10 +8715,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G93" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H93">
         <v>4</v>
@@ -8727,7 +8727,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K93">
         <v>1.4</v>
@@ -8804,10 +8804,10 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G94" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H94">
         <v>1</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K95">
         <v>1.363</v>
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630127</v>
+        <v>7630125</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,40 +8982,40 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="G96" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K96">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="L96">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M96">
-        <v>2.1</v>
+        <v>3.5</v>
       </c>
       <c r="N96">
-        <v>3.5</v>
+        <v>1.95</v>
       </c>
       <c r="O96">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P96">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q96">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R96">
         <v>2.025</v>
@@ -9024,34 +9024,34 @@
         <v>1.825</v>
       </c>
       <c r="T96">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U96">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V96">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W96">
         <v>-1</v>
       </c>
       <c r="X96">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="Y96">
         <v>-1</v>
       </c>
       <c r="Z96">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA96">
-        <v>-0.5</v>
+        <v>0.825</v>
       </c>
       <c r="AB96">
-        <v>-0.5</v>
+        <v>1.05</v>
       </c>
       <c r="AC96">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630126</v>
+        <v>7630127</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,13 +9071,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
@@ -9086,61 +9086,61 @@
         <v>43</v>
       </c>
       <c r="K97">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O97">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630125</v>
+        <v>7630061</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,76 +9160,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="G98" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H98">
+        <v>0</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98" t="s">
+        <v>41</v>
+      </c>
+      <c r="K98">
+        <v>3.1</v>
+      </c>
+      <c r="L98">
+        <v>3.4</v>
+      </c>
+      <c r="M98">
         <v>2</v>
       </c>
-      <c r="I98">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>42</v>
-      </c>
-      <c r="K98">
+      <c r="N98">
+        <v>2.3</v>
+      </c>
+      <c r="O98">
+        <v>3.5</v>
+      </c>
+      <c r="P98">
+        <v>2.9</v>
+      </c>
+      <c r="Q98">
+        <v>-0.25</v>
+      </c>
+      <c r="R98">
+        <v>2.05</v>
+      </c>
+      <c r="S98">
         <v>1.8</v>
-      </c>
-      <c r="L98">
-        <v>3.6</v>
-      </c>
-      <c r="M98">
-        <v>3.5</v>
-      </c>
-      <c r="N98">
-        <v>1.95</v>
-      </c>
-      <c r="O98">
-        <v>3.6</v>
-      </c>
-      <c r="P98">
-        <v>3.6</v>
-      </c>
-      <c r="Q98">
-        <v>-0.5</v>
-      </c>
-      <c r="R98">
-        <v>2.025</v>
-      </c>
-      <c r="S98">
-        <v>1.825</v>
       </c>
       <c r="T98">
         <v>2.5</v>
       </c>
       <c r="U98">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="V98">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y98">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z98">
         <v>-1</v>
       </c>
       <c r="AA98">
-        <v>0.825</v>
+        <v>0.8</v>
       </c>
       <c r="AB98">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630061</v>
+        <v>7630126</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G99" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K99">
-        <v>3.1</v>
+        <v>1.4</v>
       </c>
       <c r="L99">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="M99">
-        <v>2</v>
+        <v>5.5</v>
       </c>
       <c r="N99">
-        <v>2.3</v>
+        <v>1.333</v>
       </c>
       <c r="O99">
-        <v>3.5</v>
+        <v>5.75</v>
       </c>
       <c r="P99">
-        <v>2.9</v>
+        <v>8</v>
       </c>
       <c r="Q99">
-        <v>-0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R99">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="S99">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="T99">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U99">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V99">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W99">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.8</v>
+        <v>0.875</v>
       </c>
       <c r="AB99">
-        <v>-1</v>
+        <v>0.4375</v>
       </c>
       <c r="AC99">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630130</v>
+        <v>7630062</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,76 +9338,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
         <v>2</v>
       </c>
-      <c r="I100">
-        <v>1</v>
-      </c>
       <c r="J100" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K100">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="L100">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="M100">
-        <v>1.85</v>
+        <v>3.6</v>
       </c>
       <c r="N100">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="O100">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="P100">
-        <v>2.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q100">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R100">
+        <v>1.9</v>
+      </c>
+      <c r="S100">
+        <v>1.95</v>
+      </c>
+      <c r="T100">
         <v>2</v>
       </c>
-      <c r="S100">
-        <v>1.85</v>
-      </c>
-      <c r="T100">
-        <v>1.75</v>
-      </c>
       <c r="U100">
-        <v>1.775</v>
+        <v>1.825</v>
       </c>
       <c r="V100">
-        <v>2.1</v>
+        <v>2.025</v>
       </c>
       <c r="W100">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="X100">
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA100">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB100">
-        <v>0.7749999999999999</v>
+        <v>0</v>
       </c>
       <c r="AC100">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630131</v>
+        <v>7630129</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,56 +9427,56 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G101" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J101" t="s">
         <v>41</v>
       </c>
       <c r="K101">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="L101">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M101">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="N101">
-        <v>2.3</v>
+        <v>2.625</v>
       </c>
       <c r="O101">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P101">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="Q101">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R101">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="S101">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="T101">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U101">
+        <v>1.875</v>
+      </c>
+      <c r="V101">
         <v>1.975</v>
       </c>
-      <c r="V101">
-        <v>1.875</v>
-      </c>
       <c r="W101">
         <v>-1</v>
       </c>
@@ -9484,19 +9484,19 @@
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="Z101">
         <v>-1</v>
       </c>
       <c r="AA101">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB101">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC101">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="102" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630129</v>
+        <v>7630131</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,56 +9516,56 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="H102">
+        <v>0</v>
+      </c>
+      <c r="I102">
         <v>1</v>
-      </c>
-      <c r="I102">
-        <v>4</v>
       </c>
       <c r="J102" t="s">
         <v>41</v>
       </c>
       <c r="K102">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
+        <v>3.4</v>
+      </c>
+      <c r="M102">
+        <v>3</v>
+      </c>
+      <c r="N102">
+        <v>2.3</v>
+      </c>
+      <c r="O102">
         <v>3.25</v>
       </c>
-      <c r="M102">
-        <v>3.8</v>
-      </c>
-      <c r="N102">
-        <v>2.625</v>
-      </c>
-      <c r="O102">
+      <c r="P102">
         <v>3.1</v>
       </c>
-      <c r="P102">
-        <v>2.75</v>
-      </c>
       <c r="Q102">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R102">
+        <v>2.05</v>
+      </c>
+      <c r="S102">
+        <v>1.8</v>
+      </c>
+      <c r="T102">
+        <v>2.5</v>
+      </c>
+      <c r="U102">
+        <v>1.975</v>
+      </c>
+      <c r="V102">
         <v>1.875</v>
       </c>
-      <c r="S102">
-        <v>1.975</v>
-      </c>
-      <c r="T102">
-        <v>2.25</v>
-      </c>
-      <c r="U102">
-        <v>1.875</v>
-      </c>
-      <c r="V102">
-        <v>1.975</v>
-      </c>
       <c r="W102">
         <v>-1</v>
       </c>
@@ -9573,19 +9573,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
+        <v>-1</v>
+      </c>
+      <c r="AC102">
         <v>0.875</v>
-      </c>
-      <c r="AC102">
-        <v>-1</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630062</v>
+        <v>7630130</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G103" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103" t="s">
+        <v>42</v>
+      </c>
+      <c r="K103">
+        <v>4.333</v>
+      </c>
+      <c r="L103">
+        <v>3.3</v>
+      </c>
+      <c r="M103">
+        <v>1.85</v>
+      </c>
+      <c r="N103">
+        <v>3.75</v>
+      </c>
+      <c r="O103">
+        <v>2.9</v>
+      </c>
+      <c r="P103">
+        <v>2.1</v>
+      </c>
+      <c r="Q103">
+        <v>0.25</v>
+      </c>
+      <c r="R103">
         <v>2</v>
       </c>
-      <c r="J103" t="s">
-        <v>41</v>
-      </c>
-      <c r="K103">
+      <c r="S103">
+        <v>1.85</v>
+      </c>
+      <c r="T103">
+        <v>1.75</v>
+      </c>
+      <c r="U103">
+        <v>1.775</v>
+      </c>
+      <c r="V103">
         <v>2.1</v>
       </c>
-      <c r="L103">
-        <v>3.2</v>
-      </c>
-      <c r="M103">
-        <v>3.6</v>
-      </c>
-      <c r="N103">
-        <v>2.2</v>
-      </c>
-      <c r="O103">
-        <v>3</v>
-      </c>
-      <c r="P103">
-        <v>3.6</v>
-      </c>
-      <c r="Q103">
-        <v>-0.25</v>
-      </c>
-      <c r="R103">
-        <v>1.9</v>
-      </c>
-      <c r="S103">
-        <v>1.95</v>
-      </c>
-      <c r="T103">
-        <v>2</v>
-      </c>
-      <c r="U103">
-        <v>1.825</v>
-      </c>
-      <c r="V103">
-        <v>2.025</v>
-      </c>
       <c r="W103">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="X103">
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Z103">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA103">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB103">
-        <v>0</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC103">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K105">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L105">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M105">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N105">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O105">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P105">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q105">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R105">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S105">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T105">
+        <v>2.25</v>
+      </c>
+      <c r="U105">
         <v>2</v>
       </c>
-      <c r="U105">
-        <v>2.05</v>
-      </c>
       <c r="V105">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W105">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X105">
         <v>-1</v>
       </c>
       <c r="Y105">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z105">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA105">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB105">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC105">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9884,7 +9884,7 @@
         <v>1</v>
       </c>
       <c r="J106" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K106">
         <v>1.85</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630463</v>
+        <v>7630134</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N107">
+        <v>3.2</v>
+      </c>
+      <c r="O107">
+        <v>2.875</v>
+      </c>
+      <c r="P107">
+        <v>2.375</v>
+      </c>
+      <c r="Q107">
+        <v>0.25</v>
+      </c>
+      <c r="R107">
+        <v>1.775</v>
+      </c>
+      <c r="S107">
+        <v>2.1</v>
+      </c>
+      <c r="T107">
+        <v>2</v>
+      </c>
+      <c r="U107">
+        <v>2.05</v>
+      </c>
+      <c r="V107">
         <v>1.75</v>
       </c>
-      <c r="O107">
-        <v>3.3</v>
-      </c>
-      <c r="P107">
-        <v>4.75</v>
-      </c>
-      <c r="Q107">
-        <v>-0.5</v>
-      </c>
-      <c r="R107">
-        <v>1.8</v>
-      </c>
-      <c r="S107">
-        <v>2.05</v>
-      </c>
-      <c r="T107">
-        <v>2.25</v>
-      </c>
-      <c r="U107">
-        <v>2</v>
-      </c>
-      <c r="V107">
-        <v>1.85</v>
-      </c>
       <c r="W107">
+        <v>-1</v>
+      </c>
+      <c r="X107">
+        <v>-1</v>
+      </c>
+      <c r="Y107">
+        <v>1.375</v>
+      </c>
+      <c r="Z107">
+        <v>-1</v>
+      </c>
+      <c r="AA107">
+        <v>1.1</v>
+      </c>
+      <c r="AB107">
+        <v>-1</v>
+      </c>
+      <c r="AC107">
         <v>0.75</v>
-      </c>
-      <c r="X107">
-        <v>-1</v>
-      </c>
-      <c r="Y107">
-        <v>-1</v>
-      </c>
-      <c r="Z107">
-        <v>0.8</v>
-      </c>
-      <c r="AA107">
-        <v>-1</v>
-      </c>
-      <c r="AB107">
-        <v>1</v>
-      </c>
-      <c r="AC107">
-        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630064</v>
+        <v>7630137</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,49 +10050,49 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G108" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J108" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K108">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="L108">
         <v>3.4</v>
       </c>
       <c r="M108">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="N108">
-        <v>2.6</v>
+        <v>2.2</v>
       </c>
       <c r="O108">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q108">
-        <v>0</v>
+        <v>-0.25</v>
       </c>
       <c r="R108">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S108">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T108">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U108">
         <v>1.925</v>
@@ -10101,25 +10101,25 @@
         <v>1.925</v>
       </c>
       <c r="W108">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z108">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AA108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AC108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630136</v>
+        <v>7630139</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10142,70 +10142,70 @@
         <v>30</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H109">
         <v>2</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
       </c>
       <c r="K109">
-        <v>3.75</v>
+        <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M109">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="N109">
-        <v>3.1</v>
+        <v>2.15</v>
       </c>
       <c r="O109">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P109">
-        <v>2.2</v>
+        <v>3.3</v>
       </c>
       <c r="Q109">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="S109">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="T109">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V109">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W109">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="X109">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y109">
         <v>-1</v>
       </c>
       <c r="Z109">
-        <v>0.8999999999999999</v>
+        <v>-0.5</v>
       </c>
       <c r="AA109">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB109">
-        <v>0.875</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10216,7 +10216,7 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>7630137</v>
+        <v>7630138</v>
       </c>
       <c r="C110" t="s">
         <v>28</v>
@@ -10228,46 +10228,46 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F110" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="G110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I110">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K110">
-        <v>2.2</v>
+        <v>2.75</v>
       </c>
       <c r="L110">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="M110">
+        <v>2.6</v>
+      </c>
+      <c r="N110">
+        <v>3.6</v>
+      </c>
+      <c r="O110">
         <v>3.2</v>
       </c>
-      <c r="N110">
-        <v>2.2</v>
-      </c>
-      <c r="O110">
-        <v>3.4</v>
-      </c>
       <c r="P110">
-        <v>3.2</v>
+        <v>2.1</v>
       </c>
       <c r="Q110">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R110">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S110">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T110">
         <v>2.25</v>
@@ -10279,19 +10279,19 @@
         <v>1.925</v>
       </c>
       <c r="W110">
-        <v>-1</v>
+        <v>2.6</v>
       </c>
       <c r="X110">
         <v>-1</v>
       </c>
       <c r="Y110">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z110">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
       <c r="AA110">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB110">
         <v>0.925</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630138</v>
+        <v>7630064</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,49 +10317,49 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G111" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H111">
+        <v>1</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111" t="s">
+        <v>42</v>
+      </c>
+      <c r="K111">
+        <v>1.8</v>
+      </c>
+      <c r="L111">
+        <v>3.4</v>
+      </c>
+      <c r="M111">
+        <v>4.5</v>
+      </c>
+      <c r="N111">
+        <v>2.6</v>
+      </c>
+      <c r="O111">
         <v>3</v>
       </c>
-      <c r="I111">
-        <v>1</v>
-      </c>
-      <c r="J111" t="s">
-        <v>43</v>
-      </c>
-      <c r="K111">
-        <v>2.75</v>
-      </c>
-      <c r="L111">
-        <v>3.1</v>
-      </c>
-      <c r="M111">
-        <v>2.6</v>
-      </c>
-      <c r="N111">
-        <v>3.6</v>
-      </c>
-      <c r="O111">
-        <v>3.2</v>
-      </c>
       <c r="P111">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="Q111">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R111">
+        <v>1.825</v>
+      </c>
+      <c r="S111">
         <v>2.025</v>
       </c>
-      <c r="S111">
-        <v>1.825</v>
-      </c>
       <c r="T111">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U111">
         <v>1.925</v>
@@ -10368,7 +10368,7 @@
         <v>1.925</v>
       </c>
       <c r="W111">
-        <v>2.6</v>
+        <v>1.6</v>
       </c>
       <c r="X111">
         <v>-1</v>
@@ -10377,16 +10377,16 @@
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>1.025</v>
+        <v>0.825</v>
       </c>
       <c r="AA111">
         <v>-1</v>
       </c>
       <c r="AB111">
+        <v>-1</v>
+      </c>
+      <c r="AC111">
         <v>0.925</v>
-      </c>
-      <c r="AC111">
-        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630139</v>
+        <v>7630136</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,7 +10406,7 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G112" t="s">
         <v>31</v>
@@ -10415,64 +10415,64 @@
         <v>2</v>
       </c>
       <c r="I112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
       </c>
       <c r="K112">
+        <v>3.75</v>
+      </c>
+      <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
+        <v>1.909</v>
+      </c>
+      <c r="N112">
+        <v>3.1</v>
+      </c>
+      <c r="O112">
+        <v>3.4</v>
+      </c>
+      <c r="P112">
         <v>2.2</v>
       </c>
-      <c r="L112">
-        <v>3.1</v>
-      </c>
-      <c r="M112">
-        <v>3.4</v>
-      </c>
-      <c r="N112">
-        <v>2.15</v>
-      </c>
-      <c r="O112">
-        <v>3.25</v>
-      </c>
-      <c r="P112">
-        <v>3.3</v>
-      </c>
       <c r="Q112">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X112">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y112">
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>-0.5</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
-        <v>0.5249999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
         <v>-1</v>
@@ -10498,7 +10498,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K113">
         <v>1.666</v>
@@ -10572,7 +10572,7 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7644567</v>
+        <v>7644566</v>
       </c>
       <c r="C114" t="s">
         <v>28</v>
@@ -10587,73 +10587,73 @@
         <v>31</v>
       </c>
       <c r="G114" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114" t="s">
+        <v>41</v>
+      </c>
+      <c r="K114">
+        <v>2.3</v>
+      </c>
+      <c r="L114">
         <v>3</v>
       </c>
-      <c r="I114">
-        <v>0</v>
-      </c>
-      <c r="J114" t="s">
-        <v>43</v>
-      </c>
-      <c r="K114">
-        <v>1.615</v>
-      </c>
-      <c r="L114">
-        <v>3.8</v>
-      </c>
       <c r="M114">
-        <v>5.25</v>
+        <v>3.4</v>
       </c>
       <c r="N114">
-        <v>1.533</v>
+        <v>2.875</v>
       </c>
       <c r="O114">
-        <v>4</v>
+        <v>2.875</v>
       </c>
       <c r="P114">
-        <v>6.5</v>
+        <v>2.75</v>
       </c>
       <c r="Q114">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R114">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S114">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T114">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U114">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="V114">
-        <v>1.825</v>
+        <v>1.8</v>
       </c>
       <c r="W114">
-        <v>0.5329999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X114">
         <v>-1</v>
       </c>
       <c r="Y114">
-        <v>-1</v>
+        <v>1.75</v>
       </c>
       <c r="Z114">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA114">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AB114">
-        <v>1.025</v>
+        <v>-0.5</v>
       </c>
       <c r="AC114">
-        <v>-1</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="115" spans="1:29">
@@ -10661,7 +10661,7 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>7644566</v>
+        <v>7644567</v>
       </c>
       <c r="C115" t="s">
         <v>28</v>
@@ -10673,76 +10673,76 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I115">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K115">
-        <v>2.3</v>
+        <v>1.615</v>
       </c>
       <c r="L115">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="M115">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="N115">
-        <v>2.875</v>
+        <v>1.533</v>
       </c>
       <c r="O115">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="P115">
-        <v>2.75</v>
+        <v>6.5</v>
       </c>
       <c r="Q115">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="R115">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S115">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T115">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U115">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="V115">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="W115">
-        <v>-1</v>
+        <v>0.5329999999999999</v>
       </c>
       <c r="X115">
         <v>-1</v>
       </c>
       <c r="Y115">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z115">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA115">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AB115">
-        <v>-0.5</v>
+        <v>1.025</v>
       </c>
       <c r="AC115">
-        <v>0.4</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="116" spans="1:29">
@@ -10765,7 +10765,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K116">
         <v>1.95</v>
@@ -10854,7 +10854,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K117">
         <v>4.5</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7644571</v>
+        <v>7644574</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118">
         <v>2</v>
       </c>
-      <c r="I118">
-        <v>1</v>
-      </c>
       <c r="J118" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
         <v>1.925</v>
@@ -10982,31 +10982,31 @@
         <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.925</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11017,7 +11017,7 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>7644572</v>
+        <v>7644573</v>
       </c>
       <c r="C119" t="s">
         <v>28</v>
@@ -11029,76 +11029,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F119" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="H119">
         <v>0</v>
       </c>
       <c r="I119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K119">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="L119">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M119">
-        <v>3.4</v>
+        <v>1.8</v>
       </c>
       <c r="N119">
-        <v>2.15</v>
+        <v>3.2</v>
       </c>
       <c r="O119">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="P119">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="Q119">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R119">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S119">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T119">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U119">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="V119">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="W119">
         <v>-1</v>
       </c>
       <c r="X119">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y119">
-        <v>-1</v>
+        <v>1.25</v>
       </c>
       <c r="Z119">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA119">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB119">
         <v>-1</v>
       </c>
       <c r="AC119">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="120" spans="1:29">
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7644573</v>
+        <v>7644572</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G120" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H120">
         <v>0</v>
       </c>
       <c r="I120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K120">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="L120">
+        <v>3.4</v>
+      </c>
+      <c r="M120">
+        <v>3.4</v>
+      </c>
+      <c r="N120">
+        <v>2.15</v>
+      </c>
+      <c r="O120">
         <v>3.5</v>
       </c>
-      <c r="M120">
-        <v>1.8</v>
-      </c>
-      <c r="N120">
-        <v>3.2</v>
-      </c>
-      <c r="O120">
+      <c r="P120">
         <v>3.25</v>
       </c>
-      <c r="P120">
-        <v>2.25</v>
-      </c>
       <c r="Q120">
-        <v>0.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R120">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S120">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T120">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U120">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="V120">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y120">
-        <v>1.25</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>0.5</v>
       </c>
       <c r="AB120">
         <v>-1</v>
       </c>
       <c r="AC120">
-        <v>0.925</v>
+        <v>0.8999999999999999</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7644574</v>
+        <v>7644571</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,40 +11207,40 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G121" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H121">
+        <v>2</v>
+      </c>
+      <c r="I121">
         <v>1</v>
       </c>
-      <c r="I121">
+      <c r="J121" t="s">
+        <v>42</v>
+      </c>
+      <c r="K121">
+        <v>3.75</v>
+      </c>
+      <c r="L121">
+        <v>3.4</v>
+      </c>
+      <c r="M121">
         <v>2</v>
       </c>
-      <c r="J121" t="s">
-        <v>41</v>
-      </c>
-      <c r="K121">
-        <v>2.4</v>
-      </c>
-      <c r="L121">
-        <v>3.2</v>
-      </c>
-      <c r="M121">
-        <v>2.6</v>
-      </c>
       <c r="N121">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O121">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P121">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q121">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R121">
         <v>1.925</v>
@@ -11249,31 +11249,31 @@
         <v>1.925</v>
       </c>
       <c r="T121">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U121">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V121">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W121">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X121">
         <v>-1</v>
       </c>
       <c r="Y121">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z121">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA121">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB121">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC121">
         <v>-1</v>
@@ -11299,7 +11299,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11308,7 +11308,7 @@
         <v>1</v>
       </c>
       <c r="J122" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K122">
         <v>2</v>
@@ -11366,6 +11366,376 @@
       </c>
       <c r="AC122">
         <v>-1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:29">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>7644580</v>
+      </c>
+      <c r="C123" t="s">
+        <v>28</v>
+      </c>
+      <c r="D123" t="s">
+        <v>28</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F123" t="s">
+        <v>30</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+      <c r="K123">
+        <v>1.55</v>
+      </c>
+      <c r="L123">
+        <v>4</v>
+      </c>
+      <c r="M123">
+        <v>6</v>
+      </c>
+      <c r="N123">
+        <v>1.533</v>
+      </c>
+      <c r="O123">
+        <v>4</v>
+      </c>
+      <c r="P123">
+        <v>6.5</v>
+      </c>
+      <c r="Q123">
+        <v>-1</v>
+      </c>
+      <c r="R123">
+        <v>1.925</v>
+      </c>
+      <c r="S123">
+        <v>1.925</v>
+      </c>
+      <c r="T123">
+        <v>2.5</v>
+      </c>
+      <c r="U123">
+        <v>1.95</v>
+      </c>
+      <c r="V123">
+        <v>1.9</v>
+      </c>
+      <c r="W123">
+        <v>0</v>
+      </c>
+      <c r="X123">
+        <v>0</v>
+      </c>
+      <c r="Y123">
+        <v>0</v>
+      </c>
+      <c r="Z123">
+        <v>0</v>
+      </c>
+      <c r="AA123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:29">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>7644578</v>
+      </c>
+      <c r="C124" t="s">
+        <v>28</v>
+      </c>
+      <c r="D124" t="s">
+        <v>28</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F124" t="s">
+        <v>38</v>
+      </c>
+      <c r="G124" t="s">
+        <v>34</v>
+      </c>
+      <c r="K124">
+        <v>1.75</v>
+      </c>
+      <c r="L124">
+        <v>3.5</v>
+      </c>
+      <c r="M124">
+        <v>5</v>
+      </c>
+      <c r="N124">
+        <v>1.75</v>
+      </c>
+      <c r="O124">
+        <v>3.5</v>
+      </c>
+      <c r="P124">
+        <v>5</v>
+      </c>
+      <c r="Q124">
+        <v>-0.75</v>
+      </c>
+      <c r="R124">
+        <v>2.025</v>
+      </c>
+      <c r="S124">
+        <v>1.825</v>
+      </c>
+      <c r="T124">
+        <v>2.25</v>
+      </c>
+      <c r="U124">
+        <v>1.975</v>
+      </c>
+      <c r="V124">
+        <v>1.875</v>
+      </c>
+      <c r="W124">
+        <v>0</v>
+      </c>
+      <c r="X124">
+        <v>0</v>
+      </c>
+      <c r="Y124">
+        <v>0</v>
+      </c>
+      <c r="Z124">
+        <v>0</v>
+      </c>
+      <c r="AA124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:29">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>7644577</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125" t="s">
+        <v>28</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F125" t="s">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s">
+        <v>37</v>
+      </c>
+      <c r="K125">
+        <v>3.5</v>
+      </c>
+      <c r="L125">
+        <v>3.5</v>
+      </c>
+      <c r="M125">
+        <v>2.05</v>
+      </c>
+      <c r="N125">
+        <v>3.4</v>
+      </c>
+      <c r="O125">
+        <v>3.4</v>
+      </c>
+      <c r="P125">
+        <v>2.1</v>
+      </c>
+      <c r="Q125">
+        <v>0.25</v>
+      </c>
+      <c r="R125">
+        <v>2</v>
+      </c>
+      <c r="S125">
+        <v>1.85</v>
+      </c>
+      <c r="T125">
+        <v>2.5</v>
+      </c>
+      <c r="U125">
+        <v>2.025</v>
+      </c>
+      <c r="V125">
+        <v>1.825</v>
+      </c>
+      <c r="W125">
+        <v>0</v>
+      </c>
+      <c r="X125">
+        <v>0</v>
+      </c>
+      <c r="Y125">
+        <v>0</v>
+      </c>
+      <c r="Z125">
+        <v>0</v>
+      </c>
+      <c r="AA125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:29">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>7644576</v>
+      </c>
+      <c r="C126" t="s">
+        <v>28</v>
+      </c>
+      <c r="D126" t="s">
+        <v>28</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F126" t="s">
+        <v>33</v>
+      </c>
+      <c r="G126" t="s">
+        <v>40</v>
+      </c>
+      <c r="K126">
+        <v>1.833</v>
+      </c>
+      <c r="L126">
+        <v>3.6</v>
+      </c>
+      <c r="M126">
+        <v>4</v>
+      </c>
+      <c r="N126">
+        <v>1.8</v>
+      </c>
+      <c r="O126">
+        <v>3.6</v>
+      </c>
+      <c r="P126">
+        <v>4.2</v>
+      </c>
+      <c r="Q126">
+        <v>-0.5</v>
+      </c>
+      <c r="R126">
+        <v>1.825</v>
+      </c>
+      <c r="S126">
+        <v>2.025</v>
+      </c>
+      <c r="T126">
+        <v>2.5</v>
+      </c>
+      <c r="U126">
+        <v>1.9</v>
+      </c>
+      <c r="V126">
+        <v>1.95</v>
+      </c>
+      <c r="W126">
+        <v>0</v>
+      </c>
+      <c r="X126">
+        <v>0</v>
+      </c>
+      <c r="Y126">
+        <v>0</v>
+      </c>
+      <c r="Z126">
+        <v>0</v>
+      </c>
+      <c r="AA126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:29">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>7644579</v>
+      </c>
+      <c r="C127" t="s">
+        <v>28</v>
+      </c>
+      <c r="D127" t="s">
+        <v>28</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45380.69791666666</v>
+      </c>
+      <c r="F127" t="s">
+        <v>39</v>
+      </c>
+      <c r="G127" t="s">
+        <v>36</v>
+      </c>
+      <c r="K127">
+        <v>2.5</v>
+      </c>
+      <c r="L127">
+        <v>3.1</v>
+      </c>
+      <c r="M127">
+        <v>2.875</v>
+      </c>
+      <c r="N127">
+        <v>2.5</v>
+      </c>
+      <c r="O127">
+        <v>3.1</v>
+      </c>
+      <c r="P127">
+        <v>2.875</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>1.85</v>
+      </c>
+      <c r="S127">
+        <v>2</v>
+      </c>
+      <c r="T127">
+        <v>2.25</v>
+      </c>
+      <c r="U127">
+        <v>2.025</v>
+      </c>
+      <c r="V127">
+        <v>1.825</v>
+      </c>
+      <c r="W127">
+        <v>0</v>
+      </c>
+      <c r="X127">
+        <v>0</v>
+      </c>
+      <c r="Y127">
+        <v>0</v>
+      </c>
+      <c r="Z127">
+        <v>0</v>
+      </c>
+      <c r="AA127">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -103,25 +103,25 @@
     <t>Republic of Ireland Premier Division</t>
   </si>
   <si>
+    <t>Derry City</t>
+  </si>
+  <si>
+    <t>Bohemians Dublin</t>
+  </si>
+  <si>
     <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Bohemians Dublin</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Derry City</t>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Dundalk</t>
-  </si>
-  <si>
-    <t>Cork City</t>
   </si>
   <si>
     <t>Sligo Rovers</t>
@@ -139,13 +139,13 @@
     <t>Galway United</t>
   </si>
   <si>
-    <t>A</t>
+    <t>D</t>
   </si>
   <si>
     <t>H</t>
   </si>
   <si>
-    <t>D</t>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -604,7 +604,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>6053244</v>
+        <v>6053243</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -619,46 +619,46 @@
         <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" t="s">
         <v>41</v>
       </c>
       <c r="K2">
+        <v>1.55</v>
+      </c>
+      <c r="L2">
+        <v>3.6</v>
+      </c>
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>1.5</v>
+      </c>
+      <c r="O2">
+        <v>3.75</v>
+      </c>
+      <c r="P2">
+        <v>7</v>
+      </c>
+      <c r="Q2">
+        <v>-1</v>
+      </c>
+      <c r="R2">
+        <v>1.9</v>
+      </c>
+      <c r="S2">
         <v>1.95</v>
       </c>
-      <c r="L2">
-        <v>3.4</v>
-      </c>
-      <c r="M2">
-        <v>3.6</v>
-      </c>
-      <c r="N2">
-        <v>2.1</v>
-      </c>
-      <c r="O2">
-        <v>3.25</v>
-      </c>
-      <c r="P2">
-        <v>3.2</v>
-      </c>
-      <c r="Q2">
-        <v>-0.25</v>
-      </c>
-      <c r="R2">
-        <v>1.925</v>
-      </c>
-      <c r="S2">
-        <v>1.925</v>
-      </c>
       <c r="T2">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U2">
         <v>1.8</v>
@@ -670,16 +670,16 @@
         <v>-1</v>
       </c>
       <c r="X2">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y2">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z2">
         <v>-1</v>
       </c>
       <c r="AA2">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AB2">
         <v>-1</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>6043235</v>
+        <v>6053242</v>
       </c>
       <c r="C3" t="s">
         <v>28</v>
@@ -708,7 +708,7 @@
         <v>30</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -720,43 +720,43 @@
         <v>42</v>
       </c>
       <c r="K3">
-        <v>1.4</v>
+        <v>2.1</v>
       </c>
       <c r="L3">
-        <v>4.333</v>
+        <v>3.2</v>
       </c>
       <c r="M3">
-        <v>7</v>
+        <v>3.3</v>
       </c>
       <c r="N3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P3">
-        <v>5.5</v>
+        <v>3.6</v>
       </c>
       <c r="Q3">
-        <v>-1</v>
+        <v>-0.25</v>
       </c>
       <c r="R3">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S3">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T3">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V3">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="X3">
         <v>-1</v>
@@ -765,16 +765,16 @@
         <v>-1</v>
       </c>
       <c r="Z3">
-        <v>0.925</v>
+        <v>0.8</v>
       </c>
       <c r="AA3">
         <v>-1</v>
       </c>
       <c r="AB3">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC3">
-        <v>1.025</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="4" spans="1:29">
@@ -782,7 +782,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>6053242</v>
+        <v>6053244</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -797,73 +797,73 @@
         <v>31</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K4">
+        <v>1.95</v>
+      </c>
+      <c r="L4">
+        <v>3.4</v>
+      </c>
+      <c r="M4">
+        <v>3.6</v>
+      </c>
+      <c r="N4">
         <v>2.1</v>
       </c>
-      <c r="L4">
+      <c r="O4">
+        <v>3.25</v>
+      </c>
+      <c r="P4">
         <v>3.2</v>
-      </c>
-      <c r="M4">
-        <v>3.3</v>
-      </c>
-      <c r="N4">
-        <v>2</v>
-      </c>
-      <c r="O4">
-        <v>3.1</v>
-      </c>
-      <c r="P4">
-        <v>3.6</v>
       </c>
       <c r="Q4">
         <v>-0.25</v>
       </c>
       <c r="R4">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S4">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T4">
         <v>2.25</v>
       </c>
       <c r="U4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="V4">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="W4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="X4">
         <v>-1</v>
       </c>
       <c r="Y4">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z4">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA4">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB4">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC4">
-        <v>0.425</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5" spans="1:29">
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K5">
         <v>7.5</v>
@@ -960,7 +960,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>6053243</v>
+        <v>6043235</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -975,73 +975,73 @@
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K6">
-        <v>1.55</v>
+        <v>1.4</v>
       </c>
       <c r="L6">
-        <v>3.6</v>
+        <v>4.333</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="N6">
         <v>1.5</v>
       </c>
       <c r="O6">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Q6">
         <v>-1</v>
       </c>
       <c r="R6">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S6">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T6">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U6">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="V6">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X6">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y6">
         <v>-1</v>
       </c>
       <c r="Z6">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA6">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB6">
         <v>-1</v>
       </c>
       <c r="AC6">
-        <v>1.05</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="7" spans="1:29">
@@ -1049,7 +1049,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>6053247</v>
+        <v>6053246</v>
       </c>
       <c r="C7" t="s">
         <v>28</v>
@@ -1064,10 +1064,10 @@
         <v>34</v>
       </c>
       <c r="G7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -1076,43 +1076,43 @@
         <v>42</v>
       </c>
       <c r="K7">
-        <v>1.3</v>
+        <v>3.75</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>3.4</v>
       </c>
       <c r="M7">
-        <v>8.5</v>
+        <v>1.909</v>
       </c>
       <c r="N7">
-        <v>1.25</v>
+        <v>3.1</v>
       </c>
       <c r="O7">
-        <v>5.75</v>
+        <v>3.2</v>
       </c>
       <c r="P7">
-        <v>9.5</v>
+        <v>2.25</v>
       </c>
       <c r="Q7">
-        <v>-1.75</v>
+        <v>0.25</v>
       </c>
       <c r="R7">
-        <v>1.95</v>
+        <v>1.825</v>
       </c>
       <c r="S7">
-        <v>1.9</v>
+        <v>2.025</v>
       </c>
       <c r="T7">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U7">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V7">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W7">
-        <v>0.25</v>
+        <v>2.1</v>
       </c>
       <c r="X7">
         <v>-1</v>
@@ -1121,13 +1121,13 @@
         <v>-1</v>
       </c>
       <c r="Z7">
-        <v>0.95</v>
+        <v>0.825</v>
       </c>
       <c r="AA7">
         <v>-1</v>
       </c>
       <c r="AB7">
-        <v>0.95</v>
+        <v>1.025</v>
       </c>
       <c r="AC7">
         <v>-1</v>
@@ -1138,7 +1138,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>6053246</v>
+        <v>6053247</v>
       </c>
       <c r="C8" t="s">
         <v>28</v>
@@ -1153,10 +1153,10 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -1165,44 +1165,44 @@
         <v>42</v>
       </c>
       <c r="K8">
-        <v>3.75</v>
+        <v>1.3</v>
       </c>
       <c r="L8">
-        <v>3.4</v>
+        <v>5</v>
       </c>
       <c r="M8">
-        <v>1.909</v>
+        <v>8.5</v>
       </c>
       <c r="N8">
-        <v>3.1</v>
+        <v>1.25</v>
       </c>
       <c r="O8">
-        <v>3.2</v>
+        <v>5.75</v>
       </c>
       <c r="P8">
-        <v>2.25</v>
+        <v>9.5</v>
       </c>
       <c r="Q8">
+        <v>-1.75</v>
+      </c>
+      <c r="R8">
+        <v>1.95</v>
+      </c>
+      <c r="S8">
+        <v>1.9</v>
+      </c>
+      <c r="T8">
+        <v>3</v>
+      </c>
+      <c r="U8">
+        <v>1.95</v>
+      </c>
+      <c r="V8">
+        <v>1.9</v>
+      </c>
+      <c r="W8">
         <v>0.25</v>
       </c>
-      <c r="R8">
-        <v>1.825</v>
-      </c>
-      <c r="S8">
-        <v>2.025</v>
-      </c>
-      <c r="T8">
-        <v>2.25</v>
-      </c>
-      <c r="U8">
-        <v>2.025</v>
-      </c>
-      <c r="V8">
-        <v>1.825</v>
-      </c>
-      <c r="W8">
-        <v>2.1</v>
-      </c>
       <c r="X8">
         <v>-1</v>
       </c>
@@ -1210,13 +1210,13 @@
         <v>-1</v>
       </c>
       <c r="Z8">
-        <v>0.825</v>
+        <v>0.95</v>
       </c>
       <c r="AA8">
         <v>-1</v>
       </c>
       <c r="AB8">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
       <c r="AC8">
         <v>-1</v>
@@ -1242,7 +1242,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -1251,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="J9" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K9">
         <v>4.2</v>
@@ -1331,7 +1331,7 @@
         <v>37</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H10">
         <v>4</v>
@@ -1420,7 +1420,7 @@
         <v>38</v>
       </c>
       <c r="G11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H11">
         <v>3</v>
@@ -1506,10 +1506,10 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K12">
         <v>1.666</v>
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053250</v>
+        <v>6053252</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>2</v>
-      </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>2.7</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
+        <v>3.3</v>
+      </c>
+      <c r="M13">
+        <v>2.05</v>
+      </c>
+      <c r="N13">
         <v>3.2</v>
       </c>
-      <c r="M13">
-        <v>2.4</v>
-      </c>
-      <c r="N13">
-        <v>2.5</v>
-      </c>
       <c r="O13">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>2.625</v>
+        <v>2.15</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R13">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S13">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T13">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U13">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V13">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="X13">
         <v>-1</v>
       </c>
       <c r="Y13">
-        <v>1.625</v>
+        <v>-1</v>
       </c>
       <c r="Z13">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AB13">
-        <v>1.05</v>
+        <v>0.4875</v>
       </c>
       <c r="AC13">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1696,7 +1696,7 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K14">
         <v>2.05</v>
@@ -1761,7 +1761,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6053252</v>
+        <v>6053250</v>
       </c>
       <c r="C15" t="s">
         <v>28</v>
@@ -1773,76 +1773,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="J15" t="s">
+        <v>43</v>
+      </c>
+      <c r="K15">
+        <v>2.7</v>
+      </c>
+      <c r="L15">
+        <v>3.2</v>
+      </c>
+      <c r="M15">
+        <v>2.4</v>
+      </c>
+      <c r="N15">
+        <v>2.5</v>
+      </c>
+      <c r="O15">
+        <v>3.1</v>
+      </c>
+      <c r="P15">
+        <v>2.625</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1.85</v>
+      </c>
+      <c r="S15">
+        <v>2</v>
+      </c>
+      <c r="T15">
+        <v>2.25</v>
+      </c>
+      <c r="U15">
+        <v>2.05</v>
+      </c>
+      <c r="V15">
+        <v>1.8</v>
+      </c>
+      <c r="W15">
+        <v>-1</v>
+      </c>
+      <c r="X15">
+        <v>-1</v>
+      </c>
+      <c r="Y15">
+        <v>1.625</v>
+      </c>
+      <c r="Z15">
+        <v>-1</v>
+      </c>
+      <c r="AA15">
         <v>1</v>
       </c>
-      <c r="J15" t="s">
-        <v>42</v>
-      </c>
-      <c r="K15">
-        <v>3.3</v>
-      </c>
-      <c r="L15">
-        <v>3.3</v>
-      </c>
-      <c r="M15">
-        <v>2.05</v>
-      </c>
-      <c r="N15">
-        <v>3.2</v>
-      </c>
-      <c r="O15">
-        <v>3.25</v>
-      </c>
-      <c r="P15">
-        <v>2.15</v>
-      </c>
-      <c r="Q15">
-        <v>0.25</v>
-      </c>
-      <c r="R15">
-        <v>1.925</v>
-      </c>
-      <c r="S15">
-        <v>1.925</v>
-      </c>
-      <c r="T15">
-        <v>2.75</v>
-      </c>
-      <c r="U15">
-        <v>1.975</v>
-      </c>
-      <c r="V15">
-        <v>1.875</v>
-      </c>
-      <c r="W15">
-        <v>2.2</v>
-      </c>
-      <c r="X15">
-        <v>-1</v>
-      </c>
-      <c r="Y15">
-        <v>-1</v>
-      </c>
-      <c r="Z15">
-        <v>0.925</v>
-      </c>
-      <c r="AA15">
-        <v>-1</v>
-      </c>
       <c r="AB15">
-        <v>0.4875</v>
+        <v>1.05</v>
       </c>
       <c r="AC15">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" spans="1:29">
@@ -1862,7 +1862,7 @@
         <v>45086.66666666666</v>
       </c>
       <c r="F16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6043238</v>
+        <v>6053256</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,76 +1951,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G17" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17">
+        <v>1.75</v>
+      </c>
+      <c r="L17">
+        <v>3.5</v>
+      </c>
+      <c r="M17">
+        <v>4.2</v>
+      </c>
+      <c r="N17">
+        <v>1.8</v>
+      </c>
+      <c r="O17">
+        <v>3.25</v>
+      </c>
+      <c r="P17">
+        <v>4.333</v>
+      </c>
+      <c r="Q17">
+        <v>-0.5</v>
+      </c>
+      <c r="R17">
+        <v>1.85</v>
+      </c>
+      <c r="S17">
         <v>2</v>
-      </c>
-      <c r="I17">
-        <v>2</v>
-      </c>
-      <c r="J17" t="s">
-        <v>43</v>
-      </c>
-      <c r="K17">
-        <v>3.25</v>
-      </c>
-      <c r="L17">
-        <v>3.2</v>
-      </c>
-      <c r="M17">
-        <v>2.1</v>
-      </c>
-      <c r="N17">
-        <v>3.4</v>
-      </c>
-      <c r="O17">
-        <v>3.1</v>
-      </c>
-      <c r="P17">
-        <v>2.1</v>
-      </c>
-      <c r="Q17">
-        <v>0.25</v>
-      </c>
-      <c r="R17">
-        <v>1.925</v>
-      </c>
-      <c r="S17">
-        <v>1.925</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V17">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X17">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y17">
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC17">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2040,10 +2040,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H18">
         <v>2</v>
@@ -2129,10 +2129,10 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H19">
         <v>1</v>
@@ -2141,7 +2141,7 @@
         <v>2</v>
       </c>
       <c r="J19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K19">
         <v>2.45</v>
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053256</v>
+        <v>6043238</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2396,7 +2396,7 @@
         <v>45103.65625</v>
       </c>
       <c r="F22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G22" t="s">
         <v>37</v>
@@ -2408,7 +2408,7 @@
         <v>1</v>
       </c>
       <c r="J22" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K22">
         <v>2.8</v>
@@ -2485,10 +2485,10 @@
         <v>45103.66666666666</v>
       </c>
       <c r="F23" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H23">
         <v>1</v>
@@ -2562,7 +2562,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>6053262</v>
+        <v>6043240</v>
       </c>
       <c r="C24" t="s">
         <v>28</v>
@@ -2574,58 +2574,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="s">
         <v>42</v>
       </c>
       <c r="K24">
-        <v>2.625</v>
+        <v>4</v>
       </c>
       <c r="L24">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="M24">
+        <v>1.833</v>
+      </c>
+      <c r="N24">
+        <v>3.6</v>
+      </c>
+      <c r="O24">
+        <v>3.6</v>
+      </c>
+      <c r="P24">
+        <v>2</v>
+      </c>
+      <c r="Q24">
+        <v>0.5</v>
+      </c>
+      <c r="R24">
+        <v>1.825</v>
+      </c>
+      <c r="S24">
+        <v>2.025</v>
+      </c>
+      <c r="T24">
         <v>2.5</v>
       </c>
-      <c r="N24">
-        <v>2.7</v>
-      </c>
-      <c r="O24">
-        <v>3.1</v>
-      </c>
-      <c r="P24">
-        <v>2.7</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
+      <c r="U24">
         <v>1.925</v>
       </c>
-      <c r="S24">
+      <c r="V24">
         <v>1.925</v>
       </c>
-      <c r="T24">
-        <v>2.25</v>
-      </c>
-      <c r="U24">
-        <v>2.05</v>
-      </c>
-      <c r="V24">
-        <v>1.8</v>
-      </c>
       <c r="W24">
-        <v>1.7</v>
+        <v>2.6</v>
       </c>
       <c r="X24">
         <v>-1</v>
@@ -2634,16 +2634,16 @@
         <v>-1</v>
       </c>
       <c r="Z24">
+        <v>0.825</v>
+      </c>
+      <c r="AA24">
+        <v>-1</v>
+      </c>
+      <c r="AB24">
+        <v>-1</v>
+      </c>
+      <c r="AC24">
         <v>0.925</v>
-      </c>
-      <c r="AA24">
-        <v>-1</v>
-      </c>
-      <c r="AB24">
-        <v>1.05</v>
-      </c>
-      <c r="AC24">
-        <v>-1</v>
       </c>
     </row>
     <row r="25" spans="1:29">
@@ -2651,7 +2651,7 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>6053260</v>
+        <v>6053259</v>
       </c>
       <c r="C25" t="s">
         <v>28</v>
@@ -2663,10 +2663,10 @@
         <v>45107.65625</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H25">
         <v>1</v>
@@ -2675,64 +2675,64 @@
         <v>1</v>
       </c>
       <c r="J25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K25">
-        <v>3.6</v>
+        <v>2.2</v>
       </c>
       <c r="L25">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M25">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="N25">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P25">
+        <v>2.875</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>1.8</v>
+      </c>
+      <c r="S25">
+        <v>2.05</v>
+      </c>
+      <c r="T25">
+        <v>2.5</v>
+      </c>
+      <c r="U25">
+        <v>1.975</v>
+      </c>
+      <c r="V25">
+        <v>1.875</v>
+      </c>
+      <c r="W25">
+        <v>-1</v>
+      </c>
+      <c r="X25">
         <v>2.25</v>
       </c>
-      <c r="Q25">
-        <v>0.25</v>
-      </c>
-      <c r="R25">
-        <v>1.85</v>
-      </c>
-      <c r="S25">
-        <v>2</v>
-      </c>
-      <c r="T25">
-        <v>2</v>
-      </c>
-      <c r="U25">
-        <v>2.1</v>
-      </c>
-      <c r="V25">
-        <v>1.775</v>
-      </c>
-      <c r="W25">
-        <v>-1</v>
-      </c>
-      <c r="X25">
-        <v>2</v>
-      </c>
       <c r="Y25">
         <v>-1</v>
       </c>
       <c r="Z25">
-        <v>0.425</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC25">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="26" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053259</v>
+        <v>6053261</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26">
+        <v>1.166</v>
+      </c>
+      <c r="L26">
+        <v>7</v>
+      </c>
+      <c r="M26">
+        <v>15</v>
+      </c>
+      <c r="N26">
+        <v>1.111</v>
+      </c>
+      <c r="O26">
+        <v>7.5</v>
+      </c>
+      <c r="P26">
+        <v>17</v>
+      </c>
+      <c r="Q26">
+        <v>-2.25</v>
+      </c>
+      <c r="R26">
+        <v>1.875</v>
+      </c>
+      <c r="S26">
+        <v>1.975</v>
+      </c>
+      <c r="T26">
+        <v>3.5</v>
+      </c>
+      <c r="U26">
+        <v>2</v>
+      </c>
+      <c r="V26">
+        <v>1.85</v>
+      </c>
+      <c r="W26">
+        <v>0.111</v>
+      </c>
+      <c r="X26">
+        <v>-1</v>
+      </c>
+      <c r="Y26">
+        <v>-1</v>
+      </c>
+      <c r="Z26">
+        <v>0.875</v>
+      </c>
+      <c r="AA26">
+        <v>-1</v>
+      </c>
+      <c r="AB26">
         <v>1</v>
       </c>
-      <c r="I26">
-        <v>1</v>
-      </c>
-      <c r="J26" t="s">
-        <v>43</v>
-      </c>
-      <c r="K26">
-        <v>2.2</v>
-      </c>
-      <c r="L26">
-        <v>3.25</v>
-      </c>
-      <c r="M26">
-        <v>3</v>
-      </c>
-      <c r="N26">
-        <v>2.5</v>
-      </c>
-      <c r="O26">
-        <v>3.25</v>
-      </c>
-      <c r="P26">
-        <v>2.875</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>1.8</v>
-      </c>
-      <c r="S26">
-        <v>2.05</v>
-      </c>
-      <c r="T26">
-        <v>2.5</v>
-      </c>
-      <c r="U26">
-        <v>1.975</v>
-      </c>
-      <c r="V26">
-        <v>1.875</v>
-      </c>
-      <c r="W26">
-        <v>-1</v>
-      </c>
-      <c r="X26">
-        <v>2.25</v>
-      </c>
-      <c r="Y26">
-        <v>-1</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>-0</v>
-      </c>
-      <c r="AB26">
-        <v>-1</v>
-      </c>
       <c r="AC26">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6043240</v>
+        <v>6053262</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,58 +2841,58 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>30</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="s">
         <v>42</v>
       </c>
       <c r="K27">
-        <v>4</v>
+        <v>2.625</v>
       </c>
       <c r="L27">
-        <v>3.75</v>
+        <v>3.1</v>
       </c>
       <c r="M27">
-        <v>1.833</v>
+        <v>2.5</v>
       </c>
       <c r="N27">
-        <v>3.6</v>
+        <v>2.7</v>
       </c>
       <c r="O27">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="P27">
-        <v>2</v>
+        <v>2.7</v>
       </c>
       <c r="Q27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="R27">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S27">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T27">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U27">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="V27">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="W27">
-        <v>2.6</v>
+        <v>1.7</v>
       </c>
       <c r="X27">
         <v>-1</v>
@@ -2901,16 +2901,16 @@
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.825</v>
+        <v>0.925</v>
       </c>
       <c r="AA27">
         <v>-1</v>
       </c>
       <c r="AB27">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC27">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053261</v>
+        <v>6053260</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H28">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K28">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="L28">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M28">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="N28">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="O28">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P28">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="Q28">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R28">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S28">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T28">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U28">
+        <v>2.1</v>
+      </c>
+      <c r="V28">
+        <v>1.775</v>
+      </c>
+      <c r="W28">
+        <v>-1</v>
+      </c>
+      <c r="X28">
         <v>2</v>
       </c>
-      <c r="V28">
-        <v>1.85</v>
-      </c>
-      <c r="W28">
-        <v>0.111</v>
-      </c>
-      <c r="X28">
-        <v>-1</v>
-      </c>
       <c r="Y28">
         <v>-1</v>
       </c>
       <c r="Z28">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA28">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3019,10 +3019,10 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -3031,7 +3031,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K29">
         <v>5.25</v>
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053265</v>
+        <v>6053266</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J30" t="s">
         <v>43</v>
       </c>
       <c r="K30">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="L30">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M30">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N30">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="O30">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P30">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q30">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R30">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S30">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T30">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U30">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V30">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y30">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z30">
         <v>-1</v>
       </c>
       <c r="AA30">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB30">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC30">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053263</v>
+        <v>6053265</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G31" t="s">
         <v>34</v>
       </c>
       <c r="H31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K31">
+        <v>1.55</v>
+      </c>
+      <c r="L31">
+        <v>3.8</v>
+      </c>
+      <c r="M31">
+        <v>5.5</v>
+      </c>
+      <c r="N31">
+        <v>1.4</v>
+      </c>
+      <c r="O31">
+        <v>4.333</v>
+      </c>
+      <c r="P31">
+        <v>7</v>
+      </c>
+      <c r="Q31">
+        <v>-1.25</v>
+      </c>
+      <c r="R31">
         <v>2</v>
       </c>
-      <c r="J31" t="s">
-        <v>42</v>
-      </c>
-      <c r="K31">
-        <v>2.2</v>
-      </c>
-      <c r="L31">
-        <v>3.25</v>
-      </c>
-      <c r="M31">
-        <v>3</v>
-      </c>
-      <c r="N31">
-        <v>2.1</v>
-      </c>
-      <c r="O31">
-        <v>3.3</v>
-      </c>
-      <c r="P31">
-        <v>3</v>
-      </c>
-      <c r="Q31">
-        <v>-0.25</v>
-      </c>
-      <c r="R31">
-        <v>1.9</v>
-      </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U31">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
       <c r="V31">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="W31">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X31">
-        <v>-1</v>
+        <v>3.333</v>
       </c>
       <c r="Y31">
         <v>-1</v>
       </c>
       <c r="Z31">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA31">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB31">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="AC31">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053266</v>
+        <v>6053263</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,40 +3286,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J32" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K32">
-        <v>6.5</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>1.444</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>10</v>
+        <v>2.1</v>
       </c>
       <c r="O32">
-        <v>5.25</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>1.25</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
         <v>1.9</v>
@@ -3331,28 +3331,28 @@
         <v>2.5</v>
       </c>
       <c r="U32">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V32">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W32">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="X32">
         <v>-1</v>
       </c>
       <c r="Y32">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z32">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC32">
         <v>-1</v>
@@ -3375,7 +3375,7 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G33" t="s">
         <v>36</v>
@@ -3467,7 +3467,7 @@
         <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
@@ -3476,7 +3476,7 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K34">
         <v>6.5</v>
@@ -3556,7 +3556,7 @@
         <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
@@ -3565,7 +3565,7 @@
         <v>1</v>
       </c>
       <c r="J35" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K35">
         <v>2.4</v>
@@ -3645,7 +3645,7 @@
         <v>36</v>
       </c>
       <c r="G36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H36">
         <v>3</v>
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053270</v>
+        <v>6053271</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G37" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
         <v>2</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
       <c r="J37" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K37">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L37">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M37">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N37">
-        <v>1.125</v>
+        <v>3.2</v>
       </c>
       <c r="O37">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P37">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="Q37">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R37">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S37">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T37">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U37">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V37">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W37">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z37">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA37">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB37">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC37">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053271</v>
+        <v>6053270</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G38" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K38">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L38">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M38">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N38">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="O38">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P38">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="Q38">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R38">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S38">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T38">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U38">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V38">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W38">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z38">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA38">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC38">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -3909,7 +3909,7 @@
         <v>45135.65625</v>
       </c>
       <c r="F39" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -3921,7 +3921,7 @@
         <v>2</v>
       </c>
       <c r="J39" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K39">
         <v>2.15</v>
@@ -3998,10 +3998,10 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
+        <v>30</v>
+      </c>
+      <c r="G40" t="s">
         <v>31</v>
-      </c>
-      <c r="G40" t="s">
-        <v>29</v>
       </c>
       <c r="H40">
         <v>4</v>
@@ -4099,7 +4099,7 @@
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K41">
         <v>2.875</v>
@@ -4176,7 +4176,7 @@
         <v>45144.54166666666</v>
       </c>
       <c r="F42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G42" t="s">
         <v>38</v>
@@ -4188,7 +4188,7 @@
         <v>1</v>
       </c>
       <c r="J42" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K42">
         <v>2.05</v>
@@ -4265,10 +4265,10 @@
         <v>45144.58333333334</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G43" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H43">
         <v>2</v>
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4366,64 +4366,64 @@
         <v>1</v>
       </c>
       <c r="J44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K44">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L44">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M44">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N44">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O44">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P44">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q44">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>1.9</v>
+      </c>
+      <c r="T44">
         <v>2</v>
       </c>
-      <c r="S44">
-        <v>1.85</v>
-      </c>
-      <c r="T44">
-        <v>2.75</v>
-      </c>
       <c r="U44">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V44">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W44">
         <v>-1</v>
       </c>
       <c r="X44">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA44">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB44">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC44">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053279</v>
+        <v>6053277</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4446,73 +4446,73 @@
         <v>34</v>
       </c>
       <c r="G45" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H45">
         <v>1</v>
       </c>
       <c r="I45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K45">
-        <v>1.95</v>
+        <v>1.363</v>
       </c>
       <c r="L45">
-        <v>3.3</v>
+        <v>4.5</v>
       </c>
       <c r="M45">
-        <v>3.3</v>
+        <v>6.5</v>
       </c>
       <c r="N45">
-        <v>1.727</v>
+        <v>1.3</v>
       </c>
       <c r="O45">
-        <v>3.6</v>
+        <v>4.75</v>
       </c>
       <c r="P45">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="Q45">
-        <v>-0.75</v>
+        <v>-1.5</v>
       </c>
       <c r="R45">
+        <v>2</v>
+      </c>
+      <c r="S45">
+        <v>1.85</v>
+      </c>
+      <c r="T45">
+        <v>2.75</v>
+      </c>
+      <c r="U45">
         <v>1.975</v>
       </c>
-      <c r="S45">
+      <c r="V45">
         <v>1.875</v>
       </c>
-      <c r="T45">
-        <v>2.5</v>
-      </c>
-      <c r="U45">
-        <v>1.9</v>
-      </c>
-      <c r="V45">
-        <v>1.95</v>
-      </c>
       <c r="W45">
-        <v>0.7270000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X45">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AA45">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB45">
         <v>-1</v>
       </c>
       <c r="AC45">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -4520,7 +4520,7 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>6043243</v>
+        <v>6053280</v>
       </c>
       <c r="C46" t="s">
         <v>28</v>
@@ -4532,76 +4532,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F46" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G46" t="s">
         <v>30</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K46">
-        <v>3.75</v>
+        <v>1.95</v>
       </c>
       <c r="L46">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M46">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="N46">
-        <v>3.25</v>
+        <v>2.4</v>
       </c>
       <c r="O46">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="P46">
-        <v>2.05</v>
+        <v>2.5</v>
       </c>
       <c r="Q46">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R46">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S46">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T46">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U46">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="V46">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="W46">
         <v>-1</v>
       </c>
       <c r="X46">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Y46">
         <v>-1</v>
       </c>
       <c r="Z46">
-        <v>0.475</v>
+        <v>0</v>
       </c>
       <c r="AA46">
-        <v>-0.5</v>
+        <v>-0</v>
       </c>
       <c r="AB46">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC46">
-        <v>-0</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="47" spans="1:29">
@@ -4609,7 +4609,7 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>6053280</v>
+        <v>6053279</v>
       </c>
       <c r="C47" t="s">
         <v>28</v>
@@ -4621,76 +4621,76 @@
         <v>45149.65625</v>
       </c>
       <c r="F47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47">
         <v>0</v>
       </c>
       <c r="J47" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K47">
         <v>1.95</v>
       </c>
       <c r="L47">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M47">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="N47">
-        <v>2.4</v>
+        <v>1.727</v>
       </c>
       <c r="O47">
         <v>3.6</v>
       </c>
       <c r="P47">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="Q47">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R47">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="S47">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="T47">
         <v>2.5</v>
       </c>
       <c r="U47">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V47">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W47">
-        <v>-1</v>
+        <v>0.7270000000000001</v>
       </c>
       <c r="X47">
-        <v>2.6</v>
+        <v>-1</v>
       </c>
       <c r="Y47">
         <v>-1</v>
       </c>
       <c r="Z47">
-        <v>0</v>
+        <v>0.4875</v>
       </c>
       <c r="AA47">
-        <v>-0</v>
+        <v>-0.5</v>
       </c>
       <c r="AB47">
         <v>-1</v>
       </c>
       <c r="AC47">
-        <v>1.025</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="48" spans="1:29">
@@ -4710,10 +4710,10 @@
         <v>45151.60416666666</v>
       </c>
       <c r="F48" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G48" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>3</v>
@@ -4811,7 +4811,7 @@
         <v>1</v>
       </c>
       <c r="J49" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K49">
         <v>21</v>
@@ -4876,7 +4876,7 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>6043244</v>
+        <v>6053281</v>
       </c>
       <c r="C50" t="s">
         <v>28</v>
@@ -4891,58 +4891,58 @@
         <v>30</v>
       </c>
       <c r="G50" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I50">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K50">
-        <v>1.7</v>
+        <v>2.3</v>
       </c>
       <c r="L50">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M50">
-        <v>4.333</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>1.5</v>
+        <v>2.75</v>
       </c>
       <c r="O50">
-        <v>4</v>
+        <v>3.2</v>
       </c>
       <c r="P50">
-        <v>5.5</v>
+        <v>2.5</v>
       </c>
       <c r="Q50">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R50">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="S50">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="T50">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U50">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="V50">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W50">
-        <v>0.5</v>
+        <v>-1</v>
       </c>
       <c r="X50">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Y50">
         <v>-1</v>
@@ -4954,10 +4954,10 @@
         <v>-0</v>
       </c>
       <c r="AB50">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC50">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="51" spans="1:29">
@@ -4977,10 +4977,10 @@
         <v>45163.65625</v>
       </c>
       <c r="F51" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H51">
         <v>3</v>
@@ -5054,7 +5054,7 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>6053281</v>
+        <v>6043244</v>
       </c>
       <c r="C52" t="s">
         <v>28</v>
@@ -5066,61 +5066,61 @@
         <v>45163.65625</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G52" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K52">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="L52">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M52">
-        <v>3</v>
+        <v>4.333</v>
       </c>
       <c r="N52">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="O52">
-        <v>3.2</v>
+        <v>4</v>
       </c>
       <c r="P52">
+        <v>5.5</v>
+      </c>
+      <c r="Q52">
+        <v>-1</v>
+      </c>
+      <c r="R52">
+        <v>1.925</v>
+      </c>
+      <c r="S52">
+        <v>1.925</v>
+      </c>
+      <c r="T52">
         <v>2.5</v>
       </c>
-      <c r="Q52">
-        <v>0</v>
-      </c>
-      <c r="R52">
-        <v>2.05</v>
-      </c>
-      <c r="S52">
-        <v>1.8</v>
-      </c>
-      <c r="T52">
-        <v>2.25</v>
-      </c>
       <c r="U52">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="V52">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="W52">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="X52">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Y52">
         <v>-1</v>
@@ -5132,10 +5132,10 @@
         <v>-0</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC52">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="53" spans="1:29">
@@ -5167,7 +5167,7 @@
         <v>1</v>
       </c>
       <c r="J53" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K53">
         <v>2.2</v>
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053287</v>
+        <v>6043245</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>1.95</v>
@@ -5286,31 +5286,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5410,7 +5410,7 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>6043245</v>
+        <v>6053285</v>
       </c>
       <c r="C56" t="s">
         <v>28</v>
@@ -5422,10 +5422,10 @@
         <v>45170.65625</v>
       </c>
       <c r="F56" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G56" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H56">
         <v>3</v>
@@ -5437,43 +5437,43 @@
         <v>42</v>
       </c>
       <c r="K56">
-        <v>1.615</v>
+        <v>2.8</v>
       </c>
       <c r="L56">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="M56">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="N56">
-        <v>1.909</v>
+        <v>2.45</v>
       </c>
       <c r="O56">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P56">
-        <v>4</v>
+        <v>2.8</v>
       </c>
       <c r="Q56">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S56">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T56">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U56">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="V56">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="W56">
-        <v>0.909</v>
+        <v>1.45</v>
       </c>
       <c r="X56">
         <v>-1</v>
@@ -5482,13 +5482,13 @@
         <v>-1</v>
       </c>
       <c r="Z56">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AA56">
         <v>-1</v>
       </c>
       <c r="AB56">
-        <v>1.025</v>
+        <v>1</v>
       </c>
       <c r="AC56">
         <v>-1</v>
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053288</v>
+        <v>6053286</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L57">
+        <v>5.5</v>
+      </c>
+      <c r="M57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>1.3</v>
+      </c>
+      <c r="O57">
+        <v>5.25</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>-1.5</v>
+      </c>
+      <c r="R57">
+        <v>1.925</v>
+      </c>
+      <c r="S57">
+        <v>1.925</v>
+      </c>
+      <c r="T57">
         <v>3</v>
       </c>
-      <c r="M57">
-        <v>2.5</v>
-      </c>
-      <c r="N57">
-        <v>2.375</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>2.1</v>
-      </c>
-      <c r="S57">
-        <v>1.775</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053285</v>
+        <v>6053287</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5603,70 +5603,70 @@
         <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="L58">
+        <v>3.25</v>
+      </c>
+      <c r="M58">
+        <v>2.2</v>
+      </c>
+      <c r="N58">
         <v>3.4</v>
       </c>
-      <c r="M58">
-        <v>2.3</v>
-      </c>
-      <c r="N58">
-        <v>2.45</v>
-      </c>
       <c r="O58">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>2.8</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S58">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T58">
         <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>1.45</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA58">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB58">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -5692,7 +5692,7 @@
         <v>32</v>
       </c>
       <c r="G59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -5701,7 +5701,7 @@
         <v>5</v>
       </c>
       <c r="J59" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K59">
         <v>12</v>
@@ -5778,10 +5778,10 @@
         <v>45184.65625</v>
       </c>
       <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="G60" t="s">
         <v>33</v>
-      </c>
-      <c r="G60" t="s">
-        <v>30</v>
       </c>
       <c r="H60">
         <v>1</v>
@@ -5790,7 +5790,7 @@
         <v>1</v>
       </c>
       <c r="J60" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K60">
         <v>2.5</v>
@@ -5944,7 +5944,7 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>6288260</v>
+        <v>6288259</v>
       </c>
       <c r="C62" t="s">
         <v>28</v>
@@ -5956,76 +5956,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G62" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K62">
-        <v>12</v>
+        <v>1.8</v>
       </c>
       <c r="L62">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="M62">
-        <v>1.181</v>
+        <v>4.5</v>
       </c>
       <c r="N62">
-        <v>34</v>
+        <v>1.95</v>
       </c>
       <c r="O62">
-        <v>11</v>
+        <v>3.5</v>
       </c>
       <c r="P62">
-        <v>1.055</v>
+        <v>3.8</v>
       </c>
       <c r="Q62">
-        <v>2.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R62">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S62">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T62">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="U62">
+        <v>1.85</v>
+      </c>
+      <c r="V62">
         <v>2</v>
       </c>
-      <c r="V62">
-        <v>1.85</v>
-      </c>
       <c r="W62">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="X62">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y62">
         <v>-1</v>
       </c>
       <c r="Z62">
-        <v>0.925</v>
+        <v>0.95</v>
       </c>
       <c r="AA62">
         <v>-1</v>
       </c>
       <c r="AB62">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC62">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="63" spans="1:29">
@@ -6033,7 +6033,7 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>6288259</v>
+        <v>6288772</v>
       </c>
       <c r="C63" t="s">
         <v>28</v>
@@ -6045,49 +6045,49 @@
         <v>45191.65625</v>
       </c>
       <c r="F63" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G63" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="H63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J63" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K63">
-        <v>1.8</v>
+        <v>3.3</v>
       </c>
       <c r="L63">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M63">
-        <v>4.5</v>
+        <v>2.1</v>
       </c>
       <c r="N63">
-        <v>1.95</v>
+        <v>4.75</v>
       </c>
       <c r="O63">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="P63">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="Q63">
-        <v>-0.5</v>
+        <v>0.75</v>
       </c>
       <c r="R63">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="S63">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="T63">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U63">
         <v>1.85</v>
@@ -6096,25 +6096,25 @@
         <v>2</v>
       </c>
       <c r="W63">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="X63">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y63">
         <v>-1</v>
       </c>
       <c r="Z63">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA63">
         <v>-1</v>
       </c>
       <c r="AB63">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC63">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:29">
@@ -6137,7 +6137,7 @@
         <v>36</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H64">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288772</v>
+        <v>6288260</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,10 +6223,10 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -6235,55 +6235,55 @@
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K65">
-        <v>3.3</v>
+        <v>12</v>
       </c>
       <c r="L65">
+        <v>7.5</v>
+      </c>
+      <c r="M65">
+        <v>1.181</v>
+      </c>
+      <c r="N65">
+        <v>34</v>
+      </c>
+      <c r="O65">
+        <v>11</v>
+      </c>
+      <c r="P65">
+        <v>1.055</v>
+      </c>
+      <c r="Q65">
+        <v>2.75</v>
+      </c>
+      <c r="R65">
+        <v>1.925</v>
+      </c>
+      <c r="S65">
+        <v>1.925</v>
+      </c>
+      <c r="T65">
         <v>3.5</v>
       </c>
-      <c r="M65">
-        <v>2.1</v>
-      </c>
-      <c r="N65">
-        <v>4.75</v>
-      </c>
-      <c r="O65">
-        <v>3.75</v>
-      </c>
-      <c r="P65">
-        <v>1.7</v>
-      </c>
-      <c r="Q65">
-        <v>0.75</v>
-      </c>
-      <c r="R65">
-        <v>1.975</v>
-      </c>
-      <c r="S65">
-        <v>1.875</v>
-      </c>
-      <c r="T65">
-        <v>2.75</v>
-      </c>
       <c r="U65">
+        <v>2</v>
+      </c>
+      <c r="V65">
         <v>1.85</v>
       </c>
-      <c r="V65">
-        <v>2</v>
-      </c>
       <c r="W65">
         <v>-1</v>
       </c>
       <c r="X65">
-        <v>2.75</v>
+        <v>10</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.9750000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6315,7 +6315,7 @@
         <v>38</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H66">
         <v>2</v>
@@ -6401,10 +6401,10 @@
         <v>45194.65625</v>
       </c>
       <c r="F67" t="s">
+        <v>35</v>
+      </c>
+      <c r="G67" t="s">
         <v>34</v>
-      </c>
-      <c r="G67" t="s">
-        <v>35</v>
       </c>
       <c r="H67">
         <v>5</v>
@@ -6493,7 +6493,7 @@
         <v>37</v>
       </c>
       <c r="G68" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H68">
         <v>1</v>
@@ -6502,7 +6502,7 @@
         <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K68">
         <v>1.615</v>
@@ -6579,7 +6579,7 @@
         <v>45194.65625</v>
       </c>
       <c r="F69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G69" t="s">
         <v>38</v>
@@ -6591,7 +6591,7 @@
         <v>1</v>
       </c>
       <c r="J69" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K69">
         <v>1.8</v>
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323101</v>
+        <v>6323098</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G70" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
         <v>1</v>
       </c>
-      <c r="I70">
-        <v>0</v>
-      </c>
       <c r="J70" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K70">
-        <v>1.833</v>
+        <v>3.4</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>4.25</v>
+        <v>2.05</v>
       </c>
       <c r="N70">
-        <v>1.7</v>
+        <v>3.5</v>
       </c>
       <c r="O70">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P70">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q70">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R70">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S70">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T70">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U70">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V70">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W70">
-        <v>0.7</v>
+        <v>-1</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z70">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="AA70">
-        <v>-0.5</v>
+        <v>0.8</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323097</v>
+        <v>6323101</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,34 +6757,34 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G71" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H71">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
       </c>
       <c r="K71">
-        <v>2.1</v>
+        <v>1.833</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>3.25</v>
+        <v>4.25</v>
       </c>
       <c r="N71">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="O71">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="P71">
         <v>5</v>
@@ -6793,22 +6793,22 @@
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.775</v>
+        <v>1.9</v>
       </c>
       <c r="S71">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="T71">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U71">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V71">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W71">
-        <v>0.6000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.7749999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="AA71">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB71">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC71">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323098</v>
+        <v>6323097</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,46 +6846,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G72" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K72">
-        <v>3.4</v>
+        <v>2.1</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>2.05</v>
+        <v>3.25</v>
       </c>
       <c r="N72">
-        <v>3.5</v>
+        <v>1.6</v>
       </c>
       <c r="O72">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="P72">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q72">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R72">
-        <v>2.05</v>
+        <v>1.775</v>
       </c>
       <c r="S72">
-        <v>1.8</v>
+        <v>2.1</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6897,25 +6897,25 @@
         <v>2.025</v>
       </c>
       <c r="W72">
-        <v>-1</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z72">
-        <v>-1</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA72">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AB72">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC72">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -6935,10 +6935,10 @@
         <v>45198.65625</v>
       </c>
       <c r="F73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G73" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H73">
         <v>3</v>
@@ -7024,7 +7024,7 @@
         <v>45198.65625</v>
       </c>
       <c r="F74" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G74" t="s">
         <v>32</v>
@@ -7101,7 +7101,7 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>6351494</v>
+        <v>6351493</v>
       </c>
       <c r="C75" t="s">
         <v>28</v>
@@ -7113,67 +7113,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F75" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
       </c>
       <c r="J75" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K75">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="L75">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="M75">
-        <v>3.2</v>
+        <v>1.65</v>
       </c>
       <c r="N75">
-        <v>2.2</v>
+        <v>7</v>
       </c>
       <c r="O75">
-        <v>3.2</v>
+        <v>4.75</v>
       </c>
       <c r="P75">
-        <v>3.1</v>
+        <v>1.363</v>
       </c>
       <c r="Q75">
-        <v>-0.25</v>
+        <v>1.25</v>
       </c>
       <c r="R75">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="S75">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="T75">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U75">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="V75">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="W75">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="X75">
-        <v>-1</v>
+        <v>3.75</v>
       </c>
       <c r="Y75">
         <v>-1</v>
       </c>
       <c r="Z75">
-        <v>0.925</v>
+        <v>1.025</v>
       </c>
       <c r="AA75">
         <v>-1</v>
@@ -7182,7 +7182,7 @@
         <v>-1</v>
       </c>
       <c r="AC75">
-        <v>1.05</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="76" spans="1:29">
@@ -7190,7 +7190,7 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>6351493</v>
+        <v>6351494</v>
       </c>
       <c r="C76" t="s">
         <v>28</v>
@@ -7202,67 +7202,67 @@
         <v>45205.65625</v>
       </c>
       <c r="F76" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G76" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I76">
         <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K76">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="L76">
-        <v>3.8</v>
+        <v>3.2</v>
       </c>
       <c r="M76">
-        <v>1.65</v>
+        <v>3.2</v>
       </c>
       <c r="N76">
-        <v>7</v>
+        <v>2.2</v>
       </c>
       <c r="O76">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="P76">
-        <v>1.363</v>
+        <v>3.1</v>
       </c>
       <c r="Q76">
-        <v>1.25</v>
+        <v>-0.25</v>
       </c>
       <c r="R76">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="S76">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="T76">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U76">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="V76">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="W76">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="X76">
-        <v>3.75</v>
+        <v>-1</v>
       </c>
       <c r="Y76">
         <v>-1</v>
       </c>
       <c r="Z76">
-        <v>1.025</v>
+        <v>0.925</v>
       </c>
       <c r="AA76">
         <v>-1</v>
@@ -7271,7 +7271,7 @@
         <v>-1</v>
       </c>
       <c r="AC76">
-        <v>0.95</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="77" spans="1:29">
@@ -7294,7 +7294,7 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H77">
         <v>1</v>
@@ -7303,7 +7303,7 @@
         <v>2</v>
       </c>
       <c r="J77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K77">
         <v>10</v>
@@ -7380,7 +7380,7 @@
         <v>45219.65625</v>
       </c>
       <c r="F78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G78" t="s">
         <v>37</v>
@@ -7392,7 +7392,7 @@
         <v>2</v>
       </c>
       <c r="J78" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K78">
         <v>1.85</v>
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G79" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J79" t="s">
         <v>43</v>
       </c>
       <c r="K79">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L79">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M79">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N79">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O79">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P79">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q79">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R79">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S79">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T79">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y79">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G80" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J80" t="s">
         <v>41</v>
       </c>
       <c r="K80">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L80">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M80">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N80">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O80">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P80">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q80">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R80">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S80">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T80">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y80">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -7650,7 +7650,7 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -7659,7 +7659,7 @@
         <v>2</v>
       </c>
       <c r="J81" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K81">
         <v>5.5</v>
@@ -7736,10 +7736,10 @@
         <v>45221.66666666666</v>
       </c>
       <c r="F82" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G82" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H82">
         <v>5</v>
@@ -7991,7 +7991,7 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>6382788</v>
+        <v>6382789</v>
       </c>
       <c r="C85" t="s">
         <v>28</v>
@@ -8006,73 +8006,73 @@
         <v>35</v>
       </c>
       <c r="G85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85" t="s">
+        <v>42</v>
+      </c>
+      <c r="K85">
+        <v>2.625</v>
+      </c>
+      <c r="L85">
+        <v>3.4</v>
+      </c>
+      <c r="M85">
+        <v>2.55</v>
+      </c>
+      <c r="N85">
+        <v>3.2</v>
+      </c>
+      <c r="O85">
+        <v>3.6</v>
+      </c>
+      <c r="P85">
+        <v>2.15</v>
+      </c>
+      <c r="Q85">
+        <v>0.25</v>
+      </c>
+      <c r="R85">
+        <v>2.025</v>
+      </c>
+      <c r="S85">
+        <v>1.825</v>
+      </c>
+      <c r="T85">
+        <v>2.75</v>
+      </c>
+      <c r="U85">
+        <v>1.85</v>
+      </c>
+      <c r="V85">
+        <v>2</v>
+      </c>
+      <c r="W85">
+        <v>2.2</v>
+      </c>
+      <c r="X85">
+        <v>-1</v>
+      </c>
+      <c r="Y85">
+        <v>-1</v>
+      </c>
+      <c r="Z85">
+        <v>1.025</v>
+      </c>
+      <c r="AA85">
+        <v>-1</v>
+      </c>
+      <c r="AB85">
+        <v>-1</v>
+      </c>
+      <c r="AC85">
         <v>1</v>
-      </c>
-      <c r="J85" t="s">
-        <v>41</v>
-      </c>
-      <c r="K85">
-        <v>5.75</v>
-      </c>
-      <c r="L85">
-        <v>4</v>
-      </c>
-      <c r="M85">
-        <v>1.55</v>
-      </c>
-      <c r="N85">
-        <v>6</v>
-      </c>
-      <c r="O85">
-        <v>4</v>
-      </c>
-      <c r="P85">
-        <v>1.55</v>
-      </c>
-      <c r="Q85">
-        <v>1</v>
-      </c>
-      <c r="R85">
-        <v>1.9</v>
-      </c>
-      <c r="S85">
-        <v>1.95</v>
-      </c>
-      <c r="T85">
-        <v>2.5</v>
-      </c>
-      <c r="U85">
-        <v>1.975</v>
-      </c>
-      <c r="V85">
-        <v>1.875</v>
-      </c>
-      <c r="W85">
-        <v>-1</v>
-      </c>
-      <c r="X85">
-        <v>-1</v>
-      </c>
-      <c r="Y85">
-        <v>0.55</v>
-      </c>
-      <c r="Z85">
-        <v>0</v>
-      </c>
-      <c r="AA85">
-        <v>-0</v>
-      </c>
-      <c r="AB85">
-        <v>-1</v>
-      </c>
-      <c r="AC85">
-        <v>0.875</v>
       </c>
     </row>
     <row r="86" spans="1:29">
@@ -8080,7 +8080,7 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>6382789</v>
+        <v>6382788</v>
       </c>
       <c r="C86" t="s">
         <v>28</v>
@@ -8095,73 +8095,73 @@
         <v>34</v>
       </c>
       <c r="G86" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J86" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K86">
-        <v>2.625</v>
+        <v>5.75</v>
       </c>
       <c r="L86">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="M86">
-        <v>2.55</v>
+        <v>1.55</v>
       </c>
       <c r="N86">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="O86">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P86">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="Q86">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="R86">
-        <v>2.025</v>
+        <v>1.9</v>
       </c>
       <c r="S86">
-        <v>1.825</v>
+        <v>1.95</v>
       </c>
       <c r="T86">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U86">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V86">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W86">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X86">
         <v>-1</v>
       </c>
       <c r="Y86">
-        <v>-1</v>
+        <v>0.55</v>
       </c>
       <c r="Z86">
-        <v>1.025</v>
+        <v>0</v>
       </c>
       <c r="AA86">
-        <v>-1</v>
+        <v>-0</v>
       </c>
       <c r="AB86">
         <v>-1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="87" spans="1:29">
@@ -8184,7 +8184,7 @@
         <v>37</v>
       </c>
       <c r="G87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -8193,7 +8193,7 @@
         <v>2</v>
       </c>
       <c r="J87" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K87">
         <v>3.2</v>
@@ -8273,7 +8273,7 @@
         <v>36</v>
       </c>
       <c r="G88" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -8282,7 +8282,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K88">
         <v>1.727</v>
@@ -8359,10 +8359,10 @@
         <v>45229.57291666666</v>
       </c>
       <c r="F89" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G89" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -8371,7 +8371,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K89">
         <v>5.75</v>
@@ -8436,7 +8436,7 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>6412498</v>
+        <v>6407559</v>
       </c>
       <c r="C90" t="s">
         <v>28</v>
@@ -8448,76 +8448,76 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G90" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H90">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I90">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J90" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K90">
-        <v>1.7</v>
+        <v>10</v>
       </c>
       <c r="L90">
-        <v>3.75</v>
+        <v>5.6</v>
       </c>
       <c r="M90">
-        <v>4.2</v>
+        <v>1.222</v>
       </c>
       <c r="N90">
-        <v>1.45</v>
+        <v>11</v>
       </c>
       <c r="O90">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P90">
-        <v>6.5</v>
+        <v>1.181</v>
       </c>
       <c r="Q90">
-        <v>-1.25</v>
+        <v>2</v>
       </c>
       <c r="R90">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S90">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T90">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="U90">
+        <v>1.85</v>
+      </c>
+      <c r="V90">
         <v>2</v>
       </c>
-      <c r="V90">
-        <v>1.85</v>
-      </c>
       <c r="W90">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X90">
         <v>-1</v>
       </c>
       <c r="Y90">
-        <v>-1</v>
+        <v>0.181</v>
       </c>
       <c r="Z90">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA90">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AB90">
-        <v>0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC90">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="91" spans="1:29">
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412856</v>
+        <v>6412497</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8540,55 +8540,55 @@
         <v>30</v>
       </c>
       <c r="G91" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L91">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M91">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N91">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O91">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P91">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q91">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R91">
+        <v>1.9</v>
+      </c>
+      <c r="S91">
         <v>1.95</v>
       </c>
-      <c r="S91">
+      <c r="T91">
+        <v>3.25</v>
+      </c>
+      <c r="U91">
         <v>1.9</v>
       </c>
-      <c r="T91">
-        <v>3</v>
-      </c>
-      <c r="U91">
-        <v>2</v>
-      </c>
       <c r="V91">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W91">
-        <v>0.222</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,13 +8597,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA91">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB91">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6407558</v>
+        <v>6412856</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,73 +8626,73 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G92" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H92">
+        <v>4</v>
+      </c>
+      <c r="I92">
         <v>2</v>
       </c>
-      <c r="I92">
-        <v>4</v>
-      </c>
       <c r="J92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K92">
-        <v>3.3</v>
+        <v>1.25</v>
       </c>
       <c r="L92">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="M92">
+        <v>9.5</v>
+      </c>
+      <c r="N92">
+        <v>1.222</v>
+      </c>
+      <c r="O92">
+        <v>5.5</v>
+      </c>
+      <c r="P92">
+        <v>9</v>
+      </c>
+      <c r="Q92">
+        <v>-1.75</v>
+      </c>
+      <c r="R92">
+        <v>1.95</v>
+      </c>
+      <c r="S92">
+        <v>1.9</v>
+      </c>
+      <c r="T92">
+        <v>3</v>
+      </c>
+      <c r="U92">
         <v>2</v>
       </c>
-      <c r="N92">
-        <v>5</v>
-      </c>
-      <c r="O92">
-        <v>3.75</v>
-      </c>
-      <c r="P92">
-        <v>1.6</v>
-      </c>
-      <c r="Q92">
-        <v>0.75</v>
-      </c>
-      <c r="R92">
-        <v>2.05</v>
-      </c>
-      <c r="S92">
-        <v>1.8</v>
-      </c>
-      <c r="T92">
-        <v>2.5</v>
-      </c>
-      <c r="U92">
-        <v>1.925</v>
-      </c>
       <c r="V92">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="W92">
-        <v>-1</v>
+        <v>0.222</v>
       </c>
       <c r="X92">
         <v>-1</v>
       </c>
       <c r="Y92">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="Z92">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA92">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB92">
-        <v>0.925</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8703,7 +8703,7 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>6412497</v>
+        <v>6412498</v>
       </c>
       <c r="C93" t="s">
         <v>28</v>
@@ -8715,13 +8715,13 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F93" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G93" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H93">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -8730,43 +8730,43 @@
         <v>42</v>
       </c>
       <c r="K93">
-        <v>1.4</v>
+        <v>1.7</v>
       </c>
       <c r="L93">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="M93">
+        <v>4.2</v>
+      </c>
+      <c r="N93">
+        <v>1.45</v>
+      </c>
+      <c r="O93">
+        <v>4</v>
+      </c>
+      <c r="P93">
         <v>6.5</v>
       </c>
-      <c r="N93">
-        <v>1.166</v>
-      </c>
-      <c r="O93">
-        <v>6.5</v>
-      </c>
-      <c r="P93">
-        <v>15</v>
-      </c>
       <c r="Q93">
-        <v>-2</v>
+        <v>-1.25</v>
       </c>
       <c r="R93">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S93">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T93">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="U93">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V93">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W93">
-        <v>0.1659999999999999</v>
+        <v>0.45</v>
       </c>
       <c r="X93">
         <v>-1</v>
@@ -8775,16 +8775,16 @@
         <v>-1</v>
       </c>
       <c r="Z93">
-        <v>0.8999999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AA93">
         <v>-1</v>
       </c>
       <c r="AB93">
-        <v>0.8999999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AC93">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="94" spans="1:29">
@@ -8792,7 +8792,7 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>6407559</v>
+        <v>6407558</v>
       </c>
       <c r="C94" t="s">
         <v>28</v>
@@ -8804,55 +8804,55 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G94" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I94">
+        <v>4</v>
+      </c>
+      <c r="J94" t="s">
+        <v>43</v>
+      </c>
+      <c r="K94">
+        <v>3.3</v>
+      </c>
+      <c r="L94">
+        <v>3.4</v>
+      </c>
+      <c r="M94">
+        <v>2</v>
+      </c>
+      <c r="N94">
         <v>5</v>
       </c>
-      <c r="J94" t="s">
-        <v>41</v>
-      </c>
-      <c r="K94">
-        <v>10</v>
-      </c>
-      <c r="L94">
-        <v>5.6</v>
-      </c>
-      <c r="M94">
-        <v>1.222</v>
-      </c>
-      <c r="N94">
-        <v>11</v>
-      </c>
       <c r="O94">
-        <v>6</v>
+        <v>3.75</v>
       </c>
       <c r="P94">
-        <v>1.181</v>
+        <v>1.6</v>
       </c>
       <c r="Q94">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="R94">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="S94">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="T94">
-        <v>3.25</v>
+        <v>2.5</v>
       </c>
       <c r="U94">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V94">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W94">
         <v>-1</v>
@@ -8861,16 +8861,16 @@
         <v>-1</v>
       </c>
       <c r="Y94">
-        <v>0.181</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="Z94">
         <v>-1</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AB94">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC94">
         <v>-1</v>
@@ -8893,10 +8893,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G95" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H95">
         <v>1</v>
@@ -8905,7 +8905,7 @@
         <v>1</v>
       </c>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K95">
         <v>1.363</v>
@@ -8982,7 +8982,7 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -8994,7 +8994,7 @@
         <v>2</v>
       </c>
       <c r="J96" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K96">
         <v>1.8</v>
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630127</v>
+        <v>7630126</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G97" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K97">
-        <v>3</v>
+        <v>1.4</v>
       </c>
       <c r="L97">
-        <v>3.25</v>
+        <v>4.5</v>
       </c>
       <c r="M97">
-        <v>2.1</v>
+        <v>5.5</v>
       </c>
       <c r="N97">
-        <v>3.5</v>
+        <v>1.333</v>
       </c>
       <c r="O97">
-        <v>3.4</v>
+        <v>5.75</v>
       </c>
       <c r="P97">
-        <v>2.1</v>
+        <v>8</v>
       </c>
       <c r="Q97">
-        <v>0.25</v>
+        <v>-1.5</v>
       </c>
       <c r="R97">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S97">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T97">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U97">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V97">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W97">
-        <v>-1</v>
+        <v>0.333</v>
       </c>
       <c r="X97">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA97">
+        <v>0.875</v>
+      </c>
+      <c r="AB97">
+        <v>0.4375</v>
+      </c>
+      <c r="AC97">
         <v>-0.5</v>
-      </c>
-      <c r="AB97">
-        <v>-0.5</v>
-      </c>
-      <c r="AC97">
-        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630061</v>
+        <v>7630127</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,13 +9160,13 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G98" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I98">
         <v>1</v>
@@ -9175,34 +9175,34 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="L98">
+        <v>3.25</v>
+      </c>
+      <c r="M98">
+        <v>2.1</v>
+      </c>
+      <c r="N98">
+        <v>3.5</v>
+      </c>
+      <c r="O98">
         <v>3.4</v>
       </c>
-      <c r="M98">
-        <v>2</v>
-      </c>
-      <c r="N98">
-        <v>2.3</v>
-      </c>
-      <c r="O98">
-        <v>3.5</v>
-      </c>
       <c r="P98">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="Q98">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R98">
-        <v>2.05</v>
+        <v>2.025</v>
       </c>
       <c r="S98">
-        <v>1.8</v>
+        <v>1.825</v>
       </c>
       <c r="T98">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U98">
         <v>1.925</v>
@@ -9214,22 +9214,22 @@
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y98">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z98">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA98">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB98">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC98">
-        <v>0.925</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9237,7 +9237,7 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>7630126</v>
+        <v>7630061</v>
       </c>
       <c r="C99" t="s">
         <v>28</v>
@@ -9249,76 +9249,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F99" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="G99" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>1</v>
       </c>
       <c r="J99" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K99">
-        <v>1.4</v>
+        <v>3.1</v>
       </c>
       <c r="L99">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="N99">
-        <v>1.333</v>
+        <v>2.3</v>
       </c>
       <c r="O99">
-        <v>5.75</v>
+        <v>3.5</v>
       </c>
       <c r="P99">
-        <v>8</v>
+        <v>2.9</v>
       </c>
       <c r="Q99">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R99">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="S99">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="T99">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U99">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V99">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W99">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X99">
         <v>-1</v>
       </c>
       <c r="Y99">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z99">
         <v>-1</v>
       </c>
       <c r="AA99">
-        <v>0.875</v>
+        <v>0.8</v>
       </c>
       <c r="AB99">
-        <v>0.4375</v>
+        <v>-1</v>
       </c>
       <c r="AC99">
-        <v>-0.5</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="100" spans="1:29">
@@ -9326,7 +9326,7 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>7630062</v>
+        <v>7630129</v>
       </c>
       <c r="C100" t="s">
         <v>28</v>
@@ -9338,55 +9338,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F100" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G100" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I100">
+        <v>4</v>
+      </c>
+      <c r="J100" t="s">
+        <v>43</v>
+      </c>
+      <c r="K100">
         <v>2</v>
       </c>
-      <c r="J100" t="s">
-        <v>41</v>
-      </c>
-      <c r="K100">
-        <v>2.1</v>
-      </c>
       <c r="L100">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M100">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="N100">
-        <v>2.2</v>
+        <v>2.625</v>
       </c>
       <c r="O100">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P100">
-        <v>3.6</v>
+        <v>2.75</v>
       </c>
       <c r="Q100">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R100">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S100">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T100">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U100">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V100">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W100">
         <v>-1</v>
@@ -9395,19 +9395,19 @@
         <v>-1</v>
       </c>
       <c r="Y100">
-        <v>2.6</v>
+        <v>1.75</v>
       </c>
       <c r="Z100">
         <v>-1</v>
       </c>
       <c r="AA100">
-        <v>0.95</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB100">
-        <v>0</v>
+        <v>0.875</v>
       </c>
       <c r="AC100">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="101" spans="1:29">
@@ -9415,7 +9415,7 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>7630129</v>
+        <v>7630130</v>
       </c>
       <c r="C101" t="s">
         <v>28</v>
@@ -9427,73 +9427,73 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F101" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G101" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H101">
+        <v>2</v>
+      </c>
+      <c r="I101">
         <v>1</v>
       </c>
-      <c r="I101">
-        <v>4</v>
-      </c>
       <c r="J101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K101">
+        <v>4.333</v>
+      </c>
+      <c r="L101">
+        <v>3.3</v>
+      </c>
+      <c r="M101">
+        <v>1.85</v>
+      </c>
+      <c r="N101">
+        <v>3.75</v>
+      </c>
+      <c r="O101">
+        <v>2.9</v>
+      </c>
+      <c r="P101">
+        <v>2.1</v>
+      </c>
+      <c r="Q101">
+        <v>0.25</v>
+      </c>
+      <c r="R101">
         <v>2</v>
       </c>
-      <c r="L101">
-        <v>3.25</v>
-      </c>
-      <c r="M101">
-        <v>3.8</v>
-      </c>
-      <c r="N101">
-        <v>2.625</v>
-      </c>
-      <c r="O101">
-        <v>3.1</v>
-      </c>
-      <c r="P101">
+      <c r="S101">
+        <v>1.85</v>
+      </c>
+      <c r="T101">
+        <v>1.75</v>
+      </c>
+      <c r="U101">
+        <v>1.775</v>
+      </c>
+      <c r="V101">
+        <v>2.1</v>
+      </c>
+      <c r="W101">
         <v>2.75</v>
       </c>
-      <c r="Q101">
-        <v>0</v>
-      </c>
-      <c r="R101">
-        <v>1.875</v>
-      </c>
-      <c r="S101">
-        <v>1.975</v>
-      </c>
-      <c r="T101">
-        <v>2.25</v>
-      </c>
-      <c r="U101">
-        <v>1.875</v>
-      </c>
-      <c r="V101">
-        <v>1.975</v>
-      </c>
-      <c r="W101">
-        <v>-1</v>
-      </c>
       <c r="X101">
         <v>-1</v>
       </c>
       <c r="Y101">
-        <v>1.75</v>
+        <v>-1</v>
       </c>
       <c r="Z101">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AA101">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB101">
-        <v>0.875</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AC101">
         <v>-1</v>
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630131</v>
+        <v>7630062</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,55 +9516,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J102" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K102">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L102">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M102">
+        <v>3.6</v>
+      </c>
+      <c r="N102">
+        <v>2.2</v>
+      </c>
+      <c r="O102">
         <v>3</v>
       </c>
-      <c r="N102">
-        <v>2.3</v>
-      </c>
-      <c r="O102">
-        <v>3.25</v>
-      </c>
       <c r="P102">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S102">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T102">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U102">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V102">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9573,19 +9573,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB102">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC102">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630130</v>
+        <v>7630131</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,76 +9605,76 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G103" t="s">
         <v>30</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>1</v>
       </c>
       <c r="J103" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K103">
-        <v>4.333</v>
+        <v>2.3</v>
       </c>
       <c r="L103">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="M103">
-        <v>1.85</v>
+        <v>3</v>
       </c>
       <c r="N103">
-        <v>3.75</v>
+        <v>2.3</v>
       </c>
       <c r="O103">
-        <v>2.9</v>
+        <v>3.25</v>
       </c>
       <c r="P103">
+        <v>3.1</v>
+      </c>
+      <c r="Q103">
+        <v>-0.25</v>
+      </c>
+      <c r="R103">
+        <v>2.05</v>
+      </c>
+      <c r="S103">
+        <v>1.8</v>
+      </c>
+      <c r="T103">
+        <v>2.5</v>
+      </c>
+      <c r="U103">
+        <v>1.975</v>
+      </c>
+      <c r="V103">
+        <v>1.875</v>
+      </c>
+      <c r="W103">
+        <v>-1</v>
+      </c>
+      <c r="X103">
+        <v>-1</v>
+      </c>
+      <c r="Y103">
         <v>2.1</v>
       </c>
-      <c r="Q103">
-        <v>0.25</v>
-      </c>
-      <c r="R103">
-        <v>2</v>
-      </c>
-      <c r="S103">
-        <v>1.85</v>
-      </c>
-      <c r="T103">
-        <v>1.75</v>
-      </c>
-      <c r="U103">
-        <v>1.775</v>
-      </c>
-      <c r="V103">
-        <v>2.1</v>
-      </c>
-      <c r="W103">
-        <v>2.75</v>
-      </c>
-      <c r="X103">
-        <v>-1</v>
-      </c>
-      <c r="Y103">
-        <v>-1</v>
-      </c>
       <c r="Z103">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AA103">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB103">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC103">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9697,7 +9697,7 @@
         <v>36</v>
       </c>
       <c r="G104" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -9706,7 +9706,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K104">
         <v>4</v>
@@ -9771,7 +9771,7 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7630463</v>
+        <v>7630134</v>
       </c>
       <c r="C105" t="s">
         <v>28</v>
@@ -9783,76 +9783,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F105" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="G105" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>1</v>
       </c>
       <c r="J105" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K105">
-        <v>1.615</v>
+        <v>2.75</v>
       </c>
       <c r="L105">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="M105">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="N105">
+        <v>3.2</v>
+      </c>
+      <c r="O105">
+        <v>2.875</v>
+      </c>
+      <c r="P105">
+        <v>2.375</v>
+      </c>
+      <c r="Q105">
+        <v>0.25</v>
+      </c>
+      <c r="R105">
+        <v>1.775</v>
+      </c>
+      <c r="S105">
+        <v>2.1</v>
+      </c>
+      <c r="T105">
+        <v>2</v>
+      </c>
+      <c r="U105">
+        <v>2.05</v>
+      </c>
+      <c r="V105">
         <v>1.75</v>
       </c>
-      <c r="O105">
-        <v>3.3</v>
-      </c>
-      <c r="P105">
-        <v>4.75</v>
-      </c>
-      <c r="Q105">
-        <v>-0.5</v>
-      </c>
-      <c r="R105">
-        <v>1.8</v>
-      </c>
-      <c r="S105">
-        <v>2.05</v>
-      </c>
-      <c r="T105">
-        <v>2.25</v>
-      </c>
-      <c r="U105">
-        <v>2</v>
-      </c>
-      <c r="V105">
-        <v>1.85</v>
-      </c>
       <c r="W105">
+        <v>-1</v>
+      </c>
+      <c r="X105">
+        <v>-1</v>
+      </c>
+      <c r="Y105">
+        <v>1.375</v>
+      </c>
+      <c r="Z105">
+        <v>-1</v>
+      </c>
+      <c r="AA105">
+        <v>1.1</v>
+      </c>
+      <c r="AB105">
+        <v>-1</v>
+      </c>
+      <c r="AC105">
         <v>0.75</v>
-      </c>
-      <c r="X105">
-        <v>-1</v>
-      </c>
-      <c r="Y105">
-        <v>-1</v>
-      </c>
-      <c r="Z105">
-        <v>0.8</v>
-      </c>
-      <c r="AA105">
-        <v>-1</v>
-      </c>
-      <c r="AB105">
-        <v>1</v>
-      </c>
-      <c r="AC105">
-        <v>-1</v>
       </c>
     </row>
     <row r="106" spans="1:29">
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630134</v>
+        <v>7630463</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,76 +9961,76 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G107" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107">
         <v>1</v>
       </c>
       <c r="J107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K107">
-        <v>2.75</v>
+        <v>1.615</v>
       </c>
       <c r="L107">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M107">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="N107">
-        <v>3.2</v>
+        <v>1.75</v>
       </c>
       <c r="O107">
-        <v>2.875</v>
+        <v>3.3</v>
       </c>
       <c r="P107">
-        <v>2.375</v>
+        <v>4.75</v>
       </c>
       <c r="Q107">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="S107">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="T107">
+        <v>2.25</v>
+      </c>
+      <c r="U107">
         <v>2</v>
       </c>
-      <c r="U107">
-        <v>2.05</v>
-      </c>
       <c r="V107">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W107">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
       <c r="X107">
         <v>-1</v>
       </c>
       <c r="Y107">
-        <v>1.375</v>
+        <v>-1</v>
       </c>
       <c r="Z107">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA107">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AB107">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC107">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="108" spans="1:29">
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630137</v>
+        <v>7630136</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,73 +10050,73 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K108">
-        <v>2.2</v>
+        <v>3.75</v>
       </c>
       <c r="L108">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="M108">
-        <v>3.2</v>
+        <v>1.909</v>
       </c>
       <c r="N108">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="O108">
         <v>3.4</v>
       </c>
       <c r="P108">
-        <v>3.2</v>
+        <v>2.2</v>
       </c>
       <c r="Q108">
-        <v>-0.25</v>
+        <v>0.25</v>
       </c>
       <c r="R108">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S108">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T108">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U108">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V108">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W108">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="X108">
         <v>-1</v>
       </c>
       <c r="Y108">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="Z108">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA108">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.925</v>
+        <v>0.875</v>
       </c>
       <c r="AC108">
         <v>-1</v>
@@ -10127,7 +10127,7 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>7630139</v>
+        <v>7630137</v>
       </c>
       <c r="C109" t="s">
         <v>28</v>
@@ -10139,16 +10139,16 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F109" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G109" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J109" t="s">
         <v>43</v>
@@ -10157,55 +10157,55 @@
         <v>2.2</v>
       </c>
       <c r="L109">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="M109">
+        <v>3.2</v>
+      </c>
+      <c r="N109">
+        <v>2.2</v>
+      </c>
+      <c r="O109">
         <v>3.4</v>
       </c>
-      <c r="N109">
-        <v>2.15</v>
-      </c>
-      <c r="O109">
-        <v>3.25</v>
-      </c>
       <c r="P109">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="Q109">
         <v>-0.25</v>
       </c>
       <c r="R109">
-        <v>1.8</v>
+        <v>1.925</v>
       </c>
       <c r="S109">
-        <v>2.05</v>
+        <v>1.925</v>
       </c>
       <c r="T109">
         <v>2.25</v>
       </c>
       <c r="U109">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="V109">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="W109">
         <v>-1</v>
       </c>
       <c r="X109">
-        <v>2.25</v>
+        <v>-1</v>
       </c>
       <c r="Y109">
-        <v>-1</v>
+        <v>2.2</v>
       </c>
       <c r="Z109">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA109">
-        <v>0.5249999999999999</v>
+        <v>0.925</v>
       </c>
       <c r="AB109">
-        <v>0.8500000000000001</v>
+        <v>0.925</v>
       </c>
       <c r="AC109">
         <v>-1</v>
@@ -10305,7 +10305,7 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>7630064</v>
+        <v>7630139</v>
       </c>
       <c r="C111" t="s">
         <v>28</v>
@@ -10317,76 +10317,76 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F111" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I111">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K111">
+        <v>2.2</v>
+      </c>
+      <c r="L111">
+        <v>3.1</v>
+      </c>
+      <c r="M111">
+        <v>3.4</v>
+      </c>
+      <c r="N111">
+        <v>2.15</v>
+      </c>
+      <c r="O111">
+        <v>3.25</v>
+      </c>
+      <c r="P111">
+        <v>3.3</v>
+      </c>
+      <c r="Q111">
+        <v>-0.25</v>
+      </c>
+      <c r="R111">
         <v>1.8</v>
       </c>
-      <c r="L111">
-        <v>3.4</v>
-      </c>
-      <c r="M111">
-        <v>4.5</v>
-      </c>
-      <c r="N111">
-        <v>2.6</v>
-      </c>
-      <c r="O111">
-        <v>3</v>
-      </c>
-      <c r="P111">
-        <v>3</v>
-      </c>
-      <c r="Q111">
-        <v>0</v>
-      </c>
-      <c r="R111">
-        <v>1.825</v>
-      </c>
       <c r="S111">
-        <v>2.025</v>
+        <v>2.05</v>
       </c>
       <c r="T111">
+        <v>2.25</v>
+      </c>
+      <c r="U111">
+        <v>1.85</v>
+      </c>
+      <c r="V111">
         <v>2</v>
       </c>
-      <c r="U111">
-        <v>1.925</v>
-      </c>
-      <c r="V111">
-        <v>1.925</v>
-      </c>
       <c r="W111">
-        <v>1.6</v>
+        <v>-1</v>
       </c>
       <c r="X111">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y111">
         <v>-1</v>
       </c>
       <c r="Z111">
-        <v>0.825</v>
+        <v>-0.5</v>
       </c>
       <c r="AA111">
-        <v>-1</v>
+        <v>0.5249999999999999</v>
       </c>
       <c r="AB111">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC111">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="112" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630136</v>
+        <v>7630064</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,58 +10406,58 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="G112" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
       </c>
       <c r="K112">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="L112">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M112">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N112">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O112">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P112">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q112">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R112">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S112">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T112">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U112">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V112">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W112">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10466,16 +10466,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC112">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10498,7 +10498,7 @@
         <v>40</v>
       </c>
       <c r="G113" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -10507,7 +10507,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K113">
         <v>1.666</v>
@@ -10584,7 +10584,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F114" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G114" t="s">
         <v>38</v>
@@ -10596,7 +10596,7 @@
         <v>2</v>
       </c>
       <c r="J114" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K114">
         <v>2.3</v>
@@ -10673,7 +10673,7 @@
         <v>45359.69791666666</v>
       </c>
       <c r="F115" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G115" t="s">
         <v>39</v>
@@ -10765,7 +10765,7 @@
         <v>37</v>
       </c>
       <c r="G116" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H116">
         <v>1</v>
@@ -10854,7 +10854,7 @@
         <v>36</v>
       </c>
       <c r="G117" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -10863,7 +10863,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K117">
         <v>4.5</v>
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7644574</v>
+        <v>7644571</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G118" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H118">
+        <v>2</v>
+      </c>
+      <c r="I118">
         <v>1</v>
       </c>
-      <c r="I118">
+      <c r="J118" t="s">
+        <v>42</v>
+      </c>
+      <c r="K118">
+        <v>3.75</v>
+      </c>
+      <c r="L118">
+        <v>3.4</v>
+      </c>
+      <c r="M118">
         <v>2</v>
       </c>
-      <c r="J118" t="s">
-        <v>41</v>
-      </c>
-      <c r="K118">
-        <v>2.4</v>
-      </c>
-      <c r="L118">
-        <v>3.2</v>
-      </c>
-      <c r="M118">
-        <v>2.6</v>
-      </c>
       <c r="N118">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O118">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P118">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q118">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R118">
         <v>1.925</v>
@@ -10982,31 +10982,31 @@
         <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U118">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V118">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W118">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z118">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA118">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB118">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11032,7 +11032,7 @@
         <v>40</v>
       </c>
       <c r="G119" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -11041,7 +11041,7 @@
         <v>1</v>
       </c>
       <c r="J119" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K119">
         <v>4.5</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7644572</v>
+        <v>7644574</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,76 +11118,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J120" t="s">
         <v>43</v>
       </c>
       <c r="K120">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="L120">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M120">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="N120">
-        <v>2.15</v>
+        <v>2.6</v>
       </c>
       <c r="O120">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="P120">
-        <v>3.25</v>
+        <v>2.55</v>
       </c>
       <c r="Q120">
-        <v>-0.25</v>
+        <v>0</v>
       </c>
       <c r="R120">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S120">
+        <v>1.925</v>
+      </c>
+      <c r="T120">
         <v>2</v>
       </c>
-      <c r="T120">
-        <v>2.5</v>
-      </c>
       <c r="U120">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="V120">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="W120">
         <v>-1</v>
       </c>
       <c r="X120">
-        <v>2.5</v>
+        <v>-1</v>
       </c>
       <c r="Y120">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z120">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA120">
-        <v>0.5</v>
+        <v>0.925</v>
       </c>
       <c r="AB120">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC120">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="121" spans="1:29">
@@ -11195,7 +11195,7 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>7644571</v>
+        <v>7644572</v>
       </c>
       <c r="C121" t="s">
         <v>28</v>
@@ -11207,76 +11207,76 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F121" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="G121" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K121">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="L121">
         <v>3.4</v>
       </c>
       <c r="M121">
+        <v>3.4</v>
+      </c>
+      <c r="N121">
+        <v>2.15</v>
+      </c>
+      <c r="O121">
+        <v>3.5</v>
+      </c>
+      <c r="P121">
+        <v>3.25</v>
+      </c>
+      <c r="Q121">
+        <v>-0.25</v>
+      </c>
+      <c r="R121">
+        <v>1.85</v>
+      </c>
+      <c r="S121">
         <v>2</v>
       </c>
-      <c r="N121">
-        <v>3.4</v>
-      </c>
-      <c r="O121">
-        <v>3.3</v>
-      </c>
-      <c r="P121">
-        <v>2.15</v>
-      </c>
-      <c r="Q121">
-        <v>0.25</v>
-      </c>
-      <c r="R121">
-        <v>1.925</v>
-      </c>
-      <c r="S121">
-        <v>1.925</v>
-      </c>
       <c r="T121">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U121">
+        <v>1.95</v>
+      </c>
+      <c r="V121">
         <v>1.9</v>
       </c>
-      <c r="V121">
-        <v>1.95</v>
-      </c>
       <c r="W121">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X121">
-        <v>-1</v>
+        <v>2.5</v>
       </c>
       <c r="Y121">
         <v>-1</v>
       </c>
       <c r="Z121">
-        <v>0.925</v>
+        <v>-0.5</v>
       </c>
       <c r="AA121">
-        <v>-1</v>
+        <v>0.5</v>
       </c>
       <c r="AB121">
+        <v>-1</v>
+      </c>
+      <c r="AC121">
         <v>0.8999999999999999</v>
-      </c>
-      <c r="AC121">
-        <v>-1</v>
       </c>
     </row>
     <row r="122" spans="1:29">
@@ -11299,7 +11299,7 @@
         <v>36</v>
       </c>
       <c r="G122" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H122">
         <v>3</v>
@@ -11373,7 +11373,7 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>7644580</v>
+        <v>7644578</v>
       </c>
       <c r="C123" t="s">
         <v>28</v>
@@ -11385,46 +11385,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F123" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="G123" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="K123">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="L123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M123">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N123">
-        <v>1.533</v>
+        <v>1.8</v>
       </c>
       <c r="O123">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="P123">
-        <v>6.5</v>
+        <v>4.75</v>
       </c>
       <c r="Q123">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="R123">
-        <v>1.925</v>
+        <v>1.8</v>
       </c>
       <c r="S123">
-        <v>1.925</v>
+        <v>2.05</v>
       </c>
       <c r="T123">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U123">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="V123">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="W123">
         <v>0</v>
@@ -11447,7 +11447,7 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>7644578</v>
+        <v>7644580</v>
       </c>
       <c r="C124" t="s">
         <v>28</v>
@@ -11459,46 +11459,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F124" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="G124" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="K124">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="L124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="M124">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N124">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="O124">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="P124">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q124">
-        <v>-0.75</v>
+        <v>-1</v>
       </c>
       <c r="R124">
+        <v>1.8</v>
+      </c>
+      <c r="S124">
+        <v>2.05</v>
+      </c>
+      <c r="T124">
+        <v>2.5</v>
+      </c>
+      <c r="U124">
+        <v>1.825</v>
+      </c>
+      <c r="V124">
         <v>2.025</v>
-      </c>
-      <c r="S124">
-        <v>1.825</v>
-      </c>
-      <c r="T124">
-        <v>2.25</v>
-      </c>
-      <c r="U124">
-        <v>1.975</v>
-      </c>
-      <c r="V124">
-        <v>1.875</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11521,7 +11521,7 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>7644577</v>
+        <v>7644579</v>
       </c>
       <c r="C125" t="s">
         <v>28</v>
@@ -11533,46 +11533,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F125" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G125" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K125">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="L125">
-        <v>3.5</v>
+        <v>3.1</v>
       </c>
       <c r="M125">
-        <v>2.05</v>
+        <v>2.875</v>
       </c>
       <c r="N125">
-        <v>3.4</v>
+        <v>2.625</v>
       </c>
       <c r="O125">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="P125">
-        <v>2.1</v>
+        <v>2.7</v>
       </c>
       <c r="Q125">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R125">
+        <v>1.9</v>
+      </c>
+      <c r="S125">
+        <v>1.95</v>
+      </c>
+      <c r="T125">
         <v>2</v>
       </c>
-      <c r="S125">
-        <v>1.85</v>
-      </c>
-      <c r="T125">
-        <v>2.5</v>
-      </c>
       <c r="U125">
+        <v>1.825</v>
+      </c>
+      <c r="V125">
         <v>2.025</v>
-      </c>
-      <c r="V125">
-        <v>1.825</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11595,7 +11595,7 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>7644576</v>
+        <v>7644577</v>
       </c>
       <c r="C126" t="s">
         <v>28</v>
@@ -11607,46 +11607,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F126" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G126" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K126">
-        <v>1.833</v>
+        <v>3.5</v>
       </c>
       <c r="L126">
+        <v>3.5</v>
+      </c>
+      <c r="M126">
+        <v>2.05</v>
+      </c>
+      <c r="N126">
         <v>3.6</v>
       </c>
-      <c r="M126">
-        <v>4</v>
-      </c>
-      <c r="N126">
-        <v>1.8</v>
-      </c>
       <c r="O126">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="P126">
-        <v>4.2</v>
+        <v>2.05</v>
       </c>
       <c r="Q126">
-        <v>-0.5</v>
+        <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="S126">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V126">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11669,7 +11669,7 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>7644579</v>
+        <v>7644576</v>
       </c>
       <c r="C127" t="s">
         <v>28</v>
@@ -11681,46 +11681,46 @@
         <v>45380.69791666666</v>
       </c>
       <c r="F127" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="G127" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="K127">
-        <v>2.5</v>
+        <v>1.833</v>
       </c>
       <c r="L127">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="M127">
-        <v>2.875</v>
+        <v>4</v>
       </c>
       <c r="N127">
-        <v>2.5</v>
+        <v>1.7</v>
       </c>
       <c r="O127">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="P127">
-        <v>2.875</v>
+        <v>5.25</v>
       </c>
       <c r="Q127">
-        <v>0</v>
+        <v>-0.75</v>
       </c>
       <c r="R127">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="S127">
+        <v>1.9</v>
+      </c>
+      <c r="T127">
         <v>2</v>
       </c>
-      <c r="T127">
-        <v>2.25</v>
-      </c>
       <c r="U127">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="V127">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="W127">
         <v>0</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053251</v>
+        <v>6053252</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G12" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K12">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L12">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M12">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N12">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O12">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P12">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q12">
+        <v>0.25</v>
+      </c>
+      <c r="R12">
+        <v>1.925</v>
+      </c>
+      <c r="S12">
+        <v>1.925</v>
+      </c>
+      <c r="T12">
+        <v>2.75</v>
+      </c>
+      <c r="U12">
+        <v>1.975</v>
+      </c>
+      <c r="V12">
+        <v>1.875</v>
+      </c>
+      <c r="W12">
+        <v>2.2</v>
+      </c>
+      <c r="X12">
+        <v>-1</v>
+      </c>
+      <c r="Y12">
+        <v>-1</v>
+      </c>
+      <c r="Z12">
+        <v>0.925</v>
+      </c>
+      <c r="AA12">
+        <v>-1</v>
+      </c>
+      <c r="AB12">
+        <v>0.4875</v>
+      </c>
+      <c r="AC12">
         <v>-0.5</v>
-      </c>
-      <c r="R12">
-        <v>1.95</v>
-      </c>
-      <c r="S12">
-        <v>1.9</v>
-      </c>
-      <c r="T12">
-        <v>2</v>
-      </c>
-      <c r="U12">
-        <v>1.875</v>
-      </c>
-      <c r="V12">
-        <v>1.975</v>
-      </c>
-      <c r="W12">
-        <v>-1</v>
-      </c>
-      <c r="X12">
-        <v>2</v>
-      </c>
-      <c r="Y12">
-        <v>-1</v>
-      </c>
-      <c r="Z12">
-        <v>-1</v>
-      </c>
-      <c r="AA12">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB12">
-        <v>-1</v>
-      </c>
-      <c r="AC12">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053252</v>
+        <v>6053251</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13">
-        <v>3.3</v>
+        <v>1.666</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="M13">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="N13">
-        <v>3.2</v>
+        <v>1.85</v>
       </c>
       <c r="O13">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="P13">
-        <v>2.15</v>
+        <v>4.5</v>
       </c>
       <c r="Q13">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R13">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="S13">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="T13">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U13">
+        <v>1.875</v>
+      </c>
+      <c r="V13">
         <v>1.975</v>
       </c>
-      <c r="V13">
-        <v>1.875</v>
-      </c>
       <c r="W13">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X13">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
         <v>-1</v>
       </c>
       <c r="Z13">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA13">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB13">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC13">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -1939,7 +1939,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>6053256</v>
+        <v>6053254</v>
       </c>
       <c r="C17" t="s">
         <v>28</v>
@@ -1951,13 +1951,13 @@
         <v>45100.65625</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1966,43 +1966,43 @@
         <v>42</v>
       </c>
       <c r="K17">
-        <v>1.75</v>
+        <v>1.333</v>
       </c>
       <c r="L17">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="M17">
-        <v>4.2</v>
+        <v>8</v>
       </c>
       <c r="N17">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="O17">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="P17">
-        <v>4.333</v>
+        <v>5.5</v>
       </c>
       <c r="Q17">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="R17">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S17">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T17">
         <v>2.25</v>
       </c>
       <c r="U17">
-        <v>2.05</v>
+        <v>1.825</v>
       </c>
       <c r="V17">
-        <v>1.75</v>
+        <v>2.025</v>
       </c>
       <c r="W17">
-        <v>0.8</v>
+        <v>0.45</v>
       </c>
       <c r="X17">
         <v>-1</v>
@@ -2011,16 +2011,16 @@
         <v>-1</v>
       </c>
       <c r="Z17">
-        <v>0.8500000000000001</v>
+        <v>0.875</v>
       </c>
       <c r="AA17">
         <v>-1</v>
       </c>
       <c r="AB17">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AC17">
-        <v>0.75</v>
+        <v>0.5125</v>
       </c>
     </row>
     <row r="18" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6053254</v>
+        <v>6043238</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,76 +2040,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H18">
         <v>2</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K18">
-        <v>1.333</v>
+        <v>3.25</v>
       </c>
       <c r="L18">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="M18">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="N18">
-        <v>1.45</v>
+        <v>3.4</v>
       </c>
       <c r="O18">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="P18">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="Q18">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="R18">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="S18">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="T18">
         <v>2.25</v>
       </c>
       <c r="U18">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V18">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W18">
-        <v>0.45</v>
+        <v>-1</v>
       </c>
       <c r="X18">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y18">
         <v>-1</v>
       </c>
       <c r="Z18">
-        <v>0.875</v>
+        <v>0.4625</v>
       </c>
       <c r="AA18">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB18">
-        <v>-0.5</v>
+        <v>1</v>
       </c>
       <c r="AC18">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053255</v>
+        <v>6053257</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,76 +2129,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>2</v>
-      </c>
       <c r="J19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K19">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L19">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M19">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N19">
+        <v>6.5</v>
+      </c>
+      <c r="O19">
+        <v>4</v>
+      </c>
+      <c r="P19">
+        <v>1.444</v>
+      </c>
+      <c r="Q19">
+        <v>1</v>
+      </c>
+      <c r="R19">
+        <v>2.1</v>
+      </c>
+      <c r="S19">
+        <v>1.775</v>
+      </c>
+      <c r="T19">
         <v>2.5</v>
       </c>
-      <c r="O19">
-        <v>3.4</v>
-      </c>
-      <c r="P19">
-        <v>2.5</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>1.925</v>
-      </c>
-      <c r="S19">
-        <v>1.925</v>
-      </c>
-      <c r="T19">
-        <v>2.75</v>
-      </c>
       <c r="U19">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V19">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W19">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X19">
         <v>-1</v>
       </c>
       <c r="Y19">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z19">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA19">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC19">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6043238</v>
+        <v>6053256</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K20">
+        <v>1.75</v>
+      </c>
+      <c r="L20">
+        <v>3.5</v>
+      </c>
+      <c r="M20">
+        <v>4.2</v>
+      </c>
+      <c r="N20">
+        <v>1.8</v>
+      </c>
+      <c r="O20">
         <v>3.25</v>
       </c>
-      <c r="L20">
-        <v>3.2</v>
-      </c>
-      <c r="M20">
-        <v>2.1</v>
-      </c>
-      <c r="N20">
-        <v>3.4</v>
-      </c>
-      <c r="O20">
-        <v>3.1</v>
-      </c>
       <c r="P20">
-        <v>2.1</v>
+        <v>4.333</v>
       </c>
       <c r="Q20">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R20">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S20">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="V20">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="X20">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.4625</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA20">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB20">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AC20">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053257</v>
+        <v>6053255</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K21">
-        <v>6</v>
+        <v>2.45</v>
       </c>
       <c r="L21">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="M21">
+        <v>2.625</v>
+      </c>
+      <c r="N21">
+        <v>2.5</v>
+      </c>
+      <c r="O21">
+        <v>3.4</v>
+      </c>
+      <c r="P21">
+        <v>2.5</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1.925</v>
+      </c>
+      <c r="S21">
+        <v>1.925</v>
+      </c>
+      <c r="T21">
+        <v>2.75</v>
+      </c>
+      <c r="U21">
+        <v>1.975</v>
+      </c>
+      <c r="V21">
+        <v>1.875</v>
+      </c>
+      <c r="W21">
+        <v>-1</v>
+      </c>
+      <c r="X21">
+        <v>-1</v>
+      </c>
+      <c r="Y21">
         <v>1.5</v>
       </c>
-      <c r="N21">
-        <v>6.5</v>
-      </c>
-      <c r="O21">
-        <v>4</v>
-      </c>
-      <c r="P21">
-        <v>1.444</v>
-      </c>
-      <c r="Q21">
-        <v>1</v>
-      </c>
-      <c r="R21">
-        <v>2.1</v>
-      </c>
-      <c r="S21">
-        <v>1.775</v>
-      </c>
-      <c r="T21">
-        <v>2.5</v>
-      </c>
-      <c r="U21">
-        <v>1.95</v>
-      </c>
-      <c r="V21">
-        <v>1.9</v>
-      </c>
-      <c r="W21">
-        <v>5.5</v>
-      </c>
-      <c r="X21">
-        <v>-1</v>
-      </c>
-      <c r="Y21">
-        <v>-1</v>
-      </c>
       <c r="Z21">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="AA21">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AB21">
-        <v>0.95</v>
+        <v>0.4875</v>
       </c>
       <c r="AC21">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053261</v>
+        <v>6053260</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G26" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="H26">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K26">
-        <v>1.166</v>
+        <v>3.6</v>
       </c>
       <c r="L26">
-        <v>7</v>
+        <v>3.2</v>
       </c>
       <c r="M26">
-        <v>15</v>
+        <v>2.1</v>
       </c>
       <c r="N26">
-        <v>1.111</v>
+        <v>3.5</v>
       </c>
       <c r="O26">
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="P26">
-        <v>17</v>
+        <v>2.25</v>
       </c>
       <c r="Q26">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R26">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="S26">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="T26">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U26">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V26">
-        <v>1.85</v>
+        <v>1.775</v>
       </c>
       <c r="W26">
-        <v>0.111</v>
+        <v>-1</v>
       </c>
       <c r="X26">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.875</v>
+        <v>0.425</v>
       </c>
       <c r="AA26">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2918,7 +2918,7 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>6053260</v>
+        <v>6053261</v>
       </c>
       <c r="C28" t="s">
         <v>28</v>
@@ -2930,76 +2930,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G28" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28">
+        <v>1.166</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28">
+        <v>15</v>
+      </c>
+      <c r="N28">
+        <v>1.111</v>
+      </c>
+      <c r="O28">
+        <v>7.5</v>
+      </c>
+      <c r="P28">
+        <v>17</v>
+      </c>
+      <c r="Q28">
+        <v>-2.25</v>
+      </c>
+      <c r="R28">
+        <v>1.875</v>
+      </c>
+      <c r="S28">
+        <v>1.975</v>
+      </c>
+      <c r="T28">
+        <v>3.5</v>
+      </c>
+      <c r="U28">
+        <v>2</v>
+      </c>
+      <c r="V28">
+        <v>1.85</v>
+      </c>
+      <c r="W28">
+        <v>0.111</v>
+      </c>
+      <c r="X28">
+        <v>-1</v>
+      </c>
+      <c r="Y28">
+        <v>-1</v>
+      </c>
+      <c r="Z28">
+        <v>0.875</v>
+      </c>
+      <c r="AA28">
+        <v>-1</v>
+      </c>
+      <c r="AB28">
         <v>1</v>
       </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K28">
-        <v>3.6</v>
-      </c>
-      <c r="L28">
-        <v>3.2</v>
-      </c>
-      <c r="M28">
-        <v>2.1</v>
-      </c>
-      <c r="N28">
-        <v>3.5</v>
-      </c>
-      <c r="O28">
-        <v>3</v>
-      </c>
-      <c r="P28">
-        <v>2.25</v>
-      </c>
-      <c r="Q28">
-        <v>0.25</v>
-      </c>
-      <c r="R28">
-        <v>1.85</v>
-      </c>
-      <c r="S28">
-        <v>2</v>
-      </c>
-      <c r="T28">
-        <v>2</v>
-      </c>
-      <c r="U28">
-        <v>2.1</v>
-      </c>
-      <c r="V28">
-        <v>1.775</v>
-      </c>
-      <c r="W28">
-        <v>-1</v>
-      </c>
-      <c r="X28">
-        <v>2</v>
-      </c>
-      <c r="Y28">
-        <v>-1</v>
-      </c>
-      <c r="Z28">
-        <v>0.425</v>
-      </c>
-      <c r="AA28">
-        <v>-0.5</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
       <c r="AC28">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
       </c>
       <c r="K29">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L29">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M29">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N29">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O29">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P29">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q29">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R29">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S29">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T29">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U29">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V29">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA29">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6053266</v>
+        <v>6043241</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G30" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H30">
         <v>0</v>
       </c>
       <c r="I30">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J30" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K30">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="L30">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="M30">
-        <v>1.444</v>
+        <v>1.571</v>
       </c>
       <c r="N30">
-        <v>10</v>
+        <v>3.8</v>
       </c>
       <c r="O30">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="P30">
-        <v>1.25</v>
+        <v>1.909</v>
       </c>
       <c r="Q30">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="R30">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S30">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T30">
         <v>2.5</v>
       </c>
       <c r="U30">
+        <v>1.875</v>
+      </c>
+      <c r="V30">
         <v>1.975</v>
       </c>
-      <c r="V30">
-        <v>1.875</v>
-      </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>-1</v>
+        <v>2.25</v>
       </c>
       <c r="Y30">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z30">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA30">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AB30">
+        <v>-1</v>
+      </c>
+      <c r="AC30">
         <v>0.9750000000000001</v>
-      </c>
-      <c r="AC30">
-        <v>-1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053265</v>
+        <v>6053266</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,76 +3197,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K31">
-        <v>1.55</v>
+        <v>6.5</v>
       </c>
       <c r="L31">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="M31">
-        <v>5.5</v>
+        <v>1.444</v>
       </c>
       <c r="N31">
-        <v>1.4</v>
+        <v>10</v>
       </c>
       <c r="O31">
-        <v>4.333</v>
+        <v>5.25</v>
       </c>
       <c r="P31">
-        <v>7</v>
+        <v>1.25</v>
       </c>
       <c r="Q31">
-        <v>-1.25</v>
+        <v>1.5</v>
       </c>
       <c r="R31">
-        <v>2</v>
+        <v>1.9</v>
       </c>
       <c r="S31">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="T31">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U31">
-        <v>1.85</v>
+        <v>1.975</v>
       </c>
       <c r="V31">
-        <v>2</v>
+        <v>1.875</v>
       </c>
       <c r="W31">
         <v>-1</v>
       </c>
       <c r="X31">
-        <v>3.333</v>
+        <v>-1</v>
       </c>
       <c r="Y31">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z31">
         <v>-1</v>
       </c>
       <c r="AA31">
-        <v>0.8500000000000001</v>
+        <v>0.95</v>
       </c>
       <c r="AB31">
-        <v>-1</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" spans="1:29">
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053263</v>
+        <v>6053264</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,49 +3286,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>2.2</v>
+        <v>1.571</v>
       </c>
       <c r="L32">
-        <v>3.25</v>
+        <v>3.8</v>
       </c>
       <c r="M32">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N32">
-        <v>2.1</v>
+        <v>1.666</v>
       </c>
       <c r="O32">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="P32">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="Q32">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R32">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S32">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T32">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U32">
         <v>2.05</v>
@@ -3337,7 +3337,7 @@
         <v>1.8</v>
       </c>
       <c r="W32">
-        <v>1.1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.8999999999999999</v>
+        <v>0.4625</v>
       </c>
       <c r="AA32">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB32">
         <v>1.05</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053264</v>
+        <v>6053263</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,49 +3375,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J33" t="s">
         <v>42</v>
       </c>
       <c r="K33">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L33">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M33">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O33">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P33">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q33">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R33">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S33">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T33">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U33">
         <v>2.05</v>
@@ -3426,7 +3426,7 @@
         <v>1.8</v>
       </c>
       <c r="W33">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X33">
         <v>-1</v>
@@ -3435,10 +3435,10 @@
         <v>-1</v>
       </c>
       <c r="Z33">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA33">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB33">
         <v>1.05</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34">
+        <v>2.4</v>
+      </c>
+      <c r="L34">
         <v>3</v>
       </c>
-      <c r="J34" t="s">
-        <v>43</v>
-      </c>
-      <c r="K34">
-        <v>6.5</v>
-      </c>
-      <c r="L34">
-        <v>4.5</v>
-      </c>
       <c r="M34">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N34">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O34">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P34">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q34">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S34">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T34">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U34">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V34">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y34">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z34">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB34">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J35" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K35">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M35">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N35">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O35">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P35">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q35">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R35">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S35">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T35">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U35">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V35">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y35">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z35">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA35">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB35">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC35">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3986,7 +3986,7 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>6053273</v>
+        <v>6993173</v>
       </c>
       <c r="C40" t="s">
         <v>28</v>
@@ -3998,76 +3998,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F40" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G40" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="H40">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>2</v>
       </c>
       <c r="J40" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K40">
-        <v>1.65</v>
+        <v>2.875</v>
       </c>
       <c r="L40">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="M40">
-        <v>4.75</v>
+        <v>2.3</v>
       </c>
       <c r="N40">
-        <v>1.571</v>
+        <v>3.2</v>
       </c>
       <c r="O40">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="P40">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q40">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R40">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S40">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T40">
         <v>2.5</v>
       </c>
       <c r="U40">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="V40">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="W40">
-        <v>0.571</v>
+        <v>-1</v>
       </c>
       <c r="X40">
         <v>-1</v>
       </c>
       <c r="Y40">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z40">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="AA40">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AB40">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AC40">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="41" spans="1:29">
@@ -4075,7 +4075,7 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>6993173</v>
+        <v>6053273</v>
       </c>
       <c r="C41" t="s">
         <v>28</v>
@@ -4087,76 +4087,76 @@
         <v>45142.65625</v>
       </c>
       <c r="F41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G41" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I41">
         <v>2</v>
       </c>
       <c r="J41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K41">
-        <v>2.875</v>
+        <v>1.65</v>
       </c>
       <c r="L41">
-        <v>3.25</v>
+        <v>3.6</v>
       </c>
       <c r="M41">
-        <v>2.3</v>
+        <v>4.75</v>
       </c>
       <c r="N41">
-        <v>3.2</v>
+        <v>1.571</v>
       </c>
       <c r="O41">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="P41">
+        <v>5</v>
+      </c>
+      <c r="Q41">
+        <v>-0.75</v>
+      </c>
+      <c r="R41">
+        <v>1.8</v>
+      </c>
+      <c r="S41">
         <v>2.05</v>
-      </c>
-      <c r="Q41">
-        <v>0.25</v>
-      </c>
-      <c r="R41">
-        <v>1.975</v>
-      </c>
-      <c r="S41">
-        <v>1.875</v>
       </c>
       <c r="T41">
         <v>2.5</v>
       </c>
       <c r="U41">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V41">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W41">
-        <v>-1</v>
+        <v>0.571</v>
       </c>
       <c r="X41">
         <v>-1</v>
       </c>
       <c r="Y41">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z41">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AA41">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AB41">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AC41">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6043245</v>
+        <v>6053287</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G54" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
         <v>3</v>
       </c>
-      <c r="I54">
-        <v>0</v>
-      </c>
       <c r="J54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K54">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L54">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M54">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N54">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O54">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P54">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q54">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R54">
         <v>1.95</v>
@@ -5286,31 +5286,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U54">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V54">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W54">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z54">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AA54">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB54">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053288</v>
+        <v>6053286</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
       </c>
       <c r="K55">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L55">
+        <v>5.5</v>
+      </c>
+      <c r="M55">
+        <v>11</v>
+      </c>
+      <c r="N55">
+        <v>1.3</v>
+      </c>
+      <c r="O55">
+        <v>5.25</v>
+      </c>
+      <c r="P55">
+        <v>9</v>
+      </c>
+      <c r="Q55">
+        <v>-1.5</v>
+      </c>
+      <c r="R55">
+        <v>1.925</v>
+      </c>
+      <c r="S55">
+        <v>1.925</v>
+      </c>
+      <c r="T55">
         <v>3</v>
       </c>
-      <c r="M55">
-        <v>2.5</v>
-      </c>
-      <c r="N55">
-        <v>2.375</v>
-      </c>
-      <c r="O55">
-        <v>3</v>
-      </c>
-      <c r="P55">
-        <v>3</v>
-      </c>
-      <c r="Q55">
-        <v>-0.25</v>
-      </c>
-      <c r="R55">
-        <v>2.1</v>
-      </c>
-      <c r="S55">
-        <v>1.775</v>
-      </c>
-      <c r="T55">
-        <v>2.25</v>
-      </c>
       <c r="U55">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V55">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W55">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC55">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G57" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H57">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L57">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M57">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N57">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O57">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P57">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q57">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R57">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S57">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T57">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U57">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V57">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W57">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6053287</v>
+        <v>6043245</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G58" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K58">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L58">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M58">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N58">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O58">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P58">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q58">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5642,31 +5642,31 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U58">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V58">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W58">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z58">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA58">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB58">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC58">
         <v>-1</v>
@@ -6122,7 +6122,7 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>7197534</v>
+        <v>6288773</v>
       </c>
       <c r="C64" t="s">
         <v>28</v>
@@ -6134,58 +6134,58 @@
         <v>45191.65625</v>
       </c>
       <c r="F64" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G64" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H64">
+        <v>2</v>
+      </c>
+      <c r="I64">
         <v>1</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
       </c>
       <c r="J64" t="s">
         <v>42</v>
       </c>
       <c r="K64">
+        <v>1.615</v>
+      </c>
+      <c r="L64">
         <v>3.6</v>
       </c>
-      <c r="L64">
-        <v>3.25</v>
-      </c>
       <c r="M64">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N64">
-        <v>5</v>
+        <v>1.666</v>
       </c>
       <c r="O64">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P64">
-        <v>1.75</v>
+        <v>5.75</v>
       </c>
       <c r="Q64">
-        <v>0.75</v>
+        <v>-0.75</v>
       </c>
       <c r="R64">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="S64">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="T64">
         <v>2.25</v>
       </c>
       <c r="U64">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="V64">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="W64">
-        <v>4</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X64">
         <v>-1</v>
@@ -6194,16 +6194,16 @@
         <v>-1</v>
       </c>
       <c r="Z64">
-        <v>0.8500000000000001</v>
+        <v>0.4375</v>
       </c>
       <c r="AA64">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB64">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC64">
-        <v>1.025</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="65" spans="1:29">
@@ -6211,7 +6211,7 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>6288260</v>
+        <v>7197534</v>
       </c>
       <c r="C65" t="s">
         <v>28</v>
@@ -6223,67 +6223,67 @@
         <v>45191.65625</v>
       </c>
       <c r="F65" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I65">
         <v>0</v>
       </c>
       <c r="J65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K65">
-        <v>12</v>
+        <v>3.6</v>
       </c>
       <c r="L65">
-        <v>7.5</v>
+        <v>3.25</v>
       </c>
       <c r="M65">
-        <v>1.181</v>
+        <v>2.1</v>
       </c>
       <c r="N65">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="O65">
-        <v>11</v>
+        <v>3.4</v>
       </c>
       <c r="P65">
-        <v>1.055</v>
+        <v>1.75</v>
       </c>
       <c r="Q65">
-        <v>2.75</v>
+        <v>0.75</v>
       </c>
       <c r="R65">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S65">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T65">
-        <v>3.5</v>
+        <v>2.25</v>
       </c>
       <c r="U65">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V65">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W65">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="X65">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="Y65">
         <v>-1</v>
       </c>
       <c r="Z65">
-        <v>0.925</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA65">
         <v>-1</v>
@@ -6292,7 +6292,7 @@
         <v>-1</v>
       </c>
       <c r="AC65">
-        <v>0.8500000000000001</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="66" spans="1:29">
@@ -6300,7 +6300,7 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>6288773</v>
+        <v>6288260</v>
       </c>
       <c r="C66" t="s">
         <v>28</v>
@@ -6312,76 +6312,76 @@
         <v>45191.65625</v>
       </c>
       <c r="F66" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>7.5</v>
+      </c>
+      <c r="M66">
+        <v>1.181</v>
+      </c>
+      <c r="N66">
         <v>34</v>
       </c>
-      <c r="H66">
-        <v>2</v>
-      </c>
-      <c r="I66">
-        <v>1</v>
-      </c>
-      <c r="J66" t="s">
-        <v>42</v>
-      </c>
-      <c r="K66">
-        <v>1.615</v>
-      </c>
-      <c r="L66">
-        <v>3.6</v>
-      </c>
-      <c r="M66">
-        <v>6</v>
-      </c>
-      <c r="N66">
-        <v>1.666</v>
-      </c>
       <c r="O66">
+        <v>11</v>
+      </c>
+      <c r="P66">
+        <v>1.055</v>
+      </c>
+      <c r="Q66">
+        <v>2.75</v>
+      </c>
+      <c r="R66">
+        <v>1.925</v>
+      </c>
+      <c r="S66">
+        <v>1.925</v>
+      </c>
+      <c r="T66">
         <v>3.5</v>
       </c>
-      <c r="P66">
-        <v>5.75</v>
-      </c>
-      <c r="Q66">
-        <v>-0.75</v>
-      </c>
-      <c r="R66">
-        <v>1.875</v>
-      </c>
-      <c r="S66">
-        <v>1.975</v>
-      </c>
-      <c r="T66">
-        <v>2.25</v>
-      </c>
       <c r="U66">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V66">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W66">
-        <v>0.6659999999999999</v>
+        <v>-1</v>
       </c>
       <c r="X66">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="Y66">
         <v>-1</v>
       </c>
       <c r="Z66">
-        <v>0.4375</v>
+        <v>0.925</v>
       </c>
       <c r="AA66">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB66">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AC66">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:29">
@@ -6656,7 +6656,7 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>6323098</v>
+        <v>6323101</v>
       </c>
       <c r="C70" t="s">
         <v>28</v>
@@ -6668,76 +6668,76 @@
         <v>45198.65625</v>
       </c>
       <c r="F70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G70" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K70">
-        <v>3.4</v>
+        <v>1.833</v>
       </c>
       <c r="L70">
         <v>3.5</v>
       </c>
       <c r="M70">
-        <v>2.05</v>
+        <v>4.25</v>
       </c>
       <c r="N70">
-        <v>3.5</v>
+        <v>1.7</v>
       </c>
       <c r="O70">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="P70">
-        <v>2.05</v>
+        <v>5</v>
       </c>
       <c r="Q70">
-        <v>0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R70">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S70">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T70">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U70">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="V70">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="W70">
-        <v>-1</v>
+        <v>0.7</v>
       </c>
       <c r="X70">
         <v>-1</v>
       </c>
       <c r="Y70">
-        <v>1.05</v>
+        <v>-1</v>
       </c>
       <c r="Z70">
-        <v>-1</v>
+        <v>0.45</v>
       </c>
       <c r="AA70">
-        <v>0.8</v>
+        <v>-0.5</v>
       </c>
       <c r="AB70">
         <v>-1</v>
       </c>
       <c r="AC70">
-        <v>1.025</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="71" spans="1:29">
@@ -6745,7 +6745,7 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>6323101</v>
+        <v>6323097</v>
       </c>
       <c r="C71" t="s">
         <v>28</v>
@@ -6757,34 +6757,34 @@
         <v>45198.65625</v>
       </c>
       <c r="F71" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G71" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H71">
+        <v>3</v>
+      </c>
+      <c r="I71">
         <v>1</v>
-      </c>
-      <c r="I71">
-        <v>0</v>
       </c>
       <c r="J71" t="s">
         <v>42</v>
       </c>
       <c r="K71">
-        <v>1.833</v>
+        <v>2.1</v>
       </c>
       <c r="L71">
         <v>3.5</v>
       </c>
       <c r="M71">
-        <v>4.25</v>
+        <v>3.25</v>
       </c>
       <c r="N71">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="O71">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="P71">
         <v>5</v>
@@ -6793,22 +6793,22 @@
         <v>-0.75</v>
       </c>
       <c r="R71">
-        <v>1.9</v>
+        <v>1.775</v>
       </c>
       <c r="S71">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="T71">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U71">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="V71">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="W71">
-        <v>0.7</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="X71">
         <v>-1</v>
@@ -6817,16 +6817,16 @@
         <v>-1</v>
       </c>
       <c r="Z71">
-        <v>0.45</v>
+        <v>0.7749999999999999</v>
       </c>
       <c r="AA71">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB71">
-        <v>-1</v>
+        <v>0.825</v>
       </c>
       <c r="AC71">
-        <v>0.9750000000000001</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="72" spans="1:29">
@@ -6834,7 +6834,7 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>6323097</v>
+        <v>6323098</v>
       </c>
       <c r="C72" t="s">
         <v>28</v>
@@ -6846,46 +6846,46 @@
         <v>45198.65625</v>
       </c>
       <c r="F72" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G72" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H72">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>1</v>
       </c>
       <c r="J72" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K72">
-        <v>2.1</v>
+        <v>3.4</v>
       </c>
       <c r="L72">
         <v>3.5</v>
       </c>
       <c r="M72">
-        <v>3.25</v>
+        <v>2.05</v>
       </c>
       <c r="N72">
-        <v>1.6</v>
+        <v>3.5</v>
       </c>
       <c r="O72">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="P72">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="Q72">
-        <v>-0.75</v>
+        <v>0.25</v>
       </c>
       <c r="R72">
-        <v>1.775</v>
+        <v>2.05</v>
       </c>
       <c r="S72">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
       <c r="T72">
         <v>2.5</v>
@@ -6897,25 +6897,25 @@
         <v>2.025</v>
       </c>
       <c r="W72">
-        <v>0.6000000000000001</v>
+        <v>-1</v>
       </c>
       <c r="X72">
         <v>-1</v>
       </c>
       <c r="Y72">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="Z72">
-        <v>0.7749999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA72">
-        <v>-1</v>
+        <v>0.8</v>
       </c>
       <c r="AB72">
-        <v>0.825</v>
+        <v>-1</v>
       </c>
       <c r="AC72">
-        <v>-1</v>
+        <v>1.025</v>
       </c>
     </row>
     <row r="73" spans="1:29">
@@ -7457,7 +7457,7 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>6364853</v>
+        <v>6364850</v>
       </c>
       <c r="C79" t="s">
         <v>28</v>
@@ -7469,49 +7469,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="G79" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H79">
         <v>0</v>
       </c>
       <c r="I79">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J79" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K79">
-        <v>2.875</v>
+        <v>1.571</v>
       </c>
       <c r="L79">
-        <v>3.2</v>
+        <v>3.6</v>
       </c>
       <c r="M79">
-        <v>2.375</v>
+        <v>5.5</v>
       </c>
       <c r="N79">
-        <v>2.375</v>
+        <v>1.65</v>
       </c>
       <c r="O79">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="P79">
-        <v>2.9</v>
+        <v>5</v>
       </c>
       <c r="Q79">
-        <v>-0.25</v>
+        <v>-0.75</v>
       </c>
       <c r="R79">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="S79">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="T79">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U79">
         <v>1.975</v>
@@ -7523,16 +7523,16 @@
         <v>-1</v>
       </c>
       <c r="X79">
-        <v>-1</v>
+        <v>2.75</v>
       </c>
       <c r="Y79">
-        <v>1.9</v>
+        <v>-1</v>
       </c>
       <c r="Z79">
         <v>-1</v>
       </c>
       <c r="AA79">
-        <v>0.825</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AB79">
         <v>-1</v>
@@ -7546,7 +7546,7 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>6364850</v>
+        <v>6364853</v>
       </c>
       <c r="C80" t="s">
         <v>28</v>
@@ -7558,49 +7558,49 @@
         <v>45219.65625</v>
       </c>
       <c r="F80" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H80">
         <v>0</v>
       </c>
       <c r="I80">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J80" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K80">
-        <v>1.571</v>
+        <v>2.875</v>
       </c>
       <c r="L80">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M80">
-        <v>5.5</v>
+        <v>2.375</v>
       </c>
       <c r="N80">
-        <v>1.65</v>
+        <v>2.375</v>
       </c>
       <c r="O80">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="P80">
-        <v>5</v>
+        <v>2.9</v>
       </c>
       <c r="Q80">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R80">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="S80">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="T80">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U80">
         <v>1.975</v>
@@ -7612,16 +7612,16 @@
         <v>-1</v>
       </c>
       <c r="X80">
-        <v>2.75</v>
+        <v>-1</v>
       </c>
       <c r="Y80">
-        <v>-1</v>
+        <v>1.9</v>
       </c>
       <c r="Z80">
         <v>-1</v>
       </c>
       <c r="AA80">
-        <v>0.9750000000000001</v>
+        <v>0.825</v>
       </c>
       <c r="AB80">
         <v>-1</v>
@@ -8525,7 +8525,7 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>6412497</v>
+        <v>6412856</v>
       </c>
       <c r="C91" t="s">
         <v>28</v>
@@ -8537,58 +8537,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F91" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G91" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H91">
         <v>4</v>
       </c>
       <c r="I91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J91" t="s">
         <v>42</v>
       </c>
       <c r="K91">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="L91">
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="M91">
-        <v>6.5</v>
+        <v>9.5</v>
       </c>
       <c r="N91">
-        <v>1.166</v>
+        <v>1.222</v>
       </c>
       <c r="O91">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="P91">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="Q91">
-        <v>-2</v>
+        <v>-1.75</v>
       </c>
       <c r="R91">
+        <v>1.95</v>
+      </c>
+      <c r="S91">
         <v>1.9</v>
       </c>
-      <c r="S91">
-        <v>1.95</v>
-      </c>
       <c r="T91">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="U91">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="V91">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="W91">
-        <v>0.1659999999999999</v>
+        <v>0.222</v>
       </c>
       <c r="X91">
         <v>-1</v>
@@ -8597,13 +8597,13 @@
         <v>-1</v>
       </c>
       <c r="Z91">
-        <v>0.8999999999999999</v>
+        <v>0.475</v>
       </c>
       <c r="AA91">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB91">
-        <v>0.8999999999999999</v>
+        <v>1</v>
       </c>
       <c r="AC91">
         <v>-1</v>
@@ -8614,7 +8614,7 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>6412856</v>
+        <v>6412497</v>
       </c>
       <c r="C92" t="s">
         <v>28</v>
@@ -8626,58 +8626,58 @@
         <v>45233.69791666666</v>
       </c>
       <c r="F92" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G92" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="H92">
         <v>4</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
         <v>42</v>
       </c>
       <c r="K92">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="L92">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="M92">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="N92">
-        <v>1.222</v>
+        <v>1.166</v>
       </c>
       <c r="O92">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="P92">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q92">
-        <v>-1.75</v>
+        <v>-2</v>
       </c>
       <c r="R92">
+        <v>1.9</v>
+      </c>
+      <c r="S92">
         <v>1.95</v>
       </c>
-      <c r="S92">
+      <c r="T92">
+        <v>3.25</v>
+      </c>
+      <c r="U92">
         <v>1.9</v>
       </c>
-      <c r="T92">
-        <v>3</v>
-      </c>
-      <c r="U92">
-        <v>2</v>
-      </c>
       <c r="V92">
-        <v>1.85</v>
+        <v>1.95</v>
       </c>
       <c r="W92">
-        <v>0.222</v>
+        <v>0.1659999999999999</v>
       </c>
       <c r="X92">
         <v>-1</v>
@@ -8686,13 +8686,13 @@
         <v>-1</v>
       </c>
       <c r="Z92">
-        <v>0.475</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA92">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB92">
-        <v>1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC92">
         <v>-1</v>
@@ -8881,7 +8881,7 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>7630128</v>
+        <v>7630125</v>
       </c>
       <c r="C95" t="s">
         <v>28</v>
@@ -8893,61 +8893,61 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F95" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="G95" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J95" t="s">
         <v>41</v>
       </c>
       <c r="K95">
-        <v>1.363</v>
+        <v>1.8</v>
       </c>
       <c r="L95">
-        <v>4.75</v>
+        <v>3.6</v>
       </c>
       <c r="M95">
-        <v>6</v>
+        <v>3.5</v>
       </c>
       <c r="N95">
-        <v>1.4</v>
+        <v>1.95</v>
       </c>
       <c r="O95">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P95">
-        <v>5.75</v>
+        <v>3.6</v>
       </c>
       <c r="Q95">
-        <v>-1.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R95">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S95">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T95">
         <v>2.5</v>
       </c>
       <c r="U95">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="V95">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="W95">
         <v>-1</v>
       </c>
       <c r="X95">
-        <v>4.25</v>
+        <v>2.6</v>
       </c>
       <c r="Y95">
         <v>-1</v>
@@ -8956,13 +8956,13 @@
         <v>-1</v>
       </c>
       <c r="AA95">
-        <v>0.875</v>
+        <v>0.825</v>
       </c>
       <c r="AB95">
-        <v>-1</v>
+        <v>1.05</v>
       </c>
       <c r="AC95">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="96" spans="1:29">
@@ -8970,7 +8970,7 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>7630125</v>
+        <v>7630126</v>
       </c>
       <c r="C96" t="s">
         <v>28</v>
@@ -8982,76 +8982,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G96" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H96">
         <v>2</v>
       </c>
       <c r="I96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K96">
-        <v>1.8</v>
+        <v>1.4</v>
       </c>
       <c r="L96">
-        <v>3.6</v>
+        <v>4.5</v>
       </c>
       <c r="M96">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="N96">
-        <v>1.95</v>
+        <v>1.333</v>
       </c>
       <c r="O96">
-        <v>3.6</v>
+        <v>5.75</v>
       </c>
       <c r="P96">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="Q96">
+        <v>-1.5</v>
+      </c>
+      <c r="R96">
+        <v>1.975</v>
+      </c>
+      <c r="S96">
+        <v>1.875</v>
+      </c>
+      <c r="T96">
+        <v>2.75</v>
+      </c>
+      <c r="U96">
+        <v>1.875</v>
+      </c>
+      <c r="V96">
+        <v>1.975</v>
+      </c>
+      <c r="W96">
+        <v>0.333</v>
+      </c>
+      <c r="X96">
+        <v>-1</v>
+      </c>
+      <c r="Y96">
+        <v>-1</v>
+      </c>
+      <c r="Z96">
+        <v>-1</v>
+      </c>
+      <c r="AA96">
+        <v>0.875</v>
+      </c>
+      <c r="AB96">
+        <v>0.4375</v>
+      </c>
+      <c r="AC96">
         <v>-0.5</v>
-      </c>
-      <c r="R96">
-        <v>2.025</v>
-      </c>
-      <c r="S96">
-        <v>1.825</v>
-      </c>
-      <c r="T96">
-        <v>2.5</v>
-      </c>
-      <c r="U96">
-        <v>2.05</v>
-      </c>
-      <c r="V96">
-        <v>1.8</v>
-      </c>
-      <c r="W96">
-        <v>-1</v>
-      </c>
-      <c r="X96">
-        <v>2.6</v>
-      </c>
-      <c r="Y96">
-        <v>-1</v>
-      </c>
-      <c r="Z96">
-        <v>-1</v>
-      </c>
-      <c r="AA96">
-        <v>0.825</v>
-      </c>
-      <c r="AB96">
-        <v>1.05</v>
-      </c>
-      <c r="AC96">
-        <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:29">
@@ -9059,7 +9059,7 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>7630126</v>
+        <v>7630127</v>
       </c>
       <c r="C97" t="s">
         <v>28</v>
@@ -9071,76 +9071,76 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F97" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="G97" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97">
         <v>1</v>
       </c>
       <c r="J97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K97">
-        <v>1.4</v>
+        <v>3</v>
       </c>
       <c r="L97">
-        <v>4.5</v>
+        <v>3.25</v>
       </c>
       <c r="M97">
-        <v>5.5</v>
+        <v>2.1</v>
       </c>
       <c r="N97">
-        <v>1.333</v>
+        <v>3.5</v>
       </c>
       <c r="O97">
-        <v>5.75</v>
+        <v>3.4</v>
       </c>
       <c r="P97">
-        <v>8</v>
+        <v>2.1</v>
       </c>
       <c r="Q97">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R97">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="S97">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="T97">
-        <v>2.75</v>
+        <v>2.25</v>
       </c>
       <c r="U97">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V97">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W97">
-        <v>0.333</v>
+        <v>-1</v>
       </c>
       <c r="X97">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="Y97">
         <v>-1</v>
       </c>
       <c r="Z97">
-        <v>-1</v>
+        <v>0.5125</v>
       </c>
       <c r="AA97">
-        <v>0.875</v>
+        <v>-0.5</v>
       </c>
       <c r="AB97">
-        <v>0.4375</v>
+        <v>-0.5</v>
       </c>
       <c r="AC97">
-        <v>-0.5</v>
+        <v>0.4625</v>
       </c>
     </row>
     <row r="98" spans="1:29">
@@ -9148,7 +9148,7 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>7630127</v>
+        <v>7630128</v>
       </c>
       <c r="C98" t="s">
         <v>28</v>
@@ -9160,10 +9160,10 @@
         <v>45338.69791666666</v>
       </c>
       <c r="F98" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="G98" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="H98">
         <v>1</v>
@@ -9175,61 +9175,61 @@
         <v>41</v>
       </c>
       <c r="K98">
-        <v>3</v>
+        <v>1.363</v>
       </c>
       <c r="L98">
-        <v>3.25</v>
+        <v>4.75</v>
       </c>
       <c r="M98">
-        <v>2.1</v>
+        <v>6</v>
       </c>
       <c r="N98">
-        <v>3.5</v>
+        <v>1.4</v>
       </c>
       <c r="O98">
-        <v>3.4</v>
+        <v>5.25</v>
       </c>
       <c r="P98">
-        <v>2.1</v>
+        <v>5.75</v>
       </c>
       <c r="Q98">
-        <v>0.25</v>
+        <v>-1.25</v>
       </c>
       <c r="R98">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="S98">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="T98">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U98">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="V98">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="W98">
         <v>-1</v>
       </c>
       <c r="X98">
-        <v>2.4</v>
+        <v>4.25</v>
       </c>
       <c r="Y98">
         <v>-1</v>
       </c>
       <c r="Z98">
-        <v>0.5125</v>
+        <v>-1</v>
       </c>
       <c r="AA98">
-        <v>-0.5</v>
+        <v>0.875</v>
       </c>
       <c r="AB98">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AC98">
-        <v>0.4625</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="99" spans="1:29">
@@ -9504,7 +9504,7 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>7630062</v>
+        <v>7630131</v>
       </c>
       <c r="C102" t="s">
         <v>28</v>
@@ -9516,55 +9516,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G102" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H102">
         <v>0</v>
       </c>
       <c r="I102">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J102" t="s">
         <v>43</v>
       </c>
       <c r="K102">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="L102">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M102">
-        <v>3.6</v>
+        <v>3</v>
       </c>
       <c r="N102">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="O102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P102">
-        <v>3.6</v>
+        <v>3.1</v>
       </c>
       <c r="Q102">
         <v>-0.25</v>
       </c>
       <c r="R102">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="S102">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="T102">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U102">
-        <v>1.825</v>
+        <v>1.975</v>
       </c>
       <c r="V102">
-        <v>2.025</v>
+        <v>1.875</v>
       </c>
       <c r="W102">
         <v>-1</v>
@@ -9573,19 +9573,19 @@
         <v>-1</v>
       </c>
       <c r="Y102">
-        <v>2.6</v>
+        <v>2.1</v>
       </c>
       <c r="Z102">
         <v>-1</v>
       </c>
       <c r="AA102">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="AB102">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC102">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="103" spans="1:29">
@@ -9593,7 +9593,7 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>7630131</v>
+        <v>7630062</v>
       </c>
       <c r="C103" t="s">
         <v>28</v>
@@ -9605,55 +9605,55 @@
         <v>45345.69791666666</v>
       </c>
       <c r="F103" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G103" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H103">
         <v>0</v>
       </c>
       <c r="I103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J103" t="s">
         <v>43</v>
       </c>
       <c r="K103">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="L103">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M103">
+        <v>3.6</v>
+      </c>
+      <c r="N103">
+        <v>2.2</v>
+      </c>
+      <c r="O103">
         <v>3</v>
       </c>
-      <c r="N103">
-        <v>2.3</v>
-      </c>
-      <c r="O103">
-        <v>3.25</v>
-      </c>
       <c r="P103">
-        <v>3.1</v>
+        <v>3.6</v>
       </c>
       <c r="Q103">
         <v>-0.25</v>
       </c>
       <c r="R103">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="S103">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="T103">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U103">
-        <v>1.975</v>
+        <v>1.825</v>
       </c>
       <c r="V103">
-        <v>1.875</v>
+        <v>2.025</v>
       </c>
       <c r="W103">
         <v>-1</v>
@@ -9662,19 +9662,19 @@
         <v>-1</v>
       </c>
       <c r="Y103">
-        <v>2.1</v>
+        <v>2.6</v>
       </c>
       <c r="Z103">
         <v>-1</v>
       </c>
       <c r="AA103">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="AB103">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC103">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="104" spans="1:29">
@@ -9860,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>7630063</v>
+        <v>7630463</v>
       </c>
       <c r="C106" t="s">
         <v>28</v>
@@ -9872,10 +9872,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H106">
         <v>2</v>
@@ -9887,43 +9887,43 @@
         <v>42</v>
       </c>
       <c r="K106">
-        <v>1.85</v>
+        <v>1.615</v>
       </c>
       <c r="L106">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M106">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="N106">
-        <v>1.95</v>
+        <v>1.75</v>
       </c>
       <c r="O106">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="P106">
-        <v>3.8</v>
+        <v>4.75</v>
       </c>
       <c r="Q106">
         <v>-0.5</v>
       </c>
       <c r="R106">
-        <v>1.975</v>
+        <v>1.8</v>
       </c>
       <c r="S106">
-        <v>1.875</v>
+        <v>2.05</v>
       </c>
       <c r="T106">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U106">
-        <v>1.825</v>
+        <v>2</v>
       </c>
       <c r="V106">
-        <v>2.025</v>
+        <v>1.85</v>
       </c>
       <c r="W106">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="X106">
         <v>-1</v>
@@ -9932,13 +9932,13 @@
         <v>-1</v>
       </c>
       <c r="Z106">
-        <v>0.9750000000000001</v>
+        <v>0.8</v>
       </c>
       <c r="AA106">
         <v>-1</v>
       </c>
       <c r="AB106">
-        <v>0.825</v>
+        <v>1</v>
       </c>
       <c r="AC106">
         <v>-1</v>
@@ -9949,7 +9949,7 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>7630463</v>
+        <v>7630063</v>
       </c>
       <c r="C107" t="s">
         <v>28</v>
@@ -9961,10 +9961,10 @@
         <v>45352.69791666666</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="G107" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H107">
         <v>2</v>
@@ -9976,43 +9976,43 @@
         <v>42</v>
       </c>
       <c r="K107">
-        <v>1.615</v>
+        <v>1.85</v>
       </c>
       <c r="L107">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M107">
-        <v>5</v>
+        <v>3.75</v>
       </c>
       <c r="N107">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="O107">
-        <v>3.3</v>
+        <v>3.1</v>
       </c>
       <c r="P107">
-        <v>4.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q107">
         <v>-0.5</v>
       </c>
       <c r="R107">
-        <v>1.8</v>
+        <v>1.975</v>
       </c>
       <c r="S107">
-        <v>2.05</v>
+        <v>1.875</v>
       </c>
       <c r="T107">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U107">
-        <v>2</v>
+        <v>1.825</v>
       </c>
       <c r="V107">
-        <v>1.85</v>
+        <v>2.025</v>
       </c>
       <c r="W107">
-        <v>0.75</v>
+        <v>0.95</v>
       </c>
       <c r="X107">
         <v>-1</v>
@@ -10021,13 +10021,13 @@
         <v>-1</v>
       </c>
       <c r="Z107">
-        <v>0.8</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AA107">
         <v>-1</v>
       </c>
       <c r="AB107">
-        <v>1</v>
+        <v>0.825</v>
       </c>
       <c r="AC107">
         <v>-1</v>
@@ -10038,7 +10038,7 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>7630136</v>
+        <v>7630064</v>
       </c>
       <c r="C108" t="s">
         <v>28</v>
@@ -10050,58 +10050,58 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F108" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G108" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="s">
         <v>42</v>
       </c>
       <c r="K108">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="L108">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="M108">
-        <v>1.909</v>
+        <v>4.5</v>
       </c>
       <c r="N108">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="O108">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="P108">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="Q108">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R108">
-        <v>1.9</v>
+        <v>1.825</v>
       </c>
       <c r="S108">
-        <v>1.95</v>
+        <v>2.025</v>
       </c>
       <c r="T108">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="U108">
-        <v>1.875</v>
+        <v>1.925</v>
       </c>
       <c r="V108">
-        <v>1.975</v>
+        <v>1.925</v>
       </c>
       <c r="W108">
-        <v>2.1</v>
+        <v>1.6</v>
       </c>
       <c r="X108">
         <v>-1</v>
@@ -10110,16 +10110,16 @@
         <v>-1</v>
       </c>
       <c r="Z108">
-        <v>0.8999999999999999</v>
+        <v>0.825</v>
       </c>
       <c r="AA108">
         <v>-1</v>
       </c>
       <c r="AB108">
-        <v>0.875</v>
+        <v>-1</v>
       </c>
       <c r="AC108">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="109" spans="1:29">
@@ -10394,7 +10394,7 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>7630064</v>
+        <v>7630136</v>
       </c>
       <c r="C112" t="s">
         <v>28</v>
@@ -10406,58 +10406,58 @@
         <v>45355.69791666666</v>
       </c>
       <c r="F112" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G112" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="H112">
+        <v>2</v>
+      </c>
+      <c r="I112">
         <v>1</v>
-      </c>
-      <c r="I112">
-        <v>0</v>
       </c>
       <c r="J112" t="s">
         <v>42</v>
       </c>
       <c r="K112">
-        <v>1.8</v>
+        <v>3.75</v>
       </c>
       <c r="L112">
+        <v>3.6</v>
+      </c>
+      <c r="M112">
+        <v>1.909</v>
+      </c>
+      <c r="N112">
+        <v>3.1</v>
+      </c>
+      <c r="O112">
         <v>3.4</v>
       </c>
-      <c r="M112">
-        <v>4.5</v>
-      </c>
-      <c r="N112">
-        <v>2.6</v>
-      </c>
-      <c r="O112">
-        <v>3</v>
-      </c>
       <c r="P112">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="Q112">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R112">
-        <v>1.825</v>
+        <v>1.9</v>
       </c>
       <c r="S112">
-        <v>2.025</v>
+        <v>1.95</v>
       </c>
       <c r="T112">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="U112">
-        <v>1.925</v>
+        <v>1.875</v>
       </c>
       <c r="V112">
-        <v>1.925</v>
+        <v>1.975</v>
       </c>
       <c r="W112">
-        <v>1.6</v>
+        <v>2.1</v>
       </c>
       <c r="X112">
         <v>-1</v>
@@ -10466,16 +10466,16 @@
         <v>-1</v>
       </c>
       <c r="Z112">
-        <v>0.825</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA112">
         <v>-1</v>
       </c>
       <c r="AB112">
-        <v>-1</v>
+        <v>0.875</v>
       </c>
       <c r="AC112">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="113" spans="1:29">
@@ -10928,7 +10928,7 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>7644571</v>
+        <v>7644574</v>
       </c>
       <c r="C118" t="s">
         <v>28</v>
@@ -10940,40 +10940,40 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F118" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="G118" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J118" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K118">
-        <v>3.75</v>
+        <v>2.4</v>
       </c>
       <c r="L118">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M118">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="N118">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="O118">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P118">
-        <v>2.15</v>
+        <v>2.55</v>
       </c>
       <c r="Q118">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R118">
         <v>1.925</v>
@@ -10982,31 +10982,31 @@
         <v>1.925</v>
       </c>
       <c r="T118">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U118">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V118">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W118">
-        <v>2.4</v>
+        <v>-1</v>
       </c>
       <c r="X118">
         <v>-1</v>
       </c>
       <c r="Y118">
-        <v>-1</v>
+        <v>1.55</v>
       </c>
       <c r="Z118">
+        <v>-1</v>
+      </c>
+      <c r="AA118">
         <v>0.925</v>
       </c>
-      <c r="AA118">
-        <v>-1</v>
-      </c>
       <c r="AB118">
-        <v>0.8999999999999999</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC118">
         <v>-1</v>
@@ -11106,7 +11106,7 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>7644574</v>
+        <v>7644571</v>
       </c>
       <c r="C120" t="s">
         <v>28</v>
@@ -11118,40 +11118,40 @@
         <v>45366.69791666666</v>
       </c>
       <c r="F120" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G120" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H120">
+        <v>2</v>
+      </c>
+      <c r="I120">
         <v>1</v>
       </c>
-      <c r="I120">
-        <v>2</v>
-      </c>
       <c r="J120" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K120">
-        <v>2.4</v>
+        <v>3.75</v>
       </c>
       <c r="L120">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="M120">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>2.6</v>
+        <v>3.4</v>
       </c>
       <c r="O120">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P120">
-        <v>2.55</v>
+        <v>2.15</v>
       </c>
       <c r="Q120">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R120">
         <v>1.925</v>
@@ -11160,31 +11160,31 @@
         <v>1.925</v>
       </c>
       <c r="T120">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="U120">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V120">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W120">
-        <v>-1</v>
+        <v>2.4</v>
       </c>
       <c r="X120">
         <v>-1</v>
       </c>
       <c r="Y120">
-        <v>1.55</v>
+        <v>-1</v>
       </c>
       <c r="Z120">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA120">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB120">
-        <v>0.9750000000000001</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AC120">
         <v>-1</v>
@@ -11406,16 +11406,16 @@
         <v>3.5</v>
       </c>
       <c r="P123">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="Q123">
-        <v>-0.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R123">
+        <v>2.05</v>
+      </c>
+      <c r="S123">
         <v>1.8</v>
-      </c>
-      <c r="S123">
-        <v>2.05</v>
       </c>
       <c r="T123">
         <v>2.25</v>
@@ -11474,13 +11474,13 @@
         <v>6</v>
       </c>
       <c r="N124">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="O124">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="P124">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Q124">
         <v>-1</v>
@@ -11495,10 +11495,10 @@
         <v>2.5</v>
       </c>
       <c r="U124">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V124">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W124">
         <v>0</v>
@@ -11551,28 +11551,28 @@
         <v>2.625</v>
       </c>
       <c r="O125">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P125">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="Q125">
         <v>0</v>
       </c>
       <c r="R125">
-        <v>1.9</v>
+        <v>1.875</v>
       </c>
       <c r="S125">
-        <v>1.95</v>
+        <v>1.975</v>
       </c>
       <c r="T125">
         <v>2</v>
       </c>
       <c r="U125">
-        <v>1.825</v>
+        <v>1.85</v>
       </c>
       <c r="V125">
-        <v>2.025</v>
+        <v>2</v>
       </c>
       <c r="W125">
         <v>0</v>
@@ -11622,31 +11622,31 @@
         <v>2.05</v>
       </c>
       <c r="N126">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="O126">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="P126">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="Q126">
         <v>0.5</v>
       </c>
       <c r="R126">
-        <v>1.85</v>
+        <v>1.825</v>
       </c>
       <c r="S126">
-        <v>2</v>
+        <v>2.025</v>
       </c>
       <c r="T126">
         <v>2.5</v>
       </c>
       <c r="U126">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V126">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W126">
         <v>0</v>
@@ -11696,22 +11696,22 @@
         <v>4</v>
       </c>
       <c r="N127">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="O127">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="P127">
-        <v>5.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q127">
-        <v>-0.75</v>
+        <v>-0.5</v>
       </c>
       <c r="R127">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="S127">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="T127">
         <v>2</v>

--- a/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
+++ b/Republic of Ireland Premier Division/Republic of Ireland Premier Division.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="44">
   <si>
     <t>id</t>
   </si>
@@ -507,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AC127"/>
+  <dimension ref="A1:AC122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1494,7 +1494,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6053252</v>
+        <v>6053251</v>
       </c>
       <c r="C12" t="s">
         <v>28</v>
@@ -1506,76 +1506,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>1.666</v>
+      </c>
+      <c r="L12">
+        <v>3.5</v>
+      </c>
+      <c r="M12">
+        <v>5</v>
+      </c>
+      <c r="N12">
+        <v>1.85</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12">
+        <v>4.5</v>
+      </c>
+      <c r="Q12">
+        <v>-0.5</v>
+      </c>
+      <c r="R12">
+        <v>1.95</v>
+      </c>
+      <c r="S12">
+        <v>1.9</v>
+      </c>
+      <c r="T12">
         <v>2</v>
       </c>
-      <c r="I12">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12">
-        <v>3.3</v>
-      </c>
-      <c r="L12">
-        <v>3.3</v>
-      </c>
-      <c r="M12">
-        <v>2.05</v>
-      </c>
-      <c r="N12">
-        <v>3.2</v>
-      </c>
-      <c r="O12">
-        <v>3.25</v>
-      </c>
-      <c r="P12">
-        <v>2.15</v>
-      </c>
-      <c r="Q12">
-        <v>0.25</v>
-      </c>
-      <c r="R12">
-        <v>1.925</v>
-      </c>
-      <c r="S12">
-        <v>1.925</v>
-      </c>
-      <c r="T12">
-        <v>2.75</v>
-      </c>
       <c r="U12">
+        <v>1.875</v>
+      </c>
+      <c r="V12">
         <v>1.975</v>
       </c>
-      <c r="V12">
-        <v>1.875</v>
-      </c>
       <c r="W12">
-        <v>2.2</v>
+        <v>-1</v>
       </c>
       <c r="X12">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
         <v>-1</v>
       </c>
       <c r="Z12">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA12">
-        <v>-1</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB12">
-        <v>0.4875</v>
+        <v>-1</v>
       </c>
       <c r="AC12">
-        <v>-0.5</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:29">
@@ -1583,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6053251</v>
+        <v>6053252</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
@@ -1595,76 +1595,76 @@
         <v>45086.65625</v>
       </c>
       <c r="F13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G13" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K13">
-        <v>1.666</v>
+        <v>3.3</v>
       </c>
       <c r="L13">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="M13">
-        <v>5</v>
+        <v>2.05</v>
       </c>
       <c r="N13">
-        <v>1.85</v>
+        <v>3.2</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="P13">
-        <v>4.5</v>
+        <v>2.15</v>
       </c>
       <c r="Q13">
+        <v>0.25</v>
+      </c>
+      <c r="R13">
+        <v>1.925</v>
+      </c>
+      <c r="S13">
+        <v>1.925</v>
+      </c>
+      <c r="T13">
+        <v>2.75</v>
+      </c>
+      <c r="U13">
+        <v>1.975</v>
+      </c>
+      <c r="V13">
+        <v>1.875</v>
+      </c>
+      <c r="W13">
+        <v>2.2</v>
+      </c>
+      <c r="X13">
+        <v>-1</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
+        <v>0.925</v>
+      </c>
+      <c r="AA13">
+        <v>-1</v>
+      </c>
+      <c r="AB13">
+        <v>0.4875</v>
+      </c>
+      <c r="AC13">
         <v>-0.5</v>
-      </c>
-      <c r="R13">
-        <v>1.95</v>
-      </c>
-      <c r="S13">
-        <v>1.9</v>
-      </c>
-      <c r="T13">
-        <v>2</v>
-      </c>
-      <c r="U13">
-        <v>1.875</v>
-      </c>
-      <c r="V13">
-        <v>1.975</v>
-      </c>
-      <c r="W13">
-        <v>-1</v>
-      </c>
-      <c r="X13">
-        <v>2</v>
-      </c>
-      <c r="Y13">
-        <v>-1</v>
-      </c>
-      <c r="Z13">
-        <v>-1</v>
-      </c>
-      <c r="AA13">
-        <v>0.8999999999999999</v>
-      </c>
-      <c r="AB13">
-        <v>-1</v>
-      </c>
-      <c r="AC13">
-        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:29">
@@ -2028,7 +2028,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>6043238</v>
+        <v>6053255</v>
       </c>
       <c r="C18" t="s">
         <v>28</v>
@@ -2040,40 +2040,40 @@
         <v>45100.65625</v>
       </c>
       <c r="F18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
       </c>
       <c r="J18" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
+        <v>2.45</v>
+      </c>
+      <c r="L18">
         <v>3.25</v>
       </c>
-      <c r="L18">
-        <v>3.2</v>
-      </c>
       <c r="M18">
-        <v>2.1</v>
+        <v>2.625</v>
       </c>
       <c r="N18">
+        <v>2.5</v>
+      </c>
+      <c r="O18">
         <v>3.4</v>
       </c>
-      <c r="O18">
-        <v>3.1</v>
-      </c>
       <c r="P18">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="Q18">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="R18">
         <v>1.925</v>
@@ -2082,34 +2082,34 @@
         <v>1.925</v>
       </c>
       <c r="T18">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="U18">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V18">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W18">
         <v>-1</v>
       </c>
       <c r="X18">
-        <v>2.1</v>
+        <v>-1</v>
       </c>
       <c r="Y18">
-        <v>-1</v>
+        <v>1.5</v>
       </c>
       <c r="Z18">
-        <v>0.4625</v>
+        <v>-1</v>
       </c>
       <c r="AA18">
+        <v>0.925</v>
+      </c>
+      <c r="AB18">
+        <v>0.4875</v>
+      </c>
+      <c r="AC18">
         <v>-0.5</v>
-      </c>
-      <c r="AB18">
-        <v>1</v>
-      </c>
-      <c r="AC18">
-        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:29">
@@ -2117,7 +2117,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>6053257</v>
+        <v>6053256</v>
       </c>
       <c r="C19" t="s">
         <v>28</v>
@@ -2129,58 +2129,58 @@
         <v>45100.65625</v>
       </c>
       <c r="F19" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="G19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
       </c>
       <c r="K19">
-        <v>6</v>
+        <v>1.75</v>
       </c>
       <c r="L19">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="M19">
-        <v>1.5</v>
+        <v>4.2</v>
       </c>
       <c r="N19">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="O19">
-        <v>4</v>
+        <v>3.25</v>
       </c>
       <c r="P19">
-        <v>1.444</v>
+        <v>4.333</v>
       </c>
       <c r="Q19">
-        <v>1</v>
+        <v>-0.5</v>
       </c>
       <c r="R19">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="S19">
-        <v>1.775</v>
+        <v>2</v>
       </c>
       <c r="T19">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U19">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="V19">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="W19">
-        <v>5.5</v>
+        <v>0.8</v>
       </c>
       <c r="X19">
         <v>-1</v>
@@ -2189,16 +2189,16 @@
         <v>-1</v>
       </c>
       <c r="Z19">
-        <v>1.1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AA19">
         <v>-1</v>
       </c>
       <c r="AB19">
-        <v>0.95</v>
+        <v>-1</v>
       </c>
       <c r="AC19">
-        <v>-1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:29">
@@ -2206,7 +2206,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>6053256</v>
+        <v>6043238</v>
       </c>
       <c r="C20" t="s">
         <v>28</v>
@@ -2218,76 +2218,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K20">
-        <v>1.75</v>
+        <v>3.25</v>
       </c>
       <c r="L20">
-        <v>3.5</v>
+        <v>3.2</v>
       </c>
       <c r="M20">
-        <v>4.2</v>
+        <v>2.1</v>
       </c>
       <c r="N20">
-        <v>1.8</v>
+        <v>3.4</v>
       </c>
       <c r="O20">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="P20">
-        <v>4.333</v>
+        <v>2.1</v>
       </c>
       <c r="Q20">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R20">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="S20">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="T20">
         <v>2.25</v>
       </c>
       <c r="U20">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V20">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="W20">
-        <v>0.8</v>
+        <v>-1</v>
       </c>
       <c r="X20">
-        <v>-1</v>
+        <v>2.1</v>
       </c>
       <c r="Y20">
         <v>-1</v>
       </c>
       <c r="Z20">
-        <v>0.8500000000000001</v>
+        <v>0.4625</v>
       </c>
       <c r="AA20">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB20">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AC20">
-        <v>0.75</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" spans="1:29">
@@ -2295,7 +2295,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6053255</v>
+        <v>6053257</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -2307,76 +2307,76 @@
         <v>45100.65625</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H21">
+        <v>2</v>
+      </c>
+      <c r="I21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
       <c r="J21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K21">
-        <v>2.45</v>
+        <v>6</v>
       </c>
       <c r="L21">
-        <v>3.25</v>
+        <v>4</v>
       </c>
       <c r="M21">
-        <v>2.625</v>
+        <v>1.5</v>
       </c>
       <c r="N21">
+        <v>6.5</v>
+      </c>
+      <c r="O21">
+        <v>4</v>
+      </c>
+      <c r="P21">
+        <v>1.444</v>
+      </c>
+      <c r="Q21">
+        <v>1</v>
+      </c>
+      <c r="R21">
+        <v>2.1</v>
+      </c>
+      <c r="S21">
+        <v>1.775</v>
+      </c>
+      <c r="T21">
         <v>2.5</v>
       </c>
-      <c r="O21">
-        <v>3.4</v>
-      </c>
-      <c r="P21">
-        <v>2.5</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>1.925</v>
-      </c>
-      <c r="S21">
-        <v>1.925</v>
-      </c>
-      <c r="T21">
-        <v>2.75</v>
-      </c>
       <c r="U21">
-        <v>1.975</v>
+        <v>1.95</v>
       </c>
       <c r="V21">
-        <v>1.875</v>
+        <v>1.9</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>5.5</v>
       </c>
       <c r="X21">
         <v>-1</v>
       </c>
       <c r="Y21">
-        <v>1.5</v>
+        <v>-1</v>
       </c>
       <c r="Z21">
-        <v>-1</v>
+        <v>1.1</v>
       </c>
       <c r="AA21">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AB21">
-        <v>0.4875</v>
+        <v>0.95</v>
       </c>
       <c r="AC21">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" spans="1:29">
@@ -2740,7 +2740,7 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>6053260</v>
+        <v>6053262</v>
       </c>
       <c r="C26" t="s">
         <v>28</v>
@@ -2752,76 +2752,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F26" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I26">
         <v>1</v>
       </c>
       <c r="J26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K26">
-        <v>3.6</v>
+        <v>2.625</v>
       </c>
       <c r="L26">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M26">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="N26">
-        <v>3.5</v>
+        <v>2.7</v>
       </c>
       <c r="O26">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="P26">
+        <v>2.7</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>1.925</v>
+      </c>
+      <c r="S26">
+        <v>1.925</v>
+      </c>
+      <c r="T26">
         <v>2.25</v>
       </c>
-      <c r="Q26">
-        <v>0.25</v>
-      </c>
-      <c r="R26">
-        <v>1.85</v>
-      </c>
-      <c r="S26">
-        <v>2</v>
-      </c>
-      <c r="T26">
-        <v>2</v>
-      </c>
       <c r="U26">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V26">
-        <v>1.775</v>
+        <v>1.8</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>1.7</v>
       </c>
       <c r="X26">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y26">
         <v>-1</v>
       </c>
       <c r="Z26">
-        <v>0.425</v>
+        <v>0.925</v>
       </c>
       <c r="AA26">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AC26">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" spans="1:29">
@@ -2829,7 +2829,7 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>6053262</v>
+        <v>6053260</v>
       </c>
       <c r="C27" t="s">
         <v>28</v>
@@ -2841,76 +2841,76 @@
         <v>45107.65625</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27">
         <v>1</v>
       </c>
       <c r="J27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K27">
-        <v>2.625</v>
+        <v>3.6</v>
       </c>
       <c r="L27">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M27">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="N27">
-        <v>2.7</v>
+        <v>3.5</v>
       </c>
       <c r="O27">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="P27">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="R27">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="S27">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="T27">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="U27">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V27">
-        <v>1.8</v>
+        <v>1.775</v>
       </c>
       <c r="W27">
-        <v>1.7</v>
+        <v>-1</v>
       </c>
       <c r="X27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y27">
         <v>-1</v>
       </c>
       <c r="Z27">
-        <v>0.925</v>
+        <v>0.425</v>
       </c>
       <c r="AA27">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AB27">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="AC27">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="28" spans="1:29">
@@ -3007,7 +3007,7 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>6053265</v>
+        <v>6043241</v>
       </c>
       <c r="C29" t="s">
         <v>28</v>
@@ -3019,76 +3019,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F29" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="G29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
         <v>41</v>
       </c>
       <c r="K29">
-        <v>1.55</v>
+        <v>5.25</v>
       </c>
       <c r="L29">
+        <v>3.75</v>
+      </c>
+      <c r="M29">
+        <v>1.571</v>
+      </c>
+      <c r="N29">
         <v>3.8</v>
       </c>
-      <c r="M29">
-        <v>5.5</v>
-      </c>
-      <c r="N29">
-        <v>1.4</v>
-      </c>
       <c r="O29">
-        <v>4.333</v>
+        <v>3.25</v>
       </c>
       <c r="P29">
-        <v>7</v>
+        <v>1.909</v>
       </c>
       <c r="Q29">
-        <v>-1.25</v>
+        <v>0.5</v>
       </c>
       <c r="R29">
-        <v>2</v>
+        <v>1.925</v>
       </c>
       <c r="S29">
-        <v>1.85</v>
+        <v>1.925</v>
       </c>
       <c r="T29">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="U29">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="V29">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="W29">
         <v>-1</v>
       </c>
       <c r="X29">
-        <v>3.333</v>
+        <v>2.25</v>
       </c>
       <c r="Y29">
         <v>-1</v>
       </c>
       <c r="Z29">
-        <v>-1</v>
+        <v>0.925</v>
       </c>
       <c r="AA29">
-        <v>0.8500000000000001</v>
+        <v>-1</v>
       </c>
       <c r="AB29">
         <v>-1</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0.9750000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:29">
@@ -3096,7 +3096,7 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>6043241</v>
+        <v>6053265</v>
       </c>
       <c r="C30" t="s">
         <v>28</v>
@@ -3108,76 +3108,76 @@
         <v>45114.65625</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
         <v>41</v>
       </c>
       <c r="K30">
-        <v>5.25</v>
+        <v>1.55</v>
       </c>
       <c r="L30">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="M30">
-        <v>1.571</v>
+        <v>5.5</v>
       </c>
       <c r="N30">
-        <v>3.8</v>
+        <v>1.4</v>
       </c>
       <c r="O30">
-        <v>3.25</v>
+        <v>4.333</v>
       </c>
       <c r="P30">
-        <v>1.909</v>
+        <v>7</v>
       </c>
       <c r="Q30">
-        <v>0.5</v>
+        <v>-1.25</v>
       </c>
       <c r="R30">
-        <v>1.925</v>
+        <v>2</v>
       </c>
       <c r="S30">
-        <v>1.925</v>
+        <v>1.85</v>
       </c>
       <c r="T30">
-        <v>2.5</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="V30">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="W30">
         <v>-1</v>
       </c>
       <c r="X30">
-        <v>2.25</v>
+        <v>3.333</v>
       </c>
       <c r="Y30">
         <v>-1</v>
       </c>
       <c r="Z30">
-        <v>0.925</v>
+        <v>-1</v>
       </c>
       <c r="AA30">
-        <v>-1</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB30">
         <v>-1</v>
       </c>
       <c r="AC30">
-        <v>0.9750000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:29">
@@ -3185,7 +3185,7 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>6053266</v>
+        <v>6053264</v>
       </c>
       <c r="C31" t="s">
         <v>28</v>
@@ -3197,73 +3197,73 @@
         <v>45114.65625</v>
       </c>
       <c r="F31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K31">
-        <v>6.5</v>
+        <v>1.571</v>
       </c>
       <c r="L31">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="M31">
-        <v>1.444</v>
+        <v>5</v>
       </c>
       <c r="N31">
-        <v>10</v>
+        <v>1.666</v>
       </c>
       <c r="O31">
-        <v>5.25</v>
+        <v>3.6</v>
       </c>
       <c r="P31">
-        <v>1.25</v>
+        <v>4.5</v>
       </c>
       <c r="Q31">
-        <v>1.5</v>
+        <v>-0.75</v>
       </c>
       <c r="R31">
-        <v>1.9</v>
+        <v>1.925</v>
       </c>
       <c r="S31">
-        <v>1.95</v>
+        <v>1.925</v>
       </c>
       <c r="T31">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U31">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V31">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W31">
-        <v>-1</v>
+        <v>0.6659999999999999</v>
       </c>
       <c r="X31">
         <v>-1</v>
       </c>
       <c r="Y31">
-        <v>0.25</v>
+        <v>-1</v>
       </c>
       <c r="Z31">
-        <v>-1</v>
+        <v>0.4625</v>
       </c>
       <c r="AA31">
-        <v>0.95</v>
+        <v>-0.5</v>
       </c>
       <c r="AB31">
-        <v>0.9750000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="AC31">
         <v>-1</v>
@@ -3274,7 +3274,7 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6053264</v>
+        <v>6053263</v>
       </c>
       <c r="C32" t="s">
         <v>28</v>
@@ -3286,49 +3286,49 @@
         <v>45114.65625</v>
       </c>
       <c r="F32" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32">
         <v>2</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
       </c>
       <c r="J32" t="s">
         <v>42</v>
       </c>
       <c r="K32">
-        <v>1.571</v>
+        <v>2.2</v>
       </c>
       <c r="L32">
-        <v>3.8</v>
+        <v>3.25</v>
       </c>
       <c r="M32">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N32">
-        <v>1.666</v>
+        <v>2.1</v>
       </c>
       <c r="O32">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="P32">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="Q32">
-        <v>-0.75</v>
+        <v>-0.25</v>
       </c>
       <c r="R32">
-        <v>1.925</v>
+        <v>1.9</v>
       </c>
       <c r="S32">
-        <v>1.925</v>
+        <v>1.95</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U32">
         <v>2.05</v>
@@ -3337,7 +3337,7 @@
         <v>1.8</v>
       </c>
       <c r="W32">
-        <v>0.6659999999999999</v>
+        <v>1.1</v>
       </c>
       <c r="X32">
         <v>-1</v>
@@ -3346,10 +3346,10 @@
         <v>-1</v>
       </c>
       <c r="Z32">
-        <v>0.4625</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AA32">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AB32">
         <v>1.05</v>
@@ -3363,7 +3363,7 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6053263</v>
+        <v>6053266</v>
       </c>
       <c r="C33" t="s">
         <v>28</v>
@@ -3375,40 +3375,40 @@
         <v>45114.65625</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H33">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K33">
-        <v>2.2</v>
+        <v>6.5</v>
       </c>
       <c r="L33">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="M33">
-        <v>3</v>
+        <v>1.444</v>
       </c>
       <c r="N33">
-        <v>2.1</v>
+        <v>10</v>
       </c>
       <c r="O33">
-        <v>3.3</v>
+        <v>5.25</v>
       </c>
       <c r="P33">
-        <v>3</v>
+        <v>1.25</v>
       </c>
       <c r="Q33">
-        <v>-0.25</v>
+        <v>1.5</v>
       </c>
       <c r="R33">
         <v>1.9</v>
@@ -3420,28 +3420,28 @@
         <v>2.5</v>
       </c>
       <c r="U33">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V33">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W33">
-        <v>1.1</v>
+        <v>-1</v>
       </c>
       <c r="X33">
         <v>-1</v>
       </c>
       <c r="Y33">
-        <v>-1</v>
+        <v>0.25</v>
       </c>
       <c r="Z33">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AA33">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AB33">
-        <v>1.05</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC33">
         <v>-1</v>
@@ -3452,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>6053267</v>
+        <v>6053268</v>
       </c>
       <c r="C34" t="s">
         <v>28</v>
@@ -3464,76 +3464,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G34" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H34">
         <v>1</v>
       </c>
       <c r="I34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K34">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="L34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="M34">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="N34">
-        <v>2.5</v>
+        <v>7</v>
       </c>
       <c r="O34">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="P34">
-        <v>2.875</v>
+        <v>1.363</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="R34">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="S34">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="T34">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="U34">
-        <v>2.05</v>
+        <v>1.975</v>
       </c>
       <c r="V34">
-        <v>1.8</v>
+        <v>1.875</v>
       </c>
       <c r="W34">
         <v>-1</v>
       </c>
       <c r="X34">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="Y34">
-        <v>-1</v>
+        <v>0.363</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AA34">
-        <v>-0</v>
+        <v>0.8999999999999999</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>0.9750000000000001</v>
       </c>
       <c r="AC34">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35" spans="1:29">
@@ -3541,7 +3541,7 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>6053268</v>
+        <v>6053267</v>
       </c>
       <c r="C35" t="s">
         <v>28</v>
@@ -3553,76 +3553,76 @@
         <v>45121.65625</v>
       </c>
       <c r="F35" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H35">
         <v>1</v>
       </c>
       <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K35">
+        <v>2.4</v>
+      </c>
+      <c r="L35">
         <v>3</v>
       </c>
-      <c r="J35" t="s">
-        <v>43</v>
-      </c>
-      <c r="K35">
-        <v>6.5</v>
-      </c>
-      <c r="L35">
-        <v>4.5</v>
-      </c>
       <c r="M35">
-        <v>1.4</v>
+        <v>2.9</v>
       </c>
       <c r="N35">
-        <v>7</v>
+        <v>2.5</v>
       </c>
       <c r="O35">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="P35">
-        <v>1.363</v>
+        <v>2.875</v>
       </c>
       <c r="Q35">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="R35">
-        <v>1.95</v>
+        <v>1.8</v>
       </c>
       <c r="S35">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="T35">
-        <v>2.75</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.975</v>
+        <v>2.05</v>
       </c>
       <c r="V35">
-        <v>1.875</v>
+        <v>1.8</v>
       </c>
       <c r="W35">
         <v>-1</v>
       </c>
       <c r="X35">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="Y35">
-        <v>0.363</v>
+        <v>-1</v>
       </c>
       <c r="Z35">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AA35">
-        <v>0.8999999999999999</v>
+        <v>-0</v>
       </c>
       <c r="AB35">
-        <v>0.9750000000000001</v>
+        <v>0</v>
       </c>
       <c r="AC35">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="36" spans="1:29">
@@ -3719,7 +3719,7 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>6053271</v>
+        <v>6053270</v>
       </c>
       <c r="C37" t="s">
         <v>28</v>
@@ -3731,76 +3731,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F37" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K37">
-        <v>2.625</v>
+        <v>1.222</v>
       </c>
       <c r="L37">
-        <v>3.2</v>
+        <v>6</v>
       </c>
       <c r="M37">
-        <v>2.45</v>
+        <v>10</v>
       </c>
       <c r="N37">
-        <v>3.2</v>
+        <v>1.125</v>
       </c>
       <c r="O37">
-        <v>3.1</v>
+        <v>7.5</v>
       </c>
       <c r="P37">
-        <v>2.2</v>
+        <v>17</v>
       </c>
       <c r="Q37">
-        <v>0.25</v>
+        <v>-2.25</v>
       </c>
       <c r="R37">
-        <v>1.825</v>
+        <v>1.925</v>
       </c>
       <c r="S37">
-        <v>2.025</v>
+        <v>1.925</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="U37">
-        <v>1.9</v>
+        <v>1.975</v>
       </c>
       <c r="V37">
-        <v>1.95</v>
+        <v>1.875</v>
       </c>
       <c r="W37">
-        <v>-1</v>
+        <v>0.125</v>
       </c>
       <c r="X37">
         <v>-1</v>
       </c>
       <c r="Y37">
-        <v>1.2</v>
+        <v>-1</v>
       </c>
       <c r="Z37">
-        <v>-1</v>
+        <v>-0.5</v>
       </c>
       <c r="AA37">
-        <v>1.025</v>
+        <v>0.4625</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC37">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="38" spans="1:29">
@@ -3808,7 +3808,7 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>6053270</v>
+        <v>6053271</v>
       </c>
       <c r="C38" t="s">
         <v>28</v>
@@ -3820,76 +3820,76 @@
         <v>45135.65625</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G38" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
         <v>2</v>
       </c>
-      <c r="I38">
-        <v>0</v>
-      </c>
       <c r="J38" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K38">
-        <v>1.222</v>
+        <v>2.625</v>
       </c>
       <c r="L38">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="M38">
-        <v>10</v>
+        <v>2.45</v>
       </c>
       <c r="N38">
-        <v>1.125</v>
+        <v>3.2</v>
       </c>
       <c r="O38">
-        <v>7.5</v>
+        <v>3.1</v>
       </c>
       <c r="P38">
-        <v>17</v>
+        <v>2.2</v>
       </c>
       <c r="Q38">
-        <v>-2.25</v>
+        <v>0.25</v>
       </c>
       <c r="R38">
-        <v>1.925</v>
+        <v>1.825</v>
       </c>
       <c r="S38">
-        <v>1.925</v>
+        <v>2.025</v>
       </c>
       <c r="T38">
-        <v>3.5</v>
+        <v>2</v>
       </c>
       <c r="U38">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V38">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W38">
-        <v>0.125</v>
+        <v>-1</v>
       </c>
       <c r="X38">
         <v>-1</v>
       </c>
       <c r="Y38">
-        <v>-1</v>
+        <v>1.2</v>
       </c>
       <c r="Z38">
-        <v>-0.5</v>
+        <v>-1</v>
       </c>
       <c r="AA38">
-        <v>0.4625</v>
+        <v>1.025</v>
       </c>
       <c r="AB38">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="39" spans="1:29">
@@ -4342,7 +4342,7 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>6043243</v>
+        <v>6053277</v>
       </c>
       <c r="C44" t="s">
         <v>28</v>
@@ -4354,10 +4354,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H44">
         <v>1</v>
@@ -4369,61 +4369,61 @@
         <v>41</v>
       </c>
       <c r="K44">
+        <v>1.363</v>
+      </c>
+      <c r="L44">
+        <v>4.5</v>
+      </c>
+      <c r="M44">
+        <v>6.5</v>
+      </c>
+      <c r="N44">
+        <v>1.3</v>
+      </c>
+      <c r="O44">
+        <v>4.75</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>-1.5</v>
+      </c>
+      <c r="R44">
+        <v>2</v>
+      </c>
+      <c r="S44">
+        <v>1.85</v>
+      </c>
+      <c r="T44">
+        <v>2.75</v>
+      </c>
+      <c r="U44">
+        <v>1.975</v>
+      </c>
+      <c r="V44">
+        <v>1.875</v>
+      </c>
+      <c r="W44">
+        <v>-1</v>
+      </c>
+      <c r="X44">
         <v>3.75</v>
       </c>
-      <c r="L44">
-        <v>3.4</v>
-      </c>
-      <c r="M44">
-        <v>1.8</v>
-      </c>
-      <c r="N44">
-        <v>3.25</v>
-      </c>
-      <c r="O44">
-        <v>3.1</v>
-      </c>
-      <c r="P44">
-        <v>2.05</v>
-      </c>
-      <c r="Q44">
-        <v>0.25</v>
-      </c>
-      <c r="R44">
-        <v>1.95</v>
-      </c>
-      <c r="S44">
-        <v>1.9</v>
-      </c>
-      <c r="T44">
-        <v>2</v>
-      </c>
-      <c r="U44">
-        <v>1.9</v>
-      </c>
-      <c r="V44">
-        <v>1.95</v>
-      </c>
-      <c r="W44">
-        <v>-1</v>
-      </c>
-      <c r="X44">
-        <v>2.1</v>
-      </c>
       <c r="Y44">
         <v>-1</v>
       </c>
       <c r="Z44">
-        <v>0.475</v>
+        <v>-1</v>
       </c>
       <c r="AA44">
-        <v>-0.5</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AB44">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AC44">
-        <v>-0</v>
+        <v>0.875</v>
       </c>
     </row>
     <row r="45" spans="1:29">
@@ -4431,7 +4431,7 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>6053277</v>
+        <v>6043243</v>
       </c>
       <c r="C45" t="s">
         <v>28</v>
@@ -4443,10 +4443,10 @@
         <v>45149.65625</v>
       </c>
       <c r="F45" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H45">
         <v>1</v>
@@ -4458,61 +4458,61 @@
         <v>41</v>
       </c>
       <c r="K45">
-        <v>1.363</v>
+        <v>3.75</v>
       </c>
       <c r="L45">
-        <v>4.5</v>
+        <v>3.4</v>
       </c>
       <c r="M45">
-        <v>6.5</v>
+        <v>1.8</v>
       </c>
       <c r="N45">
-        <v>1.3</v>
+        <v>3.25</v>
       </c>
       <c r="O45">
-        <v>4.75</v>
+        <v>3.1</v>
       </c>
       <c r="P45">
-        <v>7</v>
+        <v>2.05</v>
       </c>
       <c r="Q45">
-        <v>-1.5</v>
+        <v>0.25</v>
       </c>
       <c r="R45">
+        <v>1.95</v>
+      </c>
+      <c r="S45">
+        <v>1.9</v>
+      </c>
+      <c r="T45">
         <v>2</v>
       </c>
-      <c r="S45">
-        <v>1.85</v>
-      </c>
-      <c r="T45">
-        <v>2.75</v>
-      </c>
       <c r="U45">
-        <v>1.975</v>
+        <v>1.9</v>
       </c>
       <c r="V45">
-        <v>1.875</v>
+        <v>1.95</v>
       </c>
       <c r="W45">
         <v>-1</v>
       </c>
       <c r="X45">
-        <v>3.75</v>
+        <v>2.1</v>
       </c>
       <c r="Y45">
         <v>-1</v>
       </c>
       <c r="Z45">
-        <v>-1</v>
+        <v>0.475</v>
       </c>
       <c r="AA45">
-        <v>0.8500000000000001</v>
+        <v>-0.5</v>
       </c>
       <c r="AB45">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AC45">
-        <v>0.875</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="46" spans="1:29">
@@ -5232,7 +5232,7 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>6053287</v>
+        <v>6043245</v>
       </c>
       <c r="C54" t="s">
         <v>28</v>
@@ -5244,40 +5244,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G54" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J54" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K54">
-        <v>3</v>
+        <v>1.615</v>
       </c>
       <c r="L54">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M54">
-        <v>2.2</v>
+        <v>5</v>
       </c>
       <c r="N54">
-        <v>3.4</v>
+        <v>1.909</v>
       </c>
       <c r="O54">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="P54">
-        <v>2.15</v>
+        <v>4</v>
       </c>
       <c r="Q54">
-        <v>0.25</v>
+        <v>-0.5</v>
       </c>
       <c r="R54">
         <v>1.95</v>
@@ -5286,31 +5286,31 @@
         <v>1.9</v>
       </c>
       <c r="T54">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="U54">
-        <v>1.975</v>
+        <v>2.025</v>
       </c>
       <c r="V54">
-        <v>1.875</v>
+        <v>1.825</v>
       </c>
       <c r="W54">
-        <v>-1</v>
+        <v>0.909</v>
       </c>
       <c r="X54">
         <v>-1</v>
       </c>
       <c r="Y54">
-        <v>1.15</v>
+        <v>-1</v>
       </c>
       <c r="Z54">
-        <v>-1</v>
+        <v>0.95</v>
       </c>
       <c r="AA54">
-        <v>0.8999999999999999</v>
+        <v>-1</v>
       </c>
       <c r="AB54">
-        <v>0.9750000000000001</v>
+        <v>1.025</v>
       </c>
       <c r="AC54">
         <v>-1</v>
@@ -5321,7 +5321,7 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>6053286</v>
+        <v>6053288</v>
       </c>
       <c r="C55" t="s">
         <v>28</v>
@@ -5333,58 +5333,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F55" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="G55" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" t="s">
         <v>42</v>
       </c>
       <c r="K55">
-        <v>1.25</v>
+        <v>2.8</v>
       </c>
       <c r="L55">
-        <v>5.5</v>
+        <v>3</v>
       </c>
       <c r="M55">
-        <v>11</v>
+        <v>2.5</v>
       </c>
       <c r="N55">
-        <v>1.3</v>
+        <v>2.375</v>
       </c>
       <c r="O55">
-        <v>5.25</v>
+        <v>3</v>
       </c>
       <c r="P55">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="Q55">
-        <v>-1.5</v>
+        <v>-0.25</v>
       </c>
       <c r="R55">
-        <v>1.925</v>
+        <v>2.1</v>
       </c>
       <c r="S55">
-        <v>1.925</v>
+        <v>1.775</v>
       </c>
       <c r="T55">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="U55">
-        <v>1.975</v>
+        <v>2</v>
       </c>
       <c r="V55">
-        <v>1.875</v>
+        <v>1.85</v>
       </c>
       <c r="W55">
-        <v>0.3</v>
+        <v>1.375</v>
       </c>
       <c r="X55">
         <v>-1</v>
@@ -5393,16 +5393,16 @@
         <v>-1</v>
       </c>
       <c r="Z55">
-        <v>0.925</v>
+        <v>1.1</v>
       </c>
       <c r="AA55">
         <v>-1</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55">
-        <v>-0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:29">
@@ -5499,7 +5499,7 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>6053288</v>
+        <v>6053286</v>
       </c>
       <c r="C57" t="s">
         <v>28</v>
@@ -5511,58 +5511,58 @@
         <v>45170.65625</v>
       </c>
       <c r="F57" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J57" t="s">
         <v>42</v>
       </c>
       <c r="K57">
-        <v>2.8</v>
+        <v>1.25</v>
       </c>
       <c r="L57">
+        <v>5.5</v>
+      </c>
+      <c r="M57">
+        <v>11</v>
+      </c>
+      <c r="N57">
+        <v>1.3</v>
+      </c>
+      <c r="O57">
+        <v>5.25</v>
+      </c>
+      <c r="P57">
+        <v>9</v>
+      </c>
+      <c r="Q57">
+        <v>-1.5</v>
+      </c>
+      <c r="R57">
+        <v>1.925</v>
+      </c>
+      <c r="S57">
+        <v>1.925</v>
+      </c>
+      <c r="T57">
         <v>3</v>
       </c>
-      <c r="M57">
-        <v>2.5</v>
-      </c>
-      <c r="N57">
-        <v>2.375</v>
-      </c>
-      <c r="O57">
-        <v>3</v>
-      </c>
-      <c r="P57">
-        <v>3</v>
-      </c>
-      <c r="Q57">
-        <v>-0.25</v>
-      </c>
-      <c r="R57">
-        <v>2.1</v>
-      </c>
-      <c r="S57">
-        <v>1.775</v>
-      </c>
-      <c r="T57">
-        <v>2.25</v>
-      </c>
       <c r="U57">
-        <v>2</v>
+        <v>1.975</v>
       </c>
       <c r="V57">
-        <v>1.85</v>
+        <v>1.875</v>
       </c>
       <c r="W57">
-        <v>1.375</v>
+        <v>0.3</v>
       </c>
       <c r="X57">
         <v>-1</v>
@@ -5571,16 +5571,16 @@
         <v>-1</v>
       </c>
       <c r="Z57">
-        <v>1.1</v>
+        <v>0.925</v>
       </c>
       <c r="AA57">
         <v>-1</v>
       </c>
       <c r="AB57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC57">
-        <v>-1</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="58" spans="1:29">
@@ -5588,7 +5588,7 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>6043245</v>
+        <v>6053287</v>
       </c>
       <c r="C58" t="s">
         <v>28</v>
@@ -5600,40 +5600,40 @@
         <v>45170.65625</v>
       </c>
       <c r="F58" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G58" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H58">
+        <v>1</v>
+      </c>
+      <c r="I58">
         <v>3</v>
       </c>
-      <c r="I58">
-        <v>0</v>
-      </c>
       <c r="J58" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K58">
-        <v>1.615</v>
+        <v>3</v>
       </c>
       <c r="L58">
-        <v>3.75</v>
+        <v>3.25</v>
       </c>
       <c r="M58">
-        <v>5</v>
+        <v>2.2</v>
       </c>
       <c r="N58">
-        <v>1.909</v>
+        <v>3.4</v>
       </c>
       <c r="O58">
-        <v>3.3</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>4</v>
+        <v>2.15</v>
       </c>
       <c r="Q58">
-        <v>-0.5</v>
+        <v>0.25</v>
       </c>
       <c r="R58">
         <v>1.95</v>
@@ -5642,31 +5642,31 @@
         <v>1.9</v>
       </c>
       <c r="T58">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U58">
-        <v>2.025</v>
+        <v>1.975</v>
       </c>
       <c r="V58">
-        <v>1.825</v>
+        <v>1.875</v>
       </c>
       <c r="W58">
-        <v>0.909</v>
+        <v>-1</v>
       </c>
       <c r="X58">
         <v>-1</v>
       </c>
       <c r="Y58">
-        <v>-1</v>
+        <v>1.15</v>
       </c>
       <c r="Z58">
-        <v>0.95</v>
+    